--- a/OUTPUT_DF/resultSummary_df.xlsx
+++ b/OUTPUT_DF/resultSummary_df.xlsx
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11118.94761169731</v>
+        <v>11198.96139126652</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02052192567719963</v>
+        <v>0.02066960483666826</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-2768.108245409946</v>
+        <v>-2783.238213344193</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.005109018736538033</v>
+        <v>-0.0051369436884569</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>527578.5833269905</v>
+        <v>527649.5159886563</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9737368008217493</v>
+        <v>0.9738677192199313</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5878.777306722093</v>
+        <v>5742.960833421256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01085029223758905</v>
+        <v>0.01059961963185728</v>
       </c>
       <c r="H9" t="n">
-        <v>9.67269399903762</v>
+        <v>9.449227261359821</v>
       </c>
       <c r="I9" t="n">
         <v>19.10838302316964</v>
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12005.35824681103</v>
+        <v>12091.48351971617</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02051583217338638</v>
+        <v>0.02066301075885494</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>569535.382976478</v>
+        <v>569591.102804714</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9732731080352809</v>
+        <v>0.9733683270717577</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3634.558776711044</v>
+        <v>3492.713675569882</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006211059791332688</v>
+        <v>0.00596866216938733</v>
       </c>
       <c r="H20" t="n">
-        <v>26.63961474531174</v>
+        <v>25.59995654192186</v>
       </c>
       <c r="I20" t="n">
         <v>19.10838302316964</v>
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10868.03798105909</v>
+        <v>10943.23908144493</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02046344221283655</v>
+        <v>0.02060503845815418</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11905.58105919075</v>
+        <v>11720.9568380855</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02241703336329798</v>
+        <v>0.02206940418807227</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7363413812643066</v>
+        <v>0.7249226648398326</v>
       </c>
       <c r="I27" t="n">
         <v>19.10838302316964</v>
@@ -1276,13 +1276,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>481.41197844294</v>
+        <v>903.7744478758395</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0009064512121326249</v>
+        <v>0.001701718030409682</v>
       </c>
       <c r="H28" t="n">
-        <v>1.226533930137278</v>
+        <v>2.302622442208694</v>
       </c>
       <c r="I28" t="n">
         <v>19.10838302316964</v>
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-8260.861787843478</v>
+        <v>-8303.818058878143</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01555438692047073</v>
+        <v>-0.01563526933655437</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>514676.2643611576</v>
+        <v>514513.2881948613</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9690845774028836</v>
+        <v>0.9687777093769446</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1424.866407993067</v>
+        <v>1317.859496610601</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00268288272932008</v>
+        <v>0.00248139928297351</v>
       </c>
       <c r="H31" t="n">
-        <v>10.81866167093665</v>
+        <v>10.00618439994155</v>
       </c>
       <c r="I31" t="n">
         <v>19.10838302316964</v>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12166.98640703486</v>
+        <v>12253.38130700273</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02002836337953595</v>
+        <v>0.0201705800626823</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6372.909326115097</v>
+        <v>6178.418802141616</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01049059639735168</v>
+        <v>0.0101704409572367</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12378.23938005848</v>
+        <v>12444.39792173424</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02037611188250774</v>
+        <v>0.02048501701883436</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>568143.4852977257</v>
+        <v>568137.1377057733</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9352343953207383</v>
+        <v>0.9352239463998673</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5718.37987668921</v>
+        <v>5536.407667037442</v>
       </c>
       <c r="G42" t="n">
-        <v>0.009413160028381161</v>
+        <v>0.009113611280814926</v>
       </c>
       <c r="H42" t="n">
-        <v>16.86676766276696</v>
+        <v>16.33002770364174</v>
       </c>
       <c r="I42" t="n">
         <v>19.10838302316964</v>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2707.799712376787</v>
+        <v>2938.056596310642</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004457372991485239</v>
+        <v>0.004836404280564386</v>
       </c>
       <c r="H43" t="n">
-        <v>5.401066196319818</v>
+        <v>5.860344135748165</v>
       </c>
       <c r="I43" t="n">
         <v>19.10838302316964</v>
@@ -1853,10 +1853,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>13163.59032365329</v>
+        <v>13254.11306869443</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01965425460316146</v>
+        <v>0.01978941203625314</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3174.891236435532</v>
+        <v>3011.649756321197</v>
       </c>
       <c r="G49" t="n">
-        <v>0.004740357240237488</v>
+        <v>0.004496625132728871</v>
       </c>
       <c r="H49" t="n">
-        <v>2.867401054128077</v>
+        <v>2.719969612450476</v>
       </c>
       <c r="I49" t="n">
         <v>19.10838302316964</v>
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>20240.35075048614</v>
+        <v>20343.78829437119</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03022040318229386</v>
+        <v>0.03037484340514017</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>623315.7182871861</v>
+        <v>623039.5894496408</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9306583936569102</v>
+        <v>0.9302461120268263</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2035,13 +2035,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4993.651861877042</v>
+        <v>4821.952908664391</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007455906988880222</v>
+        <v>0.007199547222390526</v>
       </c>
       <c r="H53" t="n">
-        <v>19.18002260526381</v>
+        <v>18.52054735648647</v>
       </c>
       <c r="I53" t="n">
         <v>19.10838302316964</v>
@@ -2066,13 +2066,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4869.597540361915</v>
+        <v>5286.706522308081</v>
       </c>
       <c r="G54" t="n">
-        <v>0.007270684328516838</v>
+        <v>0.007893460176660995</v>
       </c>
       <c r="H54" t="n">
-        <v>9.698096754651562</v>
+        <v>10.52879441100192</v>
       </c>
       <c r="I54" t="n">
         <v>19.10838302316964</v>
@@ -2186,10 +2186,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12181.50247109526</v>
+        <v>12268.98692520895</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01974657868866998</v>
+        <v>0.01988839359707643</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>13868.21641345807</v>
+        <v>13628.82673217685</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02248079227744326</v>
+        <v>0.02209273446684953</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9294756646098004</v>
+        <v>0.91343128828368</v>
       </c>
       <c r="I60" t="n">
         <v>19.10838302316964</v>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1519.708618568285</v>
+        <v>1527.981631352102</v>
       </c>
       <c r="G62" t="n">
-        <v>0.002463492979754772</v>
+        <v>0.002476903780131463</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>578673.996492849</v>
+        <v>578712.8693479957</v>
       </c>
       <c r="G63" t="n">
-        <v>0.938047801077675</v>
+        <v>0.9381108151348353</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7802.22508490602</v>
+        <v>7610.50466935332</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01264763948054751</v>
+        <v>0.01233685497092573</v>
       </c>
       <c r="H64" t="n">
-        <v>19.78578988405814</v>
+        <v>19.29960295439002</v>
       </c>
       <c r="I64" t="n">
         <v>19.10838302316964</v>
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2846.150919123409</v>
+        <v>3142.63069391301</v>
       </c>
       <c r="G65" t="n">
-        <v>0.004613695495909345</v>
+        <v>0.005094298050181588</v>
       </c>
       <c r="H65" t="n">
-        <v>11.58925103550514</v>
+        <v>12.79648797923157</v>
       </c>
       <c r="I65" t="n">
         <v>19.10838302316964</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>11908.58931576572</v>
+        <v>11993.43256651228</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0196853366967658</v>
+        <v>0.01982558571477359</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>8092.003880291123</v>
+        <v>7889.97037921223</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01337638041847474</v>
+        <v>0.01304241160090043</v>
       </c>
       <c r="H71" t="n">
-        <v>3.344881530590264</v>
+        <v>3.261369691456672</v>
       </c>
       <c r="I71" t="n">
         <v>19.10838302316964</v>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8281.288796886502</v>
+        <v>8325.801283701154</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01368927535640549</v>
+        <v>0.01376285613637216</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>564527.3671804587</v>
+        <v>564511.7692012229</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9331845278074825</v>
+        <v>0.933158743773379</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2701,13 +2701,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>9278.020644073078</v>
+        <v>9075.057561471431</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01533690980646423</v>
+        <v>0.01500140435639909</v>
       </c>
       <c r="H75" t="n">
-        <v>23.00475336189742</v>
+        <v>22.50150856045327</v>
       </c>
       <c r="I75" t="n">
         <v>19.10838302316964</v>
@@ -2732,13 +2732,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2859.930182524863</v>
+        <v>3151.169007879857</v>
       </c>
       <c r="G76" t="n">
-        <v>0.004727569914407179</v>
+        <v>0.005208998418175765</v>
       </c>
       <c r="H76" t="n">
-        <v>8.30876240411367</v>
+        <v>9.154878934340108</v>
       </c>
       <c r="I76" t="n">
         <v>19.10838302316964</v>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>10523.89608773798</v>
+        <v>10601.5058611217</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01989657251069278</v>
+        <v>0.02004330224564967</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2421.775181364735</v>
+        <v>2284.772721700498</v>
       </c>
       <c r="G82" t="n">
-        <v>0.00457862991984146</v>
+        <v>0.004319611838502852</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>7264.336321804687</v>
+        <v>7305.196900744926</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01373401952697471</v>
+        <v>0.01381127090469029</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>502512.947585283</v>
+        <v>502704.8029643353</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9500554942614969</v>
+        <v>0.9504182177651364</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>6207.144823809637</v>
+        <v>6033.821552097556</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0117352837809942</v>
+        <v>0.01140759724602089</v>
       </c>
       <c r="H86" t="n">
-        <v>26.18543540070986</v>
+        <v>25.45425456577151</v>
       </c>
       <c r="I86" t="n">
         <v>19.10838302316964</v>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>9775.616157153619</v>
+        <v>9846.209568407205</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01988792291653034</v>
+        <v>0.02003154110886279</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6975.928191410831</v>
+        <v>7014.096020106786</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01419212046705665</v>
+        <v>0.01426977069623847</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>466637.8516730577</v>
+        <v>466697.4515051228</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9493475884093321</v>
+        <v>0.9494688408037485</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>8145.90397837799</v>
+        <v>7977.542906363235</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01657236820708093</v>
+        <v>0.01622984739115021</v>
       </c>
       <c r="H97" t="n">
-        <v>17.03855671075217</v>
+        <v>16.68640062334668</v>
       </c>
       <c r="I97" t="n">
         <v>19.10838302316964</v>
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10151.91872834858</v>
+        <v>10231.75488400776</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02183312564244698</v>
+        <v>0.02200482449701418</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>516.1554171194764</v>
+        <v>519.3176653893058</v>
       </c>
       <c r="G106" t="n">
-        <v>0.001110064646354033</v>
+        <v>0.001116865504953797</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>445200.529882663</v>
+        <v>445288.6107004462</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9574662056611369</v>
+        <v>0.9576556358184115</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -3692,13 +3692,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>9109.195971868925</v>
+        <v>8938.116750156758</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01959060405006201</v>
+        <v>0.01922267417962053</v>
       </c>
       <c r="H108" t="n">
-        <v>20.46714378860082</v>
+        <v>20.08275168189478</v>
       </c>
       <c r="I108" t="n">
         <v>19.10838302316964</v>
@@ -3841,10 +3841,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>9925.369591155664</v>
+        <v>10002.69494246117</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02179019271726574</v>
+        <v>0.02195995307645464</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1572.748959076786</v>
+        <v>1582.265676881385</v>
       </c>
       <c r="G117" t="n">
-        <v>0.003452818819432189</v>
+        <v>0.003473711856521995</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -3990,10 +3990,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>434771.6705842345</v>
+        <v>434808.146917925</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9544993164264591</v>
+        <v>0.9545793967029099</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6904.056616640931</v>
+        <v>6735.506948924414</v>
       </c>
       <c r="G119" t="n">
-        <v>0.01515719115805771</v>
+        <v>0.01478715660083108</v>
       </c>
       <c r="H119" t="n">
-        <v>26.43720581875931</v>
+        <v>25.79179073838979</v>
       </c>
       <c r="I119" t="n">
         <v>19.10838302316964</v>
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2323.254248892137</v>
+        <v>2368.485513808007</v>
       </c>
       <c r="G122" t="n">
-        <v>0.00510048087878526</v>
+        <v>0.005199781763282372</v>
       </c>
       <c r="H122" t="n">
-        <v>5.618600748499561</v>
+        <v>5.727988870369165</v>
       </c>
       <c r="I122" t="n">
         <v>19.10838302316964</v>
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>9412.492464578127</v>
+        <v>9485.382399446249</v>
       </c>
       <c r="G124" t="n">
-        <v>0.02166741127709522</v>
+        <v>0.02183520277362941</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4531.903963061704</v>
+        <v>4559.085314894458</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01043237244603275</v>
+        <v>0.01049494349524677</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>410939.5827001899</v>
+        <v>410946.0655048155</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9459765287367996</v>
+        <v>0.9459914520522318</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4352,13 +4352,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>6875.55384219464</v>
+        <v>6714.312730404198</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01582741802102688</v>
+        <v>0.01545624348919195</v>
       </c>
       <c r="H130" t="n">
-        <v>19.26234001599286</v>
+        <v>18.81061188017291</v>
       </c>
       <c r="I130" t="n">
         <v>19.10838302316964</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2648.267029975624</v>
+        <v>2702.954050439584</v>
       </c>
       <c r="G133" t="n">
-        <v>0.006096269519045523</v>
+        <v>0.006222158189700055</v>
       </c>
       <c r="H133" t="n">
-        <v>9.687516895575898</v>
+        <v>9.887565239914572</v>
       </c>
       <c r="I133" t="n">
         <v>19.10838302316964</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>12674.8963983857</v>
+        <v>12766.44287374981</v>
       </c>
       <c r="G135" t="n">
-        <v>0.02019428800235307</v>
+        <v>0.02034014449151055</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>67112.7910592043</v>
+        <v>67473.71133295196</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1069275036807347</v>
+        <v>0.1075025401721475</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -4652,10 +4652,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>529701.5090224775</v>
+        <v>529295.6400421665</v>
       </c>
       <c r="G140" t="n">
-        <v>0.8439473185629605</v>
+        <v>0.8433006675117797</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -4683,13 +4683,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10175.72816776026</v>
+        <v>9957.668039184407</v>
       </c>
       <c r="G141" t="n">
-        <v>0.016212486382104</v>
+        <v>0.01586506192198362</v>
       </c>
       <c r="H141" t="n">
-        <v>24.07350642184217</v>
+        <v>23.55762472580293</v>
       </c>
       <c r="I141" t="n">
         <v>19.10838302316964</v>
@@ -4772,13 +4772,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>7982.67535217221</v>
+        <v>8154.13771194736</v>
       </c>
       <c r="G144" t="n">
-        <v>0.01271840337184785</v>
+        <v>0.01299158590257871</v>
       </c>
       <c r="H144" t="n">
-        <v>12.84258607796027</v>
+        <v>13.1184359675519</v>
       </c>
       <c r="I144" t="n">
         <v>19.10838302316964</v>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>13166.30936390347</v>
+        <v>13253.43316819965</v>
       </c>
       <c r="G146" t="n">
-        <v>0.02167867895201128</v>
+        <v>0.02182213061566373</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -4952,10 +4952,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>65850.58579057462</v>
+        <v>66165.32432928809</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1084247429328601</v>
+        <v>0.1089429683175151</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>520339.6015395251</v>
+        <v>520086.5135122899</v>
       </c>
       <c r="G151" t="n">
-        <v>0.8567530092159803</v>
+        <v>0.8563362930400661</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5014,13 +5014,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5436.439844444543</v>
+        <v>5233.577518567603</v>
       </c>
       <c r="G152" t="n">
-        <v>0.008951242962036437</v>
+        <v>0.008617224740787485</v>
       </c>
       <c r="H152" t="n">
-        <v>40.79001972328039</v>
+        <v>39.26792833435666</v>
       </c>
       <c r="I152" t="n">
         <v>19.10838302316964</v>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2546.163461552179</v>
+        <v>2600.251471654661</v>
       </c>
       <c r="G155" t="n">
-        <v>0.004192325937111868</v>
+        <v>0.004281383285967693</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5165,10 +5165,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>10926.35999566121</v>
+        <v>11000.54378237489</v>
       </c>
       <c r="G157" t="n">
-        <v>0.02238538469727093</v>
+        <v>0.02253736876191326</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5283,10 +5283,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>33980.35847092971</v>
+        <v>34149.9506532829</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06961727389771021</v>
+        <v>0.06996472595357632</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>439848.138544788</v>
+        <v>439752.6524540842</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9011390612805591</v>
+        <v>0.9009434341115391</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3347.542988621125</v>
+        <v>3199.253110258099</v>
       </c>
       <c r="G163" t="n">
-        <v>0.006858280124459796</v>
+        <v>0.006554471172971282</v>
       </c>
       <c r="H163" t="n">
-        <v>16.3788103745816</v>
+        <v>15.65325978227144</v>
       </c>
       <c r="I163" t="n">
         <v>19.10838302316964</v>
@@ -5494,10 +5494,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>10403.74739722575</v>
+        <v>10473.17876528191</v>
       </c>
       <c r="G168" t="n">
-        <v>0.02192702279741933</v>
+        <v>0.02207335691455</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>47013.94700713188</v>
+        <v>47241.78002252835</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09908697784193968</v>
+        <v>0.09956716056186378</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>413864.3136024565</v>
+        <v>413699.6064348407</v>
       </c>
       <c r="G173" t="n">
-        <v>0.8722638000437466</v>
+        <v>0.8719166618750349</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3189.491993185833</v>
+        <v>3056.934777349093</v>
       </c>
       <c r="G174" t="n">
-        <v>0.00672219931689434</v>
+        <v>0.006442820648551268</v>
       </c>
       <c r="H174" t="n">
-        <v>12.95142414479501</v>
+        <v>12.41315512595984</v>
       </c>
       <c r="I174" t="n">
         <v>19.10838302316964</v>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10525.96039104916</v>
+        <v>10594.24017248264</v>
       </c>
       <c r="G179" t="n">
-        <v>0.02203871758520649</v>
+        <v>0.02218167829984796</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5941,10 +5941,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>47177.89261939571</v>
+        <v>47397.75535042996</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09877865896096397</v>
+        <v>0.0992389963037585</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>419908.3469895551</v>
+        <v>419620.2044770874</v>
       </c>
       <c r="G184" t="n">
-        <v>0.8791826234538296</v>
+        <v>0.8785793253963936</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6152,10 +6152,10 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>10231.27809696437</v>
+        <v>10300.2709035723</v>
       </c>
       <c r="G190" t="n">
-        <v>0.02321072454912476</v>
+        <v>0.02336724194752514</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -6270,10 +6270,10 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10437.07269480987</v>
+        <v>10489.13146654401</v>
       </c>
       <c r="G194" t="n">
-        <v>0.02367759112034101</v>
+        <v>0.02379569188933931</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6301,10 +6301,10 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>420131.2492082257</v>
+        <v>420010.1976298837</v>
       </c>
       <c r="G195" t="n">
-        <v>0.9531116843305343</v>
+        <v>0.9528370661631356</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>10889.22891189986</v>
+        <v>10961.86369188636</v>
       </c>
       <c r="G201" t="n">
-        <v>0.02373956940892976</v>
+        <v>0.02389792023569101</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6599,10 +6599,10 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>34425.06464757455</v>
+        <v>34592.74694586283</v>
       </c>
       <c r="G205" t="n">
-        <v>0.07504996159231313</v>
+        <v>0.07541552517730797</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>413381.0064405256</v>
+        <v>413140.6893622508</v>
       </c>
       <c r="G206" t="n">
-        <v>0.9012104689987571</v>
+        <v>0.900686554587001</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>9198.191022138757</v>
+        <v>9261.115810810219</v>
       </c>
       <c r="G212" t="n">
-        <v>0.02453663592618877</v>
+        <v>0.02470449095623196</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6930,10 +6930,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10616.57068930703</v>
+        <v>10670.53078149501</v>
       </c>
       <c r="G216" t="n">
-        <v>0.02832023483326219</v>
+        <v>0.02846417608577298</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6961,10 +6961,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>355061.0382885542</v>
+        <v>354944.1534076947</v>
       </c>
       <c r="G217" t="n">
-        <v>0.947143129240549</v>
+        <v>0.9468313329579952</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>11521.95806133001</v>
+        <v>11600.75273472579</v>
       </c>
       <c r="G223" t="n">
-        <v>0.02376194997460256</v>
+        <v>0.02392444970577061</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -7261,10 +7261,10 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>30604.93322549265</v>
+        <v>30759.46982765149</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0631171271765818</v>
+        <v>0.06343583090646847</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>437666.6747500558</v>
+        <v>437522.5816574172</v>
       </c>
       <c r="G228" t="n">
-        <v>0.9026081830540008</v>
+        <v>0.9023110171694576</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7323,13 +7323,13 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4602.716261635567</v>
+        <v>4458.765965131926</v>
       </c>
       <c r="G229" t="n">
-        <v>0.009492267978594713</v>
+        <v>0.009195396585195989</v>
       </c>
       <c r="H229" t="n">
-        <v>13.30528551740428</v>
+        <v>12.88916171432298</v>
       </c>
       <c r="I229" t="n">
         <v>19.10838302316964</v>
@@ -7354,13 +7354,13 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>494.817701485966</v>
+        <v>549.5298150735628</v>
       </c>
       <c r="G230" t="n">
-        <v>0.001020471816220108</v>
+        <v>0.001133305633107233</v>
       </c>
       <c r="H230" t="n">
-        <v>1.432805000505868</v>
+        <v>1.591230597854424</v>
       </c>
       <c r="I230" t="n">
         <v>19.10838302316964</v>
@@ -7474,10 +7474,10 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>9958.820127116858</v>
+        <v>10027.97650714313</v>
       </c>
       <c r="G234" t="n">
-        <v>0.02380919623712001</v>
+        <v>0.02397453287359674</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7592,10 +7592,10 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>25760.90388526845</v>
+        <v>25893.73303128697</v>
       </c>
       <c r="G238" t="n">
-        <v>0.0615882612619806</v>
+        <v>0.06190582450372974</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>378671.494719609</v>
+        <v>378606.2171185598</v>
       </c>
       <c r="G239" t="n">
-        <v>0.9053144661819367</v>
+        <v>0.9051584027935602</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>3884.981268005737</v>
+        <v>3748.273343010144</v>
       </c>
       <c r="G240" t="n">
-        <v>0.009288076318962774</v>
+        <v>0.00896123982911326</v>
       </c>
       <c r="H240" t="n">
-        <v>17.28051502516175</v>
+        <v>16.67243401035735</v>
       </c>
       <c r="I240" t="n">
         <v>19.10838302316964</v>
@@ -7805,10 +7805,10 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>11059.21951382375</v>
+        <v>11135.21021471743</v>
       </c>
       <c r="G245" t="n">
-        <v>0.02057095212623747</v>
+        <v>0.02071230035322301</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7923,10 +7923,10 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>60481.70978451992</v>
+        <v>60785.53395418858</v>
       </c>
       <c r="G249" t="n">
-        <v>0.11250037626391</v>
+        <v>0.1130655113027104</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7954,10 +7954,10 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>464816.6301271548</v>
+        <v>464543.0611265687</v>
       </c>
       <c r="G250" t="n">
-        <v>0.8645927168615122</v>
+        <v>0.8640838586362777</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7985,13 +7985,13 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1255.840574501464</v>
+        <v>1149.594704525374</v>
       </c>
       <c r="G251" t="n">
-        <v>0.00233595474834047</v>
+        <v>0.002138329707788856</v>
       </c>
       <c r="H251" t="n">
-        <v>10.88757337011877</v>
+        <v>9.966469427370319</v>
       </c>
       <c r="I251" t="n">
         <v>19.10838302316964</v>
@@ -8134,10 +8134,10 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>10302.23267507365</v>
+        <v>10372.56647526187</v>
       </c>
       <c r="G256" t="n">
-        <v>0.02094388615800109</v>
+        <v>0.02108687099931281</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>43614.95827654627</v>
+        <v>43833.25552231955</v>
       </c>
       <c r="G260" t="n">
-        <v>0.08866686957479558</v>
+        <v>0.08911065616050752</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -8285,10 +8285,10 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>437979.7090483801</v>
+        <v>437691.0780024186</v>
       </c>
       <c r="G261" t="n">
-        <v>0.8903892442672033</v>
+        <v>0.8898024728401797</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13339.24520482712</v>
+        <v>13429.70997878837</v>
       </c>
       <c r="G267" t="n">
-        <v>0.02076487431298409</v>
+        <v>0.02090569859743297</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>65046.69339225205</v>
+        <v>65368.45176105932</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1012565847636228</v>
+        <v>0.1017574580877758</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>564008.7614029208</v>
+        <v>563596.5382601522</v>
       </c>
       <c r="G272" t="n">
-        <v>0.8779785409233931</v>
+        <v>0.8773368433147911</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8794,10 +8794,10 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>10989.09672875185</v>
+        <v>11048.87551494735</v>
       </c>
       <c r="G278" t="n">
-        <v>0.02129981150104462</v>
+        <v>0.02141567879288436</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8912,10 +8912,10 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>43525.99849447607</v>
+        <v>43683.82646462363</v>
       </c>
       <c r="G282" t="n">
-        <v>0.08436503802004415</v>
+        <v>0.08467095088046517</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8943,10 +8943,10 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>461409.5047767721</v>
+        <v>461191.898020429</v>
       </c>
       <c r="G283" t="n">
-        <v>0.8943351504789112</v>
+        <v>0.8939133703266505</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -9123,10 +9123,10 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>9705.93754514614</v>
+        <v>9763.131827855736</v>
       </c>
       <c r="G289" t="n">
-        <v>0.02381033434317213</v>
+        <v>0.02395064175680415</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -9241,10 +9241,10 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>10866.54346080267</v>
+        <v>10911.49518233637</v>
       </c>
       <c r="G293" t="n">
-        <v>0.02665750029328326</v>
+        <v>0.0267677745984743</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -9272,10 +9272,10 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>387063.0189940512</v>
+        <v>386960.8729898079</v>
       </c>
       <c r="G294" t="n">
-        <v>0.9495321653635447</v>
+        <v>0.9492815836447216</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>12796.79021796242</v>
+        <v>12868.02592999954</v>
       </c>
       <c r="G300" t="n">
-        <v>0.02172664592263853</v>
+        <v>0.02184759133677098</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9572,10 +9572,10 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>91108.98135325026</v>
+        <v>91444.85350950899</v>
       </c>
       <c r="G304" t="n">
-        <v>0.1546866475513366</v>
+        <v>0.1552568980039902</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9603,10 +9603,10 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>485084.8284287872</v>
+        <v>484677.7205604914</v>
       </c>
       <c r="G305" t="n">
-        <v>0.8235867065260249</v>
+        <v>0.8228955106592388</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9783,10 +9783,10 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>8622.648150671763</v>
+        <v>8673.438079566506</v>
       </c>
       <c r="G311" t="n">
-        <v>0.02379539198504873</v>
+        <v>0.02393555382927857</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9901,10 +9901,10 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>9992.472253569538</v>
+        <v>10033.77605404356</v>
       </c>
       <c r="G315" t="n">
-        <v>0.02757561134567298</v>
+        <v>0.02768959490450288</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9932,10 +9932,10 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>343751.1795957587</v>
+        <v>343659.0858663899</v>
       </c>
       <c r="G316" t="n">
-        <v>0.9486289966692782</v>
+        <v>0.9483748512662186</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>8791.927586184909</v>
+        <v>8843.874053101294</v>
       </c>
       <c r="G322" t="n">
-        <v>0.02390733597475925</v>
+        <v>0.02404859073659591</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -10230,10 +10230,10 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>7611.465187159794</v>
+        <v>7643.11051636715</v>
       </c>
       <c r="G326" t="n">
-        <v>0.02069737878364116</v>
+        <v>0.02078342993795014</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -10261,10 +10261,10 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>351346.8072266553</v>
+        <v>351263.2154305315</v>
       </c>
       <c r="G327" t="n">
-        <v>0.9553952852415996</v>
+        <v>0.9551679793254541</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -10441,10 +10441,10 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>11892.27168223333</v>
+        <v>11967.47116687894</v>
       </c>
       <c r="G333" t="n">
-        <v>0.02638795235595259</v>
+        <v>0.02655481369843143</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10559,10 +10559,10 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>-59362.50701167384</v>
+        <v>-59640.89774812635</v>
       </c>
       <c r="G337" t="n">
-        <v>-0.1317204188241161</v>
+        <v>-0.1323381444938738</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10590,10 +10590,10 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>498140.7353294405</v>
+        <v>498343.9265812474</v>
       </c>
       <c r="G338" t="n">
-        <v>1.105332466468164</v>
+        <v>1.105783330795442</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>8821.83354010531</v>
+        <v>8879.056643285312</v>
       </c>
       <c r="G344" t="n">
-        <v>0.02286479204000276</v>
+        <v>0.02301310523908391</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10888,10 +10888,10 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>64490.44648826092</v>
+        <v>64787.13971775069</v>
       </c>
       <c r="G348" t="n">
-        <v>0.1671489992207913</v>
+        <v>0.1679179809705738</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>312513.8199716337</v>
+        <v>312159.903638964</v>
       </c>
       <c r="G349" t="n">
-        <v>0.8099862087392059</v>
+        <v>0.8090689137903424</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -11097,10 +11097,10 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>8415.255791471847</v>
+        <v>8472.288451268925</v>
       </c>
       <c r="G355" t="n">
-        <v>0.02424042018755681</v>
+        <v>0.02440470463382358</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -11215,10 +11215,10 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>31349.28993671881</v>
+        <v>31504.97087171687</v>
       </c>
       <c r="G359" t="n">
-        <v>0.09030265739726237</v>
+        <v>0.09075110143426586</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -11246,10 +11246,10 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>307393.4542718093</v>
+        <v>307180.7406770142</v>
       </c>
       <c r="G360" t="n">
-        <v>0.8854569224151807</v>
+        <v>0.8848441939319106</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>8590.471771907331</v>
+        <v>8648.970168643047</v>
       </c>
       <c r="G366" t="n">
-        <v>0.02439113327902841</v>
+        <v>0.02455722918496648</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11544,10 +11544,10 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>28839.05142300766</v>
+        <v>28983.41924203637</v>
       </c>
       <c r="G370" t="n">
-        <v>0.08188341287607247</v>
+        <v>0.08229331989964797</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11575,10 +11575,10 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>314766.976805085</v>
+        <v>314564.1105893206</v>
       </c>
       <c r="G371" t="n">
-        <v>0.8937254538448992</v>
+        <v>0.8931494509153856</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>9007.476743814674</v>
+        <v>9068.793041050198</v>
       </c>
       <c r="G377" t="n">
-        <v>0.0243799023659587</v>
+        <v>0.02454586286550378</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11873,10 +11873,10 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>30484.70506137207</v>
+        <v>30637.22020411909</v>
       </c>
       <c r="G381" t="n">
-        <v>0.0825108023244861</v>
+        <v>0.08292360431057569</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11904,10 +11904,10 @@
         </is>
       </c>
       <c r="F382" t="n">
-        <v>329971.0181948133</v>
+        <v>329757.1867548307</v>
       </c>
       <c r="G382" t="n">
-        <v>0.8931092953095553</v>
+        <v>0.8925305328239205</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -12084,10 +12084,10 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>8619.341520785572</v>
+        <v>8689.703945123008</v>
       </c>
       <c r="G388" t="n">
-        <v>0.02328592004858963</v>
+        <v>0.02347601041495872</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -12202,10 +12202,10 @@
         </is>
       </c>
       <c r="F392" t="n">
-        <v>41515.73158365686</v>
+        <v>41778.39226184568</v>
       </c>
       <c r="G392" t="n">
-        <v>0.1121584524855481</v>
+        <v>0.1128680537395956</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -12233,10 +12233,10 @@
         </is>
       </c>
       <c r="F393" t="n">
-        <v>320017.4268955576</v>
+        <v>319684.4037930313</v>
       </c>
       <c r="G393" t="n">
-        <v>0.8645556274658622</v>
+        <v>0.8636559358454456</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -12411,10 +12411,10 @@
         </is>
       </c>
       <c r="F399" t="n">
-        <v>8549.858717093899</v>
+        <v>8621.123540155611</v>
       </c>
       <c r="G399" t="n">
-        <v>0.02382796846934656</v>
+        <v>0.02402657946551343</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -12529,10 +12529,10 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>28976.17893522903</v>
+        <v>29165.33854568127</v>
       </c>
       <c r="G403" t="n">
-        <v>0.08075495758197315</v>
+        <v>0.08128213462462044</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12560,10 +12560,10 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>321290.062347677</v>
+        <v>321029.6379141631</v>
       </c>
       <c r="G404" t="n">
-        <v>0.8954170739486803</v>
+        <v>0.894691285909866</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12858,10 +12858,10 @@
         </is>
       </c>
       <c r="F414" t="n">
-        <v>20171.37331430764</v>
+        <v>20309.59448905231</v>
       </c>
       <c r="G414" t="n">
-        <v>0.05654383254272002</v>
+        <v>0.05693129029469556</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -12889,10 +12889,10 @@
         </is>
       </c>
       <c r="F415" t="n">
-        <v>336567.3266856924</v>
+        <v>336429.1055109477</v>
       </c>
       <c r="G415" t="n">
-        <v>0.9434561674572799</v>
+        <v>0.9430687097053044</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -13069,10 +13069,10 @@
         </is>
       </c>
       <c r="F421" t="n">
-        <v>9237.270917077036</v>
+        <v>9315.241234830719</v>
       </c>
       <c r="G421" t="n">
-        <v>0.02415889247679848</v>
+        <v>0.02436281380160348</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -13187,10 +13187,10 @@
         </is>
       </c>
       <c r="F425" t="n">
-        <v>23546.53284952402</v>
+        <v>23703.13980326058</v>
       </c>
       <c r="G425" t="n">
-        <v>0.06158292426623543</v>
+        <v>0.06199250958536316</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -13218,10 +13218,10 @@
         </is>
       </c>
       <c r="F426" t="n">
-        <v>349571.0962333989</v>
+        <v>349336.5189619087</v>
       </c>
       <c r="G426" t="n">
-        <v>0.9142581832569661</v>
+        <v>0.9136446766130333</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -13398,10 +13398,10 @@
         </is>
       </c>
       <c r="F432" t="n">
-        <v>9325.578100701352</v>
+        <v>9394.47986533947</v>
       </c>
       <c r="G432" t="n">
-        <v>0.02328363577887822</v>
+        <v>0.02345566624980799</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -13516,10 +13516,10 @@
         </is>
       </c>
       <c r="F436" t="n">
-        <v>26384.50071827777</v>
+        <v>26532.11318658939</v>
       </c>
       <c r="G436" t="n">
-        <v>0.06587549836569685</v>
+        <v>0.06624404977467928</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>
@@ -13547,10 +13547,10 @@
         </is>
       </c>
       <c r="F437" t="n">
-        <v>364810.6211810209</v>
+        <v>364594.1069480712</v>
       </c>
       <c r="G437" t="n">
-        <v>0.9108408658554249</v>
+        <v>0.9103002839755128</v>
       </c>
       <c r="H437" t="n">
         <v>0</v>
@@ -13727,10 +13727,10 @@
         </is>
       </c>
       <c r="F443" t="n">
-        <v>9267.069359320334</v>
+        <v>9335.010525259308</v>
       </c>
       <c r="G443" t="n">
-        <v>0.02306741089683773</v>
+        <v>0.02323652874097562</v>
       </c>
       <c r="H443" t="n">
         <v>0</v>
@@ -13845,10 +13845,10 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>31762.85138200451</v>
+        <v>31938.35277872873</v>
       </c>
       <c r="G447" t="n">
-        <v>0.07906347904334937</v>
+        <v>0.07950033374619399</v>
       </c>
       <c r="H447" t="n">
         <v>0</v>
@@ -13876,10 +13876,10 @@
         </is>
       </c>
       <c r="F448" t="n">
-        <v>360708.6792586751</v>
+        <v>360465.2366960119</v>
       </c>
       <c r="G448" t="n">
-        <v>0.897869110059813</v>
+        <v>0.8972631375128303</v>
       </c>
       <c r="H448" t="n">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         </is>
       </c>
       <c r="F454" t="n">
-        <v>11169.95579687798</v>
+        <v>11251.34602533634</v>
       </c>
       <c r="G454" t="n">
-        <v>0.0228963384097907</v>
+        <v>0.0230631732879156</v>
       </c>
       <c r="H454" t="n">
         <v>0</v>
@@ -14174,10 +14174,10 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>43661.27874489447</v>
+        <v>43900.12850502582</v>
       </c>
       <c r="G458" t="n">
-        <v>0.08949752637577298</v>
+        <v>0.08998712409992807</v>
       </c>
       <c r="H458" t="n">
         <v>0</v>
@@ -14205,10 +14205,10 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>433017.7654582275</v>
+        <v>432697.5254696379</v>
       </c>
       <c r="G459" t="n">
-        <v>0.8876061352144363</v>
+        <v>0.8869497026121563</v>
       </c>
       <c r="H459" t="n">
         <v>0</v>
@@ -14385,10 +14385,10 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>8961.376885125634</v>
+        <v>9021.302131887394</v>
       </c>
       <c r="G465" t="n">
-        <v>0.02303221595020057</v>
+        <v>0.02318623371353969</v>
       </c>
       <c r="H465" t="n">
         <v>0</v>
@@ -14474,13 +14474,13 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>3319.038237196288</v>
+        <v>3694.721134908725</v>
       </c>
       <c r="G468" t="n">
-        <v>0.0085304754398806</v>
+        <v>0.009496042421364459</v>
       </c>
       <c r="H468" t="n">
-        <v>3.088590884202777</v>
+        <v>3.438189379399895</v>
       </c>
       <c r="I468" t="n">
         <v>20.56555353171865</v>
@@ -14505,10 +14505,10 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>28236.68161361919</v>
+        <v>28374.69822583968</v>
       </c>
       <c r="G469" t="n">
-        <v>0.07257292679224456</v>
+        <v>0.07292765223880554</v>
       </c>
       <c r="H469" t="n">
         <v>0</v>
@@ -14536,10 +14536,10 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>348563.0032640588</v>
+        <v>347989.3785073642</v>
       </c>
       <c r="G470" t="n">
-        <v>0.8958643818176742</v>
+        <v>0.8943900716262904</v>
       </c>
       <c r="H470" t="n">
         <v>0</v>
@@ -14714,10 +14714,10 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>9054.250240357491</v>
+        <v>9149.311345848437</v>
       </c>
       <c r="G476" t="n">
-        <v>0.020405401896558</v>
+        <v>0.02061963941051887</v>
       </c>
       <c r="H476" t="n">
         <v>0</v>
@@ -14803,13 +14803,13 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>9560.040002278956</v>
+        <v>6511.480778348243</v>
       </c>
       <c r="G479" t="n">
-        <v>0.02154529124058881</v>
+        <v>0.0146748078191687</v>
       </c>
       <c r="H479" t="n">
-        <v>3.770978660687028</v>
+        <v>2.568467815905745</v>
       </c>
       <c r="I479" t="n">
         <v>20.56555353171865</v>
@@ -14834,10 +14834,10 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>32027.99073823109</v>
+        <v>32306.15374575961</v>
       </c>
       <c r="G480" t="n">
-        <v>0.07218091013652377</v>
+        <v>0.07280780113364631</v>
       </c>
       <c r="H480" t="n">
         <v>0</v>
@@ -14865,10 +14865,10 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>392957.4492274966</v>
+        <v>395652.4707544868</v>
       </c>
       <c r="G481" t="n">
-        <v>0.8856011781066875</v>
+        <v>0.8916748999409914</v>
       </c>
       <c r="H481" t="n">
         <v>0</v>
@@ -14896,13 +14896,13 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>118.5697916358815</v>
+        <v>98.88337555691494</v>
       </c>
       <c r="G482" t="n">
-        <v>0.00026721861964197</v>
+        <v>0.0002228516956747444</v>
       </c>
       <c r="H482" t="n">
-        <v>0.3876515656979888</v>
+        <v>0.3232888818246031</v>
       </c>
       <c r="I482" t="n">
         <v>20.56555353171865</v>
@@ -15047,10 +15047,10 @@
         </is>
       </c>
       <c r="F487" t="n">
-        <v>9242.166263213947</v>
+        <v>9350.596289894433</v>
       </c>
       <c r="G487" t="n">
-        <v>0.02040367344116034</v>
+        <v>0.02064305139570015</v>
       </c>
       <c r="H487" t="n">
         <v>0</v>
@@ -15136,13 +15136,13 @@
         </is>
       </c>
       <c r="F490" t="n">
-        <v>10718.19902770357</v>
+        <v>6902.86589193361</v>
       </c>
       <c r="G490" t="n">
-        <v>0.02366226992789207</v>
+        <v>0.01523926506578115</v>
       </c>
       <c r="H490" t="n">
-        <v>4.971596992756675</v>
+        <v>3.201868823394354</v>
       </c>
       <c r="I490" t="n">
         <v>20.56555353171865</v>
@@ -15167,10 +15167,10 @@
         </is>
       </c>
       <c r="F491" t="n">
-        <v>26128.94078914032</v>
+        <v>26388.41698374207</v>
       </c>
       <c r="G491" t="n">
-        <v>0.05768413595273709</v>
+        <v>0.0582569743317091</v>
       </c>
       <c r="H491" t="n">
         <v>0</v>
@@ -15198,10 +15198,10 @@
         </is>
       </c>
       <c r="F492" t="n">
-        <v>401175.4647363533</v>
+        <v>404730.4804639731</v>
       </c>
       <c r="G492" t="n">
-        <v>0.8856639170912094</v>
+        <v>0.893512226450591</v>
       </c>
       <c r="H492" t="n">
         <v>0</v>
@@ -15229,13 +15229,13 @@
         </is>
       </c>
       <c r="F493" t="n">
-        <v>5701.029183588835</v>
+        <v>5593.440370456748</v>
       </c>
       <c r="G493" t="n">
-        <v>0.01258600358700113</v>
+        <v>0.01234848275621857</v>
       </c>
       <c r="H493" t="n">
-        <v>13.31351445674239</v>
+        <v>13.06226416966421</v>
       </c>
       <c r="I493" t="n">
         <v>20.56555353171865</v>
@@ -15380,10 +15380,10 @@
         </is>
       </c>
       <c r="F498" t="n">
-        <v>8000.504151289675</v>
+        <v>8050.194288011624</v>
       </c>
       <c r="G498" t="n">
-        <v>0.02059865749317693</v>
+        <v>0.02072659319419892</v>
       </c>
       <c r="H498" t="n">
         <v>0</v>
@@ -15469,13 +15469,13 @@
         </is>
       </c>
       <c r="F501" t="n">
-        <v>5283.419582364126</v>
+        <v>4823.156720666898</v>
       </c>
       <c r="G501" t="n">
-        <v>0.01360306154610507</v>
+        <v>0.01241803659447094</v>
       </c>
       <c r="H501" t="n">
-        <v>14.29690108574211</v>
+        <v>13.05143259615048</v>
       </c>
       <c r="I501" t="n">
         <v>20.56555353171865</v>
@@ -15500,10 +15500,10 @@
         </is>
       </c>
       <c r="F502" t="n">
-        <v>11799.86585830211</v>
+        <v>11852.34033240558</v>
       </c>
       <c r="G502" t="n">
-        <v>0.03038075984766737</v>
+        <v>0.03051586429843096</v>
       </c>
       <c r="H502" t="n">
         <v>0</v>
@@ -15531,10 +15531,10 @@
         </is>
       </c>
       <c r="F503" t="n">
-        <v>349429.7244890373</v>
+        <v>349403.3758197004</v>
       </c>
       <c r="G503" t="n">
-        <v>0.8996662056008784</v>
+        <v>0.8995983664741426</v>
       </c>
       <c r="H503" t="n">
         <v>0</v>
@@ -15562,13 +15562,13 @@
         </is>
       </c>
       <c r="F504" t="n">
-        <v>6793.741176661997</v>
+        <v>6654.565960959608</v>
       </c>
       <c r="G504" t="n">
-        <v>0.01749164114523892</v>
+        <v>0.01713331090184665</v>
       </c>
       <c r="H504" t="n">
-        <v>15.86530579973591</v>
+        <v>15.54029233521833</v>
       </c>
       <c r="I504" t="n">
         <v>20.56555353171865</v>
@@ -15593,13 +15593,13 @@
         </is>
       </c>
       <c r="F505" t="n">
-        <v>7092.044742344809</v>
+        <v>7615.666878255854</v>
       </c>
       <c r="G505" t="n">
-        <v>0.01825967436693323</v>
+        <v>0.01960782853690996</v>
       </c>
       <c r="H505" t="n">
-        <v>4.863688691396192</v>
+        <v>5.222786124297221</v>
       </c>
       <c r="I505" t="n">
         <v>20.56555353171865</v>
@@ -15713,10 +15713,10 @@
         </is>
       </c>
       <c r="F509" t="n">
-        <v>8531.517129094842</v>
+        <v>8573.122819779224</v>
       </c>
       <c r="G509" t="n">
-        <v>0.02004756308947058</v>
+        <v>0.02014532913696894</v>
       </c>
       <c r="H509" t="n">
         <v>0</v>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="F512" t="n">
-        <v>4480.030782032312</v>
+        <v>4553.446839590287</v>
       </c>
       <c r="G512" t="n">
-        <v>0.01052728352842115</v>
+        <v>0.01069979833714777</v>
       </c>
       <c r="H512" t="n">
-        <v>6.118628826645829</v>
+        <v>6.218897246209932</v>
       </c>
       <c r="I512" t="n">
         <v>20.56555353171865</v>
@@ -15833,10 +15833,10 @@
         </is>
       </c>
       <c r="F513" t="n">
-        <v>27149.93582865943</v>
+        <v>27233.55985826637</v>
       </c>
       <c r="G513" t="n">
-        <v>0.06379756884551605</v>
+        <v>0.06399407059121656</v>
       </c>
       <c r="H513" t="n">
         <v>0</v>
@@ -15864,10 +15864,10 @@
         </is>
       </c>
       <c r="F514" t="n">
-        <v>366221.0698205251</v>
+        <v>365393.4989660831</v>
       </c>
       <c r="G514" t="n">
-        <v>0.8605550326896344</v>
+        <v>0.8586103868940054</v>
       </c>
       <c r="H514" t="n">
         <v>0</v>
@@ -15895,13 +15895,13 @@
         </is>
       </c>
       <c r="F515" t="n">
-        <v>8299.311528808283</v>
+        <v>8128.67854261474</v>
       </c>
       <c r="G515" t="n">
-        <v>0.01950192081377288</v>
+        <v>0.01910096333996157</v>
       </c>
       <c r="H515" t="n">
-        <v>19.38123809958149</v>
+        <v>18.98276184988533</v>
       </c>
       <c r="I515" t="n">
         <v>20.56555353171865</v>
@@ -15926,13 +15926,13 @@
         </is>
       </c>
       <c r="F516" t="n">
-        <v>10881.93491088009</v>
+        <v>11681.49297366627</v>
       </c>
       <c r="G516" t="n">
-        <v>0.02557063103318488</v>
+        <v>0.0274494517006998</v>
       </c>
       <c r="H516" t="n">
-        <v>5.520586836763628</v>
+        <v>5.926215959966005</v>
       </c>
       <c r="I516" t="n">
         <v>20.56555353171865</v>
@@ -16046,10 +16046,10 @@
         </is>
       </c>
       <c r="F520" t="n">
-        <v>10112.22428173543</v>
+        <v>10175.68854367859</v>
       </c>
       <c r="G520" t="n">
-        <v>0.01975863479641835</v>
+        <v>0.01988263987575821</v>
       </c>
       <c r="H520" t="n">
         <v>0</v>
@@ -16106,13 +16106,13 @@
         </is>
       </c>
       <c r="F522" t="n">
-        <v>16332.72694069067</v>
+        <v>16086.39187530182</v>
       </c>
       <c r="G522" t="n">
-        <v>0.03191309625456083</v>
+        <v>0.03143177340619786</v>
       </c>
       <c r="H522" t="n">
-        <v>0.5907512037982887</v>
+        <v>0.5818413177183566</v>
       </c>
       <c r="I522" t="n">
         <v>20.56555353171865</v>
@@ -16137,13 +16137,13 @@
         </is>
       </c>
       <c r="F523" t="n">
-        <v>6651.773046163889</v>
+        <v>5949.684893155491</v>
       </c>
       <c r="G523" t="n">
-        <v>0.01299713601143109</v>
+        <v>0.01162530099040206</v>
       </c>
       <c r="H523" t="n">
-        <v>5.352429558718472</v>
+        <v>4.78748584267341</v>
       </c>
       <c r="I523" t="n">
         <v>20.56555353171865</v>
@@ -16168,10 +16168,10 @@
         </is>
       </c>
       <c r="F524" t="n">
-        <v>26022.27175821945</v>
+        <v>26139.09752291268</v>
       </c>
       <c r="G524" t="n">
-        <v>0.05084584260779169</v>
+        <v>0.05107411262584847</v>
       </c>
       <c r="H524" t="n">
         <v>0</v>
@@ -16199,10 +16199,10 @@
         </is>
       </c>
       <c r="F525" t="n">
-        <v>430139.2452576511</v>
+        <v>430143.0217833599</v>
       </c>
       <c r="G525" t="n">
-        <v>0.8404643747868279</v>
+        <v>0.8404717538747716</v>
       </c>
       <c r="H525" t="n">
         <v>0</v>
@@ -16230,13 +16230,13 @@
         </is>
       </c>
       <c r="F526" t="n">
-        <v>10199.25585880625</v>
+        <v>10007.57986155221</v>
       </c>
       <c r="G526" t="n">
-        <v>0.01992868889126318</v>
+        <v>0.01955416634078709</v>
       </c>
       <c r="H526" t="n">
-        <v>23.41784014209039</v>
+        <v>22.97774549941161</v>
       </c>
       <c r="I526" t="n">
         <v>20.56555353171865</v>
@@ -16261,13 +16261,13 @@
         </is>
       </c>
       <c r="F527" t="n">
-        <v>12330.10285673313</v>
+        <v>13286.13552003918</v>
       </c>
       <c r="G527" t="n">
-        <v>0.02409222665170695</v>
+        <v>0.0259602528862348</v>
       </c>
       <c r="H527" t="n">
-        <v>10.08359828225597</v>
+        <v>10.86544490863907</v>
       </c>
       <c r="I527" t="n">
         <v>20.56555353171865</v>
@@ -16381,10 +16381,10 @@
         </is>
       </c>
       <c r="F531" t="n">
-        <v>13469.7645328479</v>
+        <v>13560.85142191497</v>
       </c>
       <c r="G531" t="n">
-        <v>0.01919713598928461</v>
+        <v>0.01932695321006803</v>
       </c>
       <c r="H531" t="n">
         <v>0</v>
@@ -16412,13 +16412,13 @@
         </is>
       </c>
       <c r="F532" t="n">
-        <v>4036.105759986775</v>
+        <v>6821.456975318565</v>
       </c>
       <c r="G532" t="n">
-        <v>0.005752266192378581</v>
+        <v>0.009721954447006019</v>
       </c>
       <c r="H532" t="n">
-        <v>2.420386920939115</v>
+        <v>4.090716702345295</v>
       </c>
       <c r="I532" t="n">
         <v>20.56555353171865</v>
@@ -16443,10 +16443,10 @@
         </is>
       </c>
       <c r="F533" t="n">
-        <v>13167.83529590283</v>
+        <v>12855.53114559722</v>
       </c>
       <c r="G533" t="n">
-        <v>0.01876682582264134</v>
+        <v>0.01832172930823574</v>
       </c>
       <c r="H533" t="n">
         <v>0</v>
@@ -16474,13 +16474,13 @@
         </is>
       </c>
       <c r="F534" t="n">
-        <v>12325.48490320075</v>
+        <v>9171.989428985464</v>
       </c>
       <c r="G534" t="n">
-        <v>0.01756630631839206</v>
+        <v>0.01307193811229062</v>
       </c>
       <c r="H534" t="n">
-        <v>6.723618556529577</v>
+        <v>5.003369750508174</v>
       </c>
       <c r="I534" t="n">
         <v>20.56555353171865</v>
@@ -16505,10 +16505,10 @@
         </is>
       </c>
       <c r="F535" t="n">
-        <v>84841.89959689381</v>
+        <v>85257.38983604785</v>
       </c>
       <c r="G535" t="n">
-        <v>0.120916849004965</v>
+        <v>0.1215090065444535</v>
       </c>
       <c r="H535" t="n">
         <v>0</v>
@@ -16536,10 +16536,10 @@
         </is>
       </c>
       <c r="F536" t="n">
-        <v>548934.1051565354</v>
+        <v>548384.6714806888</v>
       </c>
       <c r="G536" t="n">
-        <v>0.7823420105190391</v>
+        <v>0.7815589565193498</v>
       </c>
       <c r="H536" t="n">
         <v>0</v>
@@ -16567,13 +16567,13 @@
         </is>
       </c>
       <c r="F537" t="n">
-        <v>13934.68446351495</v>
+        <v>13686.21163553506</v>
       </c>
       <c r="G537" t="n">
-        <v>0.0198597408263164</v>
+        <v>0.01950561684317327</v>
       </c>
       <c r="H537" t="n">
-        <v>30.70441063736092</v>
+        <v>30.15691264682539</v>
       </c>
       <c r="I537" t="n">
         <v>20.56555353171865</v>
@@ -16598,13 +16598,13 @@
         </is>
       </c>
       <c r="F538" t="n">
-        <v>10945.02029111768</v>
+        <v>11916.79807591208</v>
       </c>
       <c r="G538" t="n">
-        <v>0.01559886532698293</v>
+        <v>0.01698384501542294</v>
       </c>
       <c r="H538" t="n">
-        <v>43.84877935767702</v>
+        <v>47.74199001757163</v>
       </c>
       <c r="I538" t="n">
         <v>20.56555353171865</v>
@@ -16718,10 +16718,10 @@
         </is>
       </c>
       <c r="F542" t="n">
-        <v>9401.021395755768</v>
+        <v>9482.249390526344</v>
       </c>
       <c r="G542" t="n">
-        <v>0.0204926360863051</v>
+        <v>0.02066969937196098</v>
       </c>
       <c r="H542" t="n">
         <v>0</v>
@@ -16749,10 +16749,10 @@
         </is>
       </c>
       <c r="F543" t="n">
-        <v>2.019454682648488</v>
+        <v>124.8095871384885</v>
       </c>
       <c r="G543" t="n">
-        <v>4.402069537144508e-06</v>
+        <v>0.000272063783459288</v>
       </c>
       <c r="H543" t="n">
         <v>0</v>
@@ -16780,10 +16780,10 @@
         </is>
       </c>
       <c r="F544" t="n">
-        <v>4094.843359410985</v>
+        <v>3915.80996484528</v>
       </c>
       <c r="G544" t="n">
-        <v>0.00892606571799918</v>
+        <v>0.008535803208460884</v>
       </c>
       <c r="H544" t="n">
         <v>0</v>
@@ -16811,13 +16811,13 @@
         </is>
       </c>
       <c r="F545" t="n">
-        <v>7313.34231411402</v>
+        <v>6032.661166961067</v>
       </c>
       <c r="G545" t="n">
-        <v>0.01594184890222417</v>
+        <v>0.0131501806795515</v>
       </c>
       <c r="H545" t="n">
-        <v>6.864999176430464</v>
+        <v>5.662829957097245</v>
       </c>
       <c r="I545" t="n">
         <v>20.56555353171865</v>
@@ -16842,10 +16842,10 @@
         </is>
       </c>
       <c r="F546" t="n">
-        <v>23977.5211686428</v>
+        <v>24141.76886975361</v>
       </c>
       <c r="G546" t="n">
-        <v>0.05226693939687309</v>
+        <v>0.05262497159626746</v>
       </c>
       <c r="H546" t="n">
         <v>0</v>
@@ -16873,10 +16873,10 @@
         </is>
       </c>
       <c r="F547" t="n">
-        <v>399782.1890489199</v>
+        <v>400579.1337190313</v>
       </c>
       <c r="G547" t="n">
-        <v>0.8714575330787581</v>
+        <v>0.8731947376247329</v>
       </c>
       <c r="H547" t="n">
         <v>0</v>
@@ -16904,13 +16904,13 @@
         </is>
       </c>
       <c r="F548" t="n">
-        <v>9862.441173707859</v>
+        <v>9706.764102639438</v>
       </c>
       <c r="G548" t="n">
-        <v>0.02149845313474463</v>
+        <v>0.02115910345877992</v>
       </c>
       <c r="H548" t="n">
-        <v>21.73141734764168</v>
+        <v>21.38839036849323</v>
       </c>
       <c r="I548" t="n">
         <v>20.56555353171865</v>
@@ -16935,13 +16935,13 @@
         </is>
       </c>
       <c r="F549" t="n">
-        <v>4317.822084765968</v>
+        <v>4768.003199104461</v>
       </c>
       <c r="G549" t="n">
-        <v>0.009412121613558651</v>
+        <v>0.0103934402767872</v>
       </c>
       <c r="H549" t="n">
-        <v>17.29838984896701</v>
+        <v>19.10193994102499</v>
       </c>
       <c r="I549" t="n">
         <v>20.56555353171865</v>
@@ -17055,10 +17055,10 @@
         </is>
       </c>
       <c r="F553" t="n">
-        <v>9159.386174525851</v>
+        <v>9226.265827280966</v>
       </c>
       <c r="G553" t="n">
-        <v>0.02057518267769321</v>
+        <v>0.02072541775312701</v>
       </c>
       <c r="H553" t="n">
         <v>0</v>
@@ -17115,13 +17115,13 @@
         </is>
       </c>
       <c r="F555" t="n">
-        <v>11538.66537830685</v>
+        <v>11335.38675075102</v>
       </c>
       <c r="G555" t="n">
-        <v>0.02591987535974019</v>
+        <v>0.02546324051361214</v>
       </c>
       <c r="H555" t="n">
-        <v>0.7533478894051563</v>
+        <v>0.7400760316980882</v>
       </c>
       <c r="I555" t="n">
         <v>20.56555353171865</v>
@@ -17146,13 +17146,13 @@
         </is>
       </c>
       <c r="F556" t="n">
-        <v>4874.834828097911</v>
+        <v>4915.59518169415</v>
       </c>
       <c r="G556" t="n">
-        <v>0.01095058284480378</v>
+        <v>0.0110421448452774</v>
       </c>
       <c r="H556" t="n">
-        <v>8.020294129242727</v>
+        <v>8.087354867951145</v>
       </c>
       <c r="I556" t="n">
         <v>20.56555353171865</v>
@@ -17177,10 +17177,10 @@
         </is>
       </c>
       <c r="F557" t="n">
-        <v>17451.67939332644</v>
+        <v>17548.13775566023</v>
       </c>
       <c r="G557" t="n">
-        <v>0.03920257151607799</v>
+        <v>0.03941925071138572</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -17208,10 +17208,10 @@
         </is>
       </c>
       <c r="F558" t="n">
-        <v>390502.3445271102</v>
+        <v>390442.3594532016</v>
       </c>
       <c r="G558" t="n">
-        <v>0.877204751674171</v>
+        <v>0.8770700042325754</v>
       </c>
       <c r="H558" t="n">
         <v>0</v>
@@ -17239,13 +17239,13 @@
         </is>
       </c>
       <c r="F559" t="n">
-        <v>9684.538026611312</v>
+        <v>9519.892280054239</v>
       </c>
       <c r="G559" t="n">
-        <v>0.02175485728517275</v>
+        <v>0.02138500539248385</v>
       </c>
       <c r="H559" t="n">
-        <v>21.33941627316932</v>
+        <v>20.97662724660617</v>
       </c>
       <c r="I559" t="n">
         <v>20.56555353171865</v>
@@ -17270,13 +17270,13 @@
         </is>
       </c>
       <c r="F560" t="n">
-        <v>1955.251672021473</v>
+        <v>2179.062751357772</v>
       </c>
       <c r="G560" t="n">
-        <v>0.004392178642341113</v>
+        <v>0.004894936551538496</v>
       </c>
       <c r="H560" t="n">
-        <v>7.83327914200181</v>
+        <v>8.729928245849086</v>
       </c>
       <c r="I560" t="n">
         <v>20.56555353171865</v>
@@ -17390,10 +17390,10 @@
         </is>
       </c>
       <c r="F564" t="n">
-        <v>10415.95299470894</v>
+        <v>10479.13891340762</v>
       </c>
       <c r="G564" t="n">
-        <v>0.02094058763926567</v>
+        <v>0.02106761876822232</v>
       </c>
       <c r="H564" t="n">
         <v>0</v>
@@ -17450,10 +17450,10 @@
         </is>
       </c>
       <c r="F566" t="n">
-        <v>5480.940471806302</v>
+        <v>5310.458917363365</v>
       </c>
       <c r="G566" t="n">
-        <v>0.01101906991647913</v>
+        <v>0.01067632797692698</v>
       </c>
       <c r="H566" t="n">
         <v>0</v>
@@ -17481,13 +17481,13 @@
         </is>
       </c>
       <c r="F567" t="n">
-        <v>2440.296789675865</v>
+        <v>3491.427251131094</v>
       </c>
       <c r="G567" t="n">
-        <v>0.004906056010043858</v>
+        <v>0.007019284589280554</v>
       </c>
       <c r="H567" t="n">
-        <v>11.15245650252449</v>
+        <v>15.95625200783063</v>
       </c>
       <c r="I567" t="n">
         <v>20.56555353171865</v>
@@ -17512,10 +17512,10 @@
         </is>
       </c>
       <c r="F568" t="n">
-        <v>14908.46803611781</v>
+        <v>14972.62774324769</v>
       </c>
       <c r="G568" t="n">
-        <v>0.02997249331252764</v>
+        <v>0.03010148217900441</v>
       </c>
       <c r="H568" t="n">
         <v>0</v>
@@ -17543,10 +17543,10 @@
         </is>
       </c>
       <c r="F569" t="n">
-        <v>448889.829911207</v>
+        <v>447933.2801118106</v>
       </c>
       <c r="G569" t="n">
-        <v>0.9024634451024959</v>
+        <v>0.9005403647164998</v>
       </c>
       <c r="H569" t="n">
         <v>0</v>
@@ -17574,13 +17574,13 @@
         </is>
       </c>
       <c r="F570" t="n">
-        <v>14076.04270670689</v>
+        <v>13884.89287690182</v>
       </c>
       <c r="G570" t="n">
-        <v>0.02829895700024505</v>
+        <v>0.02791466285401599</v>
       </c>
       <c r="H570" t="n">
-        <v>18.70075525490712</v>
+        <v>18.44680275854971</v>
       </c>
       <c r="I570" t="n">
         <v>20.56555353171865</v>
@@ -17605,13 +17605,13 @@
         </is>
       </c>
       <c r="F571" t="n">
-        <v>1193.46908977723</v>
+        <v>1333.174186137816</v>
       </c>
       <c r="G571" t="n">
-        <v>0.002399391018942773</v>
+        <v>0.002680258916049932</v>
       </c>
       <c r="H571" t="n">
-        <v>4.781367361220795</v>
+        <v>5.34106462833594</v>
       </c>
       <c r="I571" t="n">
         <v>20.56555353171865</v>
@@ -17725,10 +17725,10 @@
         </is>
       </c>
       <c r="F575" t="n">
-        <v>9886.28998234611</v>
+        <v>9949.411654159609</v>
       </c>
       <c r="G575" t="n">
-        <v>0.01970373118717798</v>
+        <v>0.01982953494730634</v>
       </c>
       <c r="H575" t="n">
         <v>0</v>
@@ -17785,13 +17785,13 @@
         </is>
       </c>
       <c r="F577" t="n">
-        <v>14492.01206008047</v>
+        <v>14250.49080090993</v>
       </c>
       <c r="G577" t="n">
-        <v>0.02888310078938268</v>
+        <v>0.02840174024106951</v>
       </c>
       <c r="H577" t="n">
-        <v>0.7360990094865872</v>
+        <v>0.7238313161595086</v>
       </c>
       <c r="I577" t="n">
         <v>20.56555353171865</v>
@@ -17816,13 +17816,13 @@
         </is>
       </c>
       <c r="F578" t="n">
-        <v>1302.354167030897</v>
+        <v>2175.685696554271</v>
       </c>
       <c r="G578" t="n">
-        <v>0.002595638653478809</v>
+        <v>0.004336219773974321</v>
       </c>
       <c r="H578" t="n">
-        <v>4.463939056555128</v>
+        <v>7.457363443446908</v>
       </c>
       <c r="I578" t="n">
         <v>20.56555353171865</v>
@@ -17847,10 +17847,10 @@
         </is>
       </c>
       <c r="F579" t="n">
-        <v>8261.626129560585</v>
+        <v>8299.908136828564</v>
       </c>
       <c r="G579" t="n">
-        <v>0.01646571774816553</v>
+        <v>0.01654201516427014</v>
       </c>
       <c r="H579" t="n">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         </is>
       </c>
       <c r="F580" t="n">
-        <v>456612.0281876652</v>
+        <v>456071.2964602122</v>
       </c>
       <c r="G580" t="n">
-        <v>0.9100441800015689</v>
+        <v>0.9089664822381877</v>
       </c>
       <c r="H580" t="n">
         <v>0</v>
@@ -17909,13 +17909,13 @@
         </is>
       </c>
       <c r="F581" t="n">
-        <v>11192.7894733167</v>
+        <v>11000.30725133543</v>
       </c>
       <c r="G581" t="n">
-        <v>0.022307631620226</v>
+        <v>0.02192400763519198</v>
       </c>
       <c r="H581" t="n">
-        <v>32.10075630745888</v>
+        <v>31.54872011343692</v>
       </c>
       <c r="I581" t="n">
         <v>20.56555353171865</v>
@@ -18058,10 +18058,10 @@
         </is>
       </c>
       <c r="F586" t="n">
-        <v>10070.81004500445</v>
+        <v>10119.33671441226</v>
       </c>
       <c r="G586" t="n">
-        <v>0.01974592362805683</v>
+        <v>0.01984107028495616</v>
       </c>
       <c r="H586" t="n">
         <v>0</v>
@@ -18089,13 +18089,13 @@
         </is>
       </c>
       <c r="F587" t="n">
-        <v>5259.308023867492</v>
+        <v>7406.180546465672</v>
       </c>
       <c r="G587" t="n">
-        <v>0.01031197034912081</v>
+        <v>0.01452136171694088</v>
       </c>
       <c r="H587" t="n">
-        <v>2.263957733221232</v>
+        <v>3.188115175173481</v>
       </c>
       <c r="I587" t="n">
         <v>20.56555353171865</v>
@@ -18120,10 +18120,10 @@
         </is>
       </c>
       <c r="F588" t="n">
-        <v>8399.10571345905</v>
+        <v>8148.624253414617</v>
       </c>
       <c r="G588" t="n">
-        <v>0.01646819860773819</v>
+        <v>0.01597707746076204</v>
       </c>
       <c r="H588" t="n">
         <v>0</v>
@@ -18180,10 +18180,10 @@
         </is>
       </c>
       <c r="F590" t="n">
-        <v>10560.82569586474</v>
+        <v>10593.20379946824</v>
       </c>
       <c r="G590" t="n">
-        <v>0.02070670151734284</v>
+        <v>0.02077018554277068</v>
       </c>
       <c r="H590" t="n">
         <v>0</v>
@@ -18211,10 +18211,10 @@
         </is>
       </c>
       <c r="F591" t="n">
-        <v>465824.6306010031</v>
+        <v>464060.9221207136</v>
       </c>
       <c r="G591" t="n">
-        <v>0.9133463483881173</v>
+        <v>0.9098882300442778</v>
       </c>
       <c r="H591" t="n">
         <v>0</v>
@@ -18242,13 +18242,13 @@
         </is>
       </c>
       <c r="F592" t="n">
-        <v>9905.019920801144</v>
+        <v>9691.432565525633</v>
       </c>
       <c r="G592" t="n">
-        <v>0.01942085750962393</v>
+        <v>0.01900207495029238</v>
       </c>
       <c r="H592" t="n">
-        <v>28.40745208834382</v>
+        <v>27.79488668108774</v>
       </c>
       <c r="I592" t="n">
         <v>20.56555353171865</v>
@@ -18391,10 +18391,10 @@
         </is>
       </c>
       <c r="F597" t="n">
-        <v>10165.32256848269</v>
+        <v>10224.74267165678</v>
       </c>
       <c r="G597" t="n">
-        <v>0.01985305217267855</v>
+        <v>0.0199691006699568</v>
       </c>
       <c r="H597" t="n">
         <v>0</v>
@@ -18422,10 +18422,10 @@
         </is>
       </c>
       <c r="F598" t="n">
-        <v>827.0656539575602</v>
+        <v>2029.464257725932</v>
       </c>
       <c r="G598" t="n">
-        <v>0.001615273639142454</v>
+        <v>0.003963579071867393</v>
       </c>
       <c r="H598" t="n">
         <v>0</v>
@@ -18453,10 +18453,10 @@
         </is>
       </c>
       <c r="F599" t="n">
-        <v>2508.371476075758</v>
+        <v>2357.718026407327</v>
       </c>
       <c r="G599" t="n">
-        <v>0.004898893217357476</v>
+        <v>0.004604664404045181</v>
       </c>
       <c r="H599" t="n">
         <v>0</v>
@@ -18513,10 +18513,10 @@
         </is>
       </c>
       <c r="F601" t="n">
-        <v>17626.32412861761</v>
+        <v>17698.18425989655</v>
       </c>
       <c r="G601" t="n">
-        <v>0.03442451827578561</v>
+        <v>0.03456486236480052</v>
       </c>
       <c r="H601" t="n">
         <v>0</v>
@@ -18544,10 +18544,10 @@
         </is>
       </c>
       <c r="F602" t="n">
-        <v>471866.2675939417</v>
+        <v>470884.5513063128</v>
       </c>
       <c r="G602" t="n">
-        <v>0.9215630459297781</v>
+        <v>0.919645736907289</v>
       </c>
       <c r="H602" t="n">
         <v>0</v>
@@ -18575,13 +18575,13 @@
         </is>
       </c>
       <c r="F603" t="n">
-        <v>9034.848578924804</v>
+        <v>8833.539478000623</v>
       </c>
       <c r="G603" t="n">
-        <v>0.01764521676525786</v>
+        <v>0.01725205658204103</v>
       </c>
       <c r="H603" t="n">
-        <v>25.91181342222768</v>
+        <v>25.33446186865416</v>
       </c>
       <c r="I603" t="n">
         <v>20.56555353171865</v>
@@ -18724,10 +18724,10 @@
         </is>
       </c>
       <c r="F608" t="n">
-        <v>10348.73455090319</v>
+        <v>10422.33838437079</v>
       </c>
       <c r="G608" t="n">
-        <v>0.01992682312946218</v>
+        <v>0.02006854969167565</v>
       </c>
       <c r="H608" t="n">
         <v>0</v>
@@ -18842,10 +18842,10 @@
         </is>
       </c>
       <c r="F612" t="n">
-        <v>19296.03942871596</v>
+        <v>19399.05962203821</v>
       </c>
       <c r="G612" t="n">
-        <v>0.03715514809118312</v>
+        <v>0.03735351680583106</v>
       </c>
       <c r="H612" t="n">
         <v>0</v>
@@ -18873,10 +18873,10 @@
         </is>
       </c>
       <c r="F613" t="n">
-        <v>481554.6137564877</v>
+        <v>481559.032647819</v>
       </c>
       <c r="G613" t="n">
-        <v>0.9272489856901899</v>
+        <v>0.9272574944083868</v>
       </c>
       <c r="H613" t="n">
         <v>0</v>
@@ -18904,13 +18904,13 @@
         </is>
       </c>
       <c r="F614" t="n">
-        <v>8137.51226389328</v>
+        <v>7956.469345772069</v>
       </c>
       <c r="G614" t="n">
-        <v>0.01566904308916481</v>
+        <v>0.01532043909410648</v>
       </c>
       <c r="H614" t="n">
-        <v>23.33826601089373</v>
+        <v>22.81903757283055</v>
       </c>
       <c r="I614" t="n">
         <v>20.56555353171865</v>
@@ -19053,10 +19053,10 @@
         </is>
       </c>
       <c r="F619" t="n">
-        <v>10888.29513263748</v>
+        <v>10966.06355889523</v>
       </c>
       <c r="G619" t="n">
-        <v>0.01956110709961536</v>
+        <v>0.01970082011220963</v>
       </c>
       <c r="H619" t="n">
         <v>0</v>
@@ -19113,13 +19113,13 @@
         </is>
       </c>
       <c r="F621" t="n">
-        <v>4662.055438582451</v>
+        <v>4569.979080812685</v>
       </c>
       <c r="G621" t="n">
-        <v>0.008375504578774711</v>
+        <v>0.008210086992849978</v>
       </c>
       <c r="H621" t="n">
-        <v>0.7371762740693736</v>
+        <v>0.7226169220314593</v>
       </c>
       <c r="I621" t="n">
         <v>20.56555353171865</v>
@@ -19173,10 +19173,10 @@
         </is>
       </c>
       <c r="F623" t="n">
-        <v>32205.02371008602</v>
+        <v>32377.20345652127</v>
       </c>
       <c r="G623" t="n">
-        <v>0.05785716774431773</v>
+        <v>0.05816649316389685</v>
       </c>
       <c r="H623" t="n">
         <v>0</v>
@@ -19204,10 +19204,10 @@
         </is>
       </c>
       <c r="F624" t="n">
-        <v>500312.6412088192</v>
+        <v>500345.0018266498</v>
       </c>
       <c r="G624" t="n">
-        <v>0.8988247506849603</v>
+        <v>0.898882887381613</v>
       </c>
       <c r="H624" t="n">
         <v>0</v>
@@ -19235,13 +19235,13 @@
         </is>
       </c>
       <c r="F625" t="n">
-        <v>8561.78450987478</v>
+        <v>8371.552077121034</v>
       </c>
       <c r="G625" t="n">
-        <v>0.015381469892332</v>
+        <v>0.01503971234943051</v>
       </c>
       <c r="H625" t="n">
-        <v>24.55507259952285</v>
+        <v>24.00948876806054</v>
       </c>
       <c r="I625" t="n">
         <v>20.56555353171865</v>
@@ -19384,10 +19384,10 @@
         </is>
       </c>
       <c r="F630" t="n">
-        <v>10632.40742434817</v>
+        <v>10709.10151912789</v>
       </c>
       <c r="G630" t="n">
-        <v>0.01945817042439983</v>
+        <v>0.0195985268561287</v>
       </c>
       <c r="H630" t="n">
         <v>0</v>
@@ -19444,13 +19444,13 @@
         </is>
       </c>
       <c r="F632" t="n">
-        <v>8122.147005652126</v>
+        <v>7965.256224335027</v>
       </c>
       <c r="G632" t="n">
-        <v>0.01486418967411765</v>
+        <v>0.01457706678284333</v>
       </c>
       <c r="H632" t="n">
-        <v>1.129983460768514</v>
+        <v>1.108156228644791</v>
       </c>
       <c r="I632" t="n">
         <v>20.56555353171865</v>
@@ -19504,10 +19504,10 @@
         </is>
       </c>
       <c r="F634" t="n">
-        <v>26367.05531254494</v>
+        <v>26510.14834762399</v>
       </c>
       <c r="G634" t="n">
-        <v>0.04825385591283714</v>
+        <v>0.04851572780618998</v>
       </c>
       <c r="H634" t="n">
         <v>0</v>
@@ -19535,10 +19535,10 @@
         </is>
       </c>
       <c r="F635" t="n">
-        <v>499930.4454229813</v>
+        <v>499991.6230921026</v>
       </c>
       <c r="G635" t="n">
-        <v>0.914913379364115</v>
+        <v>0.9150253394747863</v>
       </c>
       <c r="H635" t="n">
         <v>0</v>
@@ -19566,10 +19566,10 @@
         </is>
       </c>
       <c r="F636" t="n">
-        <v>1371.744834473497</v>
+        <v>1247.670816810379</v>
       </c>
       <c r="G636" t="n">
-        <v>0.002510404624530442</v>
+        <v>0.002283339080051746</v>
       </c>
       <c r="H636" t="n">
         <v>0</v>
@@ -19715,10 +19715,10 @@
         </is>
       </c>
       <c r="F641" t="n">
-        <v>10587.72473340315</v>
+        <v>10662.38499652161</v>
       </c>
       <c r="G641" t="n">
-        <v>0.01962274847460699</v>
+        <v>0.01976111999456156</v>
       </c>
       <c r="H641" t="n">
         <v>0</v>
@@ -19775,10 +19775,10 @@
         </is>
       </c>
       <c r="F643" t="n">
-        <v>3027.472032030351</v>
+        <v>2896.02788544</v>
       </c>
       <c r="G643" t="n">
-        <v>0.005610962099440975</v>
+        <v>0.005367350228907128</v>
       </c>
       <c r="H643" t="n">
         <v>0</v>
@@ -19835,10 +19835,10 @@
         </is>
       </c>
       <c r="F645" t="n">
-        <v>25233.61809732834</v>
+        <v>25366.5384610368</v>
       </c>
       <c r="G645" t="n">
-        <v>0.04676669950305846</v>
+        <v>0.04701304731903215</v>
       </c>
       <c r="H645" t="n">
         <v>0</v>
@@ -19866,10 +19866,10 @@
         </is>
       </c>
       <c r="F646" t="n">
-        <v>500714.9851372382</v>
+        <v>500638.8486570016</v>
       </c>
       <c r="G646" t="n">
-        <v>0.9279995899228936</v>
+        <v>0.9278584824574991</v>
       </c>
       <c r="H646" t="n">
         <v>0</v>
@@ -20044,10 +20044,10 @@
         </is>
       </c>
       <c r="F652" t="n">
-        <v>9662.604331130829</v>
+        <v>9729.428692702018</v>
       </c>
       <c r="G652" t="n">
-        <v>0.01974016670660112</v>
+        <v>0.01987668518467101</v>
       </c>
       <c r="H652" t="n">
         <v>0</v>
@@ -20162,10 +20162,10 @@
         </is>
       </c>
       <c r="F656" t="n">
-        <v>20986.88009272661</v>
+        <v>21094.67647595089</v>
       </c>
       <c r="G656" t="n">
-        <v>0.04287503632402045</v>
+        <v>0.04309525837827142</v>
       </c>
       <c r="H656" t="n">
         <v>0</v>
@@ -20193,10 +20193,10 @@
         </is>
       </c>
       <c r="F657" t="n">
-        <v>458840.0155761425</v>
+        <v>458665.3948313471</v>
       </c>
       <c r="G657" t="n">
-        <v>0.9373847969693785</v>
+        <v>0.9370280564370576</v>
       </c>
       <c r="H657" t="n">
         <v>0</v>
@@ -20371,10 +20371,10 @@
         </is>
       </c>
       <c r="F663" t="n">
-        <v>9160.48019011758</v>
+        <v>9227.975943013495</v>
       </c>
       <c r="G663" t="n">
-        <v>0.01967829857399443</v>
+        <v>0.01982329114538771</v>
       </c>
       <c r="H663" t="n">
         <v>0</v>
@@ -20460,13 +20460,13 @@
         </is>
       </c>
       <c r="F666" t="n">
-        <v>5216.798781168783</v>
+        <v>4890.500385182228</v>
       </c>
       <c r="G666" t="n">
-        <v>0.01120658763358691</v>
+        <v>0.01050564214523075</v>
       </c>
       <c r="H666" t="n">
-        <v>3.394815511132843</v>
+        <v>3.18247784920279</v>
       </c>
       <c r="I666" t="n">
         <v>20.56555353171865</v>
@@ -20491,10 +20491,10 @@
         </is>
       </c>
       <c r="F667" t="n">
-        <v>17038.614923644</v>
+        <v>17133.93519873665</v>
       </c>
       <c r="G667" t="n">
-        <v>0.0366018969307416</v>
+        <v>0.03680666139663195</v>
       </c>
       <c r="H667" t="n">
         <v>0</v>
@@ -20522,10 +20522,10 @@
         </is>
       </c>
       <c r="F668" t="n">
-        <v>434095.9061050696</v>
+        <v>434259.3884730675</v>
       </c>
       <c r="G668" t="n">
-        <v>0.932513216861677</v>
+        <v>0.9328644053127496</v>
       </c>
       <c r="H668" t="n">
         <v>0</v>
@@ -20700,10 +20700,10 @@
         </is>
       </c>
       <c r="F674" t="n">
-        <v>9384.086548221989</v>
+        <v>9441.962296662592</v>
       </c>
       <c r="G674" t="n">
-        <v>0.02153252266233968</v>
+        <v>0.0216653231068468</v>
       </c>
       <c r="H674" t="n">
         <v>0</v>
@@ -20789,10 +20789,10 @@
         </is>
       </c>
       <c r="F677" t="n">
-        <v>1558.252910022715</v>
+        <v>2433.193927641475</v>
       </c>
       <c r="G677" t="n">
-        <v>0.003575533529694289</v>
+        <v>0.005583154324033197</v>
       </c>
       <c r="H677" t="n">
         <v>0</v>
@@ -20820,10 +20820,10 @@
         </is>
       </c>
       <c r="F678" t="n">
-        <v>16717.72655847241</v>
+        <v>16791.24082827899</v>
       </c>
       <c r="G678" t="n">
-        <v>0.03836013490852872</v>
+        <v>0.03852881916697853</v>
       </c>
       <c r="H678" t="n">
         <v>0</v>
@@ -20851,10 +20851,10 @@
         </is>
       </c>
       <c r="F679" t="n">
-        <v>408149.8339832829</v>
+        <v>407143.5029474169</v>
       </c>
       <c r="G679" t="n">
-        <v>0.9365318088994373</v>
+        <v>0.9342227034021415</v>
       </c>
       <c r="H679" t="n">
         <v>0</v>
@@ -21029,10 +21029,10 @@
         </is>
       </c>
       <c r="F685" t="n">
-        <v>8849.229593801163</v>
+        <v>8910.442425398493</v>
       </c>
       <c r="G685" t="n">
-        <v>0.02141325664655459</v>
+        <v>0.02156137870160605</v>
       </c>
       <c r="H685" t="n">
         <v>0</v>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="F688" t="n">
-        <v>43.560919385783</v>
+        <v>366.8694655748652</v>
       </c>
       <c r="G688" t="n">
-        <v>0.0001054081755570061</v>
+        <v>0.0008877462087368495</v>
       </c>
       <c r="H688" t="n">
         <v>0</v>
@@ -21149,10 +21149,10 @@
         </is>
       </c>
       <c r="F689" t="n">
-        <v>20784.24072337165</v>
+        <v>20890.95242966033</v>
       </c>
       <c r="G689" t="n">
-        <v>0.05029344940096137</v>
+        <v>0.05055166907192027</v>
       </c>
       <c r="H689" t="n">
         <v>0</v>
@@ -21180,10 +21180,10 @@
         </is>
       </c>
       <c r="F690" t="n">
-        <v>383582.3687634414</v>
+        <v>383091.1356793663</v>
       </c>
       <c r="G690" t="n">
-        <v>0.928187885776927</v>
+        <v>0.9269992060177369</v>
       </c>
       <c r="H690" t="n">
         <v>0</v>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="F696" t="n">
-        <v>10134.87850438327</v>
+        <v>10209.43581968688</v>
       </c>
       <c r="G696" t="n">
-        <v>0.02117382425240101</v>
+        <v>0.0213295896609638</v>
       </c>
       <c r="H696" t="n">
         <v>0</v>
@@ -21476,10 +21476,10 @@
         </is>
       </c>
       <c r="F700" t="n">
-        <v>32229.30148264789</v>
+        <v>32408.3513250749</v>
       </c>
       <c r="G700" t="n">
-        <v>0.06733357139664699</v>
+        <v>0.0677076429648784</v>
       </c>
       <c r="H700" t="n">
         <v>0</v>
@@ -21507,10 +21507,10 @@
         </is>
       </c>
       <c r="F701" t="n">
-        <v>436287.1200129688</v>
+        <v>436033.5128552382</v>
       </c>
       <c r="G701" t="n">
-        <v>0.911492604350952</v>
+        <v>0.9109627673741578</v>
       </c>
       <c r="H701" t="n">
         <v>0</v>
@@ -21685,10 +21685,10 @@
         </is>
       </c>
       <c r="F707" t="n">
-        <v>10499.52139062148</v>
+        <v>10575.75666919703</v>
       </c>
       <c r="G707" t="n">
-        <v>0.02084384782785588</v>
+        <v>0.02099519154026188</v>
       </c>
       <c r="H707" t="n">
         <v>0</v>
@@ -21803,10 +21803,10 @@
         </is>
       </c>
       <c r="F711" t="n">
-        <v>45672.93021408952</v>
+        <v>45921.19350830762</v>
       </c>
       <c r="G711" t="n">
-        <v>0.09067076220113428</v>
+        <v>0.09116361917369557</v>
       </c>
       <c r="H711" t="n">
         <v>0</v>
@@ -21834,10 +21834,10 @@
         </is>
       </c>
       <c r="F712" t="n">
-        <v>447550.348395289</v>
+        <v>447225.8498224954</v>
       </c>
       <c r="G712" t="n">
-        <v>0.8884853899710098</v>
+        <v>0.8878411892860426</v>
       </c>
       <c r="H712" t="n">
         <v>0</v>
@@ -22012,10 +22012,10 @@
         </is>
       </c>
       <c r="F718" t="n">
-        <v>9073.340235846799</v>
+        <v>9127.931593054869</v>
       </c>
       <c r="G718" t="n">
-        <v>0.02234294465630585</v>
+        <v>0.02247737493678774</v>
       </c>
       <c r="H718" t="n">
         <v>0</v>
@@ -22101,13 +22101,13 @@
         </is>
       </c>
       <c r="F721" t="n">
-        <v>352.1516461183286</v>
+        <v>675.5313813374403</v>
       </c>
       <c r="G721" t="n">
-        <v>0.0008671673865776183</v>
+        <v>0.001663484436215637</v>
       </c>
       <c r="H721" t="n">
-        <v>1.001790438777097</v>
+        <v>1.921731408548739</v>
       </c>
       <c r="I721" t="n">
         <v>20.56555353171865</v>
@@ -22132,10 +22132,10 @@
         </is>
       </c>
       <c r="F722" t="n">
-        <v>31839.49770356941</v>
+        <v>31973.581697111</v>
       </c>
       <c r="G722" t="n">
-        <v>0.07840421681365901</v>
+        <v>0.07873439634722929</v>
       </c>
       <c r="H722" t="n">
         <v>0</v>
@@ -22163,10 +22163,10 @@
         </is>
       </c>
       <c r="F723" t="n">
-        <v>364829.2104144655</v>
+        <v>364317.1553284967</v>
       </c>
       <c r="G723" t="n">
-        <v>0.8983856711434575</v>
+        <v>0.8971247442797673</v>
       </c>
       <c r="H723" t="n">
         <v>0</v>
@@ -22345,10 +22345,10 @@
         </is>
       </c>
       <c r="F729" t="n">
-        <v>8313.965290594479</v>
+        <v>8370.609599968346</v>
       </c>
       <c r="G729" t="n">
-        <v>0.0225333734384095</v>
+        <v>0.02268689673706052</v>
       </c>
       <c r="H729" t="n">
         <v>0</v>
@@ -22463,10 +22463,10 @@
         </is>
       </c>
       <c r="F733" t="n">
-        <v>21205.30756415868</v>
+        <v>21311.88813735337</v>
       </c>
       <c r="G733" t="n">
-        <v>0.05747283005379866</v>
+        <v>0.05776169580836137</v>
       </c>
       <c r="H733" t="n">
         <v>0</v>
@@ -22494,10 +22494,10 @@
         </is>
       </c>
       <c r="F734" t="n">
-        <v>335935.0960600203</v>
+        <v>335874.624999548</v>
       </c>
       <c r="G734" t="n">
-        <v>0.9104862368323817</v>
+        <v>0.9103223418748961</v>
       </c>
       <c r="H734" t="n">
         <v>0</v>
@@ -22525,13 +22525,13 @@
         </is>
       </c>
       <c r="F735" t="n">
-        <v>3507.931085226554</v>
+        <v>3405.177263130314</v>
       </c>
       <c r="G735" t="n">
-        <v>0.009507559675410074</v>
+        <v>0.009229065579682026</v>
       </c>
       <c r="H735" t="n">
-        <v>10.30607778840094</v>
+        <v>10.00419361284253</v>
       </c>
       <c r="I735" t="n">
         <v>20.56555353171865</v>
@@ -22676,10 +22676,10 @@
         </is>
       </c>
       <c r="F740" t="n">
-        <v>9391.260617152815</v>
+        <v>9453.56169858153</v>
       </c>
       <c r="G740" t="n">
-        <v>0.02199687123545114</v>
+        <v>0.0221427972108749</v>
       </c>
       <c r="H740" t="n">
         <v>0</v>
@@ -22794,10 +22794,10 @@
         </is>
       </c>
       <c r="F744" t="n">
-        <v>41861.65695442678</v>
+        <v>42062.91441753707</v>
       </c>
       <c r="G744" t="n">
-        <v>0.09805131763112797</v>
+        <v>0.09852271701846098</v>
       </c>
       <c r="H744" t="n">
         <v>0</v>
@@ -22825,10 +22825,10 @@
         </is>
       </c>
       <c r="F745" t="n">
-        <v>374254.5151103778</v>
+        <v>374082.5786716917</v>
       </c>
       <c r="G745" t="n">
-        <v>0.8766052518160273</v>
+        <v>0.8762025301946559</v>
       </c>
       <c r="H745" t="n">
         <v>0</v>
@@ -22856,13 +22856,13 @@
         </is>
       </c>
       <c r="F746" t="n">
-        <v>1428.767318042599</v>
+        <v>1337.145212189754</v>
       </c>
       <c r="G746" t="n">
-        <v>0.003346559317393557</v>
+        <v>0.003131955576008204</v>
       </c>
       <c r="H746" t="n">
-        <v>14.69169538178758</v>
+        <v>13.74956572048484</v>
       </c>
       <c r="I746" t="n">
         <v>20.56555353171865</v>
@@ -23007,10 +23007,10 @@
         </is>
       </c>
       <c r="F751" t="n">
-        <v>8286.280870371123</v>
+        <v>8341.318009207003</v>
       </c>
       <c r="G751" t="n">
-        <v>0.02275175065401824</v>
+        <v>0.0229028668518751</v>
       </c>
       <c r="H751" t="n">
         <v>0</v>
@@ -23125,10 +23125,10 @@
         </is>
       </c>
       <c r="F755" t="n">
-        <v>19334.93737116705</v>
+        <v>19428.89969591693</v>
       </c>
       <c r="G755" t="n">
-        <v>0.05308819250295934</v>
+        <v>0.05334618609707287</v>
       </c>
       <c r="H755" t="n">
         <v>0</v>
@@ -23156,10 +23156,10 @@
         </is>
       </c>
       <c r="F756" t="n">
-        <v>336582.8817584618</v>
+        <v>336433.882294876</v>
       </c>
       <c r="G756" t="n">
-        <v>0.9241600568430225</v>
+        <v>0.923750947051052</v>
       </c>
       <c r="H756" t="n">
         <v>0</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="F762" t="n">
-        <v>10618.22286571057</v>
+        <v>10686.67951778991</v>
       </c>
       <c r="G762" t="n">
-        <v>0.02185398695314842</v>
+        <v>0.02199488160193464</v>
       </c>
       <c r="H762" t="n">
         <v>0</v>
@@ -23452,10 +23452,10 @@
         </is>
       </c>
       <c r="F766" t="n">
-        <v>53745.13761310166</v>
+        <v>53992.82489329303</v>
       </c>
       <c r="G766" t="n">
-        <v>0.1106160184285499</v>
+        <v>0.11112579814011</v>
       </c>
       <c r="H766" t="n">
         <v>0</v>
@@ -23483,10 +23483,10 @@
         </is>
       </c>
       <c r="F767" t="n">
-        <v>421507.8395211878</v>
+        <v>421191.6955889171</v>
       </c>
       <c r="G767" t="n">
-        <v>0.8675299946183016</v>
+        <v>0.8668793202579553</v>
       </c>
       <c r="H767" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         </is>
       </c>
       <c r="F773" t="n">
-        <v>10836.54290125278</v>
+        <v>10907.42140724393</v>
       </c>
       <c r="G773" t="n">
-        <v>0.02312464275273765</v>
+        <v>0.02327589395386598</v>
       </c>
       <c r="H773" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="F777" t="n">
-        <v>52063.70359147277</v>
+        <v>52308.78615972994</v>
       </c>
       <c r="G777" t="n">
-        <v>0.1111013500253892</v>
+        <v>0.1116243440178013</v>
       </c>
       <c r="H777" t="n">
         <v>0</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="F778" t="n">
-        <v>405714.2535072744</v>
+        <v>405398.2924330261</v>
       </c>
       <c r="G778" t="n">
-        <v>0.865774007221873</v>
+        <v>0.8650997620283327</v>
       </c>
       <c r="H778" t="n">
         <v>0</v>
@@ -23988,10 +23988,10 @@
         </is>
       </c>
       <c r="F784" t="n">
-        <v>9190.650601988027</v>
+        <v>9251.699253345094</v>
       </c>
       <c r="G784" t="n">
-        <v>0.02360815649529752</v>
+        <v>0.02376497304479759</v>
       </c>
       <c r="H784" t="n">
         <v>0</v>
@@ -24106,10 +24106,10 @@
         </is>
       </c>
       <c r="F788" t="n">
-        <v>32216.24189693771</v>
+        <v>32372.03961718633</v>
       </c>
       <c r="G788" t="n">
-        <v>0.08275432429438111</v>
+        <v>0.08315452414099964</v>
       </c>
       <c r="H788" t="n">
         <v>0</v>
@@ -24137,10 +24137,10 @@
         </is>
       </c>
       <c r="F789" t="n">
-        <v>347892.9075010743</v>
+        <v>347676.0611294686</v>
       </c>
       <c r="G789" t="n">
-        <v>0.8936375192103213</v>
+        <v>0.8930805028142027</v>
       </c>
       <c r="H789" t="n">
         <v>0</v>
@@ -24315,10 +24315,10 @@
         </is>
       </c>
       <c r="F795" t="n">
-        <v>8828.217826847593</v>
+        <v>8887.137822829849</v>
       </c>
       <c r="G795" t="n">
-        <v>0.02375709008889204</v>
+        <v>0.02391564617348827</v>
       </c>
       <c r="H795" t="n">
         <v>0</v>
@@ -24433,10 +24433,10 @@
         </is>
       </c>
       <c r="F799" t="n">
-        <v>27507.12201443502</v>
+        <v>27641.23556119628</v>
       </c>
       <c r="G799" t="n">
-        <v>0.07402277431303801</v>
+        <v>0.07438367927427023</v>
       </c>
       <c r="H799" t="n">
         <v>0</v>
@@ -24464,10 +24464,10 @@
         </is>
       </c>
       <c r="F800" t="n">
-        <v>335268.1601587174</v>
+        <v>335075.1266159739</v>
       </c>
       <c r="G800" t="n">
-        <v>0.9022201355980699</v>
+        <v>0.9017006745522416</v>
       </c>
       <c r="H800" t="n">
         <v>0</v>
@@ -24642,10 +24642,10 @@
         </is>
       </c>
       <c r="F806" t="n">
-        <v>8679.884894363699</v>
+        <v>8736.038580588263</v>
       </c>
       <c r="G806" t="n">
-        <v>0.02278254973804628</v>
+        <v>0.02292993926739552</v>
       </c>
       <c r="H806" t="n">
         <v>0</v>
@@ -24760,10 +24760,10 @@
         </is>
       </c>
       <c r="F810" t="n">
-        <v>49969.39050088586</v>
+        <v>50200.06170019537</v>
       </c>
       <c r="G810" t="n">
-        <v>0.1311572835724506</v>
+        <v>0.1317627383838175</v>
       </c>
       <c r="H810" t="n">
         <v>0</v>
@@ -24791,10 +24791,10 @@
         </is>
       </c>
       <c r="F811" t="n">
-        <v>322339.0246047504</v>
+        <v>322052.1997192164</v>
       </c>
       <c r="G811" t="n">
-        <v>0.8460601666895032</v>
+        <v>0.8453073223487869</v>
       </c>
       <c r="H811" t="n">
         <v>0</v>
@@ -24969,10 +24969,10 @@
         </is>
       </c>
       <c r="F817" t="n">
-        <v>8955.305845273173</v>
+        <v>9016.286875962998</v>
       </c>
       <c r="G817" t="n">
-        <v>0.02087444953304641</v>
+        <v>0.02101659380702224</v>
       </c>
       <c r="H817" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         </is>
       </c>
       <c r="F821" t="n">
-        <v>40133.8161776181</v>
+        <v>40333.77905618404</v>
       </c>
       <c r="G821" t="n">
-        <v>0.0935502745347828</v>
+        <v>0.09401637977889467</v>
       </c>
       <c r="H821" t="n">
         <v>0</v>
@@ -25118,10 +25118,10 @@
         </is>
       </c>
       <c r="F822" t="n">
-        <v>379918.8779771088</v>
+        <v>379657.934067853</v>
       </c>
       <c r="G822" t="n">
-        <v>0.8855752759321709</v>
+        <v>0.8849670264140831</v>
       </c>
       <c r="H822" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         </is>
       </c>
       <c r="F828" t="n">
-        <v>8686.297163140331</v>
+        <v>8745.418503342507</v>
       </c>
       <c r="G828" t="n">
-        <v>0.02086174144463777</v>
+        <v>0.02100373222505823</v>
       </c>
       <c r="H828" t="n">
         <v>0</v>
@@ -25414,10 +25414,10 @@
         </is>
       </c>
       <c r="F832" t="n">
-        <v>39324.08204499866</v>
+        <v>39519.84712951608</v>
       </c>
       <c r="G832" t="n">
-        <v>0.09444402105556095</v>
+        <v>0.09491418693872002</v>
       </c>
       <c r="H832" t="n">
         <v>0</v>
@@ -25445,10 +25445,10 @@
         </is>
       </c>
       <c r="F833" t="n">
-        <v>368364.120791861</v>
+        <v>368109.2343671414</v>
       </c>
       <c r="G833" t="n">
-        <v>0.8846942374998011</v>
+        <v>0.8840820808362216</v>
       </c>
       <c r="H833" t="n">
         <v>0</v>
@@ -25623,10 +25623,10 @@
         </is>
       </c>
       <c r="F839" t="n">
-        <v>10981.31052649417</v>
+        <v>11055.97477095834</v>
       </c>
       <c r="G839" t="n">
-        <v>0.02083374855432212</v>
+        <v>0.02097540160123414</v>
       </c>
       <c r="H839" t="n">
         <v>0</v>
@@ -25741,10 +25741,10 @@
         </is>
       </c>
       <c r="F843" t="n">
-        <v>50818.41811764366</v>
+        <v>51070.93978029275</v>
       </c>
       <c r="G843" t="n">
-        <v>0.09641273165320477</v>
+        <v>0.09689181589469464</v>
       </c>
       <c r="H843" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         </is>
       </c>
       <c r="F844" t="n">
-        <v>465292.6713558621</v>
+        <v>464965.485448749</v>
       </c>
       <c r="G844" t="n">
-        <v>0.8827535197924732</v>
+        <v>0.8821327825040713</v>
       </c>
       <c r="H844" t="n">
         <v>0</v>
@@ -25950,10 +25950,10 @@
         </is>
       </c>
       <c r="F850" t="n">
-        <v>9791.005978582829</v>
+        <v>9844.323514050431</v>
       </c>
       <c r="G850" t="n">
-        <v>0.02133990823819523</v>
+        <v>0.02145611604328228</v>
       </c>
       <c r="H850" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         </is>
       </c>
       <c r="F854" t="n">
-        <v>37442.75357765648</v>
+        <v>37578.84391127257</v>
       </c>
       <c r="G854" t="n">
-        <v>0.08160805205107209</v>
+        <v>0.08190466664183275</v>
       </c>
       <c r="H854" t="n">
         <v>0</v>
@@ -26099,10 +26099,10 @@
         </is>
       </c>
       <c r="F855" t="n">
-        <v>411578.2404437606</v>
+        <v>411388.832574677</v>
       </c>
       <c r="G855" t="n">
-        <v>0.8970520397107327</v>
+        <v>0.8966392173148849</v>
       </c>
       <c r="H855" t="n">
         <v>0</v>
@@ -26277,10 +26277,10 @@
         </is>
       </c>
       <c r="F861" t="n">
-        <v>9672.369524150536</v>
+        <v>9728.77343416966</v>
       </c>
       <c r="G861" t="n">
-        <v>0.02342960093964452</v>
+        <v>0.02356622941520928</v>
       </c>
       <c r="H861" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         </is>
       </c>
       <c r="F865" t="n">
-        <v>20662.44048685501</v>
+        <v>20746.22042510356</v>
       </c>
       <c r="G865" t="n">
-        <v>0.05005110007815626</v>
+        <v>0.05025404213025741</v>
       </c>
       <c r="H865" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         </is>
       </c>
       <c r="F866" t="n">
-        <v>382492.0899889945</v>
+        <v>382351.9061407268</v>
       </c>
       <c r="G866" t="n">
-        <v>0.9265192989821992</v>
+        <v>0.9261797284545333</v>
       </c>
       <c r="H866" t="n">
         <v>0</v>
@@ -26606,10 +26606,10 @@
         </is>
       </c>
       <c r="F872" t="n">
-        <v>10981.93462248336</v>
+        <v>11043.33563223405</v>
       </c>
       <c r="G872" t="n">
-        <v>0.0218882409946819</v>
+        <v>0.02201062016965791</v>
       </c>
       <c r="H872" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         </is>
       </c>
       <c r="F876" t="n">
-        <v>72628.92226991156</v>
+        <v>72899.2135080119</v>
       </c>
       <c r="G876" t="n">
-        <v>0.144757677811449</v>
+        <v>0.1452963988985496</v>
       </c>
       <c r="H876" t="n">
         <v>0</v>
@@ -26755,10 +26755,10 @@
         </is>
       </c>
       <c r="F877" t="n">
-        <v>418116.7431076051</v>
+        <v>417785.050859754</v>
       </c>
       <c r="G877" t="n">
-        <v>0.8333540811938691</v>
+        <v>0.8326929809317926</v>
       </c>
       <c r="H877" t="n">
         <v>0</v>
@@ -26933,10 +26933,10 @@
         </is>
       </c>
       <c r="F883" t="n">
-        <v>8742.37250648362</v>
+        <v>8792.690765314323</v>
       </c>
       <c r="G883" t="n">
-        <v>0.02295248027313816</v>
+        <v>0.02308458730041638</v>
       </c>
       <c r="H883" t="n">
         <v>0</v>
@@ -27051,10 +27051,10 @@
         </is>
       </c>
       <c r="F887" t="n">
-        <v>30230.13214465138</v>
+        <v>30349.59484989868</v>
       </c>
       <c r="G887" t="n">
-        <v>0.07936707240395953</v>
+        <v>0.07968071328159668</v>
       </c>
       <c r="H887" t="n">
         <v>0</v>
@@ -27082,10 +27082,10 @@
         </is>
       </c>
       <c r="F888" t="n">
-        <v>341917.595348865</v>
+        <v>341747.814384787</v>
       </c>
       <c r="G888" t="n">
-        <v>0.8976804473229023</v>
+        <v>0.8972346994179871</v>
       </c>
       <c r="H888" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         </is>
       </c>
       <c r="F894" t="n">
-        <v>8216.917591369845</v>
+        <v>8264.551743120734</v>
       </c>
       <c r="G894" t="n">
-        <v>0.02321411040887938</v>
+        <v>0.02334868452936707</v>
       </c>
       <c r="H894" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="F898" t="n">
-        <v>22402.8327080258</v>
+        <v>22492.62850512535</v>
       </c>
       <c r="G898" t="n">
-        <v>0.0632915964134752</v>
+        <v>0.063545283945928</v>
       </c>
       <c r="H898" t="n">
         <v>0</v>
@@ -27409,10 +27409,10 @@
         </is>
       </c>
       <c r="F899" t="n">
-        <v>323342.4497006044</v>
+        <v>323205.0197517539</v>
       </c>
       <c r="G899" t="n">
-        <v>0.9134942931776454</v>
+        <v>0.913106031524705</v>
       </c>
       <c r="H899" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         </is>
       </c>
       <c r="F905" t="n">
-        <v>8332.191798988617</v>
+        <v>8380.82407524832</v>
       </c>
       <c r="G905" t="n">
-        <v>0.02346224543328441</v>
+        <v>0.02359918688027834</v>
       </c>
       <c r="H905" t="n">
         <v>0</v>
@@ -27705,10 +27705,10 @@
         </is>
       </c>
       <c r="F909" t="n">
-        <v>17062.42135315594</v>
+        <v>17131.7243504569</v>
       </c>
       <c r="G909" t="n">
-        <v>0.04804530754110215</v>
+        <v>0.0482404547450029</v>
       </c>
       <c r="H909" t="n">
         <v>0</v>
@@ -27736,10 +27736,10 @@
         </is>
       </c>
       <c r="F910" t="n">
-        <v>329737.2868478555</v>
+        <v>329619.3515742948</v>
       </c>
       <c r="G910" t="n">
-        <v>0.9284924470256135</v>
+        <v>0.9281603583747188</v>
       </c>
       <c r="H910" t="n">
         <v>0</v>
@@ -27914,10 +27914,10 @@
         </is>
       </c>
       <c r="F916" t="n">
-        <v>9129.066451799645</v>
+        <v>9193.198270543491</v>
       </c>
       <c r="G916" t="n">
-        <v>0.0253822079824493</v>
+        <v>0.02556051834641079</v>
       </c>
       <c r="H916" t="n">
         <v>0</v>
@@ -28032,10 +28032,10 @@
         </is>
       </c>
       <c r="F920" t="n">
-        <v>9538.028783903766</v>
+        <v>9588.280518152433</v>
       </c>
       <c r="G920" t="n">
-        <v>0.02651927572374151</v>
+        <v>0.02665899427841661</v>
       </c>
       <c r="H920" t="n">
         <v>0</v>
@@ -28063,10 +28063,10 @@
         </is>
       </c>
       <c r="F921" t="n">
-        <v>340996.9047642966</v>
+        <v>340882.5212113041</v>
       </c>
       <c r="G921" t="n">
-        <v>0.9480985162938093</v>
+        <v>0.9477804873751725</v>
       </c>
       <c r="H921" t="n">
         <v>0</v>
@@ -28241,10 +28241,10 @@
         </is>
       </c>
       <c r="F927" t="n">
-        <v>9011.688848429181</v>
+        <v>9075.853792623513</v>
       </c>
       <c r="G927" t="n">
-        <v>0.02581481569621679</v>
+        <v>0.02599862210990844</v>
       </c>
       <c r="H927" t="n">
         <v>0</v>
@@ -28359,10 +28359,10 @@
         </is>
       </c>
       <c r="F931" t="n">
-        <v>821.2785885115709</v>
+        <v>825.6995732161492</v>
       </c>
       <c r="G931" t="n">
-        <v>0.002352628431170349</v>
+        <v>0.002365292750507604</v>
       </c>
       <c r="H931" t="n">
         <v>0</v>
@@ -28390,10 +28390,10 @@
         </is>
       </c>
       <c r="F932" t="n">
-        <v>339256.8325630592</v>
+        <v>339188.2466341603</v>
       </c>
       <c r="G932" t="n">
-        <v>0.9718325558726129</v>
+        <v>0.971636085139584</v>
       </c>
       <c r="H932" t="n">
         <v>0</v>
@@ -28568,10 +28568,10 @@
         </is>
       </c>
       <c r="F938" t="n">
-        <v>9096.543493836782</v>
+        <v>9161.485377549303</v>
       </c>
       <c r="G938" t="n">
-        <v>0.02590077399803302</v>
+        <v>0.0260856843493312</v>
       </c>
       <c r="H938" t="n">
         <v>0</v>
@@ -28686,10 +28686,10 @@
         </is>
       </c>
       <c r="F942" t="n">
-        <v>-860.1901066793664</v>
+        <v>-864.8401141696053</v>
       </c>
       <c r="G942" t="n">
-        <v>-0.002449236851727402</v>
+        <v>-0.002462476912985334</v>
       </c>
       <c r="H942" t="n">
         <v>0</v>
@@ -28717,10 +28717,10 @@
         </is>
       </c>
       <c r="F943" t="n">
-        <v>342971.0466128426</v>
+        <v>342910.7547366204</v>
       </c>
       <c r="G943" t="n">
-        <v>0.9765484628536943</v>
+        <v>0.9763767925636542</v>
       </c>
       <c r="H943" t="n">
         <v>0</v>
@@ -28864,10 +28864,10 @@
         </is>
       </c>
       <c r="F948" t="n">
-        <v>7493.200774340841</v>
+        <v>7562.645344148781</v>
       </c>
       <c r="G948" t="n">
-        <v>0.02069369314762673</v>
+        <v>0.02088547562639007</v>
       </c>
       <c r="H948" t="n">
         <v>0</v>
@@ -28895,10 +28895,10 @@
         </is>
       </c>
       <c r="F949" t="n">
-        <v>9243.552476823499</v>
+        <v>9308.248017954476</v>
       </c>
       <c r="G949" t="n">
-        <v>0.02552757417155918</v>
+        <v>0.0257062414349226</v>
       </c>
       <c r="H949" t="n">
         <v>0</v>
@@ -29013,10 +29013,10 @@
         </is>
       </c>
       <c r="F953" t="n">
-        <v>-828.5720011694231</v>
+        <v>-832.9350460479385</v>
       </c>
       <c r="G953" t="n">
-        <v>-0.00228823639713876</v>
+        <v>-0.002300285655476332</v>
       </c>
       <c r="H953" t="n">
         <v>0</v>
@@ -29044,10 +29044,10 @@
         </is>
       </c>
       <c r="F954" t="n">
-        <v>346192.5187500051</v>
+        <v>346062.7416839447</v>
       </c>
       <c r="G954" t="n">
-        <v>0.9560669690779529</v>
+        <v>0.9557085685941638</v>
       </c>
       <c r="H954" t="n">
         <v>0</v>
@@ -29191,10 +29191,10 @@
         </is>
       </c>
       <c r="F959" t="n">
-        <v>17003.47183315063</v>
+        <v>17181.59420889119</v>
       </c>
       <c r="G959" t="n">
-        <v>0.04557050483994117</v>
+        <v>0.04604788538112932</v>
       </c>
       <c r="H959" t="n">
         <v>0</v>
@@ -29222,10 +29222,10 @@
         </is>
       </c>
       <c r="F960" t="n">
-        <v>8935.547806910039</v>
+        <v>9009.221214590654</v>
       </c>
       <c r="G960" t="n">
-        <v>0.0239478989101762</v>
+        <v>0.02414534884359149</v>
       </c>
       <c r="H960" t="n">
         <v>0</v>
@@ -29340,10 +29340,10 @@
         </is>
       </c>
       <c r="F964" t="n">
-        <v>10460.67371488006</v>
+        <v>10528.49886772349</v>
       </c>
       <c r="G964" t="n">
-        <v>0.0280353440068397</v>
+        <v>0.02821712020444513</v>
       </c>
       <c r="H964" t="n">
         <v>0</v>
@@ -29371,10 +29371,10 @@
         </is>
       </c>
       <c r="F965" t="n">
-        <v>336724.8066450593</v>
+        <v>336405.1857087947</v>
       </c>
       <c r="G965" t="n">
-        <v>0.9024462522430429</v>
+        <v>0.9015896455708341</v>
       </c>
       <c r="H965" t="n">
         <v>0</v>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="F970" t="n">
-        <v>18901.03449877074</v>
+        <v>19099.71270759449</v>
       </c>
       <c r="G970" t="n">
-        <v>0.04746745956953324</v>
+        <v>0.04796641373234913</v>
       </c>
       <c r="H970" t="n">
         <v>0</v>
@@ -29549,10 +29549,10 @@
         </is>
       </c>
       <c r="F971" t="n">
-        <v>9589.180401178395</v>
+        <v>9668.610486503416</v>
       </c>
       <c r="G971" t="n">
-        <v>0.02408196403363524</v>
+        <v>0.02428144223489535</v>
       </c>
       <c r="H971" t="n">
         <v>0</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="F975" t="n">
-        <v>7340.788441715039</v>
+        <v>7388.726580837404</v>
       </c>
       <c r="G975" t="n">
-        <v>0.01843542365833295</v>
+        <v>0.01855581398304124</v>
       </c>
       <c r="H975" t="n">
         <v>0</v>
@@ -29698,10 +29698,10 @@
         </is>
       </c>
       <c r="F976" t="n">
-        <v>362358.2966583358</v>
+        <v>362032.2502250647</v>
       </c>
       <c r="G976" t="n">
-        <v>0.9100151527384985</v>
+        <v>0.9091963300497143</v>
       </c>
       <c r="H976" t="n">
         <v>0</v>
@@ -29845,10 +29845,10 @@
         </is>
       </c>
       <c r="F981" t="n">
-        <v>31688.95227993112</v>
+        <v>32013.59443748507</v>
       </c>
       <c r="G981" t="n">
-        <v>0.08525254926714046</v>
+        <v>0.08612593161460878</v>
       </c>
       <c r="H981" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         </is>
       </c>
       <c r="F982" t="n">
-        <v>8829.956517649027</v>
+        <v>8901.283445649286</v>
       </c>
       <c r="G982" t="n">
-        <v>0.02375516540899717</v>
+        <v>0.02394705570532819</v>
       </c>
       <c r="H982" t="n">
         <v>0</v>
@@ -29994,10 +29994,10 @@
         </is>
       </c>
       <c r="F986" t="n">
-        <v>-102.6006367631572</v>
+        <v>-103.2512415024993</v>
       </c>
       <c r="G986" t="n">
-        <v>-0.0002760257190967644</v>
+        <v>-0.0002777760361190576</v>
       </c>
       <c r="H986" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         </is>
       </c>
       <c r="F987" t="n">
-        <v>331290.491839183</v>
+        <v>330895.1733583682</v>
       </c>
       <c r="G987" t="n">
-        <v>0.8912683110429592</v>
+        <v>0.890204788716182</v>
       </c>
       <c r="H987" t="n">
         <v>0</v>
@@ -30172,10 +30172,10 @@
         </is>
       </c>
       <c r="F992" t="n">
-        <v>30568.35439120624</v>
+        <v>30880.9041064</v>
       </c>
       <c r="G992" t="n">
-        <v>0.08968600694232953</v>
+        <v>0.0906030120112957</v>
       </c>
       <c r="H992" t="n">
         <v>0</v>
@@ -30203,10 +30203,10 @@
         </is>
       </c>
       <c r="F993" t="n">
-        <v>8094.938246985466</v>
+        <v>8160.223323186259</v>
       </c>
       <c r="G993" t="n">
-        <v>0.02375013972049867</v>
+        <v>0.02394168283474166</v>
       </c>
       <c r="H993" t="n">
         <v>0</v>
@@ -30321,10 +30321,10 @@
         </is>
       </c>
       <c r="F997" t="n">
-        <v>-1486.062709964905</v>
+        <v>-1495.472092012684</v>
       </c>
       <c r="G997" t="n">
-        <v>-0.004360032889470512</v>
+        <v>-0.004387639540874123</v>
       </c>
       <c r="H997" t="n">
         <v>0</v>
@@ -30352,10 +30352,10 @@
         </is>
       </c>
       <c r="F998" t="n">
-        <v>303660.2700717732</v>
+        <v>303291.8446624264</v>
       </c>
       <c r="G998" t="n">
-        <v>0.8909238862266423</v>
+        <v>0.8898429446948368</v>
       </c>
       <c r="H998" t="n">
         <v>0</v>
@@ -30499,10 +30499,10 @@
         </is>
       </c>
       <c r="F1003" t="n">
-        <v>31717.73963865951</v>
+        <v>32006.76057107498</v>
       </c>
       <c r="G1003" t="n">
-        <v>0.08504879295219048</v>
+        <v>0.0858237813883113</v>
       </c>
       <c r="H1003" t="n">
         <v>0</v>
@@ -30530,10 +30530,10 @@
         </is>
       </c>
       <c r="F1004" t="n">
-        <v>8399.311929685453</v>
+        <v>8457.728867387626</v>
       </c>
       <c r="G1004" t="n">
-        <v>0.02252213901075052</v>
+        <v>0.02267877974543508</v>
       </c>
       <c r="H1004" t="n">
         <v>0</v>
@@ -30648,10 +30648,10 @@
         </is>
       </c>
       <c r="F1008" t="n">
-        <v>10020.47420719702</v>
+        <v>10072.53664450719</v>
       </c>
       <c r="G1008" t="n">
-        <v>0.02686916677668656</v>
+        <v>0.02700876838455087</v>
       </c>
       <c r="H1008" t="n">
         <v>0</v>
@@ -30679,10 +30679,10 @@
         </is>
       </c>
       <c r="F1009" t="n">
-        <v>322798.274224458</v>
+        <v>322398.7739170302</v>
       </c>
       <c r="G1009" t="n">
-        <v>0.8655599012603725</v>
+        <v>0.8644886704817027</v>
       </c>
       <c r="H1009" t="n">
         <v>0</v>
@@ -30826,10 +30826,10 @@
         </is>
       </c>
       <c r="F1014" t="n">
-        <v>38775.4255229073</v>
+        <v>39127.5549051032</v>
       </c>
       <c r="G1014" t="n">
-        <v>0.08460097148320141</v>
+        <v>0.08536925416275455</v>
       </c>
       <c r="H1014" t="n">
         <v>0</v>
@@ -30857,10 +30857,10 @@
         </is>
       </c>
       <c r="F1015" t="n">
-        <v>10268.28827916264</v>
+        <v>10339.38595242443</v>
       </c>
       <c r="G1015" t="n">
-        <v>0.02240354946907094</v>
+        <v>0.02255867174424983</v>
       </c>
       <c r="H1015" t="n">
         <v>0</v>
@@ -30975,10 +30975,10 @@
         </is>
       </c>
       <c r="F1019" t="n">
-        <v>15783.42208507884</v>
+        <v>15864.82732302536</v>
       </c>
       <c r="G1019" t="n">
-        <v>0.03443657480788283</v>
+        <v>0.03461418632655017</v>
       </c>
       <c r="H1019" t="n">
         <v>0</v>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="F1020" t="n">
-        <v>393505.9641128512</v>
+        <v>393001.331819447</v>
       </c>
       <c r="G1020" t="n">
-        <v>0.8585589042398448</v>
+        <v>0.8574578877664455</v>
       </c>
       <c r="H1020" t="n">
         <v>0</v>
@@ -31153,10 +31153,10 @@
         </is>
       </c>
       <c r="F1025" t="n">
-        <v>35226.53407482445</v>
+        <v>35548.97375475299</v>
       </c>
       <c r="G1025" t="n">
-        <v>0.08563937940427842</v>
+        <v>0.08642326390525547</v>
       </c>
       <c r="H1025" t="n">
         <v>0</v>
@@ -31184,10 +31184,10 @@
         </is>
       </c>
       <c r="F1026" t="n">
-        <v>9328.490972777587</v>
+        <v>9393.752325041543</v>
       </c>
       <c r="G1026" t="n">
-        <v>0.02267853476558827</v>
+        <v>0.02283719192144407</v>
       </c>
       <c r="H1026" t="n">
         <v>0</v>
@@ -31302,10 +31302,10 @@
         </is>
       </c>
       <c r="F1030" t="n">
-        <v>6947.162797273873</v>
+        <v>6983.605237600547</v>
       </c>
       <c r="G1030" t="n">
-        <v>0.01688927753480642</v>
+        <v>0.01697787290916044</v>
       </c>
       <c r="H1030" t="n">
         <v>0</v>
@@ -31333,10 +31333,10 @@
         </is>
       </c>
       <c r="F1031" t="n">
-        <v>359833.5121551241</v>
+        <v>359409.3686826049</v>
       </c>
       <c r="G1031" t="n">
-        <v>0.8747928082953269</v>
+        <v>0.8737616712641399</v>
       </c>
       <c r="H1031" t="n">
         <v>0</v>
@@ -31482,10 +31482,10 @@
         </is>
       </c>
       <c r="F1036" t="n">
-        <v>36011.53889007727</v>
+        <v>36342.22597541013</v>
       </c>
       <c r="G1036" t="n">
-        <v>0.08606262943215495</v>
+        <v>0.08685292612483098</v>
       </c>
       <c r="H1036" t="n">
         <v>0</v>
@@ -31513,10 +31513,10 @@
         </is>
       </c>
       <c r="F1037" t="n">
-        <v>9536.371495939944</v>
+        <v>9603.367796462502</v>
       </c>
       <c r="G1037" t="n">
-        <v>0.02279061743758442</v>
+        <v>0.02295072938955621</v>
       </c>
       <c r="H1037" t="n">
         <v>0</v>
@@ -31631,10 +31631,10 @@
         </is>
       </c>
       <c r="F1041" t="n">
-        <v>4074.328125080932</v>
+        <v>4095.846761475612</v>
       </c>
       <c r="G1041" t="n">
-        <v>0.0097370843463306</v>
+        <v>0.00978851093033673</v>
       </c>
       <c r="H1041" t="n">
         <v>0</v>
@@ -31662,10 +31662,10 @@
         </is>
       </c>
       <c r="F1042" t="n">
-        <v>368811.8614889018</v>
+        <v>368392.6594666517</v>
       </c>
       <c r="G1042" t="n">
-        <v>0.88140966878393</v>
+        <v>0.8804078335552761</v>
       </c>
       <c r="H1042" t="n">
         <v>0</v>
@@ -31811,10 +31811,10 @@
         </is>
       </c>
       <c r="F1047" t="n">
-        <v>36679.85700990082</v>
+        <v>37015.75322581889</v>
       </c>
       <c r="G1047" t="n">
-        <v>0.08569961934992058</v>
+        <v>0.08648441460791427</v>
       </c>
       <c r="H1047" t="n">
         <v>0</v>
@@ -31842,10 +31842,10 @@
         </is>
       </c>
       <c r="F1048" t="n">
-        <v>9713.351710186067</v>
+        <v>9781.346160005498</v>
       </c>
       <c r="G1048" t="n">
-        <v>0.02269448716635269</v>
+        <v>0.02285335088454711</v>
       </c>
       <c r="H1048" t="n">
         <v>0</v>
@@ -31960,10 +31960,10 @@
         </is>
       </c>
       <c r="F1052" t="n">
-        <v>6793.005587304221</v>
+        <v>6828.674045432823</v>
       </c>
       <c r="G1052" t="n">
-        <v>0.01587132667711099</v>
+        <v>0.0159546632420162</v>
       </c>
       <c r="H1052" t="n">
         <v>0</v>
@@ -31991,10 +31991,10 @@
         </is>
       </c>
       <c r="F1053" t="n">
-        <v>374818.6856926089</v>
+        <v>374379.1265687429</v>
       </c>
       <c r="G1053" t="n">
-        <v>0.8757345668066158</v>
+        <v>0.8747075712655223</v>
       </c>
       <c r="H1053" t="n">
         <v>0</v>
@@ -32140,10 +32140,10 @@
         </is>
       </c>
       <c r="F1058" t="n">
-        <v>38145.05928000629</v>
+        <v>38445.9349967758</v>
       </c>
       <c r="G1058" t="n">
-        <v>0.07744213223064926</v>
+        <v>0.0780529703701844</v>
       </c>
       <c r="H1058" t="n">
         <v>0</v>
@@ -32171,10 +32171,10 @@
         </is>
       </c>
       <c r="F1059" t="n">
-        <v>10101.3582657257</v>
+        <v>10159.26911859327</v>
       </c>
       <c r="G1059" t="n">
-        <v>0.0205077862582722</v>
+        <v>0.02062535692168211</v>
       </c>
       <c r="H1059" t="n">
         <v>0</v>
@@ -32289,10 +32289,10 @@
         </is>
       </c>
       <c r="F1063" t="n">
-        <v>4573.268041199235</v>
+        <v>4591.519349757432</v>
       </c>
       <c r="G1063" t="n">
-        <v>0.009284652719320538</v>
+        <v>0.009321706541687702</v>
       </c>
       <c r="H1063" t="n">
         <v>0</v>
@@ -32320,10 +32320,10 @@
         </is>
       </c>
       <c r="F1064" t="n">
-        <v>439742.4144130688</v>
+        <v>439365.3765348734</v>
       </c>
       <c r="G1064" t="n">
-        <v>0.8927654287917579</v>
+        <v>0.8919999661664457</v>
       </c>
       <c r="H1064" t="n">
         <v>0</v>
@@ -32469,10 +32469,10 @@
         </is>
       </c>
       <c r="F1069" t="n">
-        <v>35169.90311863676</v>
+        <v>35456.308466517</v>
       </c>
       <c r="G1069" t="n">
-        <v>0.06663272143341409</v>
+        <v>0.0671753435639889</v>
       </c>
       <c r="H1069" t="n">
         <v>0</v>
@@ -32500,10 +32500,10 @@
         </is>
       </c>
       <c r="F1070" t="n">
-        <v>10638.95582686696</v>
+        <v>10702.47590227616</v>
       </c>
       <c r="G1070" t="n">
-        <v>0.02015651216219506</v>
+        <v>0.0202768569773597</v>
       </c>
       <c r="H1070" t="n">
         <v>0</v>
@@ -32618,10 +32618,10 @@
         </is>
       </c>
       <c r="F1074" t="n">
-        <v>10406.55152925425</v>
+        <v>10450.43878538803</v>
       </c>
       <c r="G1074" t="n">
-        <v>0.01971620014966211</v>
+        <v>0.01979934872424233</v>
       </c>
       <c r="H1074" t="n">
         <v>0</v>
@@ -32649,10 +32649,10 @@
         </is>
       </c>
       <c r="F1075" t="n">
-        <v>458224.7720283579</v>
+        <v>458004.939693597</v>
       </c>
       <c r="G1075" t="n">
-        <v>0.8681503467740785</v>
+        <v>0.8677338535390883</v>
       </c>
       <c r="H1075" t="n">
         <v>0</v>
@@ -32680,13 +32680,13 @@
         </is>
       </c>
       <c r="F1076" t="n">
-        <v>13377.11749688418</v>
+        <v>13203.13715222181</v>
       </c>
       <c r="G1076" t="n">
-        <v>0.02534421948065017</v>
+        <v>0.02501459719532082</v>
       </c>
       <c r="H1076" t="n">
-        <v>12.42525667685815</v>
+        <v>12.26365606000914</v>
       </c>
       <c r="I1076" t="n">
         <v>20.8289017019285</v>
@@ -32798,10 +32798,10 @@
         </is>
       </c>
       <c r="F1080" t="n">
-        <v>38526.96788881539</v>
+        <v>38839.77519779704</v>
       </c>
       <c r="G1080" t="n">
-        <v>0.06608605601206656</v>
+        <v>0.06662262046224605</v>
       </c>
       <c r="H1080" t="n">
         <v>0</v>
@@ -32829,10 +32829,10 @@
         </is>
       </c>
       <c r="F1081" t="n">
-        <v>11654.47365975346</v>
+        <v>11723.77430371233</v>
       </c>
       <c r="G1081" t="n">
-        <v>0.01999114493754943</v>
+        <v>0.02011001767758844</v>
       </c>
       <c r="H1081" t="n">
         <v>0</v>
@@ -32947,10 +32947,10 @@
         </is>
       </c>
       <c r="F1085" t="n">
-        <v>7239.096193054168</v>
+        <v>7269.502981437113</v>
       </c>
       <c r="G1085" t="n">
-        <v>0.01241736224536369</v>
+        <v>0.01246951959981789</v>
       </c>
       <c r="H1085" t="n">
         <v>0</v>
@@ -32978,10 +32978,10 @@
         </is>
       </c>
       <c r="F1086" t="n">
-        <v>499302.3672522724</v>
+        <v>499041.5204316953</v>
       </c>
       <c r="G1086" t="n">
-        <v>0.8564630443905321</v>
+        <v>0.8560156087749141</v>
       </c>
       <c r="H1086" t="n">
         <v>0</v>
@@ -33009,13 +33009,13 @@
         </is>
       </c>
       <c r="F1087" t="n">
-        <v>26258.89500610459</v>
+        <v>26107.22708535824</v>
       </c>
       <c r="G1087" t="n">
-        <v>0.04504239241448805</v>
+        <v>0.0447822334854334</v>
       </c>
       <c r="H1087" t="n">
-        <v>10.63423979039289</v>
+        <v>10.57281782129053</v>
       </c>
       <c r="I1087" t="n">
         <v>20.8289017019285</v>
@@ -33127,10 +33127,10 @@
         </is>
       </c>
       <c r="F1091" t="n">
-        <v>38878.60660664836</v>
+        <v>39196.01813844267</v>
       </c>
       <c r="G1091" t="n">
-        <v>0.06515519509241857</v>
+        <v>0.06568713314482563</v>
       </c>
       <c r="H1091" t="n">
         <v>0</v>
@@ -33158,10 +33158,10 @@
         </is>
       </c>
       <c r="F1092" t="n">
-        <v>12005.25458762349</v>
+        <v>12077.14965524348</v>
       </c>
       <c r="G1092" t="n">
-        <v>0.02011915480162815</v>
+        <v>0.02023964104241235</v>
       </c>
       <c r="H1092" t="n">
         <v>0</v>
@@ -33276,10 +33276,10 @@
         </is>
       </c>
       <c r="F1096" t="n">
-        <v>-256.3748923794734</v>
+        <v>-257.4659555670518</v>
       </c>
       <c r="G1096" t="n">
-        <v>-0.0004296490432073752</v>
+        <v>-0.0004314775149827157</v>
       </c>
       <c r="H1096" t="n">
         <v>0</v>
@@ -33307,10 +33307,10 @@
         </is>
       </c>
       <c r="F1097" t="n">
-        <v>516387.4854309478</v>
+        <v>516155.2867256826</v>
       </c>
       <c r="G1097" t="n">
-        <v>0.8653943722042601</v>
+        <v>0.8650052391240847</v>
       </c>
       <c r="H1097" t="n">
         <v>0</v>
@@ -33338,13 +33338,13 @@
         </is>
       </c>
       <c r="F1098" t="n">
-        <v>29692.72826715969</v>
+        <v>29536.71143619826</v>
       </c>
       <c r="G1098" t="n">
-        <v>0.04976092694490067</v>
+        <v>0.04949946420365996</v>
       </c>
       <c r="H1098" t="n">
-        <v>12.26685614405034</v>
+        <v>12.20240143971214</v>
       </c>
       <c r="I1098" t="n">
         <v>20.8289017019285</v>
@@ -33456,10 +33456,10 @@
         </is>
       </c>
       <c r="F1102" t="n">
-        <v>44305.11923777367</v>
+        <v>44701.75142112975</v>
       </c>
       <c r="G1102" t="n">
-        <v>0.06040162746232414</v>
+        <v>0.0609423602216712</v>
       </c>
       <c r="H1102" t="n">
         <v>0</v>
@@ -33487,10 +33487,10 @@
         </is>
       </c>
       <c r="F1103" t="n">
-        <v>14172.95993727081</v>
+        <v>14268.92252224597</v>
       </c>
       <c r="G1103" t="n">
-        <v>0.01932214292382736</v>
+        <v>0.01945296970880642</v>
       </c>
       <c r="H1103" t="n">
         <v>0</v>
@@ -33605,10 +33605,10 @@
         </is>
       </c>
       <c r="F1107" t="n">
-        <v>66085.49783352703</v>
+        <v>66411.96202370839</v>
       </c>
       <c r="G1107" t="n">
-        <v>0.09009504295385594</v>
+        <v>0.09054011496211074</v>
       </c>
       <c r="H1107" t="n">
         <v>0</v>
@@ -33636,10 +33636,10 @@
         </is>
       </c>
       <c r="F1108" t="n">
-        <v>580223.3957565089</v>
+        <v>579646.3709026473</v>
       </c>
       <c r="G1108" t="n">
-        <v>0.7910245587496222</v>
+        <v>0.7902378947961318</v>
       </c>
       <c r="H1108" t="n">
         <v>0</v>
@@ -33667,10 +33667,10 @@
         </is>
       </c>
       <c r="F1109" t="n">
-        <v>28721.7272349195</v>
+        <v>28479.69313026847</v>
       </c>
       <c r="G1109" t="n">
-        <v>0.03915662791037039</v>
+        <v>0.03882666031127985</v>
       </c>
       <c r="H1109" t="n">
         <v>0</v>
@@ -33785,10 +33785,10 @@
         </is>
       </c>
       <c r="F1113" t="n">
-        <v>30548.3431214977</v>
+        <v>30808.67781687606</v>
       </c>
       <c r="G1113" t="n">
-        <v>0.05932710119926422</v>
+        <v>0.05983269008691564</v>
       </c>
       <c r="H1113" t="n">
         <v>0</v>
@@ -33816,10 +33816,10 @@
         </is>
       </c>
       <c r="F1114" t="n">
-        <v>9825.290547339353</v>
+        <v>9887.591592675326</v>
       </c>
       <c r="G1114" t="n">
-        <v>0.0190814278959689</v>
+        <v>0.01920242105120376</v>
       </c>
       <c r="H1114" t="n">
         <v>0</v>
@@ -33876,13 +33876,13 @@
         </is>
       </c>
       <c r="F1116" t="n">
-        <v>17925.1225398709</v>
+        <v>17652.39102870282</v>
       </c>
       <c r="G1116" t="n">
-        <v>0.03481188995103821</v>
+        <v>0.03428222554668921</v>
       </c>
       <c r="H1116" t="n">
-        <v>0.5047487283667803</v>
+        <v>0.4970689547339116</v>
       </c>
       <c r="I1116" t="n">
         <v>20.8289017019285</v>
@@ -33936,10 +33936,10 @@
         </is>
       </c>
       <c r="F1118" t="n">
-        <v>16704.71416485733</v>
+        <v>16781.09145202313</v>
       </c>
       <c r="G1118" t="n">
-        <v>0.03244176824326193</v>
+        <v>0.03259009848254819</v>
       </c>
       <c r="H1118" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         </is>
       </c>
       <c r="F1119" t="n">
-        <v>399297.0423293906</v>
+        <v>398625.0813474495</v>
       </c>
       <c r="G1119" t="n">
-        <v>0.7754638588621835</v>
+        <v>0.7741588618278428</v>
       </c>
       <c r="H1119" t="n">
         <v>0</v>
@@ -33998,13 +33998,13 @@
         </is>
       </c>
       <c r="F1120" t="n">
-        <v>20152.57493871993</v>
+        <v>19988.63591146047</v>
       </c>
       <c r="G1120" t="n">
-        <v>0.039137764299034</v>
+        <v>0.03881938280050071</v>
       </c>
       <c r="H1120" t="n">
-        <v>16.72617216770264</v>
+        <v>16.59010655805794</v>
       </c>
       <c r="I1120" t="n">
         <v>20.8289017019285</v>
@@ -34029,13 +34029,13 @@
         </is>
       </c>
       <c r="F1121" t="n">
-        <v>5026.323324911717</v>
+        <v>5403.166891960568</v>
       </c>
       <c r="G1121" t="n">
-        <v>0.009761484980421417</v>
+        <v>0.01049334255939648</v>
       </c>
       <c r="H1121" t="n">
-        <v>5.548235650931014</v>
+        <v>5.964209072927533</v>
       </c>
       <c r="I1121" t="n">
         <v>20.8289017019285</v>
@@ -34089,13 +34089,13 @@
         </is>
       </c>
       <c r="F1123" t="n">
-        <v>15434.38903341254</v>
+        <v>15767.16395885217</v>
       </c>
       <c r="G1123" t="n">
-        <v>0.02997470456882791</v>
+        <v>0.03062097764490323</v>
       </c>
       <c r="H1123" t="n">
-        <v>7.23490367528789</v>
+        <v>7.390892650678807</v>
       </c>
       <c r="I1123" t="n">
         <v>20.8289017019285</v>
@@ -34120,10 +34120,10 @@
         </is>
       </c>
       <c r="F1124" t="n">
-        <v>31923.50792287157</v>
+        <v>32183.80899313844</v>
       </c>
       <c r="G1124" t="n">
-        <v>0.05997336048158195</v>
+        <v>0.06046237722618826</v>
       </c>
       <c r="H1124" t="n">
         <v>0</v>
@@ -34151,10 +34151,10 @@
         </is>
       </c>
       <c r="F1125" t="n">
-        <v>10267.58601554968</v>
+        <v>10328.91969958268</v>
       </c>
       <c r="G1125" t="n">
-        <v>0.01928928483905851</v>
+        <v>0.01940450986855908</v>
       </c>
       <c r="H1125" t="n">
         <v>0</v>
@@ -34211,10 +34211,10 @@
         </is>
       </c>
       <c r="F1127" t="n">
-        <v>12380.06360569267</v>
+        <v>12101.42538973642</v>
       </c>
       <c r="G1127" t="n">
-        <v>0.02325790822245995</v>
+        <v>0.02273444224842402</v>
       </c>
       <c r="H1127" t="n">
         <v>0</v>
@@ -34271,10 +34271,10 @@
         </is>
       </c>
       <c r="F1129" t="n">
-        <v>6689.342771584663</v>
+        <v>6717.618260523586</v>
       </c>
       <c r="G1129" t="n">
-        <v>0.01256698876559505</v>
+        <v>0.01262010874523588</v>
       </c>
       <c r="H1129" t="n">
         <v>0</v>
@@ -34302,10 +34302,10 @@
         </is>
       </c>
       <c r="F1130" t="n">
-        <v>420208.2062318849</v>
+        <v>419246.7622424542</v>
       </c>
       <c r="G1130" t="n">
-        <v>0.7894275995780626</v>
+        <v>0.7876213749269281</v>
       </c>
       <c r="H1130" t="n">
         <v>0</v>
@@ -34333,13 +34333,13 @@
         </is>
       </c>
       <c r="F1131" t="n">
-        <v>22937.09902315284</v>
+        <v>22788.16961779154</v>
       </c>
       <c r="G1131" t="n">
-        <v>0.04309096955888511</v>
+        <v>0.04281118210771839</v>
       </c>
       <c r="H1131" t="n">
-        <v>12.14143295502576</v>
+        <v>12.06259925472212</v>
       </c>
       <c r="I1131" t="n">
         <v>20.8289017019285</v>
@@ -34364,13 +34364,13 @@
         </is>
       </c>
       <c r="F1132" t="n">
-        <v>7984.591202518691</v>
+        <v>8597.039331203268</v>
       </c>
       <c r="G1132" t="n">
-        <v>0.01500031787370211</v>
+        <v>0.0161508985832724</v>
       </c>
       <c r="H1132" t="n">
-        <v>8.813677653476944</v>
+        <v>9.489719826305816</v>
       </c>
       <c r="I1132" t="n">
         <v>20.8289017019285</v>
@@ -34424,13 +34424,13 @@
         </is>
       </c>
       <c r="F1134" t="n">
-        <v>19904.40322674498</v>
+        <v>20331.05646556989</v>
       </c>
       <c r="G1134" t="n">
-        <v>0.03739357068065473</v>
+        <v>0.03819510629367389</v>
       </c>
       <c r="H1134" t="n">
-        <v>9.330232621961423</v>
+        <v>9.530227262433781</v>
       </c>
       <c r="I1134" t="n">
         <v>20.8289017019285</v>
@@ -34455,10 +34455,10 @@
         </is>
       </c>
       <c r="F1135" t="n">
-        <v>22647.75286393196</v>
+        <v>22831.54754359508</v>
       </c>
       <c r="G1135" t="n">
-        <v>0.04411388874937856</v>
+        <v>0.04447188886091717</v>
       </c>
       <c r="H1135" t="n">
         <v>0</v>
@@ -34486,10 +34486,10 @@
         </is>
       </c>
       <c r="F1136" t="n">
-        <v>10109.3226525866</v>
+        <v>10168.99298367329</v>
       </c>
       <c r="G1136" t="n">
-        <v>0.01969120457588536</v>
+        <v>0.01980743201632998</v>
       </c>
       <c r="H1136" t="n">
         <v>0</v>
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="F1138" t="n">
-        <v>6171.364068440234</v>
+        <v>5924.597319328088</v>
       </c>
       <c r="G1138" t="n">
-        <v>0.01202074526257523</v>
+        <v>0.01154008649776173</v>
       </c>
       <c r="H1138" t="n">
         <v>0</v>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="F1140" t="n">
-        <v>469.7540284746984</v>
+        <v>471.7121392575557</v>
       </c>
       <c r="G1140" t="n">
-        <v>0.0009149992529593295</v>
+        <v>0.0009188133126478513</v>
       </c>
       <c r="H1140" t="n">
         <v>0</v>
@@ -34637,10 +34637,10 @@
         </is>
       </c>
       <c r="F1141" t="n">
-        <v>419248.4985985992</v>
+        <v>418240.6746720445</v>
       </c>
       <c r="G1141" t="n">
-        <v>0.8166232533814249</v>
+        <v>0.8146601874277248</v>
       </c>
       <c r="H1141" t="n">
         <v>0</v>
@@ -34668,13 +34668,13 @@
         </is>
       </c>
       <c r="F1142" t="n">
-        <v>25056.58403724372</v>
+        <v>24924.79375430765</v>
       </c>
       <c r="G1142" t="n">
-        <v>0.0488058734700676</v>
+        <v>0.04854916889038501</v>
       </c>
       <c r="H1142" t="n">
-        <v>9.125066040715298</v>
+        <v>9.077070869724366</v>
       </c>
       <c r="I1142" t="n">
         <v>20.8289017019285</v>
@@ -34699,13 +34699,13 @@
         </is>
       </c>
       <c r="F1143" t="n">
-        <v>8891.634058232507</v>
+        <v>9587.300760934895</v>
       </c>
       <c r="G1143" t="n">
-        <v>0.01731935870201629</v>
+        <v>0.01867439660418864</v>
       </c>
       <c r="H1143" t="n">
-        <v>9.814904033811732</v>
+        <v>10.58280584823924</v>
       </c>
       <c r="I1143" t="n">
         <v>20.8289017019285</v>
@@ -34759,13 +34759,13 @@
         </is>
       </c>
       <c r="F1145" t="n">
-        <v>20797.88969249103</v>
+        <v>21243.18082685896</v>
       </c>
       <c r="G1145" t="n">
-        <v>0.04051067660569262</v>
+        <v>0.04137802639004473</v>
       </c>
       <c r="H1145" t="n">
-        <v>9.749056360358333</v>
+        <v>9.957787555201056</v>
       </c>
       <c r="I1145" t="n">
         <v>20.8289017019285</v>
@@ -34790,10 +34790,10 @@
         </is>
       </c>
       <c r="F1146" t="n">
-        <v>21623.08767600709</v>
+        <v>21756.53418033362</v>
       </c>
       <c r="G1146" t="n">
-        <v>0.04225905454862379</v>
+        <v>0.04251985555864399</v>
       </c>
       <c r="H1146" t="n">
         <v>0</v>
@@ -34821,10 +34821,10 @@
         </is>
       </c>
       <c r="F1147" t="n">
-        <v>9651.940807339308</v>
+        <v>9690.190426488598</v>
       </c>
       <c r="G1147" t="n">
-        <v>0.01886325853129774</v>
+        <v>0.01893801162698478</v>
       </c>
       <c r="H1147" t="n">
         <v>0</v>
@@ -34852,13 +34852,13 @@
         </is>
       </c>
       <c r="F1148" t="n">
-        <v>1845.066091403021</v>
+        <v>3501.205288347958</v>
       </c>
       <c r="G1148" t="n">
-        <v>0.003605902624579024</v>
+        <v>0.006842576207578335</v>
       </c>
       <c r="H1148" t="n">
-        <v>1.383992374365995</v>
+        <v>2.626269835395846</v>
       </c>
       <c r="I1148" t="n">
         <v>20.8289017019285</v>
@@ -34883,10 +34883,10 @@
         </is>
       </c>
       <c r="F1149" t="n">
-        <v>1792.658351995446</v>
+        <v>1627.180708745666</v>
       </c>
       <c r="G1149" t="n">
-        <v>0.003503479624146381</v>
+        <v>0.003180078597546952</v>
       </c>
       <c r="H1149" t="n">
         <v>0</v>
@@ -34943,10 +34943,10 @@
         </is>
       </c>
       <c r="F1151" t="n">
-        <v>922.9300192781417</v>
+        <v>924.9891770107623</v>
       </c>
       <c r="G1151" t="n">
-        <v>0.00180372713710605</v>
+        <v>0.00180775144946379</v>
       </c>
       <c r="H1151" t="n">
         <v>0</v>
@@ -34974,10 +34974,10 @@
         </is>
       </c>
       <c r="F1152" t="n">
-        <v>432663.7509144783</v>
+        <v>430396.4351993619</v>
       </c>
       <c r="G1152" t="n">
-        <v>0.8455758643292621</v>
+        <v>0.8411447386769173</v>
       </c>
       <c r="H1152" t="n">
         <v>0</v>
@@ -35005,13 +35005,13 @@
         </is>
       </c>
       <c r="F1153" t="n">
-        <v>22254.12578442177</v>
+        <v>22062.50458147862</v>
       </c>
       <c r="G1153" t="n">
-        <v>0.04349232309219751</v>
+        <v>0.04311782843217572</v>
       </c>
       <c r="H1153" t="n">
-        <v>24.76223588476782</v>
+        <v>24.54901836843999</v>
       </c>
       <c r="I1153" t="n">
         <v>20.8289017019285</v>
@@ -35036,13 +35036,13 @@
         </is>
       </c>
       <c r="F1154" t="n">
-        <v>5453.361629516614</v>
+        <v>5938.002252451367</v>
       </c>
       <c r="G1154" t="n">
-        <v>0.01065777052880498</v>
+        <v>0.01160492732842355</v>
       </c>
       <c r="H1154" t="n">
-        <v>21.06865537503432</v>
+        <v>22.94102822668754</v>
       </c>
       <c r="I1154" t="n">
         <v>20.8289017019285</v>
@@ -35096,13 +35096,13 @@
         </is>
       </c>
       <c r="F1156" t="n">
-        <v>15472.47872556036</v>
+        <v>15782.35818578157</v>
       </c>
       <c r="G1156" t="n">
-        <v>0.03023861958398238</v>
+        <v>0.03084423212226555</v>
       </c>
       <c r="H1156" t="n">
-        <v>25.38465405677119</v>
+        <v>25.89305242244608</v>
       </c>
       <c r="I1156" t="n">
         <v>20.8289017019285</v>
@@ -35127,10 +35127,10 @@
         </is>
       </c>
       <c r="F1157" t="n">
-        <v>22932.89324157395</v>
+        <v>23138.22971212559</v>
       </c>
       <c r="G1157" t="n">
-        <v>0.04193161171796614</v>
+        <v>0.04230705885688622</v>
       </c>
       <c r="H1157" t="n">
         <v>0</v>
@@ -35158,10 +35158,10 @@
         </is>
       </c>
       <c r="F1158" t="n">
-        <v>10556.56861359872</v>
+        <v>10627.68358213311</v>
       </c>
       <c r="G1158" t="n">
-        <v>0.01930214088194607</v>
+        <v>0.01943217093164401</v>
       </c>
       <c r="H1158" t="n">
         <v>0</v>
@@ -35218,13 +35218,13 @@
         </is>
       </c>
       <c r="F1160" t="n">
-        <v>8041.90996232627</v>
+        <v>7904.704113661538</v>
       </c>
       <c r="G1160" t="n">
-        <v>0.01470421732046423</v>
+        <v>0.01445334350742028</v>
       </c>
       <c r="H1160" t="n">
-        <v>0.7982812458647836</v>
+        <v>0.7846614893237224</v>
       </c>
       <c r="I1160" t="n">
         <v>20.8289017019285</v>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="F1162" t="n">
-        <v>-2879.994844412517</v>
+        <v>-2894.416377731809</v>
       </c>
       <c r="G1162" t="n">
-        <v>-0.005265921935515959</v>
+        <v>-0.005292290964890149</v>
       </c>
       <c r="H1162" t="n">
         <v>0</v>
@@ -35309,10 +35309,10 @@
         </is>
       </c>
       <c r="F1163" t="n">
-        <v>480766.0415237098</v>
+        <v>480476.5800766184</v>
       </c>
       <c r="G1163" t="n">
-        <v>0.8790558944307104</v>
+        <v>0.8785266291139053</v>
       </c>
       <c r="H1163" t="n">
         <v>0</v>
@@ -35340,13 +35340,13 @@
         </is>
       </c>
       <c r="F1164" t="n">
-        <v>18509.93982433311</v>
+        <v>18293.52829030566</v>
       </c>
       <c r="G1164" t="n">
-        <v>0.033844469664639</v>
+        <v>0.0334487723437411</v>
       </c>
       <c r="H1164" t="n">
-        <v>439.8449781066992</v>
+        <v>434.7024694140881</v>
       </c>
       <c r="I1164" t="n">
         <v>20.8289017019285</v>
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="F1165" t="n">
-        <v>938.0834153202214</v>
+        <v>1131.122480467483</v>
       </c>
       <c r="G1165" t="n">
-        <v>0.001715237110115784</v>
+        <v>0.002068199077927159</v>
       </c>
       <c r="H1165" t="n">
         <v>0</v>
@@ -35431,10 +35431,10 @@
         </is>
       </c>
       <c r="F1167" t="n">
-        <v>8046.358263550513</v>
+        <v>8234.36812242009</v>
       </c>
       <c r="G1167" t="n">
-        <v>0.01471235080967445</v>
+        <v>0.01505611713336609</v>
       </c>
       <c r="H1167" t="n">
         <v>0</v>
@@ -35462,10 +35462,10 @@
         </is>
       </c>
       <c r="F1168" t="n">
-        <v>20526.7902310323</v>
+        <v>20710.7608828349</v>
       </c>
       <c r="G1168" t="n">
-        <v>0.03890022726180554</v>
+        <v>0.03924886921137857</v>
       </c>
       <c r="H1168" t="n">
         <v>0</v>
@@ -35493,10 +35493,10 @@
         </is>
       </c>
       <c r="F1169" t="n">
-        <v>10250.80075806982</v>
+        <v>10319.87944301777</v>
       </c>
       <c r="G1169" t="n">
-        <v>0.01942624612110877</v>
+        <v>0.01955715682430091</v>
       </c>
       <c r="H1169" t="n">
         <v>0</v>
@@ -35553,13 +35553,13 @@
         </is>
       </c>
       <c r="F1171" t="n">
-        <v>5366.913683233436</v>
+        <v>5223.584436427662</v>
       </c>
       <c r="G1171" t="n">
-        <v>0.01017081383024272</v>
+        <v>0.009899191223334654</v>
       </c>
       <c r="H1171" t="n">
-        <v>2.235738351016085</v>
+        <v>2.176030535161507</v>
       </c>
       <c r="I1171" t="n">
         <v>20.8289017019285</v>
@@ -35613,10 +35613,10 @@
         </is>
       </c>
       <c r="F1173" t="n">
-        <v>-4784.092579814672</v>
+        <v>-4808.078661463199</v>
       </c>
       <c r="G1173" t="n">
-        <v>-0.009066312195024032</v>
+        <v>-0.009111768109794249</v>
       </c>
       <c r="H1173" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         </is>
       </c>
       <c r="F1174" t="n">
-        <v>468887.3436110127</v>
+        <v>468605.280578206</v>
       </c>
       <c r="G1174" t="n">
-        <v>0.8885862826754971</v>
+        <v>0.888051746298653</v>
       </c>
       <c r="H1174" t="n">
         <v>0</v>
@@ -35675,13 +35675,13 @@
         </is>
       </c>
       <c r="F1175" t="n">
-        <v>15366.23121893593</v>
+        <v>15155.98649845924</v>
       </c>
       <c r="G1175" t="n">
-        <v>0.02912047523486569</v>
+        <v>0.0287220414166658</v>
       </c>
       <c r="H1175" t="n">
-        <v>26.40773264147931</v>
+        <v>26.04641526387866</v>
       </c>
       <c r="I1175" t="n">
         <v>20.8289017019285</v>
@@ -35706,13 +35706,13 @@
         </is>
       </c>
       <c r="F1176" t="n">
-        <v>1445.128349086489</v>
+        <v>1616.296365098136</v>
       </c>
       <c r="G1176" t="n">
-        <v>0.002738656193648605</v>
+        <v>0.003063035926079406</v>
       </c>
       <c r="H1176" t="n">
-        <v>4.560672171180711</v>
+        <v>5.100860319668699</v>
       </c>
       <c r="I1176" t="n">
         <v>20.8289017019285</v>
@@ -35766,13 +35766,13 @@
         </is>
       </c>
       <c r="F1178" t="n">
-        <v>10618.78472844394</v>
+        <v>10854.19045741953</v>
       </c>
       <c r="G1178" t="n">
-        <v>0.02012361087785548</v>
+        <v>0.02056972720938195</v>
       </c>
       <c r="H1178" t="n">
-        <v>11.51966788034887</v>
+        <v>11.77504510893758</v>
       </c>
       <c r="I1178" t="n">
         <v>20.8289017019285</v>
@@ -35797,10 +35797,10 @@
         </is>
       </c>
       <c r="F1179" t="n">
-        <v>20275.69786741749</v>
+        <v>20456.95665415784</v>
       </c>
       <c r="G1179" t="n">
-        <v>0.03846482513746313</v>
+        <v>0.03880868938234322</v>
       </c>
       <c r="H1179" t="n">
         <v>0</v>
@@ -35828,10 +35828,10 @@
         </is>
       </c>
       <c r="F1180" t="n">
-        <v>10125.40863575931</v>
+        <v>10193.41238287936</v>
       </c>
       <c r="G1180" t="n">
-        <v>0.01920881220299263</v>
+        <v>0.01933782143654748</v>
       </c>
       <c r="H1180" t="n">
         <v>0</v>
@@ -35888,13 +35888,13 @@
         </is>
       </c>
       <c r="F1182" t="n">
-        <v>10550.93066746302</v>
+        <v>10353.36153462556</v>
       </c>
       <c r="G1182" t="n">
-        <v>0.02001606582497147</v>
+        <v>0.01964125938443137</v>
       </c>
       <c r="H1182" t="n">
-        <v>0.9880999489074284</v>
+        <v>0.969597500524899</v>
       </c>
       <c r="I1182" t="n">
         <v>20.8289017019285</v>
@@ -35948,10 +35948,10 @@
         </is>
       </c>
       <c r="F1184" t="n">
-        <v>-2408.20070150584</v>
+        <v>-2420.208947388068</v>
       </c>
       <c r="G1184" t="n">
-        <v>-0.004568573643435166</v>
+        <v>-0.004591354367486585</v>
       </c>
       <c r="H1184" t="n">
         <v>0</v>
@@ -35979,10 +35979,10 @@
         </is>
       </c>
       <c r="F1185" t="n">
-        <v>459628.5818612664</v>
+        <v>459336.3836576887</v>
       </c>
       <c r="G1185" t="n">
-        <v>0.8719568196902513</v>
+        <v>0.8714024933790395</v>
       </c>
       <c r="H1185" t="n">
         <v>0</v>
@@ -36010,13 +36010,13 @@
         </is>
       </c>
       <c r="F1186" t="n">
-        <v>15690.4541506868</v>
+        <v>15523.22161436815</v>
       </c>
       <c r="G1186" t="n">
-        <v>0.02976620480242054</v>
+        <v>0.02944894961796997</v>
       </c>
       <c r="H1186" t="n">
-        <v>16.17690664603484</v>
+        <v>16.00448938505402</v>
       </c>
       <c r="I1186" t="n">
         <v>20.8289017019285</v>
@@ -36041,13 +36041,13 @@
         </is>
       </c>
       <c r="F1187" t="n">
-        <v>1668.737098913816</v>
+        <v>1833.533494431673</v>
       </c>
       <c r="G1187" t="n">
-        <v>0.003165744583976335</v>
+        <v>0.003478378189898477</v>
       </c>
       <c r="H1187" t="n">
-        <v>5.266357727217759</v>
+        <v>5.786437715562241</v>
       </c>
       <c r="I1187" t="n">
         <v>20.8289017019285</v>
@@ -36101,13 +36101,13 @@
         </is>
       </c>
       <c r="F1189" t="n">
-        <v>11591.49041999903</v>
+        <v>11846.43960923668</v>
       </c>
       <c r="G1189" t="n">
-        <v>0.02199010140135961</v>
+        <v>0.02247376297725651</v>
       </c>
       <c r="H1189" t="n">
-        <v>12.57489659046904</v>
+        <v>12.85147531971995</v>
       </c>
       <c r="I1189" t="n">
         <v>20.8289017019285</v>
@@ -36132,10 +36132,10 @@
         </is>
       </c>
       <c r="F1190" t="n">
-        <v>22991.34750812364</v>
+        <v>23194.02437883129</v>
       </c>
       <c r="G1190" t="n">
-        <v>0.03734960316240105</v>
+        <v>0.03767885314170101</v>
       </c>
       <c r="H1190" t="n">
         <v>0</v>
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="F1191" t="n">
-        <v>11481.56725005243</v>
+        <v>11557.2545471437</v>
       </c>
       <c r="G1191" t="n">
-        <v>0.01865188546779858</v>
+        <v>0.01877484000579575</v>
       </c>
       <c r="H1191" t="n">
         <v>0</v>
@@ -36223,13 +36223,13 @@
         </is>
       </c>
       <c r="F1193" t="n">
-        <v>17462.45375261616</v>
+        <v>17169.09988119836</v>
       </c>
       <c r="G1193" t="n">
-        <v>0.02836787698813843</v>
+        <v>0.02789132159356064</v>
       </c>
       <c r="H1193" t="n">
-        <v>0.9908271591722883</v>
+        <v>0.9741821339560841</v>
       </c>
       <c r="I1193" t="n">
         <v>20.8289017019285</v>
@@ -36283,10 +36283,10 @@
         </is>
       </c>
       <c r="F1195" t="n">
-        <v>16455.22733645373</v>
+        <v>16534.6801091098</v>
       </c>
       <c r="G1195" t="n">
-        <v>0.02673163070352801</v>
+        <v>0.02686070228264308</v>
       </c>
       <c r="H1195" t="n">
         <v>0</v>
@@ -36314,10 +36314,10 @@
         </is>
       </c>
       <c r="F1196" t="n">
-        <v>510730.4426176309</v>
+        <v>510303.937367464</v>
       </c>
       <c r="G1196" t="n">
-        <v>0.8296851390718133</v>
+        <v>0.8289922783408454</v>
       </c>
       <c r="H1196" t="n">
         <v>0</v>
@@ -36345,13 +36345,13 @@
         </is>
       </c>
       <c r="F1197" t="n">
-        <v>19926.2316763535</v>
+        <v>19746.59166725221</v>
       </c>
       <c r="G1197" t="n">
-        <v>0.03237030127837891</v>
+        <v>0.03207847484020895</v>
       </c>
       <c r="H1197" t="n">
-        <v>19.44236084768744</v>
+        <v>19.26708305626368</v>
       </c>
       <c r="I1197" t="n">
         <v>20.8289017019285</v>
@@ -36376,13 +36376,13 @@
         </is>
       </c>
       <c r="F1198" t="n">
-        <v>2372.03149115408</v>
+        <v>2601.580172813492</v>
       </c>
       <c r="G1198" t="n">
-        <v>0.00385338157548268</v>
+        <v>0.004226284997668006</v>
       </c>
       <c r="H1198" t="n">
-        <v>7.485880418655636</v>
+        <v>8.210311771093693</v>
       </c>
       <c r="I1198" t="n">
         <v>20.8289017019285</v>
@@ -36436,13 +36436,13 @@
         </is>
       </c>
       <c r="F1200" t="n">
-        <v>14152.09836761561</v>
+        <v>14464.23187618724</v>
       </c>
       <c r="G1200" t="n">
-        <v>0.02299018175245894</v>
+        <v>0.02349724479757708</v>
       </c>
       <c r="H1200" t="n">
-        <v>15.35274300911918</v>
+        <v>15.6913574970315</v>
       </c>
       <c r="I1200" t="n">
         <v>20.8289017019285</v>
@@ -36467,10 +36467,10 @@
         </is>
       </c>
       <c r="F1201" t="n">
-        <v>23507.80667217736</v>
+        <v>23714.99419154268</v>
       </c>
       <c r="G1201" t="n">
-        <v>0.03727774251216334</v>
+        <v>0.03760629221934533</v>
       </c>
       <c r="H1201" t="n">
         <v>0</v>
@@ -36498,10 +36498,10 @@
         </is>
       </c>
       <c r="F1202" t="n">
-        <v>11739.47995490369</v>
+        <v>11816.84644195882</v>
       </c>
       <c r="G1202" t="n">
-        <v>0.01861599923329082</v>
+        <v>0.01873868392368882</v>
       </c>
       <c r="H1202" t="n">
         <v>0</v>
@@ -36558,10 +36558,10 @@
         </is>
       </c>
       <c r="F1204" t="n">
-        <v>9945.30556047891</v>
+        <v>9670.666153341093</v>
       </c>
       <c r="G1204" t="n">
-        <v>0.01577086901633857</v>
+        <v>0.01533535679498388</v>
       </c>
       <c r="H1204" t="n">
         <v>0</v>
@@ -36618,10 +36618,10 @@
         </is>
       </c>
       <c r="F1206" t="n">
-        <v>10169.71993560518</v>
+        <v>10218.92351998304</v>
       </c>
       <c r="G1206" t="n">
-        <v>0.01612673638451318</v>
+        <v>0.01620476146676316</v>
       </c>
       <c r="H1206" t="n">
         <v>0</v>
@@ -36649,10 +36649,10 @@
         </is>
       </c>
       <c r="F1207" t="n">
-        <v>535269.3820700065</v>
+        <v>534783.8816157955</v>
       </c>
       <c r="G1207" t="n">
-        <v>0.8488088437049547</v>
+        <v>0.848038956442651</v>
       </c>
       <c r="H1207" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         </is>
       </c>
       <c r="F1208" t="n">
-        <v>22093.1783291928</v>
+        <v>21909.69431178805</v>
       </c>
       <c r="G1208" t="n">
-        <v>0.03503448129023914</v>
+        <v>0.03474351965135487</v>
       </c>
       <c r="H1208" t="n">
-        <v>21.11803892379468</v>
+        <v>20.9426534467161</v>
       </c>
       <c r="I1208" t="n">
         <v>20.8289017019285</v>
@@ -36711,13 +36711,13 @@
         </is>
       </c>
       <c r="F1209" t="n">
-        <v>2790.187712165089</v>
+        <v>3064.553414521495</v>
       </c>
       <c r="G1209" t="n">
-        <v>0.004424568422956935</v>
+        <v>0.004859646614182492</v>
       </c>
       <c r="H1209" t="n">
-        <v>8.805537210093242</v>
+        <v>9.671406338087507</v>
       </c>
       <c r="I1209" t="n">
         <v>20.8289017019285</v>
@@ -36771,13 +36771,13 @@
         </is>
       </c>
       <c r="F1211" t="n">
-        <v>15097.3397654706</v>
+        <v>15432.84035106925</v>
       </c>
       <c r="G1211" t="n">
-        <v>0.02394075943554328</v>
+        <v>0.02447278288703053</v>
       </c>
       <c r="H1211" t="n">
-        <v>16.37817739247934</v>
+        <v>16.74214138822797</v>
       </c>
       <c r="I1211" t="n">
         <v>20.8289017019285</v>
@@ -36802,10 +36802,10 @@
         </is>
       </c>
       <c r="F1212" t="n">
-        <v>23075.98477286043</v>
+        <v>23278.80925523034</v>
       </c>
       <c r="G1212" t="n">
-        <v>0.03838141426333937</v>
+        <v>0.03871876456744177</v>
       </c>
       <c r="H1212" t="n">
         <v>0</v>
@@ -36833,10 +36833,10 @@
         </is>
       </c>
       <c r="F1213" t="n">
-        <v>11331.41352751884</v>
+        <v>11405.83215659818</v>
       </c>
       <c r="G1213" t="n">
-        <v>0.01884711231480838</v>
+        <v>0.01897089001095954</v>
       </c>
       <c r="H1213" t="n">
         <v>0</v>
@@ -36893,10 +36893,10 @@
         </is>
       </c>
       <c r="F1215" t="n">
-        <v>3732.190306881457</v>
+        <v>3526.248636950348</v>
       </c>
       <c r="G1215" t="n">
-        <v>0.006207611232544616</v>
+        <v>0.005865076228057783</v>
       </c>
       <c r="H1215" t="n">
         <v>0</v>
@@ -36953,10 +36953,10 @@
         </is>
       </c>
       <c r="F1217" t="n">
-        <v>2846.665393936773</v>
+        <v>2860.409139232152</v>
       </c>
       <c r="G1217" t="n">
-        <v>0.004734751076898725</v>
+        <v>0.004757610529567982</v>
       </c>
       <c r="H1217" t="n">
         <v>0</v>
@@ -36984,10 +36984,10 @@
         </is>
       </c>
       <c r="F1218" t="n">
-        <v>521150.1086401218</v>
+        <v>520655.1098783342</v>
       </c>
       <c r="G1218" t="n">
-        <v>0.8668093002308473</v>
+        <v>0.8659859874785197</v>
       </c>
       <c r="H1218" t="n">
         <v>0</v>
@@ -37015,13 +37015,13 @@
         </is>
       </c>
       <c r="F1219" t="n">
-        <v>21825.9835422795</v>
+        <v>21647.67466449917</v>
       </c>
       <c r="G1219" t="n">
-        <v>0.03630233440898639</v>
+        <v>0.03600575998443713</v>
       </c>
       <c r="H1219" t="n">
-        <v>21.00642910875751</v>
+        <v>20.83481563744251</v>
       </c>
       <c r="I1219" t="n">
         <v>20.8289017019285</v>
@@ -37046,13 +37046,13 @@
         </is>
       </c>
       <c r="F1220" t="n">
-        <v>2693.200287184265</v>
+        <v>2957.96192771458</v>
       </c>
       <c r="G1220" t="n">
-        <v>0.004479498358749809</v>
+        <v>0.004919866399648619</v>
       </c>
       <c r="H1220" t="n">
-        <v>8.499455158388887</v>
+        <v>9.335014883396047</v>
       </c>
       <c r="I1220" t="n">
         <v>20.8289017019285</v>
@@ -37106,13 +37106,13 @@
         </is>
       </c>
       <c r="F1222" t="n">
-        <v>14572.55352921683</v>
+        <v>14896.05434144108</v>
       </c>
       <c r="G1222" t="n">
-        <v>0.0242379781138254</v>
+        <v>0.02477604480136753</v>
       </c>
       <c r="H1222" t="n">
-        <v>15.8088690107369</v>
+        <v>16.15981518877403</v>
       </c>
       <c r="I1222" t="n">
         <v>20.8289017019285</v>
@@ -37137,10 +37137,10 @@
         </is>
       </c>
       <c r="F1223" t="n">
-        <v>21694.50690417735</v>
+        <v>21877.33319204185</v>
       </c>
       <c r="G1223" t="n">
-        <v>0.03937139879020685</v>
+        <v>0.03970319368744234</v>
       </c>
       <c r="H1223" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         </is>
       </c>
       <c r="F1224" t="n">
-        <v>10421.10810037381</v>
+        <v>10485.80069977954</v>
       </c>
       <c r="G1224" t="n">
-        <v>0.0189123267317345</v>
+        <v>0.01902973148037563</v>
       </c>
       <c r="H1224" t="n">
         <v>0</v>
@@ -37199,13 +37199,13 @@
         </is>
       </c>
       <c r="F1225" t="n">
-        <v>10709.02569638132</v>
+        <v>11275.63872674626</v>
       </c>
       <c r="G1225" t="n">
-        <v>0.01943484234092527</v>
+        <v>0.02046313709206939</v>
       </c>
       <c r="H1225" t="n">
-        <v>2.741001788608136</v>
+        <v>2.886027804392539</v>
       </c>
       <c r="I1225" t="n">
         <v>20.8289017019285</v>
@@ -37288,10 +37288,10 @@
         </is>
       </c>
       <c r="F1228" t="n">
-        <v>8564.482490412425</v>
+        <v>8602.657625487947</v>
       </c>
       <c r="G1228" t="n">
-        <v>0.01554290480309757</v>
+        <v>0.01561218540364622</v>
       </c>
       <c r="H1228" t="n">
         <v>0</v>
@@ -37319,10 +37319,10 @@
         </is>
       </c>
       <c r="F1229" t="n">
-        <v>480477.9407488323</v>
+        <v>479729.1021035376</v>
       </c>
       <c r="G1229" t="n">
-        <v>0.8719759660210162</v>
+        <v>0.8706169664796281</v>
       </c>
       <c r="H1229" t="n">
         <v>0</v>
@@ -37350,13 +37350,13 @@
         </is>
       </c>
       <c r="F1230" t="n">
-        <v>13322.73100158632</v>
+        <v>13090.96460450704</v>
       </c>
       <c r="G1230" t="n">
-        <v>0.02417821974728109</v>
+        <v>0.02375760787138633</v>
       </c>
       <c r="H1230" t="n">
-        <v>700.6459991750664</v>
+        <v>688.457342146903</v>
       </c>
       <c r="I1230" t="n">
         <v>20.8289017019285</v>
@@ -37439,10 +37439,10 @@
         </is>
       </c>
       <c r="F1233" t="n">
-        <v>5832.205058236388</v>
+        <v>5960.503047899793</v>
       </c>
       <c r="G1233" t="n">
-        <v>0.01058434156573855</v>
+        <v>0.01081717798545211</v>
       </c>
       <c r="H1233" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         </is>
       </c>
       <c r="F1234" t="n">
-        <v>19392.32845325538</v>
+        <v>19517.64298669201</v>
       </c>
       <c r="G1234" t="n">
-        <v>0.03971670470244491</v>
+        <v>0.03997335672499211</v>
       </c>
       <c r="H1234" t="n">
         <v>0</v>
@@ -37501,10 +37501,10 @@
         </is>
       </c>
       <c r="F1235" t="n">
-        <v>9315.240582417735</v>
+        <v>9354.801734351615</v>
       </c>
       <c r="G1235" t="n">
-        <v>0.01907819684139114</v>
+        <v>0.01915922056130357</v>
       </c>
       <c r="H1235" t="n">
         <v>0</v>
@@ -37532,10 +37532,10 @@
         </is>
       </c>
       <c r="F1236" t="n">
-        <v>3005.568917725403</v>
+        <v>5113.767182946693</v>
       </c>
       <c r="G1236" t="n">
-        <v>0.006155593613004631</v>
+        <v>0.01047331585847046</v>
       </c>
       <c r="H1236" t="n">
         <v>0</v>
@@ -37563,13 +37563,13 @@
         </is>
       </c>
       <c r="F1237" t="n">
-        <v>825.448461641937</v>
+        <v>799.4389799210734</v>
       </c>
       <c r="G1237" t="n">
-        <v>0.001690570210645169</v>
+        <v>0.001637301161110389</v>
       </c>
       <c r="H1237" t="n">
-        <v>0.2639663596209046</v>
+        <v>0.2556489073213073</v>
       </c>
       <c r="I1237" t="n">
         <v>20.8289017019285</v>
@@ -37623,10 +37623,10 @@
         </is>
       </c>
       <c r="F1239" t="n">
-        <v>16323.54399813361</v>
+        <v>16364.04030242942</v>
       </c>
       <c r="G1239" t="n">
-        <v>0.0334316417048107</v>
+        <v>0.03351458067540074</v>
       </c>
       <c r="H1239" t="n">
         <v>0</v>
@@ -37654,10 +37654,10 @@
         </is>
       </c>
       <c r="F1240" t="n">
-        <v>432090.1036469496</v>
+        <v>429994.0435286987</v>
       </c>
       <c r="G1240" t="n">
-        <v>0.8849476272414247</v>
+        <v>0.8806547646820982</v>
       </c>
       <c r="H1240" t="n">
         <v>0</v>
@@ -37685,13 +37685,13 @@
         </is>
       </c>
       <c r="F1241" t="n">
-        <v>6260.392129441527</v>
+        <v>6045.5247923161</v>
       </c>
       <c r="G1241" t="n">
-        <v>0.01282167565003263</v>
+        <v>0.0123816138699642</v>
       </c>
       <c r="H1241" t="n">
-        <v>65.71076152592678</v>
+        <v>63.45545609814692</v>
       </c>
       <c r="I1241" t="n">
         <v>20.8289017019285</v>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="F1244" t="n">
-        <v>1053.673810434763</v>
+        <v>1077.040492644318</v>
       </c>
       <c r="G1244" t="n">
-        <v>0.00215799003624613</v>
+        <v>0.002205846466660341</v>
       </c>
       <c r="H1244" t="n">
         <v>0</v>
@@ -37805,10 +37805,10 @@
         </is>
       </c>
       <c r="F1245" t="n">
-        <v>20080.10294813589</v>
+        <v>20259.49425295055</v>
       </c>
       <c r="G1245" t="n">
-        <v>0.04416086203877842</v>
+        <v>0.04455538564671701</v>
       </c>
       <c r="H1245" t="n">
         <v>0</v>
@@ -37836,10 +37836,10 @@
         </is>
       </c>
       <c r="F1246" t="n">
-        <v>9672.363170541448</v>
+        <v>9737.293638404735</v>
       </c>
       <c r="G1246" t="n">
-        <v>0.0212717980911993</v>
+        <v>0.02141459543844548</v>
       </c>
       <c r="H1246" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         </is>
       </c>
       <c r="F1247" t="n">
-        <v>61.5679286844279</v>
+        <v>449.7943090952421</v>
       </c>
       <c r="G1247" t="n">
-        <v>0.000135402333925722</v>
+        <v>0.0009892033163916938</v>
       </c>
       <c r="H1247" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         </is>
       </c>
       <c r="F1250" t="n">
-        <v>7254.196988983959</v>
+        <v>7290.200394241724</v>
       </c>
       <c r="G1250" t="n">
-        <v>0.01595368277045521</v>
+        <v>0.01603286271373643</v>
       </c>
       <c r="H1250" t="n">
         <v>0</v>
@@ -37987,10 +37987,10 @@
         </is>
       </c>
       <c r="F1251" t="n">
-        <v>417635.3689636543</v>
+        <v>416966.8174053077</v>
       </c>
       <c r="G1251" t="n">
-        <v>0.9184782547656414</v>
+        <v>0.9170079528847094</v>
       </c>
       <c r="H1251" t="n">
         <v>0</v>
@@ -38136,10 +38136,10 @@
         </is>
       </c>
       <c r="F1256" t="n">
-        <v>20268.24231314279</v>
+        <v>20460.47626587199</v>
       </c>
       <c r="G1256" t="n">
-        <v>0.04466780056718435</v>
+        <v>0.04509145189965245</v>
       </c>
       <c r="H1256" t="n">
         <v>0</v>
@@ -38167,10 +38167,10 @@
         </is>
       </c>
       <c r="F1257" t="n">
-        <v>9644.647244584685</v>
+        <v>9714.700524297936</v>
       </c>
       <c r="G1257" t="n">
-        <v>0.0212551820234851</v>
+        <v>0.02140956768154878</v>
       </c>
       <c r="H1257" t="n">
         <v>0</v>
@@ -38285,10 +38285,10 @@
         </is>
       </c>
       <c r="F1261" t="n">
-        <v>7600.155753785708</v>
+        <v>7642.046495197244</v>
       </c>
       <c r="G1261" t="n">
-        <v>0.01674946629533356</v>
+        <v>0.01684178645087899</v>
       </c>
       <c r="H1261" t="n">
         <v>0</v>
@@ -38316,10 +38316,10 @@
         </is>
       </c>
       <c r="F1262" t="n">
-        <v>416242.0546884868</v>
+        <v>415937.8767146328</v>
       </c>
       <c r="G1262" t="n">
-        <v>0.917327551113997</v>
+        <v>0.9166571939679198</v>
       </c>
       <c r="H1262" t="n">
         <v>0</v>
@@ -38463,10 +38463,10 @@
         </is>
       </c>
       <c r="F1267" t="n">
-        <v>23465.40297467065</v>
+        <v>23690.91610147929</v>
       </c>
       <c r="G1267" t="n">
-        <v>0.04556317264654798</v>
+        <v>0.0460010553260799</v>
       </c>
       <c r="H1267" t="n">
         <v>0</v>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="F1268" t="n">
-        <v>11166.01679840657</v>
+        <v>11248.5238408663</v>
       </c>
       <c r="G1268" t="n">
-        <v>0.02168124501033395</v>
+        <v>0.02184145034003601</v>
       </c>
       <c r="H1268" t="n">
         <v>0</v>
@@ -38612,10 +38612,10 @@
         </is>
       </c>
       <c r="F1272" t="n">
-        <v>-7200.224771963532</v>
+        <v>-7241.024709353823</v>
       </c>
       <c r="G1272" t="n">
-        <v>-0.01398079908250673</v>
+        <v>-0.01406002101589048</v>
       </c>
       <c r="H1272" t="n">
         <v>0</v>
@@ -38643,10 +38643,10 @@
         </is>
       </c>
       <c r="F1273" t="n">
-        <v>487576.9049988863</v>
+        <v>487309.6847670082</v>
       </c>
       <c r="G1273" t="n">
-        <v>0.9467363814256248</v>
+        <v>0.9462175153497746</v>
       </c>
       <c r="H1273" t="n">
         <v>0</v>
@@ -38792,10 +38792,10 @@
         </is>
       </c>
       <c r="F1278" t="n">
-        <v>24171.84670491029</v>
+        <v>24397.06312673431</v>
       </c>
       <c r="G1278" t="n">
-        <v>0.042741648164814</v>
+        <v>0.04313988505502998</v>
       </c>
       <c r="H1278" t="n">
         <v>0</v>
@@ -38823,10 +38823,10 @@
         </is>
       </c>
       <c r="F1279" t="n">
-        <v>11690.9037374815</v>
+        <v>11773.85476506206</v>
       </c>
       <c r="G1279" t="n">
-        <v>0.02067233423975985</v>
+        <v>0.02081901164008598</v>
       </c>
       <c r="H1279" t="n">
         <v>0</v>
@@ -38941,10 +38941,10 @@
         </is>
       </c>
       <c r="F1283" t="n">
-        <v>33644.61989510045</v>
+        <v>33822.97204181447</v>
       </c>
       <c r="G1283" t="n">
-        <v>0.05949179323163433</v>
+        <v>0.05980716279347843</v>
       </c>
       <c r="H1283" t="n">
         <v>0</v>
@@ -38972,10 +38972,10 @@
         </is>
       </c>
       <c r="F1284" t="n">
-        <v>496026.4296625078</v>
+        <v>495539.9100663892</v>
       </c>
       <c r="G1284" t="n">
-        <v>0.8770942243637918</v>
+        <v>0.8762339405114056</v>
       </c>
       <c r="H1284" t="n">
         <v>0</v>
@@ -39119,10 +39119,10 @@
         </is>
       </c>
       <c r="F1289" t="n">
-        <v>18408.0297778586</v>
+        <v>18580.51174876578</v>
       </c>
       <c r="G1289" t="n">
-        <v>0.044703771881593</v>
+        <v>0.04512264314452393</v>
       </c>
       <c r="H1289" t="n">
         <v>0</v>
@@ -39150,10 +39150,10 @@
         </is>
       </c>
       <c r="F1290" t="n">
-        <v>8596.445212740258</v>
+        <v>8657.915122930248</v>
       </c>
       <c r="G1290" t="n">
-        <v>0.02087640722122177</v>
+        <v>0.02102568646923888</v>
       </c>
       <c r="H1290" t="n">
         <v>0</v>
@@ -39268,10 +39268,10 @@
         </is>
       </c>
       <c r="F1294" t="n">
-        <v>17804.1142674393</v>
+        <v>17899.77365197537</v>
       </c>
       <c r="G1294" t="n">
-        <v>0.04323716727809476</v>
+        <v>0.04346947542601928</v>
       </c>
       <c r="H1294" t="n">
         <v>0</v>
@@ -39299,10 +39299,10 @@
         </is>
       </c>
       <c r="F1295" t="n">
-        <v>366969.4107419618</v>
+        <v>366639.7994763287</v>
       </c>
       <c r="G1295" t="n">
-        <v>0.8911826536190905</v>
+        <v>0.8903821949602179</v>
       </c>
       <c r="H1295" t="n">
         <v>0</v>
@@ -39446,10 +39446,10 @@
         </is>
       </c>
       <c r="F1300" t="n">
-        <v>18359.48683879897</v>
+        <v>18518.41158899488</v>
       </c>
       <c r="G1300" t="n">
-        <v>0.04641947396568143</v>
+        <v>0.04682129365535987</v>
       </c>
       <c r="H1300" t="n">
         <v>0</v>
@@ -39477,10 +39477,10 @@
         </is>
       </c>
       <c r="F1301" t="n">
-        <v>8855.316419315852</v>
+        <v>8912.309119251959</v>
       </c>
       <c r="G1301" t="n">
-        <v>0.02238946728704939</v>
+        <v>0.02253356560385677</v>
       </c>
       <c r="H1301" t="n">
         <v>0</v>
@@ -39595,10 +39595,10 @@
         </is>
       </c>
       <c r="F1305" t="n">
-        <v>11717.90530560179</v>
+        <v>11772.68492748012</v>
       </c>
       <c r="G1305" t="n">
-        <v>0.02962713528115614</v>
+        <v>0.02976563813006241</v>
       </c>
       <c r="H1305" t="n">
         <v>0</v>
@@ -39626,10 +39626,10 @@
         </is>
       </c>
       <c r="F1306" t="n">
-        <v>356579.8914362834</v>
+        <v>356309.194364273</v>
       </c>
       <c r="G1306" t="n">
-        <v>0.901563923466113</v>
+        <v>0.9008795026107209</v>
       </c>
       <c r="H1306" t="n">
         <v>0</v>
@@ -39773,10 +39773,10 @@
         </is>
       </c>
       <c r="F1311" t="n">
-        <v>17069.97649499002</v>
+        <v>17218.15596430617</v>
       </c>
       <c r="G1311" t="n">
-        <v>0.04426268812314021</v>
+        <v>0.04464691956238785</v>
       </c>
       <c r="H1311" t="n">
         <v>0</v>
@@ -39804,10 +39804,10 @@
         </is>
       </c>
       <c r="F1312" t="n">
-        <v>8660.218257629282</v>
+        <v>8716.133371396165</v>
       </c>
       <c r="G1312" t="n">
-        <v>0.02245606723174306</v>
+        <v>0.02260105590485341</v>
       </c>
       <c r="H1312" t="n">
         <v>0</v>
@@ -39922,10 +39922,10 @@
         </is>
       </c>
       <c r="F1316" t="n">
-        <v>10623.16530629873</v>
+        <v>10673.06623027</v>
       </c>
       <c r="G1316" t="n">
-        <v>0.02754601642077649</v>
+        <v>0.02767541021551578</v>
       </c>
       <c r="H1316" t="n">
         <v>0</v>
@@ -39953,10 +39953,10 @@
         </is>
       </c>
       <c r="F1317" t="n">
-        <v>349298.239941082</v>
+        <v>349044.2444340276</v>
       </c>
       <c r="G1317" t="n">
-        <v>0.9057352282243403</v>
+        <v>0.905076614317243</v>
       </c>
       <c r="H1317" t="n">
         <v>0</v>
@@ -40100,10 +40100,10 @@
         </is>
       </c>
       <c r="F1322" t="n">
-        <v>22971.20851624903</v>
+        <v>23145.85995823904</v>
       </c>
       <c r="G1322" t="n">
-        <v>0.04681947692993107</v>
+        <v>0.04717544815161261</v>
       </c>
       <c r="H1322" t="n">
         <v>0</v>
@@ -40131,10 +40131,10 @@
         </is>
       </c>
       <c r="F1323" t="n">
-        <v>10727.42373102245</v>
+        <v>10785.21914117784</v>
       </c>
       <c r="G1323" t="n">
-        <v>0.02186442944597038</v>
+        <v>0.02198222694323796</v>
       </c>
       <c r="H1323" t="n">
         <v>0</v>
@@ -40220,13 +40220,13 @@
         </is>
       </c>
       <c r="F1326" t="n">
-        <v>1197.550291306825</v>
+        <v>1873.218352658429</v>
       </c>
       <c r="G1326" t="n">
-        <v>0.002440824051403787</v>
+        <v>0.003817957744146405</v>
       </c>
       <c r="H1326" t="n">
-        <v>2.34763833418783</v>
+        <v>3.672195852590198</v>
       </c>
       <c r="I1326" t="n">
         <v>20.8289017019285</v>
@@ -40251,10 +40251,10 @@
         </is>
       </c>
       <c r="F1327" t="n">
-        <v>29487.1555498325</v>
+        <v>29593.28131417764</v>
       </c>
       <c r="G1327" t="n">
-        <v>0.06010015528865635</v>
+        <v>0.06031645878753032</v>
       </c>
       <c r="H1327" t="n">
         <v>0</v>
@@ -40282,10 +40282,10 @@
         </is>
       </c>
       <c r="F1328" t="n">
-        <v>426250.2619115892</v>
+        <v>425236.0212337471</v>
       </c>
       <c r="G1328" t="n">
-        <v>0.8687751142840384</v>
+        <v>0.8667079083734727</v>
       </c>
       <c r="H1328" t="n">
         <v>0</v>
@@ -40429,10 +40429,10 @@
         </is>
       </c>
       <c r="F1333" t="n">
-        <v>24594.46273267889</v>
+        <v>24802.15785063356</v>
       </c>
       <c r="G1333" t="n">
-        <v>0.0580117189597593</v>
+        <v>0.0585016158500903</v>
       </c>
       <c r="H1333" t="n">
         <v>0</v>
@@ -40460,10 +40460,10 @@
         </is>
       </c>
       <c r="F1334" t="n">
-        <v>9192.135522242925</v>
+        <v>9249.563520565618</v>
       </c>
       <c r="G1334" t="n">
-        <v>0.02168177399735757</v>
+        <v>0.02181723119092704</v>
       </c>
       <c r="H1334" t="n">
         <v>0</v>
@@ -40578,10 +40578,10 @@
         </is>
       </c>
       <c r="F1338" t="n">
-        <v>26682.47192993949</v>
+        <v>26801.32159470524</v>
       </c>
       <c r="G1338" t="n">
-        <v>0.06293677075102815</v>
+        <v>0.06321710512652526</v>
       </c>
       <c r="H1338" t="n">
         <v>0</v>
@@ -40609,10 +40609,10 @@
         </is>
       </c>
       <c r="F1339" t="n">
-        <v>363487.7298151387</v>
+        <v>363103.7570340956</v>
       </c>
       <c r="G1339" t="n">
-        <v>0.857369736291855</v>
+        <v>0.8564640478324574</v>
       </c>
       <c r="H1339" t="n">
         <v>0</v>
@@ -40756,10 +40756,10 @@
         </is>
       </c>
       <c r="F1344" t="n">
-        <v>30474.59412067028</v>
+        <v>30727.96678007099</v>
       </c>
       <c r="G1344" t="n">
-        <v>0.07536981566404791</v>
+        <v>0.0759964573367056</v>
       </c>
       <c r="H1344" t="n">
         <v>0</v>
@@ -40787,10 +40787,10 @@
         </is>
       </c>
       <c r="F1345" t="n">
-        <v>9004.867225264199</v>
+        <v>9060.19177695771</v>
       </c>
       <c r="G1345" t="n">
-        <v>0.02227085224367416</v>
+        <v>0.02240768101475885</v>
       </c>
       <c r="H1345" t="n">
         <v>0</v>
@@ -40905,10 +40905,10 @@
         </is>
       </c>
       <c r="F1349" t="n">
-        <v>34244.69022529783</v>
+        <v>34393.04150299235</v>
       </c>
       <c r="G1349" t="n">
-        <v>0.08469402347191465</v>
+        <v>0.08506092609280229</v>
       </c>
       <c r="H1349" t="n">
         <v>0</v>
@@ -40936,10 +40936,10 @@
         </is>
       </c>
       <c r="F1350" t="n">
-        <v>330610.0484287677</v>
+        <v>330152.999939979</v>
       </c>
       <c r="G1350" t="n">
-        <v>0.8176653086203634</v>
+        <v>0.8165349355557332</v>
       </c>
       <c r="H1350" t="n">
         <v>0</v>
@@ -41083,10 +41083,10 @@
         </is>
       </c>
       <c r="F1355" t="n">
-        <v>29678.41994230263</v>
+        <v>29929.244249412</v>
       </c>
       <c r="G1355" t="n">
-        <v>0.07759928280196077</v>
+        <v>0.07825510566513288</v>
       </c>
       <c r="H1355" t="n">
         <v>0</v>
@@ -41114,10 +41114,10 @@
         </is>
       </c>
       <c r="F1356" t="n">
-        <v>8769.607561558798</v>
+        <v>8824.687119062701</v>
       </c>
       <c r="G1356" t="n">
-        <v>0.02292963232391058</v>
+        <v>0.02307364720636259</v>
       </c>
       <c r="H1356" t="n">
         <v>0</v>
@@ -41232,10 +41232,10 @@
         </is>
       </c>
       <c r="F1360" t="n">
-        <v>16966.79016586147</v>
+        <v>17043.26514554441</v>
       </c>
       <c r="G1360" t="n">
-        <v>0.04436256212028181</v>
+        <v>0.04456251897739306</v>
       </c>
       <c r="H1360" t="n">
         <v>0</v>
@@ -41263,10 +41263,10 @@
         </is>
       </c>
       <c r="F1361" t="n">
-        <v>327042.5823302771</v>
+        <v>326660.2034859809</v>
       </c>
       <c r="G1361" t="n">
-        <v>0.8551085227538469</v>
+        <v>0.8541087281511115</v>
       </c>
       <c r="H1361" t="n">
         <v>0</v>
@@ -41410,10 +41410,10 @@
         </is>
       </c>
       <c r="F1366" t="n">
-        <v>30463.6653699397</v>
+        <v>30721.6060558654</v>
       </c>
       <c r="G1366" t="n">
-        <v>0.077852991497615</v>
+        <v>0.07851218512334586</v>
       </c>
       <c r="H1366" t="n">
         <v>0</v>
@@ -41441,10 +41441,10 @@
         </is>
       </c>
       <c r="F1367" t="n">
-        <v>9001.637914026167</v>
+        <v>9058.316306915909</v>
       </c>
       <c r="G1367" t="n">
-        <v>0.0230046001186979</v>
+        <v>0.02314944750938969</v>
       </c>
       <c r="H1367" t="n">
         <v>0</v>
@@ -41559,10 +41559,10 @@
         </is>
       </c>
       <c r="F1371" t="n">
-        <v>15563.03863619425</v>
+        <v>15633.49648330091</v>
       </c>
       <c r="G1371" t="n">
-        <v>0.03977292620264503</v>
+        <v>0.03995298838837096</v>
       </c>
       <c r="H1371" t="n">
         <v>0</v>
@@ -41590,10 +41590,10 @@
         </is>
       </c>
       <c r="F1372" t="n">
-        <v>336268.9580798399</v>
+        <v>335883.8811539178</v>
       </c>
       <c r="G1372" t="n">
-        <v>0.8593694821810421</v>
+        <v>0.8583853789788934</v>
       </c>
       <c r="H1372" t="n">
         <v>0</v>
@@ -41737,10 +41737,10 @@
         </is>
       </c>
       <c r="F1377" t="n">
-        <v>30392.40418947221</v>
+        <v>30649.77446905906</v>
       </c>
       <c r="G1377" t="n">
-        <v>0.07676919984852532</v>
+        <v>0.0774193001270521</v>
       </c>
       <c r="H1377" t="n">
         <v>0</v>
@@ -41768,10 +41768,10 @@
         </is>
       </c>
       <c r="F1378" t="n">
-        <v>9101.150337646312</v>
+        <v>9158.449801784405</v>
       </c>
       <c r="G1378" t="n">
-        <v>0.02298890291029578</v>
+        <v>0.02313363756130291</v>
       </c>
       <c r="H1378" t="n">
         <v>0</v>
@@ -41886,10 +41886,10 @@
         </is>
       </c>
       <c r="F1382" t="n">
-        <v>16531.91339124898</v>
+        <v>16606.7178737266</v>
       </c>
       <c r="G1382" t="n">
-        <v>0.04175851818432087</v>
+        <v>0.04194746935215507</v>
       </c>
       <c r="H1382" t="n">
         <v>0</v>
@@ -41917,10 +41917,10 @@
         </is>
       </c>
       <c r="F1383" t="n">
-        <v>339867.7320816325</v>
+        <v>339478.25785543</v>
       </c>
       <c r="G1383" t="n">
-        <v>0.858483379056858</v>
+        <v>0.85749959295949</v>
       </c>
       <c r="H1383" t="n">
         <v>0</v>
@@ -42066,10 +42066,10 @@
         </is>
       </c>
       <c r="F1388" t="n">
-        <v>30728.44817570873</v>
+        <v>30999.42176636967</v>
       </c>
       <c r="G1388" t="n">
-        <v>0.06427272290554305</v>
+        <v>0.06483950097411594</v>
       </c>
       <c r="H1388" t="n">
         <v>0</v>
@@ -42097,10 +42097,10 @@
         </is>
       </c>
       <c r="F1389" t="n">
-        <v>9521.571753304308</v>
+        <v>9584.804129817101</v>
       </c>
       <c r="G1389" t="n">
-        <v>0.01991566054445763</v>
+        <v>0.02004791964817243</v>
       </c>
       <c r="H1389" t="n">
         <v>0</v>
@@ -42215,10 +42215,10 @@
         </is>
       </c>
       <c r="F1393" t="n">
-        <v>38047.61911886408</v>
+        <v>38231.17217156423</v>
       </c>
       <c r="G1393" t="n">
-        <v>0.07958176302490716</v>
+        <v>0.07996568916485422</v>
       </c>
       <c r="H1393" t="n">
         <v>0</v>
@@ -42246,10 +42246,10 @@
         </is>
       </c>
       <c r="F1394" t="n">
-        <v>392413.3008367721</v>
+        <v>392041.0940368615</v>
       </c>
       <c r="G1394" t="n">
-        <v>0.8207857163795628</v>
+        <v>0.8200071953043226</v>
       </c>
       <c r="H1394" t="n">
         <v>0</v>
@@ -42277,13 +42277,13 @@
         </is>
       </c>
       <c r="F1395" t="n">
-        <v>7383.760115350731</v>
+        <v>7238.207895387439</v>
       </c>
       <c r="G1395" t="n">
-        <v>0.01544413714552939</v>
+        <v>0.01513969490853473</v>
       </c>
       <c r="H1395" t="n">
-        <v>13.31003695472213</v>
+        <v>13.04766312400604</v>
       </c>
       <c r="I1395" t="n">
         <v>20.8289017019285</v>
@@ -42395,10 +42395,10 @@
         </is>
       </c>
       <c r="F1399" t="n">
-        <v>27398.21194963013</v>
+        <v>27642.72686420037</v>
       </c>
       <c r="G1399" t="n">
-        <v>0.06495290121258891</v>
+        <v>0.06553257236486276</v>
       </c>
       <c r="H1399" t="n">
         <v>0</v>
@@ -42426,10 +42426,10 @@
         </is>
       </c>
       <c r="F1400" t="n">
-        <v>8489.658817097699</v>
+        <v>8546.93757206874</v>
       </c>
       <c r="G1400" t="n">
-        <v>0.02012642180771857</v>
+        <v>0.02026221246880455</v>
       </c>
       <c r="H1400" t="n">
         <v>0</v>
@@ -42544,10 +42544,10 @@
         </is>
       </c>
       <c r="F1404" t="n">
-        <v>23268.76042510296</v>
+        <v>23384.0815593713</v>
       </c>
       <c r="G1404" t="n">
-        <v>0.05516321649053867</v>
+        <v>0.05543660813579005</v>
       </c>
       <c r="H1404" t="n">
         <v>0</v>
@@ -42575,10 +42575,10 @@
         </is>
       </c>
       <c r="F1405" t="n">
-        <v>352299.579223058</v>
+        <v>352026.0353605031</v>
       </c>
       <c r="G1405" t="n">
-        <v>0.8351960999710728</v>
+        <v>0.8345476099340404</v>
       </c>
       <c r="H1405" t="n">
         <v>0</v>
@@ -42606,13 +42606,13 @@
         </is>
       </c>
       <c r="F1406" t="n">
-        <v>10360.38958511119</v>
+        <v>10216.81864385644</v>
       </c>
       <c r="G1406" t="n">
-        <v>0.02456136051808106</v>
+        <v>0.02422099709650223</v>
       </c>
       <c r="H1406" t="n">
-        <v>15.227946631731</v>
+        <v>15.01692265301532</v>
       </c>
       <c r="I1406" t="n">
         <v>20.8289017019285</v>
@@ -42724,10 +42724,10 @@
         </is>
       </c>
       <c r="F1410" t="n">
-        <v>29245.41179025899</v>
+        <v>29507.31450576315</v>
       </c>
       <c r="G1410" t="n">
-        <v>0.05656632410192237</v>
+        <v>0.05707289497856554</v>
       </c>
       <c r="H1410" t="n">
         <v>0</v>
@@ -42755,10 +42755,10 @@
         </is>
       </c>
       <c r="F1411" t="n">
-        <v>10362.48499829322</v>
+        <v>10432.56085339619</v>
       </c>
       <c r="G1411" t="n">
-        <v>0.0200430648444486</v>
+        <v>0.02017860520065568</v>
       </c>
       <c r="H1411" t="n">
         <v>0</v>
@@ -42873,10 +42873,10 @@
         </is>
       </c>
       <c r="F1415" t="n">
-        <v>32614.0512894258</v>
+        <v>32775.92091850911</v>
       </c>
       <c r="G1415" t="n">
-        <v>0.06308192918414851</v>
+        <v>0.06339501658283694</v>
       </c>
       <c r="H1415" t="n">
         <v>0</v>
@@ -42904,10 +42904,10 @@
         </is>
       </c>
       <c r="F1416" t="n">
-        <v>428904.0153746572</v>
+        <v>428582.8994096896</v>
       </c>
       <c r="G1416" t="n">
-        <v>0.8295839264051582</v>
+        <v>0.8289628255679078</v>
       </c>
       <c r="H1416" t="n">
         <v>0</v>
@@ -42935,13 +42935,13 @@
         </is>
       </c>
       <c r="F1417" t="n">
-        <v>15885.03654736478</v>
+        <v>15712.30431264195</v>
       </c>
       <c r="G1417" t="n">
-        <v>0.03072475546432239</v>
+        <v>0.03039065767003401</v>
       </c>
       <c r="H1417" t="n">
-        <v>18.92391804659653</v>
+        <v>18.71814133061896</v>
       </c>
       <c r="I1417" t="n">
         <v>20.8289017019285</v>
@@ -43053,10 +43053,10 @@
         </is>
       </c>
       <c r="F1421" t="n">
-        <v>33358.35512617632</v>
+        <v>33658.1760374377</v>
       </c>
       <c r="G1421" t="n">
-        <v>0.05530047013714616</v>
+        <v>0.05579750415716866</v>
       </c>
       <c r="H1421" t="n">
         <v>0</v>
@@ -43084,10 +43084,10 @@
         </is>
       </c>
       <c r="F1422" t="n">
-        <v>12110.03400716642</v>
+        <v>12192.29000861007</v>
       </c>
       <c r="G1422" t="n">
-        <v>0.02007564735851214</v>
+        <v>0.02021200886477435</v>
       </c>
       <c r="H1422" t="n">
         <v>0</v>
@@ -43202,10 +43202,10 @@
         </is>
       </c>
       <c r="F1426" t="n">
-        <v>45087.25918609066</v>
+        <v>45311.84421615598</v>
       </c>
       <c r="G1426" t="n">
-        <v>0.07474429182000179</v>
+        <v>0.07511660207634988</v>
       </c>
       <c r="H1426" t="n">
         <v>0</v>
@@ -43233,10 +43233,10 @@
         </is>
       </c>
       <c r="F1427" t="n">
-        <v>501682.176322875</v>
+        <v>501329.2227465991</v>
       </c>
       <c r="G1427" t="n">
-        <v>0.8316735074359674</v>
+        <v>0.8310883916941746</v>
       </c>
       <c r="H1427" t="n">
         <v>0</v>
@@ -43264,10 +43264,10 @@
         </is>
       </c>
       <c r="F1428" t="n">
-        <v>10982.27535769164</v>
+        <v>10728.5669911971</v>
       </c>
       <c r="G1428" t="n">
-        <v>0.01820608324837259</v>
+        <v>0.01778549320753254</v>
       </c>
       <c r="H1428" t="n">
         <v>0</v>
@@ -43382,10 +43382,10 @@
         </is>
       </c>
       <c r="F1432" t="n">
-        <v>26618.98154556658</v>
+        <v>26823.03316462955</v>
       </c>
       <c r="G1432" t="n">
-        <v>0.05777499910592172</v>
+        <v>0.05821788164403627</v>
       </c>
       <c r="H1432" t="n">
         <v>0</v>
@@ -43413,10 +43413,10 @@
         </is>
       </c>
       <c r="F1433" t="n">
-        <v>9663.449247831337</v>
+        <v>9716.337536828238</v>
       </c>
       <c r="G1433" t="n">
-        <v>0.02097397192668184</v>
+        <v>0.02108876297698101</v>
       </c>
       <c r="H1433" t="n">
         <v>0</v>
@@ -43531,10 +43531,10 @@
         </is>
       </c>
       <c r="F1437" t="n">
-        <v>20309.94304104695</v>
+        <v>20385.04142525649</v>
       </c>
       <c r="G1437" t="n">
-        <v>0.04408158663129774</v>
+        <v>0.04424458344141742</v>
       </c>
       <c r="H1437" t="n">
         <v>0</v>
@@ -43562,10 +43562,10 @@
         </is>
       </c>
       <c r="F1438" t="n">
-        <v>402172.772727792</v>
+        <v>401997.9006399857</v>
       </c>
       <c r="G1438" t="n">
-        <v>0.8728933353441595</v>
+        <v>0.8725137853339776</v>
       </c>
       <c r="H1438" t="n">
         <v>0</v>
@@ -43593,10 +43593,10 @@
         </is>
       </c>
       <c r="F1439" t="n">
-        <v>1970.153437763185</v>
+        <v>1812.987233299959</v>
       </c>
       <c r="G1439" t="n">
-        <v>0.004276106991939158</v>
+        <v>0.003934986603587699</v>
       </c>
       <c r="H1439" t="n">
         <v>0</v>
@@ -43711,10 +43711,10 @@
         </is>
       </c>
       <c r="F1443" t="n">
-        <v>23423.04043435764</v>
+        <v>23603.85949291662</v>
       </c>
       <c r="G1443" t="n">
-        <v>0.06224709536031698</v>
+        <v>0.06272762482926558</v>
       </c>
       <c r="H1443" t="n">
         <v>0</v>
@@ -43742,10 +43742,10 @@
         </is>
       </c>
       <c r="F1444" t="n">
-        <v>8503.231503423947</v>
+        <v>8550.228626174488</v>
       </c>
       <c r="G1444" t="n">
-        <v>0.0225974703731496</v>
+        <v>0.02272236596002748</v>
       </c>
       <c r="H1444" t="n">
         <v>0</v>
@@ -43860,10 +43860,10 @@
         </is>
       </c>
       <c r="F1448" t="n">
-        <v>14490.53927543167</v>
+        <v>14545.0184191087</v>
       </c>
       <c r="G1448" t="n">
-        <v>0.03850883418094351</v>
+        <v>0.03865361335515517</v>
       </c>
       <c r="H1448" t="n">
         <v>0</v>
@@ -43891,10 +43891,10 @@
         </is>
       </c>
       <c r="F1449" t="n">
-        <v>329874.4887867867</v>
+        <v>329592.1934618002</v>
       </c>
       <c r="G1449" t="n">
-        <v>0.8766466000855899</v>
+        <v>0.8758963958555518</v>
       </c>
       <c r="H1449" t="n">
         <v>0</v>
@@ -44038,10 +44038,10 @@
         </is>
       </c>
       <c r="F1454" t="n">
-        <v>32202.30390361145</v>
+        <v>32444.12611297025</v>
       </c>
       <c r="G1454" t="n">
-        <v>0.05849343658613759</v>
+        <v>0.05893269124662982</v>
       </c>
       <c r="H1454" t="n">
         <v>0</v>
@@ -44069,10 +44069,10 @@
         </is>
       </c>
       <c r="F1455" t="n">
-        <v>11690.3544526339</v>
+        <v>11752.51428375854</v>
       </c>
       <c r="G1455" t="n">
-        <v>0.02123478521572253</v>
+        <v>0.02134769459484575</v>
       </c>
       <c r="H1455" t="n">
         <v>0</v>
@@ -44187,10 +44187,10 @@
         </is>
       </c>
       <c r="F1459" t="n">
-        <v>68836.70354834264</v>
+        <v>69075.11250324248</v>
       </c>
       <c r="G1459" t="n">
-        <v>0.1250374931512949</v>
+        <v>0.1254705478521865</v>
       </c>
       <c r="H1459" t="n">
         <v>0</v>
@@ -44218,10 +44218,10 @@
         </is>
       </c>
       <c r="F1460" t="n">
-        <v>437799.138095412</v>
+        <v>437256.7471000287</v>
       </c>
       <c r="G1460" t="n">
-        <v>0.795234285046845</v>
+        <v>0.7942490663063378</v>
       </c>
       <c r="H1460" t="n">
         <v>0</v>
@@ -44365,10 +44365,10 @@
         </is>
       </c>
       <c r="F1465" t="n">
-        <v>24074.78214592944</v>
+        <v>24259.67934573898</v>
       </c>
       <c r="G1465" t="n">
-        <v>0.06155479524741402</v>
+        <v>0.06202754342046533</v>
       </c>
       <c r="H1465" t="n">
         <v>0</v>
@@ -44396,10 +44396,10 @@
         </is>
       </c>
       <c r="F1466" t="n">
-        <v>8739.832326850907</v>
+        <v>8787.791880645589</v>
       </c>
       <c r="G1466" t="n">
-        <v>0.02234614569365891</v>
+        <v>0.02246876946221866</v>
       </c>
       <c r="H1466" t="n">
         <v>0</v>
@@ -44514,10 +44514,10 @@
         </is>
       </c>
       <c r="F1470" t="n">
-        <v>21302.90335763758</v>
+        <v>21381.8333233971</v>
       </c>
       <c r="G1470" t="n">
-        <v>0.05446761039856569</v>
+        <v>0.05466941982104613</v>
       </c>
       <c r="H1470" t="n">
         <v>0</v>
@@ -44545,10 +44545,10 @@
         </is>
       </c>
       <c r="F1471" t="n">
-        <v>336993.8821695821</v>
+        <v>336682.0954502184</v>
       </c>
       <c r="G1471" t="n">
-        <v>0.8616314486603615</v>
+        <v>0.8608342672962699</v>
       </c>
       <c r="H1471" t="n">
         <v>0</v>
@@ -44692,10 +44692,10 @@
         </is>
       </c>
       <c r="F1476" t="n">
-        <v>24372.84450792927</v>
+        <v>24561.23405568384</v>
       </c>
       <c r="G1476" t="n">
-        <v>0.06241713986140573</v>
+        <v>0.06289959223772967</v>
       </c>
       <c r="H1476" t="n">
         <v>0</v>
@@ -44723,10 +44723,10 @@
         </is>
       </c>
       <c r="F1477" t="n">
-        <v>8848.037462458533</v>
+        <v>8897.026631602235</v>
       </c>
       <c r="G1477" t="n">
-        <v>0.02265920137526668</v>
+        <v>0.02278465919046514</v>
       </c>
       <c r="H1477" t="n">
         <v>0</v>
@@ -44841,10 +44841,10 @@
         </is>
       </c>
       <c r="F1481" t="n">
-        <v>13506.42312622819</v>
+        <v>13557.383073041</v>
       </c>
       <c r="G1481" t="n">
-        <v>0.03458899928659719</v>
+        <v>0.03471950412473828</v>
       </c>
       <c r="H1481" t="n">
         <v>0</v>
@@ -44872,10 +44872,10 @@
         </is>
       </c>
       <c r="F1482" t="n">
-        <v>343755.894903384</v>
+        <v>343467.5562396729</v>
       </c>
       <c r="G1482" t="n">
-        <v>0.8803346594767304</v>
+        <v>0.879596244447067</v>
       </c>
       <c r="H1482" t="n">
         <v>0</v>
@@ -45019,10 +45019,10 @@
         </is>
       </c>
       <c r="F1487" t="n">
-        <v>25309.96262812222</v>
+        <v>25534.07431308213</v>
       </c>
       <c r="G1487" t="n">
-        <v>0.06767934284390092</v>
+        <v>0.0682786219414083</v>
       </c>
       <c r="H1487" t="n">
         <v>0</v>
@@ -45050,10 +45050,10 @@
         </is>
       </c>
       <c r="F1488" t="n">
-        <v>9188.238058721099</v>
+        <v>9249.426908345024</v>
       </c>
       <c r="G1488" t="n">
-        <v>0.02456953109115279</v>
+        <v>0.0247331512905489</v>
       </c>
       <c r="H1488" t="n">
         <v>0</v>
@@ -45168,10 +45168,10 @@
         </is>
       </c>
       <c r="F1492" t="n">
-        <v>1569.294332304039</v>
+        <v>1577.017628260346</v>
       </c>
       <c r="G1492" t="n">
-        <v>0.004196324218234352</v>
+        <v>0.004216976465042929</v>
       </c>
       <c r="H1492" t="n">
         <v>0</v>
@@ -45199,10 +45199,10 @@
         </is>
       </c>
       <c r="F1493" t="n">
-        <v>337901.3049808526</v>
+        <v>337608.2811503125</v>
       </c>
       <c r="G1493" t="n">
-        <v>0.903554801846712</v>
+        <v>0.902771250303</v>
       </c>
       <c r="H1493" t="n">
         <v>0</v>
@@ -45346,10 +45346,10 @@
         </is>
       </c>
       <c r="F1498" t="n">
-        <v>28152.20546124744</v>
+        <v>28397.00010802443</v>
       </c>
       <c r="G1498" t="n">
-        <v>0.0616815493306322</v>
+        <v>0.06221789498574738</v>
       </c>
       <c r="H1498" t="n">
         <v>0</v>
@@ -45377,10 +45377,10 @@
         </is>
       </c>
       <c r="F1499" t="n">
-        <v>10841.18149971031</v>
+        <v>10911.5908545573</v>
       </c>
       <c r="G1499" t="n">
-        <v>0.02375305453056636</v>
+        <v>0.02390732159501753</v>
       </c>
       <c r="H1499" t="n">
         <v>0</v>
@@ -45495,10 +45495,10 @@
         </is>
       </c>
       <c r="F1503" t="n">
-        <v>25251.09232360097</v>
+        <v>25370.09377949599</v>
       </c>
       <c r="G1503" t="n">
-        <v>0.05532520352462385</v>
+        <v>0.05558593599840144</v>
       </c>
       <c r="H1503" t="n">
         <v>0</v>
@@ -45526,10 +45526,10 @@
         </is>
       </c>
       <c r="F1504" t="n">
-        <v>392167.6207154412</v>
+        <v>391733.4152579222</v>
       </c>
       <c r="G1504" t="n">
-        <v>0.8592401926141775</v>
+        <v>0.8582888474208337</v>
       </c>
       <c r="H1504" t="n">
         <v>0</v>
@@ -45673,10 +45673,10 @@
         </is>
       </c>
       <c r="F1509" t="n">
-        <v>26247.48197254979</v>
+        <v>26479.82936651646</v>
       </c>
       <c r="G1509" t="n">
-        <v>0.06357791736197252</v>
+        <v>0.06414072043117099</v>
       </c>
       <c r="H1509" t="n">
         <v>0</v>
@@ -45704,10 +45704,10 @@
         </is>
       </c>
       <c r="F1510" t="n">
-        <v>10107.68823659235</v>
+        <v>10174.91505605447</v>
       </c>
       <c r="G1510" t="n">
-        <v>0.02448333017615643</v>
+        <v>0.02464617022217458</v>
       </c>
       <c r="H1510" t="n">
         <v>0</v>
@@ -45822,10 +45822,10 @@
         </is>
       </c>
       <c r="F1514" t="n">
-        <v>5380.24397560853</v>
+        <v>5406.638029697039</v>
       </c>
       <c r="G1514" t="n">
-        <v>0.01303228657233591</v>
+        <v>0.01309621952374975</v>
       </c>
       <c r="H1514" t="n">
         <v>0</v>
@@ -45853,10 +45853,10 @@
         </is>
       </c>
       <c r="F1515" t="n">
-        <v>371104.1858152493</v>
+        <v>370778.217547732</v>
       </c>
       <c r="G1515" t="n">
-        <v>0.8989064658895352</v>
+        <v>0.8981168898229046</v>
       </c>
       <c r="H1515" t="n">
         <v>0</v>
@@ -46000,10 +46000,10 @@
         </is>
       </c>
       <c r="F1520" t="n">
-        <v>28282.76732864118</v>
+        <v>28535.0366620139</v>
       </c>
       <c r="G1520" t="n">
-        <v>0.06924125407595029</v>
+        <v>0.06985885435546542</v>
       </c>
       <c r="H1520" t="n">
         <v>0</v>
@@ -46031,10 +46031,10 @@
         </is>
       </c>
       <c r="F1521" t="n">
-        <v>10163.21520305784</v>
+        <v>10231.56541175767</v>
       </c>
       <c r="G1521" t="n">
-        <v>0.02488136178212155</v>
+        <v>0.02504869527221948</v>
       </c>
       <c r="H1521" t="n">
         <v>0</v>
@@ -46149,10 +46149,10 @@
         </is>
       </c>
       <c r="F1525" t="n">
-        <v>-5961.946743065071</v>
+        <v>-5991.771797159213</v>
       </c>
       <c r="G1525" t="n">
-        <v>-0.01459590797558939</v>
+        <v>-0.01466892502248459</v>
       </c>
       <c r="H1525" t="n">
         <v>0</v>
@@ -46180,10 +46180,10 @@
         </is>
       </c>
       <c r="F1526" t="n">
-        <v>375982.964211366</v>
+        <v>375692.1697233876</v>
       </c>
       <c r="G1526" t="n">
-        <v>0.9204732921175175</v>
+        <v>0.9197613753947996</v>
       </c>
       <c r="H1526" t="n">
         <v>0</v>
@@ -46327,10 +46327,10 @@
         </is>
       </c>
       <c r="F1531" t="n">
-        <v>28292.72661967864</v>
+        <v>28584.70094148354</v>
       </c>
       <c r="G1531" t="n">
-        <v>0.06758920573657044</v>
+        <v>0.06828671053246881</v>
       </c>
       <c r="H1531" t="n">
         <v>0</v>
@@ -46358,10 +46358,10 @@
         </is>
       </c>
       <c r="F1532" t="n">
-        <v>9945.361893600404</v>
+        <v>10026.16559477976</v>
       </c>
       <c r="G1532" t="n">
-        <v>0.02375872499625632</v>
+        <v>0.02395175898893942</v>
       </c>
       <c r="H1532" t="n">
         <v>0</v>
@@ -46476,10 +46476,10 @@
         </is>
       </c>
       <c r="F1536" t="n">
-        <v>7114.178881026748</v>
+        <v>7159.5185556837</v>
       </c>
       <c r="G1536" t="n">
-        <v>0.01699524073802198</v>
+        <v>0.01710355382638606</v>
       </c>
       <c r="H1536" t="n">
         <v>0</v>
@@ -46507,10 +46507,10 @@
         </is>
       </c>
       <c r="F1537" t="n">
-        <v>373246.0326056943</v>
+        <v>372827.914908053</v>
       </c>
       <c r="G1537" t="n">
-        <v>0.8916568285291513</v>
+        <v>0.8906579766522057</v>
       </c>
       <c r="H1537" t="n">
         <v>0</v>
@@ -46654,10 +46654,10 @@
         </is>
       </c>
       <c r="F1542" t="n">
-        <v>27299.65861085078</v>
+        <v>27585.14319256977</v>
       </c>
       <c r="G1542" t="n">
-        <v>0.06839179471294948</v>
+        <v>0.06910699790229914</v>
       </c>
       <c r="H1542" t="n">
         <v>0</v>
@@ -46685,10 +46685,10 @@
         </is>
       </c>
       <c r="F1543" t="n">
-        <v>9653.689083154371</v>
+        <v>9733.44305886441</v>
       </c>
       <c r="G1543" t="n">
-        <v>0.02418466587473415</v>
+        <v>0.02438446755035418</v>
       </c>
       <c r="H1543" t="n">
         <v>0</v>
@@ -46803,10 +46803,10 @@
         </is>
       </c>
       <c r="F1547" t="n">
-        <v>-3278.964454008076</v>
+        <v>-3300.379922345158</v>
       </c>
       <c r="G1547" t="n">
-        <v>-0.008214544621464408</v>
+        <v>-0.008268195193988758</v>
       </c>
       <c r="H1547" t="n">
         <v>0</v>
@@ -46834,10 +46834,10 @@
         </is>
       </c>
       <c r="F1548" t="n">
-        <v>365491.3167600029</v>
+        <v>365147.493670911</v>
       </c>
       <c r="G1548" t="n">
-        <v>0.9156380840337808</v>
+        <v>0.9147767297413355</v>
       </c>
       <c r="H1548" t="n">
         <v>0</v>
@@ -46981,10 +46981,10 @@
         </is>
       </c>
       <c r="F1553" t="n">
-        <v>27408.21605798864</v>
+        <v>27694.48788626888</v>
       </c>
       <c r="G1553" t="n">
-        <v>0.06827963253149237</v>
+        <v>0.06899279588359591</v>
       </c>
       <c r="H1553" t="n">
         <v>0</v>
@@ -47012,10 +47012,10 @@
         </is>
       </c>
       <c r="F1554" t="n">
-        <v>9692.077103212316</v>
+        <v>9772.025434256921</v>
       </c>
       <c r="G1554" t="n">
-        <v>0.02414500315066446</v>
+        <v>0.02434417126338228</v>
       </c>
       <c r="H1554" t="n">
         <v>0</v>
@@ -47130,10 +47130,10 @@
         </is>
       </c>
       <c r="F1558" t="n">
-        <v>-2340.199794850424</v>
+        <v>-2355.449760146806</v>
       </c>
       <c r="G1558" t="n">
-        <v>-0.005829930036474867</v>
+        <v>-0.005867920908421875</v>
       </c>
       <c r="H1558" t="n">
         <v>0</v>
@@ -47161,10 +47161,10 @@
         </is>
       </c>
       <c r="F1559" t="n">
-        <v>366651.2066336495</v>
+        <v>366300.236439621</v>
       </c>
       <c r="G1559" t="n">
-        <v>0.9134052943543181</v>
+        <v>0.9125309537614438</v>
       </c>
       <c r="H1559" t="n">
         <v>0</v>
@@ -47308,10 +47308,10 @@
         </is>
       </c>
       <c r="F1564" t="n">
-        <v>31340.87719431158</v>
+        <v>31658.37108553957</v>
       </c>
       <c r="G1564" t="n">
-        <v>0.06955249789298132</v>
+        <v>0.07025708867593097</v>
       </c>
       <c r="H1564" t="n">
         <v>0</v>
@@ -47339,10 +47339,10 @@
         </is>
       </c>
       <c r="F1565" t="n">
-        <v>10458.18346478402</v>
+        <v>10541.23678491326</v>
       </c>
       <c r="G1565" t="n">
-        <v>0.02320907544766571</v>
+        <v>0.0233933895572383</v>
       </c>
       <c r="H1565" t="n">
         <v>0</v>
@@ -47457,10 +47457,10 @@
         </is>
       </c>
       <c r="F1569" t="n">
-        <v>20967.96263126992</v>
+        <v>21097.20276956597</v>
       </c>
       <c r="G1569" t="n">
-        <v>0.04653265343180023</v>
+        <v>0.0468194665414268</v>
       </c>
       <c r="H1569" t="n">
         <v>0</v>
@@ -47488,10 +47488,10 @@
         </is>
       </c>
       <c r="F1570" t="n">
-        <v>387840.4767096345</v>
+        <v>387310.6893599812</v>
       </c>
       <c r="G1570" t="n">
-        <v>0.8607057732275527</v>
+        <v>0.8595300552254039</v>
       </c>
       <c r="H1570" t="n">
         <v>0</v>
@@ -47635,10 +47635,10 @@
         </is>
       </c>
       <c r="F1575" t="n">
-        <v>36340.87500134399</v>
+        <v>36709.6473892571</v>
       </c>
       <c r="G1575" t="n">
-        <v>0.06862779627240309</v>
+        <v>0.06932420317806104</v>
       </c>
       <c r="H1575" t="n">
         <v>0</v>
@@ -47666,10 +47666,10 @@
         </is>
       </c>
       <c r="F1576" t="n">
-        <v>12311.42447446238</v>
+        <v>12409.38629940175</v>
       </c>
       <c r="G1576" t="n">
-        <v>0.02324946580469607</v>
+        <v>0.02343446146493163</v>
       </c>
       <c r="H1576" t="n">
         <v>0</v>
@@ -47784,10 +47784,10 @@
         </is>
       </c>
       <c r="F1580" t="n">
-        <v>23903.62030909817</v>
+        <v>24051.35642511913</v>
       </c>
       <c r="G1580" t="n">
-        <v>0.04514070684002511</v>
+        <v>0.04541969858339913</v>
       </c>
       <c r="H1580" t="n">
         <v>0</v>
@@ -47815,10 +47815,10 @@
         </is>
       </c>
       <c r="F1581" t="n">
-        <v>456979.8802150955</v>
+        <v>456365.4098862221</v>
       </c>
       <c r="G1581" t="n">
-        <v>0.8629820310828756</v>
+        <v>0.8618216367736082</v>
       </c>
       <c r="H1581" t="n">
         <v>0</v>
@@ -47962,10 +47962,10 @@
         </is>
       </c>
       <c r="F1586" t="n">
-        <v>29133.5294830987</v>
+        <v>29405.76324039493</v>
       </c>
       <c r="G1586" t="n">
-        <v>0.07433737138130504</v>
+        <v>0.07503200544307904</v>
       </c>
       <c r="H1586" t="n">
         <v>0</v>
@@ -47993,10 +47993,10 @@
         </is>
       </c>
       <c r="F1587" t="n">
-        <v>9090.588528135211</v>
+        <v>9155.722552013456</v>
       </c>
       <c r="G1587" t="n">
-        <v>0.02319562605288365</v>
+        <v>0.0233618226040226</v>
       </c>
       <c r="H1587" t="n">
         <v>0</v>
@@ -48111,10 +48111,10 @@
         </is>
       </c>
       <c r="F1591" t="n">
-        <v>-1197.33275563608</v>
+        <v>-1203.837043979411</v>
       </c>
       <c r="G1591" t="n">
-        <v>-0.003055124844188763</v>
+        <v>-0.003071721243826154</v>
       </c>
       <c r="H1591" t="n">
         <v>0</v>
@@ -48142,10 +48142,10 @@
         </is>
       </c>
       <c r="F1592" t="n">
-        <v>354882.8147444021</v>
+        <v>354551.951251571</v>
       </c>
       <c r="G1592" t="n">
-        <v>0.90552212741</v>
+        <v>0.9046778931967245</v>
       </c>
       <c r="H1592" t="n">
         <v>0</v>
@@ -48289,10 +48289,10 @@
         </is>
       </c>
       <c r="F1597" t="n">
-        <v>31400.35967060807</v>
+        <v>31694.24146460838</v>
       </c>
       <c r="G1597" t="n">
-        <v>0.07506461021619572</v>
+        <v>0.07576715383504856</v>
       </c>
       <c r="H1597" t="n">
         <v>0</v>
@@ -48320,10 +48320,10 @@
         </is>
       </c>
       <c r="F1598" t="n">
-        <v>9729.771447410709</v>
+        <v>9799.637514882934</v>
       </c>
       <c r="G1598" t="n">
-        <v>0.02325965399295096</v>
+        <v>0.02342667338945329</v>
       </c>
       <c r="H1598" t="n">
         <v>0</v>
@@ -48440,10 +48440,10 @@
         </is>
       </c>
       <c r="F1602" t="n">
-        <v>-3191.168661291163</v>
+        <v>-3208.566694889548</v>
       </c>
       <c r="G1602" t="n">
-        <v>-0.0076286970661098</v>
+        <v>-0.007670288201507319</v>
       </c>
       <c r="H1602" t="n">
         <v>0</v>
@@ -48471,10 +48471,10 @@
         </is>
       </c>
       <c r="F1603" t="n">
-        <v>380372.1375432723</v>
+        <v>380025.7877153982</v>
       </c>
       <c r="G1603" t="n">
-        <v>0.9093044328569631</v>
+        <v>0.9084764609770055</v>
       </c>
       <c r="H1603" t="n">
         <v>0</v>
@@ -48618,10 +48618,10 @@
         </is>
       </c>
       <c r="F1608" t="n">
-        <v>35559.4309745814</v>
+        <v>35887.85223620116</v>
       </c>
       <c r="G1608" t="n">
-        <v>0.07355903584525754</v>
+        <v>0.07423841542737461</v>
       </c>
       <c r="H1608" t="n">
         <v>0</v>
@@ -48649,10 +48649,10 @@
         </is>
       </c>
       <c r="F1609" t="n">
-        <v>11018.50869901044</v>
+        <v>11096.27259876756</v>
       </c>
       <c r="G1609" t="n">
-        <v>0.0227931340333078</v>
+        <v>0.02295399817913144</v>
       </c>
       <c r="H1609" t="n">
         <v>0</v>
@@ -48767,10 +48767,10 @@
         </is>
       </c>
       <c r="F1613" t="n">
-        <v>10611.86352011614</v>
+        <v>10668.13545109329</v>
       </c>
       <c r="G1613" t="n">
-        <v>0.02195193870282096</v>
+        <v>0.02206834408036451</v>
       </c>
       <c r="H1613" t="n">
         <v>0</v>
@@ -48798,10 +48798,10 @@
         </is>
       </c>
       <c r="F1614" t="n">
-        <v>426223.696806292</v>
+        <v>425761.239713938</v>
       </c>
       <c r="G1614" t="n">
-        <v>0.8816958914186137</v>
+        <v>0.8807392423131294</v>
       </c>
       <c r="H1614" t="n">
         <v>0</v>
@@ -48947,10 +48947,10 @@
         </is>
       </c>
       <c r="F1619" t="n">
-        <v>31388.92183731242</v>
+        <v>31678.03278278496</v>
       </c>
       <c r="G1619" t="n">
-        <v>0.07324928279584408</v>
+        <v>0.07392395297132995</v>
       </c>
       <c r="H1619" t="n">
         <v>0</v>
@@ -48978,10 +48978,10 @@
         </is>
       </c>
       <c r="F1620" t="n">
-        <v>9726.227299987164</v>
+        <v>9794.625903967959</v>
       </c>
       <c r="G1620" t="n">
-        <v>0.02269715340099809</v>
+        <v>0.02285676858981526</v>
       </c>
       <c r="H1620" t="n">
         <v>0</v>
@@ -49096,10 +49096,10 @@
         </is>
       </c>
       <c r="F1624" t="n">
-        <v>12014.80430869204</v>
+        <v>12078.14666080827</v>
       </c>
       <c r="G1624" t="n">
-        <v>0.0280377836201418</v>
+        <v>0.02818559952433765</v>
       </c>
       <c r="H1624" t="n">
         <v>0</v>
@@ -49127,10 +49127,10 @@
         </is>
       </c>
       <c r="F1625" t="n">
-        <v>375391.9465540083</v>
+        <v>374971.0946524389</v>
       </c>
       <c r="G1625" t="n">
-        <v>0.8760157801830161</v>
+        <v>0.8750336789145171</v>
       </c>
       <c r="H1625" t="n">
         <v>0</v>
@@ -49276,10 +49276,10 @@
         </is>
       </c>
       <c r="F1630" t="n">
-        <v>28918.63692892984</v>
+        <v>29148.55453627399</v>
       </c>
       <c r="G1630" t="n">
-        <v>0.05612489217269241</v>
+        <v>0.05657111309771411</v>
       </c>
       <c r="H1630" t="n">
         <v>0</v>
@@ -49307,10 +49307,10 @@
         </is>
       </c>
       <c r="F1631" t="n">
-        <v>10498.28971859065</v>
+        <v>10558.73110422653</v>
       </c>
       <c r="G1631" t="n">
-        <v>0.02037493606291457</v>
+        <v>0.02049223987152487</v>
       </c>
       <c r="H1631" t="n">
         <v>0</v>
@@ -49425,10 +49425,10 @@
         </is>
       </c>
       <c r="F1635" t="n">
-        <v>20577.11057530525</v>
+        <v>20659.09520809279</v>
       </c>
       <c r="G1635" t="n">
-        <v>0.03993577273724268</v>
+        <v>0.04009488738314825</v>
       </c>
       <c r="H1635" t="n">
         <v>0</v>
@@ -49456,10 +49456,10 @@
         </is>
       </c>
       <c r="F1636" t="n">
-        <v>455261.0627771742</v>
+        <v>454888.7191514067</v>
       </c>
       <c r="G1636" t="n">
-        <v>0.8835643990271503</v>
+        <v>0.8828417596476128</v>
       </c>
       <c r="H1636" t="n">
         <v>0</v>
@@ -49605,10 +49605,10 @@
         </is>
       </c>
       <c r="F1641" t="n">
-        <v>29533.02664242582</v>
+        <v>29768.40915512841</v>
       </c>
       <c r="G1641" t="n">
-        <v>0.05640949332433666</v>
+        <v>0.05685908518092911</v>
       </c>
       <c r="H1641" t="n">
         <v>0</v>
@@ -49636,10 +49636,10 @@
         </is>
       </c>
       <c r="F1642" t="n">
-        <v>10721.33070175517</v>
+        <v>10783.26636329251</v>
       </c>
       <c r="G1642" t="n">
-        <v>0.02047825439536418</v>
+        <v>0.02059655447101609</v>
       </c>
       <c r="H1642" t="n">
         <v>0</v>
@@ -49754,10 +49754,10 @@
         </is>
       </c>
       <c r="F1646" t="n">
-        <v>16866.56502724552</v>
+        <v>16934.22986372057</v>
       </c>
       <c r="G1646" t="n">
-        <v>0.03221594585710727</v>
+        <v>0.03234518893089194</v>
       </c>
       <c r="H1646" t="n">
         <v>0</v>
@@ -49785,10 +49785,10 @@
         </is>
       </c>
       <c r="F1647" t="n">
-        <v>466426.1776285735</v>
+        <v>466061.1946178584</v>
       </c>
       <c r="G1647" t="n">
-        <v>0.890896306423192</v>
+        <v>0.8901991714171629</v>
       </c>
       <c r="H1647" t="n">
         <v>0</v>
@@ -49934,10 +49934,10 @@
         </is>
       </c>
       <c r="F1652" t="n">
-        <v>25234.73501456318</v>
+        <v>25436.70604001508</v>
       </c>
       <c r="G1652" t="n">
-        <v>0.05074250530165349</v>
+        <v>0.0511486326425532</v>
       </c>
       <c r="H1652" t="n">
         <v>0</v>
@@ -49965,10 +49965,10 @@
         </is>
       </c>
       <c r="F1653" t="n">
-        <v>10206.86046408135</v>
+        <v>10266.05782159546</v>
       </c>
       <c r="G1653" t="n">
-        <v>0.020524157313837</v>
+        <v>0.02064319253357559</v>
       </c>
       <c r="H1653" t="n">
         <v>0</v>
@@ -50083,10 +50083,10 @@
         </is>
       </c>
       <c r="F1657" t="n">
-        <v>17182.2495013843</v>
+        <v>17251.53469936049</v>
       </c>
       <c r="G1657" t="n">
-        <v>0.03455040783725934</v>
+        <v>0.03468972788653284</v>
       </c>
       <c r="H1657" t="n">
         <v>0</v>
@@ -50114,10 +50114,10 @@
         </is>
       </c>
       <c r="F1658" t="n">
-        <v>444685.7550199712</v>
+        <v>444355.301439029</v>
       </c>
       <c r="G1658" t="n">
-        <v>0.8941829295472502</v>
+        <v>0.8935184469373384</v>
       </c>
       <c r="H1658" t="n">
         <v>0</v>
@@ -50263,10 +50263,10 @@
         </is>
       </c>
       <c r="F1663" t="n">
-        <v>35277.17577844393</v>
+        <v>35554.10756503528</v>
       </c>
       <c r="G1663" t="n">
-        <v>0.0463552997408914</v>
+        <v>0.04671919667118556</v>
       </c>
       <c r="H1663" t="n">
         <v>0</v>
@@ -50294,10 +50294,10 @@
         </is>
       </c>
       <c r="F1664" t="n">
-        <v>14952.80340286704</v>
+        <v>15037.17225571654</v>
       </c>
       <c r="G1664" t="n">
-        <v>0.01964844601109101</v>
+        <v>0.01975930929241478</v>
       </c>
       <c r="H1664" t="n">
         <v>0</v>
@@ -50412,10 +50412,10 @@
         </is>
       </c>
       <c r="F1668" t="n">
-        <v>77681.38848079415</v>
+        <v>77976.77062498176</v>
       </c>
       <c r="G1668" t="n">
-        <v>0.102075746367321</v>
+        <v>0.1024638876379805</v>
       </c>
       <c r="H1668" t="n">
         <v>0</v>
@@ -50443,10 +50443,10 @@
         </is>
       </c>
       <c r="F1669" t="n">
-        <v>633105.7323378948</v>
+        <v>632449.0495542663</v>
       </c>
       <c r="G1669" t="n">
-        <v>0.8319205078806966</v>
+        <v>0.8310576063984192</v>
       </c>
       <c r="H1669" t="n">
         <v>0</v>
@@ -50592,10 +50592,10 @@
         </is>
       </c>
       <c r="F1674" t="n">
-        <v>29227.67941959662</v>
+        <v>29528.91701578728</v>
       </c>
       <c r="G1674" t="n">
-        <v>0.04724064663501518</v>
+        <v>0.04772753642980616</v>
       </c>
       <c r="H1674" t="n">
         <v>0</v>
@@ -50623,10 +50623,10 @@
         </is>
       </c>
       <c r="F1675" t="n">
-        <v>12388.62620488744</v>
+        <v>12488.89206061335</v>
       </c>
       <c r="G1675" t="n">
-        <v>0.02002371465885106</v>
+        <v>0.0201857741844092</v>
       </c>
       <c r="H1675" t="n">
         <v>0</v>
@@ -50712,13 +50712,13 @@
         </is>
       </c>
       <c r="F1678" t="n">
-        <v>9060.192260910984</v>
+        <v>7549.530311584367</v>
       </c>
       <c r="G1678" t="n">
-        <v>0.01464397275262375</v>
+        <v>0.01220229251148722</v>
       </c>
       <c r="H1678" t="n">
-        <v>4.693890584657053</v>
+        <v>3.91124914655683</v>
       </c>
       <c r="I1678" t="n">
         <v>20.82675467244893</v>
@@ -50743,10 +50743,10 @@
         </is>
       </c>
       <c r="F1679" t="n">
-        <v>32556.34742411097</v>
+        <v>32761.53327496713</v>
       </c>
       <c r="G1679" t="n">
-        <v>0.05262076685287657</v>
+        <v>0.0529524083812937</v>
       </c>
       <c r="H1679" t="n">
         <v>0</v>
@@ -50774,10 +50774,10 @@
         </is>
       </c>
       <c r="F1680" t="n">
-        <v>519238.0410122684</v>
+        <v>519826.0793513061</v>
       </c>
       <c r="G1680" t="n">
-        <v>0.8392435288061818</v>
+        <v>0.8401939741351974</v>
       </c>
       <c r="H1680" t="n">
         <v>0</v>
@@ -50805,13 +50805,13 @@
         </is>
       </c>
       <c r="F1681" t="n">
-        <v>9850.48405603856</v>
+        <v>9676.597162788035</v>
       </c>
       <c r="G1681" t="n">
-        <v>0.01592131998557383</v>
+        <v>0.0156402669070663</v>
       </c>
       <c r="H1681" t="n">
-        <v>15.00910587212952</v>
+        <v>14.74415576655852</v>
       </c>
       <c r="I1681" t="n">
         <v>20.82675467244893</v>
@@ -50836,13 +50836,13 @@
         </is>
       </c>
       <c r="F1682" t="n">
-        <v>6376.329622186934</v>
+        <v>6866.150822953685</v>
       </c>
       <c r="G1682" t="n">
-        <v>0.01030605030887772</v>
+        <v>0.01109774745073997</v>
       </c>
       <c r="H1682" t="n">
-        <v>7.004053372430475</v>
+        <v>7.542095480727511</v>
       </c>
       <c r="I1682" t="n">
         <v>20.82675467244893</v>
@@ -50927,10 +50927,10 @@
         </is>
       </c>
       <c r="F1685" t="n">
-        <v>23330.57322455877</v>
+        <v>23525.81929975849</v>
       </c>
       <c r="G1685" t="n">
-        <v>0.04617190890238784</v>
+        <v>0.04655830678086692</v>
       </c>
       <c r="H1685" t="n">
         <v>0</v>
@@ -50958,10 +50958,10 @@
         </is>
       </c>
       <c r="F1686" t="n">
-        <v>9889.042050701475</v>
+        <v>9949.955757439</v>
       </c>
       <c r="G1686" t="n">
-        <v>0.01957071282827455</v>
+        <v>0.01969126289326101</v>
       </c>
       <c r="H1686" t="n">
         <v>0</v>
@@ -51018,13 +51018,13 @@
         </is>
       </c>
       <c r="F1688" t="n">
-        <v>398.0812454728809</v>
+        <v>384.5335592074956</v>
       </c>
       <c r="G1688" t="n">
-        <v>0.0007878148052691301</v>
+        <v>0.0007610035250634192</v>
       </c>
       <c r="H1688" t="n">
-        <v>0.1458610210972311</v>
+        <v>0.1408970109243161</v>
       </c>
       <c r="I1688" t="n">
         <v>20.82675467244893</v>
@@ -51049,13 +51049,13 @@
         </is>
       </c>
       <c r="F1689" t="n">
-        <v>4616.315832333765</v>
+        <v>4856.159327943464</v>
       </c>
       <c r="G1689" t="n">
-        <v>0.009135828426658655</v>
+        <v>0.009610485946794691</v>
       </c>
       <c r="H1689" t="n">
-        <v>9.614287733055722</v>
+        <v>10.1138038973403</v>
       </c>
       <c r="I1689" t="n">
         <v>20.82675467244893</v>
@@ -51080,10 +51080,10 @@
         </is>
       </c>
       <c r="F1690" t="n">
-        <v>15395.70096812675</v>
+        <v>15463.35415669109</v>
       </c>
       <c r="G1690" t="n">
-        <v>0.03046855710516716</v>
+        <v>0.03060244480819455</v>
       </c>
       <c r="H1690" t="n">
         <v>0</v>
@@ -51111,10 +51111,10 @@
         </is>
       </c>
       <c r="F1691" t="n">
-        <v>408590.2036921305</v>
+        <v>407781.5075667292</v>
       </c>
       <c r="G1691" t="n">
-        <v>0.8086123509139765</v>
+        <v>0.8070119168623846</v>
       </c>
       <c r="H1691" t="n">
         <v>0</v>
@@ -51142,13 +51142,13 @@
         </is>
       </c>
       <c r="F1692" t="n">
-        <v>18249.34878871769</v>
+        <v>18104.63213073488</v>
       </c>
       <c r="G1692" t="n">
-        <v>0.03611601231098815</v>
+        <v>0.03582961367496978</v>
       </c>
       <c r="H1692" t="n">
-        <v>11.57522141132459</v>
+        <v>11.48343033551954</v>
       </c>
       <c r="I1692" t="n">
         <v>20.82675467244893</v>
@@ -51173,13 +51173,13 @@
         </is>
       </c>
       <c r="F1693" t="n">
-        <v>8491.975689413239</v>
+        <v>9137.294158581444</v>
       </c>
       <c r="G1693" t="n">
-        <v>0.01680587631340959</v>
+        <v>0.01808298104995754</v>
       </c>
       <c r="H1693" t="n">
-        <v>7.995408172358607</v>
+        <v>8.602991701900944</v>
       </c>
       <c r="I1693" t="n">
         <v>20.82675467244893</v>
@@ -51204,13 +51204,13 @@
         </is>
       </c>
       <c r="F1694" t="n">
-        <v>10950.8233019184</v>
+        <v>10602.44282961498</v>
       </c>
       <c r="G1694" t="n">
-        <v>0.02167200998602489</v>
+        <v>0.02098255451162479</v>
       </c>
       <c r="H1694" t="n">
-        <v>4.684703606326345</v>
+        <v>4.535668304598155</v>
       </c>
       <c r="I1694" t="n">
         <v>20.82675467244893</v>
@@ -51235,13 +51235,13 @@
         </is>
       </c>
       <c r="F1695" t="n">
-        <v>5385.935206626496</v>
+        <v>5492.301213299961</v>
       </c>
       <c r="G1695" t="n">
-        <v>0.01065892840784348</v>
+        <v>0.01086942994688275</v>
       </c>
       <c r="H1695" t="n">
-        <v>8.85747183270408</v>
+        <v>9.032396682692676</v>
       </c>
       <c r="I1695" t="n">
         <v>20.82675467244893</v>
@@ -51266,10 +51266,10 @@
         </is>
       </c>
       <c r="F1696" t="n">
-        <v>24198.73766449426</v>
+        <v>24418.73510715628</v>
       </c>
       <c r="G1696" t="n">
-        <v>0.04415025602006326</v>
+        <v>0.04455163825544897</v>
       </c>
       <c r="H1696" t="n">
         <v>0</v>
@@ -51297,10 +51297,10 @@
         </is>
       </c>
       <c r="F1697" t="n">
-        <v>10457.74134708929</v>
+        <v>10529.68054668469</v>
       </c>
       <c r="G1697" t="n">
-        <v>0.01908000178633461</v>
+        <v>0.0192112538427043</v>
       </c>
       <c r="H1697" t="n">
         <v>0</v>
@@ -51328,13 +51328,13 @@
         </is>
       </c>
       <c r="F1698" t="n">
-        <v>5159.378852331913</v>
+        <v>7431.671382646641</v>
       </c>
       <c r="G1698" t="n">
-        <v>0.009413214044184512</v>
+        <v>0.01355897975960326</v>
       </c>
       <c r="H1698" t="n">
-        <v>2.335937339559519</v>
+        <v>3.364730362883499</v>
       </c>
       <c r="I1698" t="n">
         <v>20.82675467244893</v>
@@ -51388,13 +51388,13 @@
         </is>
       </c>
       <c r="F1700" t="n">
-        <v>9825.625066574157</v>
+        <v>7199.178146625375</v>
       </c>
       <c r="G1700" t="n">
-        <v>0.01792671453614299</v>
+        <v>0.01313479912524179</v>
       </c>
       <c r="H1700" t="n">
-        <v>4.872282922976303</v>
+        <v>3.569893264357674</v>
       </c>
       <c r="I1700" t="n">
         <v>20.82675467244893</v>
@@ -51419,10 +51419,10 @@
         </is>
       </c>
       <c r="F1701" t="n">
-        <v>22099.36585782839</v>
+        <v>22212.09277223387</v>
       </c>
       <c r="G1701" t="n">
-        <v>0.04031998172928496</v>
+        <v>0.04052565039681451</v>
       </c>
       <c r="H1701" t="n">
         <v>0</v>
@@ -51450,10 +51450,10 @@
         </is>
       </c>
       <c r="F1702" t="n">
-        <v>425069.3976677853</v>
+        <v>424730.962029699</v>
       </c>
       <c r="G1702" t="n">
-        <v>0.7755331287740136</v>
+        <v>0.7749156577193251</v>
       </c>
       <c r="H1702" t="n">
         <v>0</v>
@@ -51481,13 +51481,13 @@
         </is>
       </c>
       <c r="F1703" t="n">
-        <v>22366.59697433167</v>
+        <v>22235.55550520005</v>
       </c>
       <c r="G1703" t="n">
-        <v>0.04080754113728905</v>
+        <v>0.04056845782262941</v>
       </c>
       <c r="H1703" t="n">
-        <v>14.10598050602225</v>
+        <v>14.02333635540906</v>
       </c>
       <c r="I1703" t="n">
         <v>20.82675467244893</v>
@@ -51512,13 +51512,13 @@
         </is>
       </c>
       <c r="F1704" t="n">
-        <v>10266.52127288969</v>
+        <v>11070.03590320865</v>
       </c>
       <c r="G1704" t="n">
-        <v>0.01873112345436794</v>
+        <v>0.02019712457956301</v>
       </c>
       <c r="H1704" t="n">
-        <v>9.666187361945621</v>
+        <v>10.42271654629917</v>
       </c>
       <c r="I1704" t="n">
         <v>20.82675467244893</v>
@@ -51543,13 +51543,13 @@
         </is>
       </c>
       <c r="F1705" t="n">
-        <v>15039.28264807737</v>
+        <v>14579.96712730654</v>
       </c>
       <c r="G1705" t="n">
-        <v>0.02743895935716314</v>
+        <v>0.02660094465915783</v>
       </c>
       <c r="H1705" t="n">
-        <v>5.566960226097072</v>
+        <v>5.396939401620635</v>
       </c>
       <c r="I1705" t="n">
         <v>20.82675467244893</v>
@@ -51574,13 +51574,13 @@
         </is>
       </c>
       <c r="F1706" t="n">
-        <v>3616.952648597943</v>
+        <v>3691.721479238838</v>
       </c>
       <c r="G1706" t="n">
-        <v>0.006599079161156007</v>
+        <v>0.006735493839511721</v>
       </c>
       <c r="H1706" t="n">
-        <v>20.3772347555809</v>
+        <v>20.79846836364608</v>
       </c>
       <c r="I1706" t="n">
         <v>20.82675467244893</v>
@@ -51605,10 +51605,10 @@
         </is>
       </c>
       <c r="F1707" t="n">
-        <v>18322.98459892174</v>
+        <v>18546.45794806237</v>
       </c>
       <c r="G1707" t="n">
-        <v>0.03813152776160218</v>
+        <v>0.03859659283714865</v>
       </c>
       <c r="H1707" t="n">
         <v>0</v>
@@ -51636,10 +51636,10 @@
         </is>
       </c>
       <c r="F1708" t="n">
-        <v>8973.439193477498</v>
+        <v>9062.878217099631</v>
       </c>
       <c r="G1708" t="n">
-        <v>0.01867441103144693</v>
+        <v>0.01886054045778606</v>
       </c>
       <c r="H1708" t="n">
         <v>0</v>
@@ -51667,13 +51667,13 @@
         </is>
       </c>
       <c r="F1709" t="n">
-        <v>12011.83482436198</v>
+        <v>11009.29867975415</v>
       </c>
       <c r="G1709" t="n">
-        <v>0.02499754396452926</v>
+        <v>0.02291118982152721</v>
       </c>
       <c r="H1709" t="n">
-        <v>2.926038773909794</v>
+        <v>2.681824657227219</v>
       </c>
       <c r="I1709" t="n">
         <v>20.82675467244893</v>
@@ -51698,13 +51698,13 @@
         </is>
       </c>
       <c r="F1710" t="n">
-        <v>14127.35501748653</v>
+        <v>13961.97909701884</v>
       </c>
       <c r="G1710" t="n">
-        <v>0.02940010275831365</v>
+        <v>0.02905594286076152</v>
       </c>
       <c r="H1710" t="n">
-        <v>0.5565849719175121</v>
+        <v>0.5500695447950671</v>
       </c>
       <c r="I1710" t="n">
         <v>20.82675467244893</v>
@@ -51729,13 +51729,13 @@
         </is>
       </c>
       <c r="F1711" t="n">
-        <v>6978.03333247306</v>
+        <v>5773.091118694499</v>
       </c>
       <c r="G1711" t="n">
-        <v>0.01452181931944866</v>
+        <v>0.0120142427165339</v>
       </c>
       <c r="H1711" t="n">
-        <v>6.920466110075605</v>
+        <v>5.725464401464005</v>
       </c>
       <c r="I1711" t="n">
         <v>20.82675467244893</v>
@@ -51760,10 +51760,10 @@
         </is>
       </c>
       <c r="F1712" t="n">
-        <v>11055.14161960831</v>
+        <v>11145.81212725091</v>
       </c>
       <c r="G1712" t="n">
-        <v>0.02300659247409645</v>
+        <v>0.02319528471256156</v>
       </c>
       <c r="H1712" t="n">
         <v>0</v>
@@ -51791,10 +51791,10 @@
         </is>
       </c>
       <c r="F1713" t="n">
-        <v>359681.4722241311</v>
+        <v>361226.5886660047</v>
       </c>
       <c r="G1713" t="n">
-        <v>0.7485245632011011</v>
+        <v>0.7517400683050939</v>
       </c>
       <c r="H1713" t="n">
         <v>0</v>
@@ -51822,13 +51822,13 @@
         </is>
       </c>
       <c r="F1714" t="n">
-        <v>22197.46553901006</v>
+        <v>22167.1894968166</v>
       </c>
       <c r="G1714" t="n">
-        <v>0.04619461796020829</v>
+        <v>0.04613161120837817</v>
       </c>
       <c r="H1714" t="n">
-        <v>8.39688502366656</v>
+        <v>8.385432164563191</v>
       </c>
       <c r="I1714" t="n">
         <v>20.82675467244893</v>
@@ -51853,13 +51853,13 @@
         </is>
       </c>
       <c r="F1715" t="n">
-        <v>9270.250515851085</v>
+        <v>10036.18708516856</v>
       </c>
       <c r="G1715" t="n">
-        <v>0.01929209802004552</v>
+        <v>0.0208860704102354</v>
       </c>
       <c r="H1715" t="n">
-        <v>8.728173448100005</v>
+        <v>9.449321945199904</v>
       </c>
       <c r="I1715" t="n">
         <v>20.82675467244893</v>
@@ -51884,13 +51884,13 @@
         </is>
       </c>
       <c r="F1716" t="n">
-        <v>14507.40428032995</v>
+        <v>14114.45107435789</v>
       </c>
       <c r="G1716" t="n">
-        <v>0.03019101424648588</v>
+        <v>0.02937324866896006</v>
       </c>
       <c r="H1716" t="n">
-        <v>4.255103720484845</v>
+        <v>4.139848322868661</v>
       </c>
       <c r="I1716" t="n">
         <v>20.82675467244893</v>
@@ -51915,13 +51915,13 @@
         </is>
       </c>
       <c r="F1717" t="n">
-        <v>3395.218854348756</v>
+        <v>3476.666489771909</v>
       </c>
       <c r="G1717" t="n">
-        <v>0.007065709262722047</v>
+        <v>0.007235208001013711</v>
       </c>
       <c r="H1717" t="n">
-        <v>11.53486134169201</v>
+        <v>11.81157021423241</v>
       </c>
       <c r="I1717" t="n">
         <v>20.82675467244893</v>
@@ -51946,10 +51946,10 @@
         </is>
       </c>
       <c r="F1718" t="n">
-        <v>17978.27925308776</v>
+        <v>18368.31763493851</v>
       </c>
       <c r="G1718" t="n">
-        <v>0.03774398532144926</v>
+        <v>0.03856284027147726</v>
       </c>
       <c r="H1718" t="n">
         <v>0</v>
@@ -51977,10 +51977,10 @@
         </is>
       </c>
       <c r="F1719" t="n">
-        <v>8992.142697962809</v>
+        <v>9166.978649765848</v>
       </c>
       <c r="G1719" t="n">
-        <v>0.01887829737331473</v>
+        <v>0.01924535172293399</v>
       </c>
       <c r="H1719" t="n">
         <v>0</v>
@@ -52008,13 +52008,13 @@
         </is>
       </c>
       <c r="F1720" t="n">
-        <v>17081.80881054814</v>
+        <v>12573.98783048015</v>
       </c>
       <c r="G1720" t="n">
-        <v>0.03586191603394961</v>
+        <v>0.02639809991961347</v>
       </c>
       <c r="H1720" t="n">
-        <v>3.084353982980873</v>
+        <v>2.270405311113536</v>
       </c>
       <c r="I1720" t="n">
         <v>20.82675467244893</v>
@@ -52039,10 +52039,10 @@
         </is>
       </c>
       <c r="F1721" t="n">
-        <v>8425.763028733063</v>
+        <v>8322.667922407552</v>
       </c>
       <c r="G1721" t="n">
-        <v>0.01768922773985116</v>
+        <v>0.01747278766096013</v>
       </c>
       <c r="H1721" t="n">
         <v>0</v>
@@ -52070,13 +52070,13 @@
         </is>
       </c>
       <c r="F1722" t="n">
-        <v>10801.56331775511</v>
+        <v>6832.525847729999</v>
       </c>
       <c r="G1722" t="n">
-        <v>0.02267703385706574</v>
+        <v>0.01434435140731568</v>
       </c>
       <c r="H1722" t="n">
-        <v>3.964673286709187</v>
+        <v>2.507852975755644</v>
       </c>
       <c r="I1722" t="n">
         <v>20.82675467244893</v>
@@ -52101,10 +52101,10 @@
         </is>
       </c>
       <c r="F1723" t="n">
-        <v>4724.752498893818</v>
+        <v>4808.26643028425</v>
       </c>
       <c r="G1723" t="n">
-        <v>0.009919246800836109</v>
+        <v>0.01009457774080889</v>
       </c>
       <c r="H1723" t="n">
         <v>0</v>
@@ -52132,10 +52132,10 @@
         </is>
       </c>
       <c r="F1724" t="n">
-        <v>363004.343472597</v>
+        <v>370228.5271948652</v>
       </c>
       <c r="G1724" t="n">
-        <v>0.7620991096408098</v>
+        <v>0.7772657159958599</v>
       </c>
       <c r="H1724" t="n">
         <v>0</v>
@@ -52163,13 +52163,13 @@
         </is>
       </c>
       <c r="F1725" t="n">
-        <v>21616.36327400641</v>
+        <v>21775.16862669041</v>
       </c>
       <c r="G1725" t="n">
-        <v>0.04538185699708077</v>
+        <v>0.04571525636285394</v>
       </c>
       <c r="H1725" t="n">
-        <v>14.86964399516884</v>
+        <v>14.97888434374209</v>
       </c>
       <c r="I1725" t="n">
         <v>20.82675467244893</v>
@@ -52194,13 +52194,13 @@
         </is>
       </c>
       <c r="F1726" t="n">
-        <v>6846.822300884176</v>
+        <v>7527.622508318599</v>
       </c>
       <c r="G1726" t="n">
-        <v>0.01437436568790415</v>
+        <v>0.01580365225501714</v>
       </c>
       <c r="H1726" t="n">
-        <v>15.04172828834792</v>
+        <v>16.5373727331522</v>
       </c>
       <c r="I1726" t="n">
         <v>20.82675467244893</v>
@@ -52225,13 +52225,13 @@
         </is>
       </c>
       <c r="F1727" t="n">
-        <v>13349.73752199705</v>
+        <v>13099.79022959248</v>
       </c>
       <c r="G1727" t="n">
-        <v>0.02802672547145563</v>
+        <v>0.0275019807613058</v>
       </c>
       <c r="H1727" t="n">
-        <v>8.154139904162211</v>
+        <v>8.00146984697381</v>
       </c>
       <c r="I1727" t="n">
         <v>20.82675467244893</v>
@@ -52256,13 +52256,13 @@
         </is>
       </c>
       <c r="F1728" t="n">
-        <v>3500.123823534737</v>
+        <v>3617.847124927059</v>
       </c>
       <c r="G1728" t="n">
-        <v>0.007348235076282976</v>
+        <v>0.007595385901853849</v>
       </c>
       <c r="H1728" t="n">
-        <v>11.79060567383014</v>
+        <v>12.18717136559375</v>
       </c>
       <c r="I1728" t="n">
         <v>20.82675467244893</v>

--- a/OUTPUT_DF/resultSummary_df.xlsx
+++ b/OUTPUT_DF/resultSummary_df.xlsx
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11198.96139126652</v>
+        <v>11460.04177286714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02066960483666826</v>
+        <v>0.02115147347874606</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-2783.238213344193</v>
+        <v>-2802.694238096546</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0051369436884569</v>
+        <v>-0.005172853120525947</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>527649.5159886563</v>
+        <v>527400.4491174449</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9738677192199313</v>
+        <v>0.9734080235726313</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5742.960833421256</v>
+        <v>5750.403347784448</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01059961963185728</v>
+        <v>0.01061335606914854</v>
       </c>
       <c r="H9" t="n">
-        <v>9.449227261359821</v>
+        <v>9.461472862828051</v>
       </c>
       <c r="I9" t="n">
         <v>19.10838302316964</v>
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12091.48351971617</v>
+        <v>12373.36989105975</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02066301075885494</v>
+        <v>0.02114472345476604</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>569591.102804714</v>
+        <v>569322.1889595774</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9733683270717577</v>
+        <v>0.9729087829913144</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3492.713675569882</v>
+        <v>3479.741149362994</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00596866216938733</v>
+        <v>0.005946493553919644</v>
       </c>
       <c r="H20" t="n">
-        <v>25.59995654192186</v>
+        <v>25.50487399637622</v>
       </c>
       <c r="I20" t="n">
         <v>19.10838302316964</v>
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10943.23908144493</v>
+        <v>11203.10456168996</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02060503845815418</v>
+        <v>0.02109433949366517</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11720.9568380855</v>
+        <v>11841.55661171787</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02206940418807227</v>
+        <v>0.02229648165163176</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7249226648398326</v>
+        <v>0.7323815703275299</v>
       </c>
       <c r="I27" t="n">
         <v>19.10838302316964</v>
@@ -1276,13 +1276,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>903.7744478758395</v>
+        <v>487.8654957987936</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001701718030409682</v>
+        <v>0.0009186025479773471</v>
       </c>
       <c r="H28" t="n">
-        <v>2.302622442208694</v>
+        <v>1.242976101001588</v>
       </c>
       <c r="I28" t="n">
         <v>19.10838302316964</v>
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-8303.818058878143</v>
+        <v>-8365.537196640289</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01563526933655437</v>
+        <v>-0.015751480377703</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>514513.2881948613</v>
+        <v>514629.3533159662</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9687777093769446</v>
+        <v>0.9689962485376281</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1317.859496610601</v>
+        <v>1298.957211467555</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00248139928297351</v>
+        <v>0.002445808146800686</v>
       </c>
       <c r="H31" t="n">
-        <v>10.00618439994155</v>
+        <v>9.862663978221294</v>
       </c>
       <c r="I31" t="n">
         <v>19.10838302316964</v>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12253.38130700273</v>
+        <v>12538.54882877195</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0201705800626823</v>
+        <v>0.02064000104820532</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6178.418802141616</v>
+        <v>6223.340713635292</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0101704409572367</v>
+        <v>0.01024438797558616</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12444.39792173424</v>
+        <v>12530.42002353451</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02048501701883436</v>
+        <v>0.0206266200301216</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>568137.1377057733</v>
+        <v>567829.6690216907</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9352239463998673</v>
+        <v>0.9347178149449104</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5536.407667037442</v>
+        <v>5529.24004692541</v>
       </c>
       <c r="G42" t="n">
-        <v>0.009113611280814926</v>
+        <v>0.009101812492243316</v>
       </c>
       <c r="H42" t="n">
-        <v>16.33002770364174</v>
+        <v>16.30888629895517</v>
       </c>
       <c r="I42" t="n">
         <v>19.10838302316964</v>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2938.056596310642</v>
+        <v>2836.581365442198</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004836404280564386</v>
+        <v>0.004669363508933344</v>
       </c>
       <c r="H43" t="n">
-        <v>5.860344135748165</v>
+        <v>5.657938309090392</v>
       </c>
       <c r="I43" t="n">
         <v>19.10838302316964</v>
@@ -1853,10 +1853,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>13254.11306869443</v>
+        <v>13559.15855154819</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01978941203625314</v>
+        <v>0.02024486844579966</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3011.649756321197</v>
+        <v>3037.12260376595</v>
       </c>
       <c r="G49" t="n">
-        <v>0.004496625132728871</v>
+        <v>0.004534658056637714</v>
       </c>
       <c r="H49" t="n">
-        <v>2.719969612450476</v>
+        <v>2.742975398846085</v>
       </c>
       <c r="I49" t="n">
         <v>19.10838302316964</v>
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>20343.78829437119</v>
+        <v>20478.94150793852</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03037484340514017</v>
+        <v>0.03057663756650318</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>623039.5894496408</v>
+        <v>622776.0812926139</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9302461120268263</v>
+        <v>0.9298526740451758</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2035,13 +2035,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4821.952908664391</v>
+        <v>4810.317751802248</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007199547222390526</v>
+        <v>0.007182175036710657</v>
       </c>
       <c r="H53" t="n">
-        <v>18.52054735648647</v>
+        <v>18.47585810344995</v>
       </c>
       <c r="I53" t="n">
         <v>19.10838302316964</v>
@@ -2066,13 +2066,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5286.706522308081</v>
+        <v>5096.178292331077</v>
       </c>
       <c r="G54" t="n">
-        <v>0.007893460176660995</v>
+        <v>0.007608986849173056</v>
       </c>
       <c r="H54" t="n">
-        <v>10.52879441100192</v>
+        <v>10.14934596716355</v>
       </c>
       <c r="I54" t="n">
         <v>19.10838302316964</v>
@@ -2186,10 +2186,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12268.98692520895</v>
+        <v>12550.32702310264</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01988839359707643</v>
+        <v>0.02034445428372146</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>13628.82673217685</v>
+        <v>13787.91278566963</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02209273446684953</v>
+        <v>0.02235061770260138</v>
       </c>
       <c r="H60" t="n">
-        <v>0.91343128828368</v>
+        <v>0.9240935544967208</v>
       </c>
       <c r="I60" t="n">
         <v>19.10838302316964</v>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1527.981631352102</v>
+        <v>1538.071447880376</v>
       </c>
       <c r="G62" t="n">
-        <v>0.002476903780131463</v>
+        <v>0.002493259673544657</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>578712.8693479957</v>
+        <v>578389.6380866414</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9381108151348353</v>
+        <v>0.9375868476232647</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7610.50466935332</v>
+        <v>7616.104984747441</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01233685497092573</v>
+        <v>0.01234593324914911</v>
       </c>
       <c r="H64" t="n">
-        <v>19.29960295439002</v>
+        <v>19.31380488556565</v>
       </c>
       <c r="I64" t="n">
         <v>19.10838302316964</v>
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3142.63069391301</v>
+        <v>3009.745671958421</v>
       </c>
       <c r="G65" t="n">
-        <v>0.005094298050181588</v>
+        <v>0.004878887467718685</v>
       </c>
       <c r="H65" t="n">
-        <v>12.79648797923157</v>
+        <v>12.25539303309124</v>
       </c>
       <c r="I65" t="n">
         <v>19.10838302316964</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>11993.43256651228</v>
+        <v>12268.94566146331</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01982558571477359</v>
+        <v>0.0202810190070527</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>7889.97037921223</v>
+        <v>7951.290442229523</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01304241160090043</v>
+        <v>0.01314377592330293</v>
       </c>
       <c r="H71" t="n">
-        <v>3.261369691456672</v>
+        <v>3.286716731482287</v>
       </c>
       <c r="I71" t="n">
         <v>19.10838302316964</v>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8325.801283701154</v>
+        <v>8380.972169153718</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01376285613637216</v>
+        <v>0.01385405564180431</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>564511.7692012229</v>
+        <v>564233.9670953063</v>
       </c>
       <c r="G74" t="n">
-        <v>0.933158743773379</v>
+        <v>0.9326995266616761</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2701,13 +2701,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>9075.057561471431</v>
+        <v>9091.455602696355</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01500140435639909</v>
+        <v>0.01502851092243481</v>
       </c>
       <c r="H75" t="n">
-        <v>22.50150856045327</v>
+        <v>22.5421673290063</v>
       </c>
       <c r="I75" t="n">
         <v>19.10838302316964</v>
@@ -2732,13 +2732,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3151.169007879857</v>
+        <v>3020.569029150825</v>
       </c>
       <c r="G76" t="n">
-        <v>0.005208998418175765</v>
+        <v>0.004993111843729214</v>
       </c>
       <c r="H76" t="n">
-        <v>9.154878934340108</v>
+        <v>8.775455618389145</v>
       </c>
       <c r="I76" t="n">
         <v>19.10838302316964</v>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>10601.5058611217</v>
+        <v>10844.13377786533</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02004330224564967</v>
+        <v>0.02050201676528776</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2284.772721700498</v>
+        <v>2311.915709155799</v>
       </c>
       <c r="G82" t="n">
-        <v>0.004319611838502852</v>
+        <v>0.004370928614491401</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>7305.196900744926</v>
+        <v>7352.988959767881</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01381127090469029</v>
+        <v>0.01390162700093619</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>502704.8029643353</v>
+        <v>502389.682636879</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9504182177651364</v>
+        <v>0.9498224484423913</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>6033.821552097556</v>
+        <v>6031.378916332062</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01140759724602089</v>
+        <v>0.01140297917689324</v>
       </c>
       <c r="H86" t="n">
-        <v>25.45425456577151</v>
+        <v>25.44395007266553</v>
       </c>
       <c r="I86" t="n">
         <v>19.10838302316964</v>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>9846.209568407205</v>
+        <v>10071.60821455038</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02003154110886279</v>
+        <v>0.02049010155435506</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>7014.096020106786</v>
+        <v>7060.018351028854</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01426977069623847</v>
+        <v>0.01436319700951052</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>466697.4515051228</v>
+        <v>466409.0680836294</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9494688408037485</v>
+        <v>0.9488821414934583</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>7977.542906363235</v>
+        <v>7994.605350791303</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01622984739115021</v>
+        <v>0.01626455994267615</v>
       </c>
       <c r="H97" t="n">
-        <v>16.68640062334668</v>
+        <v>16.72208965525564</v>
       </c>
       <c r="I97" t="n">
         <v>19.10838302316964</v>
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10231.75488400776</v>
+        <v>10472.57922513229</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02200482449701418</v>
+        <v>0.0225227510326994</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>519.3176653893058</v>
+        <v>523.0577259162491</v>
       </c>
       <c r="G106" t="n">
-        <v>0.001116865504953797</v>
+        <v>0.001124909029885403</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>445288.6107004462</v>
+        <v>445015.1096026227</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9576556358184115</v>
+        <v>0.9570674333325649</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -3692,13 +3692,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>8938.116750156758</v>
+        <v>8967.053446328749</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01922267417962053</v>
+        <v>0.01928490660485027</v>
       </c>
       <c r="H108" t="n">
-        <v>20.08275168189478</v>
+        <v>20.14776856408156</v>
       </c>
       <c r="I108" t="n">
         <v>19.10838302316964</v>
@@ -3841,10 +3841,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>10002.69494246117</v>
+        <v>10238.48041928563</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02195995307645464</v>
+        <v>0.02247759737501212</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1582.265676881385</v>
+        <v>1593.71069609537</v>
       </c>
       <c r="G117" t="n">
-        <v>0.003473711856521995</v>
+        <v>0.003498838293581606</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -3990,10 +3990,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>434808.146917925</v>
+        <v>434564.9637890838</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9545793967029099</v>
+        <v>0.954045511572047</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6735.506948924414</v>
+        <v>6744.559063574804</v>
       </c>
       <c r="G119" t="n">
-        <v>0.01478715660083108</v>
+        <v>0.01480702964645616</v>
       </c>
       <c r="H119" t="n">
-        <v>25.79179073838979</v>
+        <v>25.82645334783748</v>
       </c>
       <c r="I119" t="n">
         <v>19.10838302316964</v>
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2368.485513808007</v>
+        <v>2355.38603196037</v>
       </c>
       <c r="G122" t="n">
-        <v>0.005199781763282372</v>
+        <v>0.005171023112903178</v>
       </c>
       <c r="H122" t="n">
-        <v>5.727988870369165</v>
+        <v>5.696308842860688</v>
       </c>
       <c r="I122" t="n">
         <v>19.10838302316964</v>
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>9485.382399446249</v>
+        <v>9708.617884949457</v>
       </c>
       <c r="G124" t="n">
-        <v>0.02183520277362941</v>
+        <v>0.02234908738965888</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4290,10 +4290,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4559.085314894458</v>
+        <v>4591.849889265313</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01049494349524677</v>
+        <v>0.0105703670359172</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>410946.0655048155</v>
+        <v>410692.630078855</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9459914520522318</v>
+        <v>0.9454080476429176</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4352,13 +4352,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>6714.312730404198</v>
+        <v>6725.436220935796</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01545624348919195</v>
+        <v>0.0154818495914111</v>
       </c>
       <c r="H130" t="n">
-        <v>18.81061188017291</v>
+        <v>18.84177510886722</v>
       </c>
       <c r="I130" t="n">
         <v>19.10838302316964</v>
@@ -4441,13 +4441,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2702.954050439584</v>
+        <v>2689.265925994418</v>
       </c>
       <c r="G133" t="n">
-        <v>0.006222158189700055</v>
+        <v>0.006190648340095223</v>
       </c>
       <c r="H133" t="n">
-        <v>9.887565239914572</v>
+        <v>9.8374932738589</v>
       </c>
       <c r="I133" t="n">
         <v>19.10838302316964</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>12766.44287374981</v>
+        <v>13060.77565450122</v>
       </c>
       <c r="G135" t="n">
-        <v>0.02034014449151055</v>
+        <v>0.02080909041076748</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>67473.71133295196</v>
+        <v>67916.85395899144</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1075025401721475</v>
+        <v>0.1082085774867799</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -4652,10 +4652,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>529295.6400421665</v>
+        <v>528562.9743914056</v>
       </c>
       <c r="G140" t="n">
-        <v>0.8433006675117797</v>
+        <v>0.8421333474252203</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -4683,13 +4683,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>9957.668039184407</v>
+        <v>9977.881507952945</v>
       </c>
       <c r="G141" t="n">
-        <v>0.01586506192198362</v>
+        <v>0.01589726704595532</v>
       </c>
       <c r="H141" t="n">
-        <v>23.55762472580293</v>
+        <v>23.60544529079688</v>
       </c>
       <c r="I141" t="n">
         <v>19.10838302316964</v>
@@ -4772,13 +4772,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>8154.13771194736</v>
+        <v>8129.114487148685</v>
       </c>
       <c r="G144" t="n">
-        <v>0.01299158590257871</v>
+        <v>0.01295171763127699</v>
       </c>
       <c r="H144" t="n">
-        <v>13.1184359675519</v>
+        <v>13.07817842177338</v>
       </c>
       <c r="I144" t="n">
         <v>19.10838302316964</v>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>13253.43316819965</v>
+        <v>13564.54778660897</v>
       </c>
       <c r="G146" t="n">
-        <v>0.02182213061566373</v>
+        <v>0.02233438911904234</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -4952,10 +4952,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>66165.32432928809</v>
+        <v>66627.75680482517</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1089429683175151</v>
+        <v>0.1097043757018528</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>520086.5135122899</v>
+        <v>519343.2310344984</v>
       </c>
       <c r="G151" t="n">
-        <v>0.8563362930400661</v>
+        <v>0.8551124586487159</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5014,13 +5014,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5233.577518567603</v>
+        <v>5219.665523196116</v>
       </c>
       <c r="G152" t="n">
-        <v>0.008617224740787485</v>
+        <v>0.008594318269968317</v>
       </c>
       <c r="H152" t="n">
-        <v>39.26792833435666</v>
+        <v>39.16354557986467</v>
       </c>
       <c r="I152" t="n">
         <v>19.10838302316964</v>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2600.251471654661</v>
+        <v>2583.898850871353</v>
       </c>
       <c r="G155" t="n">
-        <v>0.004281383285967693</v>
+        <v>0.0042544582604205</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5165,10 +5165,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>11000.54378237489</v>
+        <v>11261.01016735093</v>
       </c>
       <c r="G157" t="n">
-        <v>0.02253736876191326</v>
+        <v>0.02307099937912808</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5283,10 +5283,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>34149.9506532829</v>
+        <v>34397.44699066616</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06996472595357632</v>
+        <v>0.0704717841802584</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>439752.6524540842</v>
+        <v>439259.9010245331</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9009434341115391</v>
+        <v>0.8999339094102653</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3199.253110258099</v>
+        <v>3184.041817449883</v>
       </c>
       <c r="G163" t="n">
-        <v>0.006554471172971282</v>
+        <v>0.006523307030348309</v>
       </c>
       <c r="H163" t="n">
-        <v>15.65325978227144</v>
+        <v>15.57883418675112</v>
       </c>
       <c r="I163" t="n">
         <v>19.10838302316964</v>
@@ -5494,10 +5494,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>10473.17876528191</v>
+        <v>10719.44145388013</v>
       </c>
       <c r="G168" t="n">
-        <v>0.02207335691455</v>
+        <v>0.02259238216390265</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>47241.78002252835</v>
+        <v>47574.4902358568</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09956716056186378</v>
+        <v>0.1002683833188227</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>413699.6064348407</v>
+        <v>413133.1405092048</v>
       </c>
       <c r="G173" t="n">
-        <v>0.8719166618750349</v>
+        <v>0.8707227736738766</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3056.934777349093</v>
+        <v>3044.427801058298</v>
       </c>
       <c r="G174" t="n">
-        <v>0.006442820648551268</v>
+        <v>0.006416460843397966</v>
       </c>
       <c r="H174" t="n">
-        <v>12.41315512595984</v>
+        <v>12.36236861981496</v>
       </c>
       <c r="I174" t="n">
         <v>19.10838302316964</v>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10594.24017248264</v>
+        <v>10843.22824066871</v>
       </c>
       <c r="G179" t="n">
-        <v>0.02218167829984796</v>
+        <v>0.02270299678414561</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -5941,10 +5941,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>47397.75535042996</v>
+        <v>47731.08443662232</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0992389963037585</v>
+        <v>0.09993690369848658</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>419620.2044770874</v>
+        <v>419037.887322709</v>
       </c>
       <c r="G184" t="n">
-        <v>0.8785793253963936</v>
+        <v>0.8773600995173678</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6152,10 +6152,10 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>10300.2709035723</v>
+        <v>10546.58656053581</v>
       </c>
       <c r="G190" t="n">
-        <v>0.02336724194752514</v>
+        <v>0.02392603477983149</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -6270,10 +6270,10 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10489.13146654401</v>
+        <v>10568.25245572376</v>
       </c>
       <c r="G194" t="n">
-        <v>0.02379569188933931</v>
+        <v>0.02397518612930629</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -6301,10 +6301,10 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>420010.1976298837</v>
+        <v>419684.7609837404</v>
       </c>
       <c r="G195" t="n">
-        <v>0.9528370661631356</v>
+        <v>0.9520987790908622</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>10961.86369188636</v>
+        <v>11230.45427489616</v>
       </c>
       <c r="G201" t="n">
-        <v>0.02389792023569101</v>
+        <v>0.0244834736150472</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -6599,10 +6599,10 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>34592.74694586283</v>
+        <v>34871.46794313411</v>
       </c>
       <c r="G205" t="n">
-        <v>0.07541552517730797</v>
+        <v>0.07602316383693948</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -6630,10 +6630,10 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>413140.6893622508</v>
+        <v>412593.3777819697</v>
       </c>
       <c r="G206" t="n">
-        <v>0.900686554587001</v>
+        <v>0.8994933625480134</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>9261.115810810219</v>
+        <v>9490.904138393687</v>
       </c>
       <c r="G212" t="n">
-        <v>0.02470449095623196</v>
+        <v>0.02531746284607779</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -6930,10 +6930,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10670.53078149501</v>
+        <v>10760.41247890691</v>
       </c>
       <c r="G216" t="n">
-        <v>0.02846417608577298</v>
+        <v>0.02870394002202038</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -6961,10 +6961,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>354944.1534076947</v>
+        <v>354624.4833826994</v>
       </c>
       <c r="G217" t="n">
-        <v>0.9468313329579952</v>
+        <v>0.9459785971319018</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>11600.75273472579</v>
+        <v>11886.16617535143</v>
       </c>
       <c r="G223" t="n">
-        <v>0.02392444970577061</v>
+        <v>0.02451306319161442</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -7261,10 +7261,10 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>30759.46982765149</v>
+        <v>31010.83006145797</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06343583090646847</v>
+        <v>0.06395421582589982</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>437522.5816574172</v>
+        <v>437007.7330258722</v>
       </c>
       <c r="G228" t="n">
-        <v>0.9023110171694576</v>
+        <v>0.9012492351908959</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -7323,13 +7323,13 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4458.765965131926</v>
+        <v>4459.095513005956</v>
       </c>
       <c r="G229" t="n">
-        <v>0.009195396585195989</v>
+        <v>0.009196076217950702</v>
       </c>
       <c r="H229" t="n">
-        <v>12.88916171432298</v>
+        <v>12.89011435365731</v>
       </c>
       <c r="I229" t="n">
         <v>19.10838302316964</v>
@@ -7354,13 +7354,13 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>549.5298150735628</v>
+        <v>527.2752243124302</v>
       </c>
       <c r="G230" t="n">
-        <v>0.001133305633107233</v>
+        <v>0.001087409573639174</v>
       </c>
       <c r="H230" t="n">
-        <v>1.591230597854424</v>
+        <v>1.526789716230736</v>
       </c>
       <c r="I230" t="n">
         <v>19.10838302316964</v>
@@ -7474,10 +7474,10 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>10027.97650714313</v>
+        <v>10274.55735737905</v>
       </c>
       <c r="G234" t="n">
-        <v>0.02397453287359674</v>
+        <v>0.02456404968147614</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -7592,10 +7592,10 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>25893.73303128697</v>
+        <v>26105.03694643128</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06190582450372974</v>
+        <v>0.06241100245825912</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>378606.2171185598</v>
+        <v>378152.4622384619</v>
       </c>
       <c r="G239" t="n">
-        <v>0.9051584027935602</v>
+        <v>0.9040735816153581</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -7654,13 +7654,13 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>3748.273343010144</v>
+        <v>3744.143457727783</v>
       </c>
       <c r="G240" t="n">
-        <v>0.00896123982911326</v>
+        <v>0.008951366244906556</v>
       </c>
       <c r="H240" t="n">
-        <v>16.67243401035735</v>
+        <v>16.65406415481602</v>
       </c>
       <c r="I240" t="n">
         <v>19.10838302316964</v>
@@ -7805,10 +7805,10 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>11135.21021471743</v>
+        <v>11398.20613277564</v>
       </c>
       <c r="G245" t="n">
-        <v>0.02071230035322301</v>
+        <v>0.02120149187645924</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -7923,10 +7923,10 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>60785.53395418858</v>
+        <v>61218.10667481475</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1130655113027104</v>
+        <v>0.1138701280042773</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -7954,10 +7954,10 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>464543.0611265687</v>
+        <v>463867.5304249971</v>
       </c>
       <c r="G250" t="n">
-        <v>0.8640838586362777</v>
+        <v>0.8628273224309457</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -7985,13 +7985,13 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1149.594704525374</v>
+        <v>1129.556767412598</v>
       </c>
       <c r="G251" t="n">
-        <v>0.002138329707788856</v>
+        <v>0.00210105768831766</v>
       </c>
       <c r="H251" t="n">
-        <v>9.966469427370319</v>
+        <v>9.792749518226769</v>
       </c>
       <c r="I251" t="n">
         <v>19.10838302316964</v>
@@ -8134,10 +8134,10 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>10372.56647526187</v>
+        <v>10618.64538866332</v>
       </c>
       <c r="G256" t="n">
-        <v>0.02108687099931281</v>
+        <v>0.02158713622440661</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>43833.25552231955</v>
+        <v>44151.41883611069</v>
       </c>
       <c r="G260" t="n">
-        <v>0.08911065616050752</v>
+        <v>0.08975746510317648</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -8285,10 +8285,10 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>437691.0780024186</v>
+        <v>437126.835775226</v>
       </c>
       <c r="G261" t="n">
-        <v>0.8898024728401797</v>
+        <v>0.8886553986724169</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>13429.70997878837</v>
+        <v>13747.40144510589</v>
       </c>
       <c r="G267" t="n">
-        <v>0.02090569859743297</v>
+        <v>0.02140024107469424</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>65368.45176105932</v>
+        <v>65837.2478278163</v>
       </c>
       <c r="G271" t="n">
-        <v>0.1017574580877758</v>
+        <v>0.1024872213731158</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>563596.5382601522</v>
+        <v>562810.0507270778</v>
       </c>
       <c r="G272" t="n">
-        <v>0.8773368433147911</v>
+        <v>0.87611253755219</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -8794,10 +8794,10 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>11048.87551494735</v>
+        <v>11338.85155177831</v>
       </c>
       <c r="G278" t="n">
-        <v>0.02141567879288436</v>
+        <v>0.0219777299856962</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -8912,10 +8912,10 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>43683.82646462363</v>
+        <v>44109.62141147638</v>
       </c>
       <c r="G282" t="n">
-        <v>0.08467095088046517</v>
+        <v>0.08549625548282905</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -8943,10 +8943,10 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>461191.898020429</v>
+        <v>460476.1270367453</v>
       </c>
       <c r="G283" t="n">
-        <v>0.8939133703266505</v>
+        <v>0.8925260145314748</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -9123,10 +9123,10 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>9763.131827855736</v>
+        <v>9996.207229395441</v>
       </c>
       <c r="G289" t="n">
-        <v>0.02395064175680415</v>
+        <v>0.0245224158087199</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -9241,10 +9241,10 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>10911.49518233637</v>
+        <v>10993.33442489496</v>
       </c>
       <c r="G293" t="n">
-        <v>0.0267677745984743</v>
+        <v>0.02696854033786302</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -9272,10 +9272,10 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>386960.8729898079</v>
+        <v>386645.9583457095</v>
       </c>
       <c r="G294" t="n">
-        <v>0.9492815836447216</v>
+        <v>0.9485090438534171</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>12868.02592999954</v>
+        <v>13166.2402413737</v>
       </c>
       <c r="G300" t="n">
-        <v>0.02184759133677098</v>
+        <v>0.02235390554853287</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -9572,10 +9572,10 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>91444.85350950899</v>
+        <v>92050.99609436592</v>
       </c>
       <c r="G304" t="n">
-        <v>0.1552568980039902</v>
+        <v>0.1562860189863233</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -9603,10 +9603,10 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>484677.7205604914</v>
+        <v>483773.3636642603</v>
       </c>
       <c r="G305" t="n">
-        <v>0.8228955106592388</v>
+        <v>0.8213600754651438</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -9783,10 +9783,10 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>8673.438079566506</v>
+        <v>8880.45469893822</v>
       </c>
       <c r="G311" t="n">
-        <v>0.02393555382927857</v>
+        <v>0.02450684486647412</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -9901,10 +9901,10 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10033.77605404356</v>
+        <v>10108.96954889896</v>
       </c>
       <c r="G315" t="n">
-        <v>0.02768959490450288</v>
+        <v>0.02789710176939457</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -9932,10 +9932,10 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>343659.0858663899</v>
+        <v>343376.8757521628</v>
       </c>
       <c r="G316" t="n">
-        <v>0.9483748512662186</v>
+        <v>0.9475960533641313</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>8843.874053101294</v>
+        <v>9055.298945010833</v>
       </c>
       <c r="G322" t="n">
-        <v>0.02404859073659591</v>
+        <v>0.02462350515379959</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -10230,10 +10230,10 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>7643.11051636715</v>
+        <v>7700.745550566197</v>
       </c>
       <c r="G326" t="n">
-        <v>0.02078342993795014</v>
+        <v>0.02094015326318299</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -10261,10 +10261,10 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>351263.2154305315</v>
+        <v>350994.155504423</v>
       </c>
       <c r="G327" t="n">
-        <v>0.9551679793254541</v>
+        <v>0.9544363415830174</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -10441,10 +10441,10 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>11967.47116687894</v>
+        <v>12264.02477094939</v>
       </c>
       <c r="G333" t="n">
-        <v>0.02655481369843143</v>
+        <v>0.02721284124643034</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -10559,10 +10559,10 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>-59640.89774812635</v>
+        <v>-60152.32446705343</v>
       </c>
       <c r="G337" t="n">
-        <v>-0.1323381444938738</v>
+        <v>-0.1334729574424184</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -10590,10 +10590,10 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>498343.9265812474</v>
+        <v>498558.7996961041</v>
       </c>
       <c r="G338" t="n">
-        <v>1.105783330795442</v>
+        <v>1.106260116195988</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>8879.056643285312</v>
+        <v>9080.423132479767</v>
       </c>
       <c r="G344" t="n">
-        <v>0.02301310523908391</v>
+        <v>0.02353501521146384</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -10888,10 +10888,10 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>64787.13971775069</v>
+        <v>65184.5791248735</v>
       </c>
       <c r="G348" t="n">
-        <v>0.1679179809705738</v>
+        <v>0.1689480808189842</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>312159.903638964</v>
+        <v>311561.0977426467</v>
       </c>
       <c r="G349" t="n">
-        <v>0.8090689137903424</v>
+        <v>0.8075169039695519</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -11097,10 +11097,10 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>8472.288451268925</v>
+        <v>8667.713241041856</v>
       </c>
       <c r="G355" t="n">
-        <v>0.02440470463382358</v>
+        <v>0.02496763214744254</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -11215,10 +11215,10 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>31504.97087171687</v>
+        <v>31713.75563266148</v>
       </c>
       <c r="G359" t="n">
-        <v>0.09075110143426586</v>
+        <v>0.09135251278282937</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -11246,10 +11246,10 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>307180.7406770142</v>
+        <v>306776.5311262967</v>
       </c>
       <c r="G360" t="n">
-        <v>0.8848441939319106</v>
+        <v>0.8836798550697281</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>8648.970168643047</v>
+        <v>8848.844733756752</v>
       </c>
       <c r="G366" t="n">
-        <v>0.02455722918496648</v>
+        <v>0.02512473784877689</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -11544,10 +11544,10 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>28983.41924203637</v>
+        <v>29177.05545740786</v>
       </c>
       <c r="G370" t="n">
-        <v>0.08229331989964797</v>
+        <v>0.08284311586687505</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -11575,10 +11575,10 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>314564.1105893206</v>
+        <v>314170.5998088354</v>
       </c>
       <c r="G371" t="n">
-        <v>0.8931494509153856</v>
+        <v>0.892032146284348</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>9068.793041050198</v>
+        <v>9278.340261117322</v>
       </c>
       <c r="G377" t="n">
-        <v>0.02454586286550378</v>
+        <v>0.02511302955508782</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -11873,10 +11873,10 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>30637.22020411909</v>
+        <v>30841.78233129876</v>
       </c>
       <c r="G381" t="n">
-        <v>0.08292360431057569</v>
+        <v>0.08347727820064019</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -11904,10 +11904,10 @@
         </is>
       </c>
       <c r="F382" t="n">
-        <v>329757.1867548307</v>
+        <v>329343.0774075839</v>
       </c>
       <c r="G382" t="n">
-        <v>0.8925305328239205</v>
+        <v>0.891409692244272</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -12084,10 +12084,10 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>8689.703945123008</v>
+        <v>8889.710916413964</v>
       </c>
       <c r="G388" t="n">
-        <v>0.02347601041495872</v>
+        <v>0.02401634709049369</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -12202,10 +12202,10 @@
         </is>
       </c>
       <c r="F392" t="n">
-        <v>41778.39226184568</v>
+        <v>42051.80735930859</v>
       </c>
       <c r="G392" t="n">
-        <v>0.1128680537395956</v>
+        <v>0.1136067090167123</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -12233,10 +12233,10 @@
         </is>
       </c>
       <c r="F393" t="n">
-        <v>319684.4037930313</v>
+        <v>319210.9817242774</v>
       </c>
       <c r="G393" t="n">
-        <v>0.8636559358454456</v>
+        <v>0.862376943892794</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -12411,10 +12411,10 @@
         </is>
       </c>
       <c r="F399" t="n">
-        <v>8621.123540155611</v>
+        <v>8820.941537166384</v>
       </c>
       <c r="G399" t="n">
-        <v>0.02402657946551343</v>
+        <v>0.02458346082343123</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -12529,10 +12529,10 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>29165.33854568127</v>
+        <v>29362.11534519304</v>
       </c>
       <c r="G403" t="n">
-        <v>0.08128213462462044</v>
+        <v>0.0818305403386109</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -12560,10 +12560,10 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>321029.6379141631</v>
+        <v>320633.0431176405</v>
       </c>
       <c r="G404" t="n">
-        <v>0.894691285909866</v>
+        <v>0.8935859988379579</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -12858,10 +12858,10 @@
         </is>
       </c>
       <c r="F414" t="n">
-        <v>20309.59448905231</v>
+        <v>20458.17226948078</v>
       </c>
       <c r="G414" t="n">
-        <v>0.05693129029469556</v>
+        <v>0.05734777939562144</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -12889,10 +12889,10 @@
         </is>
       </c>
       <c r="F415" t="n">
-        <v>336429.1055109477</v>
+        <v>336280.5277305192</v>
       </c>
       <c r="G415" t="n">
-        <v>0.9430687097053044</v>
+        <v>0.9426522206043786</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -13069,10 +13069,10 @@
         </is>
       </c>
       <c r="F421" t="n">
-        <v>9315.241234830719</v>
+        <v>9532.073812510705</v>
       </c>
       <c r="G421" t="n">
-        <v>0.02436281380160348</v>
+        <v>0.02492991148409686</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -13187,10 +13187,10 @@
         </is>
       </c>
       <c r="F425" t="n">
-        <v>23703.13980326058</v>
+        <v>23865.9923763137</v>
       </c>
       <c r="G425" t="n">
-        <v>0.06199250958536316</v>
+        <v>0.06241842951748152</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -13218,10 +13218,10 @@
         </is>
       </c>
       <c r="F426" t="n">
-        <v>349336.5189619087</v>
+        <v>348956.8338111756</v>
       </c>
       <c r="G426" t="n">
-        <v>0.9136446766130333</v>
+        <v>0.9126516589984216</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -13398,10 +13398,10 @@
         </is>
       </c>
       <c r="F432" t="n">
-        <v>9394.47986533947</v>
+        <v>9616.835478645087</v>
       </c>
       <c r="G432" t="n">
-        <v>0.02345566624980799</v>
+        <v>0.02401083259528181</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -13516,10 +13516,10 @@
         </is>
       </c>
       <c r="F436" t="n">
-        <v>26532.11318658939</v>
+        <v>26724.39762312749</v>
       </c>
       <c r="G436" t="n">
-        <v>0.06624404977467928</v>
+        <v>0.06672413591389283</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>
@@ -13547,10 +13547,10 @@
         </is>
       </c>
       <c r="F437" t="n">
-        <v>364594.1069480712</v>
+        <v>364179.4668982274</v>
       </c>
       <c r="G437" t="n">
-        <v>0.9103002839755128</v>
+        <v>0.9092650314908254</v>
       </c>
       <c r="H437" t="n">
         <v>0</v>
@@ -13727,10 +13727,10 @@
         </is>
       </c>
       <c r="F443" t="n">
-        <v>9335.010525259308</v>
+        <v>9555.276765385472</v>
       </c>
       <c r="G443" t="n">
-        <v>0.02323652874097562</v>
+        <v>0.0237848112314462</v>
       </c>
       <c r="H443" t="n">
         <v>0</v>
@@ -13845,10 +13845,10 @@
         </is>
       </c>
       <c r="F447" t="n">
-        <v>31938.35277872873</v>
+        <v>32166.93692693509</v>
       </c>
       <c r="G447" t="n">
-        <v>0.07950033374619399</v>
+        <v>0.08006932101355231</v>
       </c>
       <c r="H447" t="n">
         <v>0</v>
@@ -13876,10 +13876,10 @@
         </is>
       </c>
       <c r="F448" t="n">
-        <v>360465.2366960119</v>
+        <v>360016.3863076794</v>
       </c>
       <c r="G448" t="n">
-        <v>0.8972631375128303</v>
+        <v>0.8961458677550015</v>
       </c>
       <c r="H448" t="n">
         <v>0</v>
@@ -14056,10 +14056,10 @@
         </is>
       </c>
       <c r="F454" t="n">
-        <v>11251.34602533634</v>
+        <v>11516.18243788708</v>
       </c>
       <c r="G454" t="n">
-        <v>0.0230631732879156</v>
+        <v>0.02360603883145622</v>
       </c>
       <c r="H454" t="n">
         <v>0</v>
@@ -14174,10 +14174,10 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>43900.12850502582</v>
+        <v>44211.19002191885</v>
       </c>
       <c r="G458" t="n">
-        <v>0.08998712409992807</v>
+        <v>0.09062474253697117</v>
       </c>
       <c r="H458" t="n">
         <v>0</v>
@@ -14205,10 +14205,10 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>432697.5254696379</v>
+        <v>432121.627540194</v>
       </c>
       <c r="G459" t="n">
-        <v>0.8869497026121563</v>
+        <v>0.8857692186315727</v>
       </c>
       <c r="H459" t="n">
         <v>0</v>
@@ -14385,10 +14385,10 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>9021.302131887394</v>
+        <v>9241.143334489523</v>
       </c>
       <c r="G465" t="n">
-        <v>0.02318623371353969</v>
+        <v>0.02375126184682672</v>
       </c>
       <c r="H465" t="n">
         <v>0</v>
@@ -14474,13 +14474,13 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>3694.721134908725</v>
+        <v>3283.069799749935</v>
       </c>
       <c r="G468" t="n">
-        <v>0.009496042421364459</v>
+        <v>0.008438030625955774</v>
       </c>
       <c r="H468" t="n">
-        <v>3.438189379399895</v>
+        <v>3.055119806114304</v>
       </c>
       <c r="I468" t="n">
         <v>20.56555353171865</v>
@@ -14505,10 +14505,10 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>28374.69822583968</v>
+        <v>28599.61068055749</v>
       </c>
       <c r="G469" t="n">
-        <v>0.07292765223880554</v>
+        <v>0.07350571432606678</v>
       </c>
       <c r="H469" t="n">
         <v>0</v>
@@ -14536,10 +14536,10 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>347989.3785073642</v>
+        <v>347956.2761852031</v>
       </c>
       <c r="G470" t="n">
-        <v>0.8943900716262904</v>
+        <v>0.8943049932011508</v>
       </c>
       <c r="H470" t="n">
         <v>0</v>
@@ -14714,10 +14714,10 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>9149.311345848437</v>
+        <v>9328.541102121128</v>
       </c>
       <c r="G476" t="n">
-        <v>0.02061963941051887</v>
+        <v>0.0210235663079957</v>
       </c>
       <c r="H476" t="n">
         <v>0</v>
@@ -14803,13 +14803,13 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>6511.480778348243</v>
+        <v>9320.674662579473</v>
       </c>
       <c r="G479" t="n">
-        <v>0.0146748078191687</v>
+        <v>0.02100583785383536</v>
       </c>
       <c r="H479" t="n">
-        <v>2.568467815905745</v>
+        <v>3.676560479602045</v>
       </c>
       <c r="I479" t="n">
         <v>20.56555353171865</v>
@@ -14834,10 +14834,10 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>32306.15374575961</v>
+        <v>32409.91257741151</v>
       </c>
       <c r="G480" t="n">
-        <v>0.07280780113364631</v>
+        <v>0.07304164055755985</v>
       </c>
       <c r="H480" t="n">
         <v>0</v>
@@ -14865,10 +14865,10 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>395652.4707544868</v>
+        <v>392565.2246615199</v>
       </c>
       <c r="G481" t="n">
-        <v>0.8916748999409914</v>
+        <v>0.8847172286144609</v>
       </c>
       <c r="H481" t="n">
         <v>0</v>
@@ -14896,13 +14896,13 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>98.88337555691494</v>
+        <v>93.94699636797395</v>
       </c>
       <c r="G482" t="n">
-        <v>0.0002228516956747444</v>
+        <v>0.0002117266661482611</v>
       </c>
       <c r="H482" t="n">
-        <v>0.3232888818246031</v>
+        <v>0.3071499049817624</v>
       </c>
       <c r="I482" t="n">
         <v>20.56555353171865</v>
@@ -15047,10 +15047,10 @@
         </is>
       </c>
       <c r="F487" t="n">
-        <v>9350.596289894433</v>
+        <v>9524.761982024311</v>
       </c>
       <c r="G487" t="n">
-        <v>0.02064305139570015</v>
+        <v>0.02102755215078999</v>
       </c>
       <c r="H487" t="n">
         <v>0</v>
@@ -15136,13 +15136,13 @@
         </is>
       </c>
       <c r="F490" t="n">
-        <v>6902.86589193361</v>
+        <v>10460.53526953908</v>
       </c>
       <c r="G490" t="n">
-        <v>0.01523926506578115</v>
+        <v>0.02309343281444002</v>
       </c>
       <c r="H490" t="n">
-        <v>3.201868823394354</v>
+        <v>4.852080611140512</v>
       </c>
       <c r="I490" t="n">
         <v>20.56555353171865</v>
@@ -15167,10 +15167,10 @@
         </is>
       </c>
       <c r="F491" t="n">
-        <v>26388.41698374207</v>
+        <v>26448.73029538902</v>
       </c>
       <c r="G491" t="n">
-        <v>0.0582569743317091</v>
+        <v>0.05839012635256131</v>
       </c>
       <c r="H491" t="n">
         <v>0</v>
@@ -15198,10 +15198,10 @@
         </is>
       </c>
       <c r="F492" t="n">
-        <v>404730.4804639731</v>
+        <v>400956.0107853269</v>
       </c>
       <c r="G492" t="n">
-        <v>0.893512226450591</v>
+        <v>0.885179434706388</v>
       </c>
       <c r="H492" t="n">
         <v>0</v>
@@ -15229,13 +15229,13 @@
         </is>
       </c>
       <c r="F493" t="n">
-        <v>5593.440370456748</v>
+        <v>5575.761667720722</v>
       </c>
       <c r="G493" t="n">
-        <v>0.01234848275621857</v>
+        <v>0.01230945397582052</v>
       </c>
       <c r="H493" t="n">
-        <v>13.06226416966421</v>
+        <v>13.02097940214714</v>
       </c>
       <c r="I493" t="n">
         <v>20.56555353171865</v>
@@ -15380,10 +15380,10 @@
         </is>
       </c>
       <c r="F498" t="n">
-        <v>8050.194288011624</v>
+        <v>8240.57171849581</v>
       </c>
       <c r="G498" t="n">
-        <v>0.02072659319419892</v>
+        <v>0.02121675224053136</v>
       </c>
       <c r="H498" t="n">
         <v>0</v>
@@ -15469,13 +15469,13 @@
         </is>
       </c>
       <c r="F501" t="n">
-        <v>4823.156720666898</v>
+        <v>5251.538484757247</v>
       </c>
       <c r="G501" t="n">
-        <v>0.01241803659447094</v>
+        <v>0.01352097824264165</v>
       </c>
       <c r="H501" t="n">
-        <v>13.05143259615048</v>
+        <v>14.21063103054682</v>
       </c>
       <c r="I501" t="n">
         <v>20.56555353171865</v>
@@ -15500,10 +15500,10 @@
         </is>
       </c>
       <c r="F502" t="n">
-        <v>11852.34033240558</v>
+        <v>11938.49345777617</v>
       </c>
       <c r="G502" t="n">
-        <v>0.03051586429843096</v>
+        <v>0.03073768016002133</v>
       </c>
       <c r="H502" t="n">
         <v>0</v>
@@ -15531,10 +15531,10 @@
         </is>
       </c>
       <c r="F503" t="n">
-        <v>349403.3758197004</v>
+        <v>348925.8900487238</v>
       </c>
       <c r="G503" t="n">
-        <v>0.8995983664741426</v>
+        <v>0.898368998215815</v>
       </c>
       <c r="H503" t="n">
         <v>0</v>
@@ -15562,13 +15562,13 @@
         </is>
       </c>
       <c r="F504" t="n">
-        <v>6654.565960959608</v>
+        <v>6676.094645066108</v>
       </c>
       <c r="G504" t="n">
-        <v>0.01713331090184665</v>
+        <v>0.01718874015752888</v>
       </c>
       <c r="H504" t="n">
-        <v>15.54029233521833</v>
+        <v>15.59056789737676</v>
       </c>
       <c r="I504" t="n">
         <v>20.56555353171865</v>
@@ -15593,13 +15593,13 @@
         </is>
       </c>
       <c r="F505" t="n">
-        <v>7615.666878255854</v>
+        <v>7366.711645180862</v>
       </c>
       <c r="G505" t="n">
-        <v>0.01960782853690996</v>
+        <v>0.01896685098346177</v>
       </c>
       <c r="H505" t="n">
-        <v>5.222786124297221</v>
+        <v>5.052053874888089</v>
       </c>
       <c r="I505" t="n">
         <v>20.56555353171865</v>
@@ -15713,10 +15713,10 @@
         </is>
       </c>
       <c r="F509" t="n">
-        <v>8573.122819779224</v>
+        <v>8783.243611289938</v>
       </c>
       <c r="G509" t="n">
-        <v>0.02014532913696894</v>
+        <v>0.02063907600056663</v>
       </c>
       <c r="H509" t="n">
         <v>0</v>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="F512" t="n">
-        <v>4553.446839590287</v>
+        <v>4464.588897597461</v>
       </c>
       <c r="G512" t="n">
-        <v>0.01069979833714777</v>
+        <v>0.01049099781888746</v>
       </c>
       <c r="H512" t="n">
-        <v>6.218897246209932</v>
+        <v>6.09753898065197</v>
       </c>
       <c r="I512" t="n">
         <v>20.56555353171865</v>
@@ -15833,10 +15833,10 @@
         </is>
       </c>
       <c r="F513" t="n">
-        <v>27233.55985826637</v>
+        <v>27453.15575504321</v>
       </c>
       <c r="G513" t="n">
-        <v>0.06399407059121656</v>
+        <v>0.06451008228388601</v>
       </c>
       <c r="H513" t="n">
         <v>0</v>
@@ -15864,10 +15864,10 @@
         </is>
       </c>
       <c r="F514" t="n">
-        <v>365393.4989660831</v>
+        <v>365399.2072292957</v>
       </c>
       <c r="G514" t="n">
-        <v>0.8586103868940054</v>
+        <v>0.858623800307488</v>
       </c>
       <c r="H514" t="n">
         <v>0</v>
@@ -15895,13 +15895,13 @@
         </is>
       </c>
       <c r="F515" t="n">
-        <v>8128.67854261474</v>
+        <v>8166.39075878607</v>
       </c>
       <c r="G515" t="n">
-        <v>0.01910096333996157</v>
+        <v>0.0191895804078873</v>
       </c>
       <c r="H515" t="n">
-        <v>18.98276184988533</v>
+        <v>19.07083053345533</v>
       </c>
       <c r="I515" t="n">
         <v>20.56555353171865</v>
@@ -15926,13 +15926,13 @@
         </is>
       </c>
       <c r="F516" t="n">
-        <v>11681.49297366627</v>
+        <v>11297.21374798756</v>
       </c>
       <c r="G516" t="n">
-        <v>0.0274494517006998</v>
+        <v>0.02654646318128459</v>
       </c>
       <c r="H516" t="n">
-        <v>5.926215959966005</v>
+        <v>5.73126470797841</v>
       </c>
       <c r="I516" t="n">
         <v>20.56555353171865</v>
@@ -16046,10 +16046,10 @@
         </is>
       </c>
       <c r="F520" t="n">
-        <v>10175.68854367859</v>
+        <v>10412.44005785284</v>
       </c>
       <c r="G520" t="n">
-        <v>0.01988263987575821</v>
+        <v>0.02034523708243975</v>
       </c>
       <c r="H520" t="n">
         <v>0</v>
@@ -16106,13 +16106,13 @@
         </is>
       </c>
       <c r="F522" t="n">
-        <v>16086.39187530182</v>
+        <v>16333.14030724602</v>
       </c>
       <c r="G522" t="n">
-        <v>0.03143177340619786</v>
+        <v>0.03191390394618006</v>
       </c>
       <c r="H522" t="n">
-        <v>0.5818413177183566</v>
+        <v>0.5907661551772634</v>
       </c>
       <c r="I522" t="n">
         <v>20.56555353171865</v>
@@ -16137,13 +16137,13 @@
         </is>
       </c>
       <c r="F523" t="n">
-        <v>5949.684893155491</v>
+        <v>6559.444424721341</v>
       </c>
       <c r="G523" t="n">
-        <v>0.01162530099040206</v>
+        <v>0.01281673183313027</v>
       </c>
       <c r="H523" t="n">
-        <v>4.78748584267341</v>
+        <v>5.278136217815956</v>
       </c>
       <c r="I523" t="n">
         <v>20.56555353171865</v>
@@ -16168,10 +16168,10 @@
         </is>
       </c>
       <c r="F524" t="n">
-        <v>26139.09752291268</v>
+        <v>26318.38932904745</v>
       </c>
       <c r="G524" t="n">
-        <v>0.05107411262584847</v>
+        <v>0.05142443726469233</v>
       </c>
       <c r="H524" t="n">
         <v>0</v>
@@ -16199,10 +16199,10 @@
         </is>
       </c>
       <c r="F525" t="n">
-        <v>430143.0217833599</v>
+        <v>429299.8000709264</v>
       </c>
       <c r="G525" t="n">
-        <v>0.8404717538747716</v>
+        <v>0.8388241529707371</v>
       </c>
       <c r="H525" t="n">
         <v>0</v>
@@ -16230,13 +16230,13 @@
         </is>
       </c>
       <c r="F526" t="n">
-        <v>10007.57986155221</v>
+        <v>10043.55965034516</v>
       </c>
       <c r="G526" t="n">
-        <v>0.01955416634078709</v>
+        <v>0.01962446853019722</v>
       </c>
       <c r="H526" t="n">
-        <v>22.97774549941161</v>
+        <v>23.06035632455059</v>
       </c>
       <c r="I526" t="n">
         <v>20.56555353171865</v>
@@ -16261,13 +16261,13 @@
         </is>
       </c>
       <c r="F527" t="n">
-        <v>13286.13552003918</v>
+        <v>12820.82615986075</v>
       </c>
       <c r="G527" t="n">
-        <v>0.0259602528862348</v>
+        <v>0.02505106837262324</v>
       </c>
       <c r="H527" t="n">
-        <v>10.86544490863907</v>
+        <v>10.48491339811313</v>
       </c>
       <c r="I527" t="n">
         <v>20.56555353171865</v>
@@ -16381,10 +16381,10 @@
         </is>
       </c>
       <c r="F531" t="n">
-        <v>13560.85142191497</v>
+        <v>13882.45063074281</v>
       </c>
       <c r="G531" t="n">
-        <v>0.01932695321006803</v>
+        <v>0.01978529706090958</v>
       </c>
       <c r="H531" t="n">
         <v>0</v>
@@ -16412,13 +16412,13 @@
         </is>
       </c>
       <c r="F532" t="n">
-        <v>6821.456975318565</v>
+        <v>4090.426206277115</v>
       </c>
       <c r="G532" t="n">
-        <v>0.009721954447006019</v>
+        <v>0.005829683803643521</v>
       </c>
       <c r="H532" t="n">
-        <v>4.090716702345295</v>
+        <v>2.452962008302818</v>
       </c>
       <c r="I532" t="n">
         <v>20.56555353171865</v>
@@ -16443,10 +16443,10 @@
         </is>
       </c>
       <c r="F533" t="n">
-        <v>12855.53114559722</v>
+        <v>13038.20273359911</v>
       </c>
       <c r="G533" t="n">
-        <v>0.01832172930823574</v>
+        <v>0.01858207322944528</v>
       </c>
       <c r="H533" t="n">
         <v>0</v>
@@ -16474,13 +16474,13 @@
         </is>
       </c>
       <c r="F534" t="n">
-        <v>9171.989428985464</v>
+        <v>12072.44648117296</v>
       </c>
       <c r="G534" t="n">
-        <v>0.01307193811229062</v>
+        <v>0.01720567544126459</v>
       </c>
       <c r="H534" t="n">
-        <v>5.003369750508174</v>
+        <v>6.58558473123</v>
       </c>
       <c r="I534" t="n">
         <v>20.56555353171865</v>
@@ -16505,10 +16505,10 @@
         </is>
       </c>
       <c r="F535" t="n">
-        <v>85257.38983604785</v>
+        <v>85870.03755454501</v>
       </c>
       <c r="G535" t="n">
-        <v>0.1215090065444535</v>
+        <v>0.1223821533271484</v>
       </c>
       <c r="H535" t="n">
         <v>0</v>
@@ -16536,10 +16536,10 @@
         </is>
       </c>
       <c r="F536" t="n">
-        <v>548384.6714806888</v>
+        <v>547494.7115876655</v>
       </c>
       <c r="G536" t="n">
-        <v>0.7815589565193498</v>
+        <v>0.7802905838577702</v>
       </c>
       <c r="H536" t="n">
         <v>0</v>
@@ -16567,13 +16567,13 @@
         </is>
       </c>
       <c r="F537" t="n">
-        <v>13686.21163553506</v>
+        <v>13743.92234063914</v>
       </c>
       <c r="G537" t="n">
-        <v>0.01950561684317327</v>
+        <v>0.01958786625824053</v>
       </c>
       <c r="H537" t="n">
-        <v>30.15691264682539</v>
+        <v>30.28407542487945</v>
       </c>
       <c r="I537" t="n">
         <v>20.56555353171865</v>
@@ -16598,13 +16598,13 @@
         </is>
       </c>
       <c r="F538" t="n">
-        <v>11916.79807591208</v>
+        <v>11462.70246535845</v>
       </c>
       <c r="G538" t="n">
-        <v>0.01698384501542294</v>
+        <v>0.01633666702157777</v>
       </c>
       <c r="H538" t="n">
-        <v>47.74199001757163</v>
+        <v>45.92275737068334</v>
       </c>
       <c r="I538" t="n">
         <v>20.56555353171865</v>
@@ -16718,10 +16718,10 @@
         </is>
       </c>
       <c r="F542" t="n">
-        <v>9482.249390526344</v>
+        <v>9697.302822620641</v>
       </c>
       <c r="G542" t="n">
-        <v>0.02066969937196098</v>
+        <v>0.02113847946909052</v>
       </c>
       <c r="H542" t="n">
         <v>0</v>
@@ -16749,10 +16749,10 @@
         </is>
       </c>
       <c r="F543" t="n">
-        <v>124.8095871384885</v>
+        <v>2.037546816933441</v>
       </c>
       <c r="G543" t="n">
-        <v>0.000272063783459288</v>
+        <v>4.441507328882063e-06</v>
       </c>
       <c r="H543" t="n">
         <v>0</v>
@@ -16780,10 +16780,10 @@
         </is>
       </c>
       <c r="F544" t="n">
-        <v>3915.80996484528</v>
+        <v>3972.23105090961</v>
       </c>
       <c r="G544" t="n">
-        <v>0.008535803208460884</v>
+        <v>0.008658791630211778</v>
       </c>
       <c r="H544" t="n">
         <v>0</v>
@@ -16811,13 +16811,13 @@
         </is>
       </c>
       <c r="F545" t="n">
-        <v>6032.661166961067</v>
+        <v>7214.415057680887</v>
       </c>
       <c r="G545" t="n">
-        <v>0.0131501806795515</v>
+        <v>0.01572620422067754</v>
       </c>
       <c r="H545" t="n">
-        <v>5.662829957097245</v>
+        <v>6.772136637693651</v>
       </c>
       <c r="I545" t="n">
         <v>20.56555353171865</v>
@@ -16842,10 +16842,10 @@
         </is>
       </c>
       <c r="F546" t="n">
-        <v>24141.76886975361</v>
+        <v>24293.43809650427</v>
       </c>
       <c r="G546" t="n">
-        <v>0.05262497159626746</v>
+        <v>0.0529555848497056</v>
       </c>
       <c r="H546" t="n">
         <v>0</v>
@@ -16873,10 +16873,10 @@
         </is>
       </c>
       <c r="F547" t="n">
-        <v>400579.1337190313</v>
+        <v>399270.9726248982</v>
       </c>
       <c r="G547" t="n">
-        <v>0.8731947376247329</v>
+        <v>0.8703431677669687</v>
       </c>
       <c r="H547" t="n">
         <v>0</v>
@@ -16904,13 +16904,13 @@
         </is>
       </c>
       <c r="F548" t="n">
-        <v>9706.764102639438</v>
+        <v>9738.655015096996</v>
       </c>
       <c r="G548" t="n">
-        <v>0.02115910345877992</v>
+        <v>0.02122862025232195</v>
       </c>
       <c r="H548" t="n">
-        <v>21.38839036849323</v>
+        <v>21.45866046856337</v>
       </c>
       <c r="I548" t="n">
         <v>20.56555353171865</v>
@@ -16935,13 +16935,13 @@
         </is>
       </c>
       <c r="F549" t="n">
-        <v>4768.003199104461</v>
+        <v>4562.147785472417</v>
       </c>
       <c r="G549" t="n">
-        <v>0.0103934402767872</v>
+        <v>0.009944710303694938</v>
       </c>
       <c r="H549" t="n">
-        <v>19.10193994102499</v>
+        <v>18.27722620163976</v>
       </c>
       <c r="I549" t="n">
         <v>20.56555353171865</v>
@@ -17055,10 +17055,10 @@
         </is>
       </c>
       <c r="F553" t="n">
-        <v>9226.265827280966</v>
+        <v>9448.378538454312</v>
       </c>
       <c r="G553" t="n">
-        <v>0.02072541775312701</v>
+        <v>0.02122436053382769</v>
       </c>
       <c r="H553" t="n">
         <v>0</v>
@@ -17115,13 +17115,13 @@
         </is>
       </c>
       <c r="F555" t="n">
-        <v>11335.38675075102</v>
+        <v>11504.67982628957</v>
       </c>
       <c r="G555" t="n">
-        <v>0.02546324051361214</v>
+        <v>0.02584353193149795</v>
       </c>
       <c r="H555" t="n">
-        <v>0.7400760316980882</v>
+        <v>0.7511290068010534</v>
       </c>
       <c r="I555" t="n">
         <v>20.56555353171865</v>
@@ -17146,13 +17146,13 @@
         </is>
       </c>
       <c r="F556" t="n">
-        <v>4915.59518169415</v>
+        <v>4861.069704159811</v>
       </c>
       <c r="G556" t="n">
-        <v>0.0110421448452774</v>
+        <v>0.01091966156534128</v>
       </c>
       <c r="H556" t="n">
-        <v>8.087354867951145</v>
+        <v>7.997647137785149</v>
       </c>
       <c r="I556" t="n">
         <v>20.56555353171865</v>
@@ -17177,10 +17177,10 @@
         </is>
       </c>
       <c r="F557" t="n">
-        <v>17548.13775566023</v>
+        <v>17682.80453152891</v>
       </c>
       <c r="G557" t="n">
-        <v>0.03941925071138572</v>
+        <v>0.03972175935785159</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -17208,10 +17208,10 @@
         </is>
       </c>
       <c r="F558" t="n">
-        <v>390442.3594532016</v>
+        <v>390023.9836557872</v>
       </c>
       <c r="G558" t="n">
-        <v>0.8770700042325754</v>
+        <v>0.8761301859635664</v>
       </c>
       <c r="H558" t="n">
         <v>0</v>
@@ -17239,13 +17239,13 @@
         </is>
       </c>
       <c r="F559" t="n">
-        <v>9519.892280054239</v>
+        <v>9564.565784414057</v>
       </c>
       <c r="G559" t="n">
-        <v>0.02138500539248385</v>
+        <v>0.02148535769727173</v>
       </c>
       <c r="H559" t="n">
-        <v>20.97662724660617</v>
+        <v>21.07506317646632</v>
       </c>
       <c r="I559" t="n">
         <v>20.56555353171865</v>
@@ -17270,13 +17270,13 @@
         </is>
       </c>
       <c r="F560" t="n">
-        <v>2179.062751357772</v>
+        <v>2081.217959366152</v>
       </c>
       <c r="G560" t="n">
-        <v>0.004894936551538496</v>
+        <v>0.004675142950643326</v>
       </c>
       <c r="H560" t="n">
-        <v>8.729928245849086</v>
+        <v>8.337934939192527</v>
       </c>
       <c r="I560" t="n">
         <v>20.56555353171865</v>
@@ -17390,10 +17390,10 @@
         </is>
       </c>
       <c r="F564" t="n">
-        <v>10479.13891340762</v>
+        <v>10746.14358497722</v>
       </c>
       <c r="G564" t="n">
-        <v>0.02106761876822232</v>
+        <v>0.02160441407902457</v>
       </c>
       <c r="H564" t="n">
         <v>0</v>
@@ -17450,10 +17450,10 @@
         </is>
       </c>
       <c r="F566" t="n">
-        <v>5310.458917363365</v>
+        <v>5359.427040959551</v>
       </c>
       <c r="G566" t="n">
-        <v>0.01067632797692698</v>
+        <v>0.01077477516502559</v>
       </c>
       <c r="H566" t="n">
         <v>0</v>
@@ -17481,13 +17481,13 @@
         </is>
       </c>
       <c r="F567" t="n">
-        <v>3491.427251131094</v>
+        <v>2488.907599682426</v>
       </c>
       <c r="G567" t="n">
-        <v>0.007019284589280554</v>
+        <v>0.005003784842698457</v>
       </c>
       <c r="H567" t="n">
-        <v>15.95625200783063</v>
+        <v>11.37461388372673</v>
       </c>
       <c r="I567" t="n">
         <v>20.56555353171865</v>
@@ -17512,10 +17512,10 @@
         </is>
       </c>
       <c r="F568" t="n">
-        <v>14972.62774324769</v>
+        <v>15108.4555054027</v>
       </c>
       <c r="G568" t="n">
-        <v>0.03010148217900441</v>
+        <v>0.03037455495100108</v>
       </c>
       <c r="H568" t="n">
         <v>0</v>
@@ -17543,10 +17543,10 @@
         </is>
       </c>
       <c r="F569" t="n">
-        <v>447933.2801118106</v>
+        <v>448433.4448143335</v>
       </c>
       <c r="G569" t="n">
-        <v>0.9005403647164998</v>
+        <v>0.9015459129167046</v>
       </c>
       <c r="H569" t="n">
         <v>0</v>
@@ -17574,13 +17574,13 @@
         </is>
       </c>
       <c r="F570" t="n">
-        <v>13884.89287690182</v>
+        <v>13994.11485227127</v>
       </c>
       <c r="G570" t="n">
-        <v>0.02791466285401599</v>
+        <v>0.02813424644358474</v>
       </c>
       <c r="H570" t="n">
-        <v>18.44680275854971</v>
+        <v>18.59190983675347</v>
       </c>
       <c r="I570" t="n">
         <v>20.56555353171865</v>
@@ -17605,13 +17605,13 @@
         </is>
       </c>
       <c r="F571" t="n">
-        <v>1333.174186137816</v>
+        <v>1274.506602373393</v>
       </c>
       <c r="G571" t="n">
-        <v>0.002680258916049932</v>
+        <v>0.002562311601960964</v>
       </c>
       <c r="H571" t="n">
-        <v>5.34106462833594</v>
+        <v>5.10602605668323</v>
       </c>
       <c r="I571" t="n">
         <v>20.56555353171865</v>
@@ -17725,10 +17725,10 @@
         </is>
       </c>
       <c r="F575" t="n">
-        <v>9949.411654159609</v>
+        <v>10187.78874378887</v>
       </c>
       <c r="G575" t="n">
-        <v>0.01982953494730634</v>
+        <v>0.02030462905274165</v>
       </c>
       <c r="H575" t="n">
         <v>0</v>
@@ -17785,13 +17785,13 @@
         </is>
       </c>
       <c r="F577" t="n">
-        <v>14250.49080090993</v>
+        <v>14477.21149783799</v>
       </c>
       <c r="G577" t="n">
-        <v>0.02840174024106951</v>
+        <v>0.02885360273699238</v>
       </c>
       <c r="H577" t="n">
-        <v>0.7238313161595086</v>
+        <v>0.7353472381548102</v>
       </c>
       <c r="I577" t="n">
         <v>20.56555353171865</v>
@@ -17816,13 +17816,13 @@
         </is>
       </c>
       <c r="F578" t="n">
-        <v>2175.685696554271</v>
+        <v>1333.3120578342</v>
       </c>
       <c r="G578" t="n">
-        <v>0.004336219773974321</v>
+        <v>0.002657338842285685</v>
       </c>
       <c r="H578" t="n">
-        <v>7.457363443446908</v>
+        <v>4.570050083312531</v>
       </c>
       <c r="I578" t="n">
         <v>20.56555353171865</v>
@@ -17847,10 +17847,10 @@
         </is>
       </c>
       <c r="F579" t="n">
-        <v>8299.908136828564</v>
+        <v>8362.932655671852</v>
       </c>
       <c r="G579" t="n">
-        <v>0.01654201516427014</v>
+        <v>0.01666762529503778</v>
       </c>
       <c r="H579" t="n">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         </is>
       </c>
       <c r="F580" t="n">
-        <v>456071.2964602122</v>
+        <v>456331.6295388797</v>
       </c>
       <c r="G580" t="n">
-        <v>0.9089664822381877</v>
+        <v>0.9094853354187393</v>
       </c>
       <c r="H580" t="n">
         <v>0</v>
@@ -17909,13 +17909,13 @@
         </is>
       </c>
       <c r="F581" t="n">
-        <v>11000.30725133543</v>
+        <v>11054.22550598735</v>
       </c>
       <c r="G581" t="n">
-        <v>0.02192400763519198</v>
+        <v>0.02203146865420319</v>
       </c>
       <c r="H581" t="n">
-        <v>31.54872011343692</v>
+        <v>31.70335687822474</v>
       </c>
       <c r="I581" t="n">
         <v>20.56555353171865</v>
@@ -18058,10 +18058,10 @@
         </is>
       </c>
       <c r="F586" t="n">
-        <v>10119.33671441226</v>
+        <v>10379.30140208518</v>
       </c>
       <c r="G586" t="n">
-        <v>0.01984107028495616</v>
+        <v>0.02035078527767689</v>
       </c>
       <c r="H586" t="n">
         <v>0</v>
@@ -18089,13 +18089,13 @@
         </is>
       </c>
       <c r="F587" t="n">
-        <v>7406.180546465672</v>
+        <v>5281.305079241813</v>
       </c>
       <c r="G587" t="n">
-        <v>0.01452136171694088</v>
+        <v>0.01035510016425211</v>
       </c>
       <c r="H587" t="n">
-        <v>3.188115175173481</v>
+        <v>2.27342673625296</v>
       </c>
       <c r="I587" t="n">
         <v>20.56555353171865</v>
@@ -18120,10 +18120,10 @@
         </is>
       </c>
       <c r="F588" t="n">
-        <v>8148.624253414617</v>
+        <v>8281.959721647756</v>
       </c>
       <c r="G588" t="n">
-        <v>0.01597707746076204</v>
+        <v>0.01623850945688521</v>
       </c>
       <c r="H588" t="n">
         <v>0</v>
@@ -18180,10 +18180,10 @@
         </is>
       </c>
       <c r="F590" t="n">
-        <v>10593.20379946824</v>
+        <v>10691.61736081216</v>
       </c>
       <c r="G590" t="n">
-        <v>0.02077018554277068</v>
+        <v>0.02096314585654664</v>
       </c>
       <c r="H590" t="n">
         <v>0</v>
@@ -18211,10 +18211,10 @@
         </is>
       </c>
       <c r="F591" t="n">
-        <v>464060.9221207136</v>
+        <v>465640.3201924187</v>
       </c>
       <c r="G591" t="n">
-        <v>0.9098882300442778</v>
+        <v>0.9129849693892584</v>
       </c>
       <c r="H591" t="n">
         <v>0</v>
@@ -18242,13 +18242,13 @@
         </is>
       </c>
       <c r="F592" t="n">
-        <v>9691.432565525633</v>
+        <v>9745.196243794346</v>
       </c>
       <c r="G592" t="n">
-        <v>0.01900207495029238</v>
+        <v>0.01910748985538077</v>
       </c>
       <c r="H592" t="n">
-        <v>27.79488668108774</v>
+        <v>27.94908012307206</v>
       </c>
       <c r="I592" t="n">
         <v>20.56555353171865</v>
@@ -18391,10 +18391,10 @@
         </is>
       </c>
       <c r="F597" t="n">
-        <v>10224.74267165678</v>
+        <v>10475.58931895572</v>
       </c>
       <c r="G597" t="n">
-        <v>0.0199691006699568</v>
+        <v>0.02045900854475538</v>
       </c>
       <c r="H597" t="n">
         <v>0</v>
@@ -18422,10 +18422,10 @@
         </is>
       </c>
       <c r="F598" t="n">
-        <v>2029.464257725932</v>
+        <v>853.9463870931761</v>
       </c>
       <c r="G598" t="n">
-        <v>0.003963579071867393</v>
+        <v>0.001667772179526784</v>
       </c>
       <c r="H598" t="n">
         <v>0</v>
@@ -18453,10 +18453,10 @@
         </is>
       </c>
       <c r="F599" t="n">
-        <v>2357.718026407327</v>
+        <v>2396.390220413786</v>
       </c>
       <c r="G599" t="n">
-        <v>0.004604664404045181</v>
+        <v>0.004680191873052667</v>
       </c>
       <c r="H599" t="n">
         <v>0</v>
@@ -18513,10 +18513,10 @@
         </is>
       </c>
       <c r="F601" t="n">
-        <v>17698.18425989655</v>
+        <v>17842.09416135817</v>
       </c>
       <c r="G601" t="n">
-        <v>0.03456486236480052</v>
+        <v>0.034845920910915</v>
       </c>
       <c r="H601" t="n">
         <v>0</v>
@@ -18544,10 +18544,10 @@
         </is>
       </c>
       <c r="F602" t="n">
-        <v>470884.5513063128</v>
+        <v>471593.3714875514</v>
       </c>
       <c r="G602" t="n">
-        <v>0.919645736907289</v>
+        <v>0.9210300750770199</v>
       </c>
       <c r="H602" t="n">
         <v>0</v>
@@ -18575,13 +18575,13 @@
         </is>
       </c>
       <c r="F603" t="n">
-        <v>8833.539478000623</v>
+        <v>8866.808424627765</v>
       </c>
       <c r="G603" t="n">
-        <v>0.01725205658204103</v>
+        <v>0.01731703141473021</v>
       </c>
       <c r="H603" t="n">
-        <v>25.33446186865416</v>
+        <v>25.42987672040579</v>
       </c>
       <c r="I603" t="n">
         <v>20.56555353171865</v>
@@ -18724,10 +18724,10 @@
         </is>
       </c>
       <c r="F608" t="n">
-        <v>10422.33838437079</v>
+        <v>10663.23496014176</v>
       </c>
       <c r="G608" t="n">
-        <v>0.02006854969167565</v>
+        <v>0.0205324038406317</v>
       </c>
       <c r="H608" t="n">
         <v>0</v>
@@ -18842,10 +18842,10 @@
         </is>
       </c>
       <c r="F612" t="n">
-        <v>19399.05962203821</v>
+        <v>19529.62084990001</v>
       </c>
       <c r="G612" t="n">
-        <v>0.03735351680583106</v>
+        <v>0.03760491667335792</v>
       </c>
       <c r="H612" t="n">
         <v>0</v>
@@ -18873,10 +18873,10 @@
         </is>
       </c>
       <c r="F613" t="n">
-        <v>481559.032647819</v>
+        <v>481172.8005945971</v>
       </c>
       <c r="G613" t="n">
-        <v>0.9272574944083868</v>
+        <v>0.9265137920964159</v>
       </c>
       <c r="H613" t="n">
         <v>0</v>
@@ -18904,13 +18904,13 @@
         </is>
       </c>
       <c r="F614" t="n">
-        <v>7956.469345772069</v>
+        <v>7971.243595361095</v>
       </c>
       <c r="G614" t="n">
-        <v>0.01532043909410648</v>
+        <v>0.01534888738959449</v>
       </c>
       <c r="H614" t="n">
-        <v>22.81903757283055</v>
+        <v>22.86140990430462</v>
       </c>
       <c r="I614" t="n">
         <v>20.56555353171865</v>
@@ -19053,10 +19053,10 @@
         </is>
       </c>
       <c r="F619" t="n">
-        <v>10966.06355889523</v>
+        <v>11218.78190200437</v>
       </c>
       <c r="G619" t="n">
-        <v>0.01970082011220963</v>
+        <v>0.02015483522801756</v>
       </c>
       <c r="H619" t="n">
         <v>0</v>
@@ -19113,13 +19113,13 @@
         </is>
       </c>
       <c r="F621" t="n">
-        <v>4569.979080812685</v>
+        <v>4548.262428249691</v>
       </c>
       <c r="G621" t="n">
-        <v>0.008210086992849978</v>
+        <v>0.008171072458301173</v>
       </c>
       <c r="H621" t="n">
-        <v>0.7226169220314593</v>
+        <v>0.7191830287128259</v>
       </c>
       <c r="I621" t="n">
         <v>20.56555353171865</v>
@@ -19173,10 +19173,10 @@
         </is>
       </c>
       <c r="F623" t="n">
-        <v>32377.20345652127</v>
+        <v>32591.86575342022</v>
       </c>
       <c r="G623" t="n">
-        <v>0.05816649316389685</v>
+        <v>0.05855213959694616</v>
       </c>
       <c r="H623" t="n">
         <v>0</v>
@@ -19204,10 +19204,10 @@
         </is>
       </c>
       <c r="F624" t="n">
-        <v>500345.0018266498</v>
+        <v>499884.350210657</v>
       </c>
       <c r="G624" t="n">
-        <v>0.898882887381613</v>
+        <v>0.8980553147004651</v>
       </c>
       <c r="H624" t="n">
         <v>0</v>
@@ -19235,13 +19235,13 @@
         </is>
       </c>
       <c r="F625" t="n">
-        <v>8371.552077121034</v>
+        <v>8386.539705668727</v>
       </c>
       <c r="G625" t="n">
-        <v>0.01503971234943051</v>
+        <v>0.01506663801626993</v>
       </c>
       <c r="H625" t="n">
-        <v>24.00948876806054</v>
+        <v>24.05247306726345</v>
       </c>
       <c r="I625" t="n">
         <v>20.56555353171865</v>
@@ -19384,10 +19384,10 @@
         </is>
       </c>
       <c r="F630" t="n">
-        <v>10709.10151912789</v>
+        <v>10952.7566313735</v>
       </c>
       <c r="G630" t="n">
-        <v>0.0195985268561287</v>
+        <v>0.02004443553039508</v>
       </c>
       <c r="H630" t="n">
         <v>0</v>
@@ -19444,13 +19444,13 @@
         </is>
       </c>
       <c r="F632" t="n">
-        <v>7965.256224335027</v>
+        <v>8010.049090026208</v>
       </c>
       <c r="G632" t="n">
-        <v>0.01457706678284333</v>
+        <v>0.01465904137050071</v>
       </c>
       <c r="H632" t="n">
-        <v>1.108156228644791</v>
+        <v>1.114387979603773</v>
       </c>
       <c r="I632" t="n">
         <v>20.56555353171865</v>
@@ -19504,10 +19504,10 @@
         </is>
       </c>
       <c r="F634" t="n">
-        <v>26510.14834762399</v>
+        <v>26678.64697614787</v>
       </c>
       <c r="G634" t="n">
-        <v>0.04851572780618998</v>
+        <v>0.04882409400203262</v>
       </c>
       <c r="H634" t="n">
         <v>0</v>
@@ -19535,10 +19535,10 @@
         </is>
       </c>
       <c r="F635" t="n">
-        <v>499991.6230921026</v>
+        <v>499559.8336599586</v>
       </c>
       <c r="G635" t="n">
-        <v>0.9150253394747863</v>
+        <v>0.9142351296922984</v>
       </c>
       <c r="H635" t="n">
         <v>0</v>
@@ -19566,10 +19566,10 @@
         </is>
       </c>
       <c r="F636" t="n">
-        <v>1247.670816810379</v>
+        <v>1222.513642493963</v>
       </c>
       <c r="G636" t="n">
-        <v>0.002283339080051746</v>
+        <v>0.002237299404773296</v>
       </c>
       <c r="H636" t="n">
         <v>0</v>
@@ -19715,10 +19715,10 @@
         </is>
       </c>
       <c r="F641" t="n">
-        <v>10662.38499652161</v>
+        <v>10905.10790361415</v>
       </c>
       <c r="G641" t="n">
-        <v>0.01976111999456156</v>
+        <v>0.02021097023857818</v>
       </c>
       <c r="H641" t="n">
         <v>0</v>
@@ -19775,10 +19775,10 @@
         </is>
       </c>
       <c r="F643" t="n">
-        <v>2896.02788544</v>
+        <v>2911.271073144296</v>
       </c>
       <c r="G643" t="n">
-        <v>0.005367350228907128</v>
+        <v>0.005395601174771724</v>
       </c>
       <c r="H643" t="n">
         <v>0</v>
@@ -19835,10 +19835,10 @@
         </is>
       </c>
       <c r="F645" t="n">
-        <v>25366.5384610368</v>
+        <v>25528.14895470807</v>
       </c>
       <c r="G645" t="n">
-        <v>0.04701304731903215</v>
+        <v>0.04731256795713142</v>
       </c>
       <c r="H645" t="n">
         <v>0</v>
@@ -19866,10 +19866,10 @@
         </is>
       </c>
       <c r="F646" t="n">
-        <v>500638.8486570016</v>
+        <v>500219.2720685335</v>
       </c>
       <c r="G646" t="n">
-        <v>0.9278584824574991</v>
+        <v>0.9270808606295187</v>
       </c>
       <c r="H646" t="n">
         <v>0</v>
@@ -20044,10 +20044,10 @@
         </is>
       </c>
       <c r="F652" t="n">
-        <v>9729.428692702018</v>
+        <v>9951.243192498619</v>
       </c>
       <c r="G652" t="n">
-        <v>0.01987668518467101</v>
+        <v>0.02032983995059878</v>
       </c>
       <c r="H652" t="n">
         <v>0</v>
@@ -20162,10 +20162,10 @@
         </is>
       </c>
       <c r="F656" t="n">
-        <v>21094.67647595089</v>
+        <v>21229.91027340302</v>
       </c>
       <c r="G656" t="n">
-        <v>0.04309525837827142</v>
+        <v>0.04337153355363704</v>
       </c>
       <c r="H656" t="n">
         <v>0</v>
@@ -20193,10 +20193,10 @@
         </is>
       </c>
       <c r="F657" t="n">
-        <v>458665.3948313471</v>
+        <v>458308.3465340983</v>
       </c>
       <c r="G657" t="n">
-        <v>0.9370280564370576</v>
+        <v>0.9362986264957642</v>
       </c>
       <c r="H657" t="n">
         <v>0</v>
@@ -20371,10 +20371,10 @@
         </is>
       </c>
       <c r="F663" t="n">
-        <v>9227.975943013495</v>
+        <v>9435.666402653036</v>
       </c>
       <c r="G663" t="n">
-        <v>0.01982329114538771</v>
+        <v>0.02026944623670772</v>
       </c>
       <c r="H663" t="n">
         <v>0</v>
@@ -20460,13 +20460,13 @@
         </is>
       </c>
       <c r="F666" t="n">
-        <v>4890.500385182228</v>
+        <v>5124.174330334226</v>
       </c>
       <c r="G666" t="n">
-        <v>0.01050564214523075</v>
+        <v>0.01100761426527582</v>
       </c>
       <c r="H666" t="n">
-        <v>3.18247784920279</v>
+        <v>3.334540439083224</v>
       </c>
       <c r="I666" t="n">
         <v>20.56555353171865</v>
@@ -20491,10 +20491,10 @@
         </is>
       </c>
       <c r="F667" t="n">
-        <v>17133.93519873665</v>
+        <v>17239.02220247017</v>
       </c>
       <c r="G667" t="n">
-        <v>0.03680666139663195</v>
+        <v>0.03703240648780583</v>
       </c>
       <c r="H667" t="n">
         <v>0</v>
@@ -20522,10 +20522,10 @@
         </is>
       </c>
       <c r="F668" t="n">
-        <v>434259.3884730675</v>
+        <v>433712.9370645426</v>
       </c>
       <c r="G668" t="n">
-        <v>0.9328644053127496</v>
+        <v>0.9316905330102107</v>
       </c>
       <c r="H668" t="n">
         <v>0</v>
@@ -20700,10 +20700,10 @@
         </is>
       </c>
       <c r="F674" t="n">
-        <v>9441.962296662592</v>
+        <v>9674.966589835531</v>
       </c>
       <c r="G674" t="n">
-        <v>0.0216653231068468</v>
+        <v>0.022199969734133</v>
       </c>
       <c r="H674" t="n">
         <v>0</v>
@@ -20789,10 +20789,10 @@
         </is>
       </c>
       <c r="F677" t="n">
-        <v>2433.193927641475</v>
+        <v>1590.55761513173</v>
       </c>
       <c r="G677" t="n">
-        <v>0.005583154324033197</v>
+        <v>0.003649659209512518</v>
       </c>
       <c r="H677" t="n">
         <v>0</v>
@@ -20820,10 +20820,10 @@
         </is>
       </c>
       <c r="F678" t="n">
-        <v>16791.24082827899</v>
+        <v>16930.13483186303</v>
       </c>
       <c r="G678" t="n">
-        <v>0.03852881916697853</v>
+        <v>0.03884752235289521</v>
       </c>
       <c r="H678" t="n">
         <v>0</v>
@@ -20851,10 +20851,10 @@
         </is>
       </c>
       <c r="F679" t="n">
-        <v>407143.5029474169</v>
+        <v>407614.2409631697</v>
       </c>
       <c r="G679" t="n">
-        <v>0.9342227034021415</v>
+        <v>0.9353028487034593</v>
       </c>
       <c r="H679" t="n">
         <v>0</v>
@@ -21029,10 +21029,10 @@
         </is>
       </c>
       <c r="F685" t="n">
-        <v>8910.442425398493</v>
+        <v>9122.734082891911</v>
       </c>
       <c r="G685" t="n">
-        <v>0.02156137870160605</v>
+        <v>0.02207507943652803</v>
       </c>
       <c r="H685" t="n">
         <v>0</v>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="F688" t="n">
-        <v>366.8694655748652</v>
+        <v>64.13687581925304</v>
       </c>
       <c r="G688" t="n">
-        <v>0.0008877462087368495</v>
+        <v>0.0001551976212017271</v>
       </c>
       <c r="H688" t="n">
         <v>0</v>
@@ -21149,10 +21149,10 @@
         </is>
       </c>
       <c r="F689" t="n">
-        <v>20890.95242966033</v>
+        <v>21045.87339486165</v>
       </c>
       <c r="G689" t="n">
-        <v>0.05055166907192027</v>
+        <v>0.05092654491310215</v>
       </c>
       <c r="H689" t="n">
         <v>0</v>
@@ -21180,10 +21180,10 @@
         </is>
       </c>
       <c r="F690" t="n">
-        <v>383091.1356793663</v>
+        <v>383026.6556464272</v>
       </c>
       <c r="G690" t="n">
-        <v>0.9269992060177369</v>
+        <v>0.926843178029168</v>
       </c>
       <c r="H690" t="n">
         <v>0</v>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="F696" t="n">
-        <v>10209.43581968688</v>
+        <v>10446.8835275274</v>
       </c>
       <c r="G696" t="n">
-        <v>0.0213295896609638</v>
+        <v>0.02182566625751857</v>
       </c>
       <c r="H696" t="n">
         <v>0</v>
@@ -21476,10 +21476,10 @@
         </is>
       </c>
       <c r="F700" t="n">
-        <v>32408.3513250749</v>
+        <v>32629.76564054552</v>
       </c>
       <c r="G700" t="n">
-        <v>0.0677076429648784</v>
+        <v>0.06817022254101372</v>
       </c>
       <c r="H700" t="n">
         <v>0</v>
@@ -21507,10 +21507,10 @@
         </is>
       </c>
       <c r="F701" t="n">
-        <v>436033.5128552382</v>
+        <v>435574.6508319271</v>
       </c>
       <c r="G701" t="n">
-        <v>0.9109627673741578</v>
+        <v>0.9100041112014677</v>
       </c>
       <c r="H701" t="n">
         <v>0</v>
@@ -21685,10 +21685,10 @@
         </is>
       </c>
       <c r="F707" t="n">
-        <v>10575.75666919703</v>
+        <v>10820.53913210409</v>
       </c>
       <c r="G707" t="n">
-        <v>0.02099519154026188</v>
+        <v>0.02148113830087519</v>
       </c>
       <c r="H707" t="n">
         <v>0</v>
@@ -21803,10 +21803,10 @@
         </is>
       </c>
       <c r="F711" t="n">
-        <v>45921.19350830762</v>
+        <v>46228.21402556557</v>
       </c>
       <c r="G711" t="n">
-        <v>0.09116361917369557</v>
+        <v>0.09177312209327346</v>
       </c>
       <c r="H711" t="n">
         <v>0</v>
@@ -21834,10 +21834,10 @@
         </is>
       </c>
       <c r="F712" t="n">
-        <v>447225.8498224954</v>
+        <v>446674.0468423304</v>
       </c>
       <c r="G712" t="n">
-        <v>0.8878411892860426</v>
+        <v>0.8867457396058513</v>
       </c>
       <c r="H712" t="n">
         <v>0</v>
@@ -22012,10 +22012,10 @@
         </is>
       </c>
       <c r="F718" t="n">
-        <v>9127.931593054869</v>
+        <v>9348.385227226585</v>
       </c>
       <c r="G718" t="n">
-        <v>0.02247737493678774</v>
+        <v>0.02302023822853561</v>
       </c>
       <c r="H718" t="n">
         <v>0</v>
@@ -22101,13 +22101,13 @@
         </is>
       </c>
       <c r="F721" t="n">
-        <v>675.5313813374403</v>
+        <v>357.1865485967112</v>
       </c>
       <c r="G721" t="n">
-        <v>0.001663484436215637</v>
+        <v>0.0008795657475450554</v>
       </c>
       <c r="H721" t="n">
-        <v>1.921731408548739</v>
+        <v>1.016113578306946</v>
       </c>
       <c r="I721" t="n">
         <v>20.56555353171865</v>
@@ -22132,10 +22132,10 @@
         </is>
       </c>
       <c r="F722" t="n">
-        <v>31973.581697111</v>
+        <v>32219.82426956582</v>
       </c>
       <c r="G722" t="n">
-        <v>0.07873439634722929</v>
+        <v>0.07934076445702948</v>
       </c>
       <c r="H722" t="n">
         <v>0</v>
@@ -22163,10 +22163,10 @@
         </is>
       </c>
       <c r="F723" t="n">
-        <v>364317.1553284967</v>
+        <v>364168.8039546109</v>
       </c>
       <c r="G723" t="n">
-        <v>0.8971247442797673</v>
+        <v>0.8967594315668899</v>
       </c>
       <c r="H723" t="n">
         <v>0</v>
@@ -22345,10 +22345,10 @@
         </is>
       </c>
       <c r="F729" t="n">
-        <v>8370.609599968346</v>
+        <v>8569.180352871503</v>
       </c>
       <c r="G729" t="n">
-        <v>0.02268689673706052</v>
+        <v>0.02322508384426133</v>
       </c>
       <c r="H729" t="n">
         <v>0</v>
@@ -22463,10 +22463,10 @@
         </is>
       </c>
       <c r="F733" t="n">
-        <v>21311.88813735337</v>
+        <v>21467.64641832871</v>
       </c>
       <c r="G733" t="n">
-        <v>0.05776169580836137</v>
+        <v>0.05818384810136079</v>
       </c>
       <c r="H733" t="n">
         <v>0</v>
@@ -22494,10 +22494,10 @@
         </is>
       </c>
       <c r="F734" t="n">
-        <v>335874.624999548</v>
+        <v>335520.870550598</v>
       </c>
       <c r="G734" t="n">
-        <v>0.9103223418748961</v>
+        <v>0.9093635597745298</v>
       </c>
       <c r="H734" t="n">
         <v>0</v>
@@ -22525,13 +22525,13 @@
         </is>
       </c>
       <c r="F735" t="n">
-        <v>3405.177263130314</v>
+        <v>3404.602678201805</v>
       </c>
       <c r="G735" t="n">
-        <v>0.009229065579682026</v>
+        <v>0.009227508279848117</v>
       </c>
       <c r="H735" t="n">
-        <v>10.00419361284253</v>
+        <v>10.00250551897028</v>
       </c>
       <c r="I735" t="n">
         <v>20.56555353171865</v>
@@ -22676,10 +22676,10 @@
         </is>
       </c>
       <c r="F740" t="n">
-        <v>9453.56169858153</v>
+        <v>9675.981995771959</v>
       </c>
       <c r="G740" t="n">
-        <v>0.0221427972108749</v>
+        <v>0.02266376567686685</v>
       </c>
       <c r="H740" t="n">
         <v>0</v>
@@ -22794,10 +22794,10 @@
         </is>
       </c>
       <c r="F744" t="n">
-        <v>42062.91441753707</v>
+        <v>42359.81131702477</v>
       </c>
       <c r="G744" t="n">
-        <v>0.09852271701846098</v>
+        <v>0.09921812982132873</v>
       </c>
       <c r="H744" t="n">
         <v>0</v>
@@ -22825,10 +22825,10 @@
         </is>
       </c>
       <c r="F745" t="n">
-        <v>374082.5786716917</v>
+        <v>373578.1068263841</v>
       </c>
       <c r="G745" t="n">
-        <v>0.8762025301946559</v>
+        <v>0.8750209207520565</v>
       </c>
       <c r="H745" t="n">
         <v>0</v>
@@ -22856,13 +22856,13 @@
         </is>
       </c>
       <c r="F746" t="n">
-        <v>1337.145212189754</v>
+        <v>1322.299860819157</v>
       </c>
       <c r="G746" t="n">
-        <v>0.003131955576008204</v>
+        <v>0.003097183749747988</v>
       </c>
       <c r="H746" t="n">
-        <v>13.74956572048484</v>
+        <v>13.59691428633025</v>
       </c>
       <c r="I746" t="n">
         <v>20.56555353171865</v>
@@ -23007,10 +23007,10 @@
         </is>
       </c>
       <c r="F751" t="n">
-        <v>8341.318009207003</v>
+        <v>8539.43285365</v>
       </c>
       <c r="G751" t="n">
-        <v>0.0229028668518751</v>
+        <v>0.02344683339273226</v>
       </c>
       <c r="H751" t="n">
         <v>0</v>
@@ -23125,10 +23125,10 @@
         </is>
       </c>
       <c r="F755" t="n">
-        <v>19428.89969591693</v>
+        <v>19571.57258994994</v>
       </c>
       <c r="G755" t="n">
-        <v>0.05334618609707287</v>
+        <v>0.05373792494359601</v>
       </c>
       <c r="H755" t="n">
         <v>0</v>
@@ -23156,10 +23156,10 @@
         </is>
       </c>
       <c r="F756" t="n">
-        <v>336433.882294876</v>
+        <v>336093.0945564001</v>
       </c>
       <c r="G756" t="n">
-        <v>0.923750947051052</v>
+        <v>0.9228152416636717</v>
       </c>
       <c r="H756" t="n">
         <v>0</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="F762" t="n">
-        <v>10686.67951778991</v>
+        <v>10937.15943728999</v>
       </c>
       <c r="G762" t="n">
-        <v>0.02199488160193464</v>
+        <v>0.02251040900816923</v>
       </c>
       <c r="H762" t="n">
         <v>0</v>
@@ -23452,10 +23452,10 @@
         </is>
       </c>
       <c r="F766" t="n">
-        <v>53992.82489329303</v>
+        <v>54368.183580727</v>
       </c>
       <c r="G766" t="n">
-        <v>0.11112579814011</v>
+        <v>0.1118983458594109</v>
       </c>
       <c r="H766" t="n">
         <v>0</v>
@@ -23483,10 +23483,10 @@
         </is>
       </c>
       <c r="F767" t="n">
-        <v>421191.6955889171</v>
+        <v>420565.8569819831</v>
       </c>
       <c r="G767" t="n">
-        <v>0.8668793202579553</v>
+        <v>0.8655912451324199</v>
       </c>
       <c r="H767" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         </is>
       </c>
       <c r="F773" t="n">
-        <v>10907.42140724393</v>
+        <v>11172.1055174189</v>
       </c>
       <c r="G773" t="n">
-        <v>0.02327589395386598</v>
+        <v>0.02384071666032294</v>
       </c>
       <c r="H773" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="F777" t="n">
-        <v>52308.78615972994</v>
+        <v>52715.46300584495</v>
       </c>
       <c r="G777" t="n">
-        <v>0.1116243440178013</v>
+        <v>0.1124921721496986</v>
       </c>
       <c r="H777" t="n">
         <v>0</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="F778" t="n">
-        <v>405398.2924330261</v>
+        <v>404726.9314767362</v>
       </c>
       <c r="G778" t="n">
-        <v>0.8650997620283327</v>
+        <v>0.8636671111899784</v>
       </c>
       <c r="H778" t="n">
         <v>0</v>
@@ -23988,10 +23988,10 @@
         </is>
       </c>
       <c r="F784" t="n">
-        <v>9251.699253345094</v>
+        <v>9477.918335813723</v>
       </c>
       <c r="G784" t="n">
-        <v>0.02376497304479759</v>
+        <v>0.02434606525822444</v>
       </c>
       <c r="H784" t="n">
         <v>0</v>
@@ -24106,10 +24106,10 @@
         </is>
       </c>
       <c r="F788" t="n">
-        <v>32372.03961718633</v>
+        <v>32630.91290053249</v>
       </c>
       <c r="G788" t="n">
-        <v>0.08315452414099964</v>
+        <v>0.08381949567025847</v>
       </c>
       <c r="H788" t="n">
         <v>0</v>
@@ -24137,10 +24137,10 @@
         </is>
       </c>
       <c r="F789" t="n">
-        <v>347676.0611294686</v>
+        <v>347190.9687636538</v>
       </c>
       <c r="G789" t="n">
-        <v>0.8930805028142027</v>
+        <v>0.891834439071517</v>
       </c>
       <c r="H789" t="n">
         <v>0</v>
@@ -24315,10 +24315,10 @@
         </is>
       </c>
       <c r="F795" t="n">
-        <v>8887.137822829849</v>
+        <v>9104.953004585095</v>
       </c>
       <c r="G795" t="n">
-        <v>0.02391564617348827</v>
+        <v>0.02450179560898941</v>
       </c>
       <c r="H795" t="n">
         <v>0</v>
@@ -24433,10 +24433,10 @@
         </is>
       </c>
       <c r="F799" t="n">
-        <v>27641.23556119628</v>
+        <v>27864.16932228471</v>
       </c>
       <c r="G799" t="n">
-        <v>0.07438367927427023</v>
+        <v>0.07498360301311668</v>
       </c>
       <c r="H799" t="n">
         <v>0</v>
@@ -24464,10 +24464,10 @@
         </is>
       </c>
       <c r="F800" t="n">
-        <v>335075.1266159739</v>
+        <v>334634.3776731302</v>
       </c>
       <c r="G800" t="n">
-        <v>0.9017006745522416</v>
+        <v>0.9005146013778939</v>
       </c>
       <c r="H800" t="n">
         <v>0</v>
@@ -24642,10 +24642,10 @@
         </is>
       </c>
       <c r="F806" t="n">
-        <v>8736.038580588263</v>
+        <v>8946.896279566388</v>
       </c>
       <c r="G806" t="n">
-        <v>0.02292993926739552</v>
+        <v>0.02348338854386444</v>
       </c>
       <c r="H806" t="n">
         <v>0</v>
@@ -24760,10 +24760,10 @@
         </is>
       </c>
       <c r="F810" t="n">
-        <v>50200.06170019537</v>
+        <v>50582.44568337908</v>
       </c>
       <c r="G810" t="n">
-        <v>0.1317627383838175</v>
+        <v>0.1327664017067692</v>
       </c>
       <c r="H810" t="n">
         <v>0</v>
@@ -24791,10 +24791,10 @@
         </is>
       </c>
       <c r="F811" t="n">
-        <v>322052.1997192164</v>
+        <v>321458.9580370545</v>
       </c>
       <c r="G811" t="n">
-        <v>0.8453073223487869</v>
+        <v>0.8437502097493664</v>
       </c>
       <c r="H811" t="n">
         <v>0</v>
@@ -24969,10 +24969,10 @@
         </is>
       </c>
       <c r="F817" t="n">
-        <v>9016.286875962998</v>
+        <v>9229.950671708297</v>
       </c>
       <c r="G817" t="n">
-        <v>0.02101659380702224</v>
+        <v>0.02151463532546782</v>
       </c>
       <c r="H817" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         </is>
       </c>
       <c r="F821" t="n">
-        <v>40333.77905618404</v>
+        <v>40625.18215822177</v>
       </c>
       <c r="G821" t="n">
-        <v>0.09401637977889467</v>
+        <v>0.09469562842236454</v>
       </c>
       <c r="H821" t="n">
         <v>0</v>
@@ -25118,10 +25118,10 @@
         </is>
       </c>
       <c r="F822" t="n">
-        <v>379657.934067853</v>
+        <v>379152.8671700699</v>
       </c>
       <c r="G822" t="n">
-        <v>0.8849670264140831</v>
+        <v>0.8837897362521677</v>
       </c>
       <c r="H822" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         </is>
       </c>
       <c r="F828" t="n">
-        <v>8745.418503342507</v>
+        <v>8952.621060861895</v>
       </c>
       <c r="G828" t="n">
-        <v>0.02100373222505823</v>
+        <v>0.02150136730482269</v>
       </c>
       <c r="H828" t="n">
         <v>0</v>
@@ -25414,10 +25414,10 @@
         </is>
       </c>
       <c r="F832" t="n">
-        <v>39519.84712951608</v>
+        <v>39805.12596343375</v>
       </c>
       <c r="G832" t="n">
-        <v>0.09491418693872002</v>
+        <v>0.09559933656704182</v>
       </c>
       <c r="H832" t="n">
         <v>0</v>
@@ -25445,10 +25445,10 @@
         </is>
       </c>
       <c r="F833" t="n">
-        <v>368109.2343671414</v>
+        <v>367616.7529757043</v>
       </c>
       <c r="G833" t="n">
-        <v>0.8840820808362216</v>
+        <v>0.8828992961281356</v>
       </c>
       <c r="H833" t="n">
         <v>0</v>
@@ -25623,10 +25623,10 @@
         </is>
       </c>
       <c r="F839" t="n">
-        <v>11055.97477095834</v>
+        <v>11317.802849532</v>
       </c>
       <c r="G839" t="n">
-        <v>0.02097540160123414</v>
+        <v>0.02147214198029036</v>
       </c>
       <c r="H839" t="n">
         <v>0</v>
@@ -25741,10 +25741,10 @@
         </is>
       </c>
       <c r="F843" t="n">
-        <v>51070.93978029275</v>
+        <v>51438.90760078769</v>
       </c>
       <c r="G843" t="n">
-        <v>0.09689181589469464</v>
+        <v>0.09758992465227669</v>
       </c>
       <c r="H843" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         </is>
       </c>
       <c r="F844" t="n">
-        <v>464965.485448749</v>
+        <v>464335.6895496803</v>
       </c>
       <c r="G844" t="n">
-        <v>0.8821327825040713</v>
+        <v>0.880937933367433</v>
       </c>
       <c r="H844" t="n">
         <v>0</v>
@@ -25950,10 +25950,10 @@
         </is>
       </c>
       <c r="F850" t="n">
-        <v>9844.323514050431</v>
+        <v>10102.91088753082</v>
       </c>
       <c r="G850" t="n">
-        <v>0.02145611604328228</v>
+        <v>0.02201971807086742</v>
       </c>
       <c r="H850" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         </is>
       </c>
       <c r="F854" t="n">
-        <v>37578.84391127257</v>
+        <v>37946.13439809583</v>
       </c>
       <c r="G854" t="n">
-        <v>0.08190466664183275</v>
+        <v>0.08270519166476865</v>
       </c>
       <c r="H854" t="n">
         <v>0</v>
@@ -26099,10 +26099,10 @@
         </is>
       </c>
       <c r="F855" t="n">
-        <v>411388.832574677</v>
+        <v>410762.9547143733</v>
       </c>
       <c r="G855" t="n">
-        <v>0.8966392173148849</v>
+        <v>0.8952750902643639</v>
       </c>
       <c r="H855" t="n">
         <v>0</v>
@@ -26277,10 +26277,10 @@
         </is>
       </c>
       <c r="F861" t="n">
-        <v>9728.77343416966</v>
+        <v>9959.761618625569</v>
       </c>
       <c r="G861" t="n">
-        <v>0.02356622941520928</v>
+        <v>0.02412575735405219</v>
       </c>
       <c r="H861" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         </is>
       </c>
       <c r="F865" t="n">
-        <v>20746.22042510356</v>
+        <v>20898.52335906989</v>
       </c>
       <c r="G865" t="n">
-        <v>0.05025404213025741</v>
+        <v>0.05062296899516455</v>
       </c>
       <c r="H865" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         </is>
       </c>
       <c r="F866" t="n">
-        <v>382351.9061407268</v>
+        <v>381968.6150223045</v>
       </c>
       <c r="G866" t="n">
-        <v>0.9261797284545333</v>
+        <v>0.9252512736507833</v>
       </c>
       <c r="H866" t="n">
         <v>0</v>
@@ -26606,10 +26606,10 @@
         </is>
       </c>
       <c r="F872" t="n">
-        <v>11043.33563223405</v>
+        <v>11299.84584586769</v>
       </c>
       <c r="G872" t="n">
-        <v>0.02201062016965791</v>
+        <v>0.02252187411230255</v>
       </c>
       <c r="H872" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         </is>
       </c>
       <c r="F876" t="n">
-        <v>72899.2135080119</v>
+        <v>73387.36491085323</v>
       </c>
       <c r="G876" t="n">
-        <v>0.1452963988985496</v>
+        <v>0.1462693399981449</v>
       </c>
       <c r="H876" t="n">
         <v>0</v>
@@ -26755,10 +26755,10 @@
         </is>
       </c>
       <c r="F877" t="n">
-        <v>417785.050859754</v>
+        <v>417040.3892432791</v>
       </c>
       <c r="G877" t="n">
-        <v>0.8326929809317926</v>
+        <v>0.8312087858895526</v>
       </c>
       <c r="H877" t="n">
         <v>0</v>
@@ -26933,10 +26933,10 @@
         </is>
       </c>
       <c r="F883" t="n">
-        <v>8792.690765314323</v>
+        <v>9000.032652172264</v>
       </c>
       <c r="G883" t="n">
-        <v>0.02308458730041638</v>
+        <v>0.02362894874971091</v>
       </c>
       <c r="H883" t="n">
         <v>0</v>
@@ -27051,10 +27051,10 @@
         </is>
       </c>
       <c r="F887" t="n">
-        <v>30349.59484989868</v>
+        <v>30566.3454019604</v>
       </c>
       <c r="G887" t="n">
-        <v>0.07968071328159668</v>
+        <v>0.08024977651548414</v>
       </c>
       <c r="H887" t="n">
         <v>0</v>
@@ -27082,10 +27082,10 @@
         </is>
       </c>
       <c r="F888" t="n">
-        <v>341747.814384787</v>
+        <v>341323.7219458673</v>
       </c>
       <c r="G888" t="n">
-        <v>0.8972346994179871</v>
+        <v>0.8961212747348049</v>
       </c>
       <c r="H888" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         </is>
       </c>
       <c r="F894" t="n">
-        <v>8264.551743120734</v>
+        <v>8460.170099427867</v>
       </c>
       <c r="G894" t="n">
-        <v>0.02334868452936707</v>
+        <v>0.0239013377683489</v>
       </c>
       <c r="H894" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="F898" t="n">
-        <v>22492.62850512535</v>
+        <v>22655.72659858746</v>
       </c>
       <c r="G898" t="n">
-        <v>0.063545283945928</v>
+        <v>0.06400606222525304</v>
       </c>
       <c r="H898" t="n">
         <v>0</v>
@@ -27409,10 +27409,10 @@
         </is>
       </c>
       <c r="F899" t="n">
-        <v>323205.0197517539</v>
+        <v>322846.3033019847</v>
       </c>
       <c r="G899" t="n">
-        <v>0.913106031524705</v>
+        <v>0.912092600006398</v>
       </c>
       <c r="H899" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         </is>
       </c>
       <c r="F905" t="n">
-        <v>8380.82407524832</v>
+        <v>8579.901409151709</v>
       </c>
       <c r="G905" t="n">
-        <v>0.02359918688027834</v>
+        <v>0.02415975982205966</v>
       </c>
       <c r="H905" t="n">
         <v>0</v>
@@ -27705,10 +27705,10 @@
         </is>
       </c>
       <c r="F909" t="n">
-        <v>17131.7243504569</v>
+        <v>17257.72608625577</v>
       </c>
       <c r="G909" t="n">
-        <v>0.0482404547450029</v>
+        <v>0.04859525738537082</v>
       </c>
       <c r="H909" t="n">
         <v>0</v>
@@ -27736,10 +27736,10 @@
         </is>
       </c>
       <c r="F910" t="n">
-        <v>329619.3515742948</v>
+        <v>329294.2725045925</v>
       </c>
       <c r="G910" t="n">
-        <v>0.9281603583747188</v>
+        <v>0.9272449827925695</v>
       </c>
       <c r="H910" t="n">
         <v>0</v>
@@ -27914,10 +27914,10 @@
         </is>
       </c>
       <c r="F916" t="n">
-        <v>9193.198270543491</v>
+        <v>9408.299852757826</v>
       </c>
       <c r="G916" t="n">
-        <v>0.02556051834641079</v>
+        <v>0.02615858093319828</v>
       </c>
       <c r="H916" t="n">
         <v>0</v>
@@ -28032,10 +28032,10 @@
         </is>
       </c>
       <c r="F920" t="n">
-        <v>9588.280518152433</v>
+        <v>9655.734351122008</v>
       </c>
       <c r="G920" t="n">
-        <v>0.02665899427841661</v>
+        <v>0.02684654108034723</v>
       </c>
       <c r="H920" t="n">
         <v>0</v>
@@ -28063,10 +28063,10 @@
         </is>
       </c>
       <c r="F921" t="n">
-        <v>340882.5212113041</v>
+        <v>340599.9657961202</v>
       </c>
       <c r="G921" t="n">
-        <v>0.9477804873751725</v>
+        <v>0.9469948779864545</v>
       </c>
       <c r="H921" t="n">
         <v>0</v>
@@ -28241,10 +28241,10 @@
         </is>
       </c>
       <c r="F927" t="n">
-        <v>9075.853792623513</v>
+        <v>9289.368520568758</v>
       </c>
       <c r="G927" t="n">
-        <v>0.02599862210990844</v>
+        <v>0.02661025478420956</v>
       </c>
       <c r="H927" t="n">
         <v>0</v>
@@ -28359,10 +28359,10 @@
         </is>
       </c>
       <c r="F931" t="n">
-        <v>825.6995732161492</v>
+        <v>831.6359144366265</v>
       </c>
       <c r="G931" t="n">
-        <v>0.002365292750507604</v>
+        <v>0.002382297948655694</v>
       </c>
       <c r="H931" t="n">
         <v>0</v>
@@ -28390,10 +28390,10 @@
         </is>
       </c>
       <c r="F932" t="n">
-        <v>339188.2466341603</v>
+        <v>338968.7955649946</v>
       </c>
       <c r="G932" t="n">
-        <v>0.971636085139584</v>
+        <v>0.9710074472671348</v>
       </c>
       <c r="H932" t="n">
         <v>0</v>
@@ -28568,10 +28568,10 @@
         </is>
       </c>
       <c r="F938" t="n">
-        <v>9161.485377549303</v>
+        <v>9377.248201268216</v>
       </c>
       <c r="G938" t="n">
-        <v>0.0260856843493312</v>
+        <v>0.02670003024215382</v>
       </c>
       <c r="H938" t="n">
         <v>0</v>
@@ -28686,10 +28686,10 @@
         </is>
       </c>
       <c r="F942" t="n">
-        <v>-864.8401141696053</v>
+        <v>-871.0843875675073</v>
       </c>
       <c r="G942" t="n">
-        <v>-0.002462476912985334</v>
+        <v>-0.00248025636010946</v>
       </c>
       <c r="H942" t="n">
         <v>0</v>
@@ -28717,10 +28717,10 @@
         </is>
       </c>
       <c r="F943" t="n">
-        <v>342910.7547366204</v>
+        <v>342701.2361862994</v>
       </c>
       <c r="G943" t="n">
-        <v>0.9763767925636542</v>
+        <v>0.9757802261179556</v>
       </c>
       <c r="H943" t="n">
         <v>0</v>
@@ -28864,10 +28864,10 @@
         </is>
       </c>
       <c r="F948" t="n">
-        <v>7562.645344148781</v>
+        <v>7634.803335557685</v>
       </c>
       <c r="G948" t="n">
-        <v>0.02088547562639007</v>
+        <v>0.02108475166040188</v>
       </c>
       <c r="H948" t="n">
         <v>0</v>
@@ -28895,10 +28895,10 @@
         </is>
       </c>
       <c r="F949" t="n">
-        <v>9308.248017954476</v>
+        <v>9526.093203640488</v>
       </c>
       <c r="G949" t="n">
-        <v>0.0257062414349226</v>
+        <v>0.026307856360511</v>
       </c>
       <c r="H949" t="n">
         <v>0</v>
@@ -29013,10 +29013,10 @@
         </is>
       </c>
       <c r="F953" t="n">
-        <v>-832.9350460479385</v>
+        <v>-838.8278430793489</v>
       </c>
       <c r="G953" t="n">
-        <v>-0.002300285655476332</v>
+        <v>-0.002316559573288173</v>
       </c>
       <c r="H953" t="n">
         <v>0</v>
@@ -29044,10 +29044,10 @@
         </is>
       </c>
       <c r="F954" t="n">
-        <v>346062.7416839447</v>
+        <v>345778.6313038812</v>
       </c>
       <c r="G954" t="n">
-        <v>0.9557085685941638</v>
+        <v>0.9549239515523753</v>
       </c>
       <c r="H954" t="n">
         <v>0</v>
@@ -29191,10 +29191,10 @@
         </is>
       </c>
       <c r="F959" t="n">
-        <v>17181.59420889119</v>
+        <v>17340.10965214099</v>
       </c>
       <c r="G959" t="n">
-        <v>0.04604788538112932</v>
+        <v>0.04647271795912888</v>
       </c>
       <c r="H959" t="n">
         <v>0</v>
@@ -29222,10 +29222,10 @@
         </is>
       </c>
       <c r="F960" t="n">
-        <v>9009.221214590654</v>
+        <v>9217.595905368289</v>
       </c>
       <c r="G960" t="n">
-        <v>0.02414534884359149</v>
+        <v>0.02470380772468248</v>
       </c>
       <c r="H960" t="n">
         <v>0</v>
@@ -29340,10 +29340,10 @@
         </is>
       </c>
       <c r="F964" t="n">
-        <v>10528.49886772349</v>
+        <v>10599.74160294761</v>
       </c>
       <c r="G964" t="n">
-        <v>0.02821712020444513</v>
+        <v>0.02840805576408842</v>
       </c>
       <c r="H964" t="n">
         <v>0</v>
@@ -29371,10 +29371,10 @@
         </is>
       </c>
       <c r="F965" t="n">
-        <v>336405.1857087947</v>
+        <v>335967.0528395431</v>
       </c>
       <c r="G965" t="n">
-        <v>0.9015896455708341</v>
+        <v>0.9004154185521002</v>
       </c>
       <c r="H965" t="n">
         <v>0</v>
@@ -29518,10 +29518,10 @@
         </is>
       </c>
       <c r="F970" t="n">
-        <v>19099.71270759449</v>
+        <v>19276.5888154307</v>
       </c>
       <c r="G970" t="n">
-        <v>0.04796641373234913</v>
+        <v>0.04841061478907319</v>
       </c>
       <c r="H970" t="n">
         <v>0</v>
@@ -29549,10 +29549,10 @@
         </is>
       </c>
       <c r="F971" t="n">
-        <v>9668.610486503416</v>
+        <v>9892.604634610803</v>
       </c>
       <c r="G971" t="n">
-        <v>0.02428144223489535</v>
+        <v>0.02484397404603992</v>
       </c>
       <c r="H971" t="n">
         <v>0</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="F975" t="n">
-        <v>7388.726580837404</v>
+        <v>7439.091179048898</v>
       </c>
       <c r="G975" t="n">
-        <v>0.01855581398304124</v>
+        <v>0.01868229804027607</v>
       </c>
       <c r="H975" t="n">
         <v>0</v>
@@ -29698,10 +29698,10 @@
         </is>
       </c>
       <c r="F976" t="n">
-        <v>362032.2502250647</v>
+        <v>361581.0153709095</v>
       </c>
       <c r="G976" t="n">
-        <v>0.9091963300497143</v>
+        <v>0.9080631131246109</v>
       </c>
       <c r="H976" t="n">
         <v>0</v>
@@ -29845,10 +29845,10 @@
         </is>
       </c>
       <c r="F981" t="n">
-        <v>32013.59443748507</v>
+        <v>32302.82091102108</v>
       </c>
       <c r="G981" t="n">
-        <v>0.08612593161460878</v>
+        <v>0.08690403541452855</v>
       </c>
       <c r="H981" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         </is>
       </c>
       <c r="F982" t="n">
-        <v>8901.283445649286</v>
+        <v>9106.06296590475</v>
       </c>
       <c r="G982" t="n">
-        <v>0.02394705570532819</v>
+        <v>0.02449797250387873</v>
       </c>
       <c r="H982" t="n">
         <v>0</v>
@@ -29994,10 +29994,10 @@
         </is>
       </c>
       <c r="F986" t="n">
-        <v>-103.2512415024993</v>
+        <v>-103.941052497752</v>
       </c>
       <c r="G986" t="n">
-        <v>-0.0002777760361190576</v>
+        <v>-0.0002796318294358671</v>
       </c>
       <c r="H986" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         </is>
       </c>
       <c r="F987" t="n">
-        <v>330895.1733583682</v>
+        <v>330401.8571755719</v>
       </c>
       <c r="G987" t="n">
-        <v>0.890204788716182</v>
+        <v>0.8888776239110285</v>
       </c>
       <c r="H987" t="n">
         <v>0</v>
@@ -30172,10 +30172,10 @@
         </is>
       </c>
       <c r="F992" t="n">
-        <v>30880.9041064</v>
+        <v>31159.40899545719</v>
       </c>
       <c r="G992" t="n">
-        <v>0.0906030120112957</v>
+        <v>0.09142013128091009</v>
       </c>
       <c r="H992" t="n">
         <v>0</v>
@@ -30203,10 +30203,10 @@
         </is>
       </c>
       <c r="F993" t="n">
-        <v>8160.223323186259</v>
+        <v>8347.887865288132</v>
       </c>
       <c r="G993" t="n">
-        <v>0.02394168283474166</v>
+        <v>0.02449228111721314</v>
       </c>
       <c r="H993" t="n">
         <v>0</v>
@@ -30321,10 +30321,10 @@
         </is>
       </c>
       <c r="F997" t="n">
-        <v>-1495.472092012684</v>
+        <v>-1505.458943635731</v>
       </c>
       <c r="G997" t="n">
-        <v>-0.004387639540874123</v>
+        <v>-0.004416940458827833</v>
       </c>
       <c r="H997" t="n">
         <v>0</v>
@@ -30352,10 +30352,10 @@
         </is>
       </c>
       <c r="F998" t="n">
-        <v>303291.8446624264</v>
+        <v>302835.6620828904</v>
       </c>
       <c r="G998" t="n">
-        <v>0.8898429446948368</v>
+        <v>0.8885045280607046</v>
       </c>
       <c r="H998" t="n">
         <v>0</v>
@@ -30499,10 +30499,10 @@
         </is>
       </c>
       <c r="F1003" t="n">
-        <v>32006.76057107498</v>
+        <v>32303.67953992416</v>
       </c>
       <c r="G1003" t="n">
-        <v>0.0858237813883113</v>
+        <v>0.08661994782995938</v>
       </c>
       <c r="H1003" t="n">
         <v>0</v>
@@ -30530,10 +30530,10 @@
         </is>
       </c>
       <c r="F1004" t="n">
-        <v>8457.728867387626</v>
+        <v>8654.448307244849</v>
       </c>
       <c r="G1004" t="n">
-        <v>0.02267877974543508</v>
+        <v>0.02320626849780807</v>
       </c>
       <c r="H1004" t="n">
         <v>0</v>
@@ -30648,10 +30648,10 @@
         </is>
       </c>
       <c r="F1008" t="n">
-        <v>10072.53664450719</v>
+        <v>10141.97657652118</v>
       </c>
       <c r="G1008" t="n">
-        <v>0.02700876838455087</v>
+        <v>0.02719496647015701</v>
       </c>
       <c r="H1008" t="n">
         <v>0</v>
@@ -30679,10 +30679,10 @@
         </is>
       </c>
       <c r="F1009" t="n">
-        <v>322398.7739170302</v>
+        <v>321835.6955763098</v>
       </c>
       <c r="G1009" t="n">
-        <v>0.8644886704817027</v>
+        <v>0.8629788172020756</v>
       </c>
       <c r="H1009" t="n">
         <v>0</v>
@@ -30826,10 +30826,10 @@
         </is>
       </c>
       <c r="F1014" t="n">
-        <v>39127.5549051032</v>
+        <v>39488.97076739311</v>
       </c>
       <c r="G1014" t="n">
-        <v>0.08536925416275455</v>
+        <v>0.08615779826373682</v>
       </c>
       <c r="H1014" t="n">
         <v>0</v>
@@ -30857,10 +30857,10 @@
         </is>
       </c>
       <c r="F1015" t="n">
-        <v>10339.38595242443</v>
+        <v>10579.45290072392</v>
       </c>
       <c r="G1015" t="n">
-        <v>0.02255867174424983</v>
+        <v>0.02308245444355626</v>
       </c>
       <c r="H1015" t="n">
         <v>0</v>
@@ -30975,10 +30975,10 @@
         </is>
       </c>
       <c r="F1019" t="n">
-        <v>15864.82732302536</v>
+        <v>15973.40224183838</v>
       </c>
       <c r="G1019" t="n">
-        <v>0.03461418632655017</v>
+        <v>0.03485107717910485</v>
       </c>
       <c r="H1019" t="n">
         <v>0</v>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="F1020" t="n">
-        <v>393001.331819447</v>
+        <v>392291.2740900445</v>
       </c>
       <c r="G1020" t="n">
-        <v>0.8574578877664455</v>
+        <v>0.8559086701136021</v>
       </c>
       <c r="H1020" t="n">
         <v>0</v>
@@ -31153,10 +31153,10 @@
         </is>
       </c>
       <c r="F1025" t="n">
-        <v>35548.97375475299</v>
+        <v>35880.62970502819</v>
       </c>
       <c r="G1025" t="n">
-        <v>0.08642326390525547</v>
+        <v>0.08722955412094838</v>
       </c>
       <c r="H1025" t="n">
         <v>0</v>
@@ -31184,10 +31184,10 @@
         </is>
       </c>
       <c r="F1026" t="n">
-        <v>9393.752325041543</v>
+        <v>9612.745651150313</v>
       </c>
       <c r="G1026" t="n">
-        <v>0.02283719192144407</v>
+        <v>0.02336958754406756</v>
       </c>
       <c r="H1026" t="n">
         <v>0</v>
@@ -31302,10 +31302,10 @@
         </is>
       </c>
       <c r="F1030" t="n">
-        <v>6983.605237600547</v>
+        <v>7032.212679664285</v>
       </c>
       <c r="G1030" t="n">
-        <v>0.01697787290916044</v>
+        <v>0.01709604267187187</v>
       </c>
       <c r="H1030" t="n">
         <v>0</v>
@@ -31333,10 +31333,10 @@
         </is>
       </c>
       <c r="F1031" t="n">
-        <v>359409.3686826049</v>
+        <v>358810.1119641573</v>
       </c>
       <c r="G1031" t="n">
-        <v>0.8737616712641399</v>
+        <v>0.8723048156631121</v>
       </c>
       <c r="H1031" t="n">
         <v>0</v>
@@ -31482,10 +31482,10 @@
         </is>
       </c>
       <c r="F1036" t="n">
-        <v>36342.22597541013</v>
+        <v>36682.6620765537</v>
       </c>
       <c r="G1036" t="n">
-        <v>0.08685292612483098</v>
+        <v>0.0876665216256364</v>
       </c>
       <c r="H1036" t="n">
         <v>0</v>
@@ -31513,10 +31513,10 @@
         </is>
       </c>
       <c r="F1037" t="n">
-        <v>9603.367796462502</v>
+        <v>9827.617387093907</v>
       </c>
       <c r="G1037" t="n">
-        <v>0.02295072938955621</v>
+        <v>0.02348665509597308</v>
       </c>
       <c r="H1037" t="n">
         <v>0</v>
@@ -31631,10 +31631,10 @@
         </is>
       </c>
       <c r="F1041" t="n">
-        <v>4095.846761475612</v>
+        <v>4124.549142550032</v>
       </c>
       <c r="G1041" t="n">
-        <v>0.00978851093033673</v>
+        <v>0.009857105676975257</v>
       </c>
       <c r="H1041" t="n">
         <v>0</v>
@@ -31662,10 +31662,10 @@
         </is>
       </c>
       <c r="F1042" t="n">
-        <v>368392.6594666517</v>
+        <v>367799.2713938023</v>
       </c>
       <c r="G1042" t="n">
-        <v>0.8804078335552761</v>
+        <v>0.8789897176014152</v>
       </c>
       <c r="H1042" t="n">
         <v>0</v>
@@ -31811,10 +31811,10 @@
         </is>
       </c>
       <c r="F1047" t="n">
-        <v>37015.75322581889</v>
+        <v>37361.29331282892</v>
       </c>
       <c r="G1047" t="n">
-        <v>0.08648441460791427</v>
+        <v>0.08729174201703979</v>
       </c>
       <c r="H1047" t="n">
         <v>0</v>
@@ -31842,10 +31842,10 @@
         </is>
       </c>
       <c r="F1048" t="n">
-        <v>9781.346160005498</v>
+        <v>10009.42884132065</v>
       </c>
       <c r="G1048" t="n">
-        <v>0.02285335088454711</v>
+        <v>0.02338624824463611</v>
       </c>
       <c r="H1048" t="n">
         <v>0</v>
@@ -31960,10 +31960,10 @@
         </is>
       </c>
       <c r="F1052" t="n">
-        <v>6828.674045432823</v>
+        <v>6876.249259919081</v>
       </c>
       <c r="G1052" t="n">
-        <v>0.0159546632420162</v>
+        <v>0.01606581901263065</v>
       </c>
       <c r="H1052" t="n">
         <v>0</v>
@@ -31991,10 +31991,10 @@
         </is>
       </c>
       <c r="F1053" t="n">
-        <v>374379.1265687429</v>
+        <v>373757.9285859314</v>
       </c>
       <c r="G1053" t="n">
-        <v>0.8747075712655223</v>
+        <v>0.8732561907256935</v>
       </c>
       <c r="H1053" t="n">
         <v>0</v>
@@ -32140,10 +32140,10 @@
         </is>
       </c>
       <c r="F1058" t="n">
-        <v>38445.9349967758</v>
+        <v>38815.31104712428</v>
       </c>
       <c r="G1058" t="n">
-        <v>0.0780529703701844</v>
+        <v>0.07880287794599763</v>
       </c>
       <c r="H1058" t="n">
         <v>0</v>
@@ -32171,10 +32171,10 @@
         </is>
       </c>
       <c r="F1059" t="n">
-        <v>10159.26911859327</v>
+        <v>10398.97336065993</v>
       </c>
       <c r="G1059" t="n">
-        <v>0.02062535692168211</v>
+        <v>0.02111200468054674</v>
       </c>
       <c r="H1059" t="n">
         <v>0</v>
@@ -32289,10 +32289,10 @@
         </is>
       </c>
       <c r="F1063" t="n">
-        <v>4591.519349757432</v>
+        <v>4624.791863957003</v>
       </c>
       <c r="G1063" t="n">
-        <v>0.009321706541687702</v>
+        <v>0.009389256428696003</v>
       </c>
       <c r="H1063" t="n">
         <v>0</v>
@@ -32320,10 +32320,10 @@
         </is>
       </c>
       <c r="F1064" t="n">
-        <v>439365.3765348734</v>
+        <v>438723.0237282587</v>
       </c>
       <c r="G1064" t="n">
-        <v>0.8919999661664457</v>
+        <v>0.8906958609447597</v>
       </c>
       <c r="H1064" t="n">
         <v>0</v>
@@ -32469,10 +32469,10 @@
         </is>
       </c>
       <c r="F1069" t="n">
-        <v>35456.308466517</v>
+        <v>35793.95067899296</v>
       </c>
       <c r="G1069" t="n">
-        <v>0.0671753435639889</v>
+        <v>0.06781503880034427</v>
       </c>
       <c r="H1069" t="n">
         <v>0</v>
@@ -32500,10 +32500,10 @@
         </is>
       </c>
       <c r="F1070" t="n">
-        <v>10702.47590227616</v>
+        <v>10953.86370065646</v>
       </c>
       <c r="G1070" t="n">
-        <v>0.0202768569773597</v>
+        <v>0.02075313503490027</v>
       </c>
       <c r="H1070" t="n">
         <v>0</v>
@@ -32618,10 +32618,10 @@
         </is>
       </c>
       <c r="F1074" t="n">
-        <v>10450.43878538803</v>
+        <v>10524.91321804086</v>
       </c>
       <c r="G1074" t="n">
-        <v>0.01979934872424233</v>
+        <v>0.0199404476095059</v>
       </c>
       <c r="H1074" t="n">
         <v>0</v>
@@ -32649,10 +32649,10 @@
         </is>
       </c>
       <c r="F1075" t="n">
-        <v>458004.939693597</v>
+        <v>457263.0072271763</v>
       </c>
       <c r="G1075" t="n">
-        <v>0.8677338535390883</v>
+        <v>0.8663281920224597</v>
       </c>
       <c r="H1075" t="n">
         <v>0</v>
@@ -32680,13 +32680,13 @@
         </is>
       </c>
       <c r="F1076" t="n">
-        <v>13203.13715222181</v>
+        <v>13281.56517513351</v>
       </c>
       <c r="G1076" t="n">
-        <v>0.02501459719532082</v>
+        <v>0.02516318653278987</v>
       </c>
       <c r="H1076" t="n">
-        <v>12.26365606000914</v>
+        <v>12.33650346645252</v>
       </c>
       <c r="I1076" t="n">
         <v>20.8289017019285</v>
@@ -32798,10 +32798,10 @@
         </is>
       </c>
       <c r="F1080" t="n">
-        <v>38839.77519779704</v>
+        <v>39203.39996768044</v>
       </c>
       <c r="G1080" t="n">
-        <v>0.06662262046224605</v>
+        <v>0.06724635308971982</v>
       </c>
       <c r="H1080" t="n">
         <v>0</v>
@@ -32829,10 +32829,10 @@
         </is>
       </c>
       <c r="F1081" t="n">
-        <v>11723.77430371233</v>
+        <v>11997.24231894617</v>
       </c>
       <c r="G1081" t="n">
-        <v>0.02011001767758844</v>
+        <v>0.0205791026734388</v>
       </c>
       <c r="H1081" t="n">
         <v>0</v>
@@ -32947,10 +32947,10 @@
         </is>
       </c>
       <c r="F1085" t="n">
-        <v>7269.502981437113</v>
+        <v>7320.222475472766</v>
       </c>
       <c r="G1085" t="n">
-        <v>0.01246951959981789</v>
+        <v>0.01255651973264476</v>
       </c>
       <c r="H1085" t="n">
         <v>0</v>
@@ -32978,10 +32978,10 @@
         </is>
       </c>
       <c r="F1086" t="n">
-        <v>499041.5204316953</v>
+        <v>498103.9590380799</v>
       </c>
       <c r="G1086" t="n">
-        <v>0.8560156087749141</v>
+        <v>0.8544073915139029</v>
       </c>
       <c r="H1086" t="n">
         <v>0</v>
@@ -33009,13 +33009,13 @@
         </is>
       </c>
       <c r="F1087" t="n">
-        <v>26107.22708535824</v>
+        <v>26356.97619982083</v>
       </c>
       <c r="G1087" t="n">
-        <v>0.0447822334854334</v>
+        <v>0.04521063299029374</v>
       </c>
       <c r="H1087" t="n">
-        <v>10.57281782129053</v>
+        <v>10.67396038536324</v>
       </c>
       <c r="I1087" t="n">
         <v>20.8289017019285</v>
@@ -33127,10 +33127,10 @@
         </is>
       </c>
       <c r="F1091" t="n">
-        <v>39196.01813844267</v>
+        <v>39564.09926722648</v>
       </c>
       <c r="G1091" t="n">
-        <v>0.06568713314482563</v>
+        <v>0.06630398646980168</v>
       </c>
       <c r="H1091" t="n">
         <v>0</v>
@@ -33158,10 +33158,10 @@
         </is>
       </c>
       <c r="F1092" t="n">
-        <v>12077.14965524348</v>
+        <v>12359.17655970306</v>
       </c>
       <c r="G1092" t="n">
-        <v>0.02023964104241235</v>
+        <v>0.02071227932822563</v>
       </c>
       <c r="H1092" t="n">
         <v>0</v>
@@ -33276,10 +33276,10 @@
         </is>
       </c>
       <c r="F1096" t="n">
-        <v>-257.4659555670518</v>
+        <v>-259.2739207934987</v>
       </c>
       <c r="G1096" t="n">
-        <v>-0.0004314775149827157</v>
+        <v>-0.0004345074159316174</v>
       </c>
       <c r="H1096" t="n">
         <v>0</v>
@@ -33307,10 +33307,10 @@
         </is>
       </c>
       <c r="F1097" t="n">
-        <v>516155.2867256826</v>
+        <v>515205.4380735497</v>
       </c>
       <c r="G1097" t="n">
-        <v>0.8650052391240847</v>
+        <v>0.8634134234794519</v>
       </c>
       <c r="H1097" t="n">
         <v>0</v>
@@ -33338,13 +33338,13 @@
         </is>
       </c>
       <c r="F1098" t="n">
-        <v>29536.71143619826</v>
+        <v>29838.26002031423</v>
       </c>
       <c r="G1098" t="n">
-        <v>0.04949946420365996</v>
+        <v>0.05000481813845243</v>
       </c>
       <c r="H1098" t="n">
-        <v>12.20240143971214</v>
+        <v>12.326979183748</v>
       </c>
       <c r="I1098" t="n">
         <v>20.8289017019285</v>
@@ -33456,10 +33456,10 @@
         </is>
       </c>
       <c r="F1102" t="n">
-        <v>44701.75142112975</v>
+        <v>45114.81244418179</v>
       </c>
       <c r="G1102" t="n">
-        <v>0.0609423602216712</v>
+        <v>0.0615054905881577</v>
       </c>
       <c r="H1102" t="n">
         <v>0</v>
@@ -33487,10 +33487,10 @@
         </is>
       </c>
       <c r="F1103" t="n">
-        <v>14268.92252224597</v>
+        <v>14599.88882199176</v>
       </c>
       <c r="G1103" t="n">
-        <v>0.01945296970880642</v>
+        <v>0.01990417948961172</v>
       </c>
       <c r="H1103" t="n">
         <v>0</v>
@@ -33605,10 +33605,10 @@
         </is>
       </c>
       <c r="F1107" t="n">
-        <v>66411.96202370839</v>
+        <v>66858.55937944936</v>
       </c>
       <c r="G1107" t="n">
-        <v>0.09054011496211074</v>
+        <v>0.09114896575793766</v>
       </c>
       <c r="H1107" t="n">
         <v>0</v>
@@ -33636,10 +33636,10 @@
         </is>
       </c>
       <c r="F1108" t="n">
-        <v>579646.3709026473</v>
+        <v>578227.18262346</v>
       </c>
       <c r="G1108" t="n">
-        <v>0.7902378947961318</v>
+        <v>0.7883031007314023</v>
       </c>
       <c r="H1108" t="n">
         <v>0</v>
@@ -33667,10 +33667,10 @@
         </is>
       </c>
       <c r="F1109" t="n">
-        <v>28479.69313026847</v>
+        <v>28708.25673091715</v>
       </c>
       <c r="G1109" t="n">
-        <v>0.03882666031127985</v>
+        <v>0.03913826343289064</v>
       </c>
       <c r="H1109" t="n">
         <v>0</v>
@@ -33785,10 +33785,10 @@
         </is>
       </c>
       <c r="F1113" t="n">
-        <v>30808.67781687606</v>
+        <v>31095.68896906359</v>
       </c>
       <c r="G1113" t="n">
-        <v>0.05983269008691564</v>
+        <v>0.06039008659131605</v>
       </c>
       <c r="H1113" t="n">
         <v>0</v>
@@ -33816,10 +33816,10 @@
         </is>
       </c>
       <c r="F1114" t="n">
-        <v>9887.591592675326</v>
+        <v>10117.68359394692</v>
       </c>
       <c r="G1114" t="n">
-        <v>0.01920242105120376</v>
+        <v>0.01964927643024312</v>
       </c>
       <c r="H1114" t="n">
         <v>0</v>
@@ -33876,13 +33876,13 @@
         </is>
       </c>
       <c r="F1116" t="n">
-        <v>17652.39102870282</v>
+        <v>17949.48642182361</v>
       </c>
       <c r="G1116" t="n">
-        <v>0.03428222554668921</v>
+        <v>0.03485920637944372</v>
       </c>
       <c r="H1116" t="n">
-        <v>0.4970689547339116</v>
+        <v>0.5054347843982719</v>
       </c>
       <c r="I1116" t="n">
         <v>20.8289017019285</v>
@@ -33936,10 +33936,10 @@
         </is>
       </c>
       <c r="F1118" t="n">
-        <v>16781.09145202313</v>
+        <v>16896.71421467033</v>
       </c>
       <c r="G1118" t="n">
-        <v>0.03259009848254819</v>
+        <v>0.03281464628578672</v>
       </c>
       <c r="H1118" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         </is>
       </c>
       <c r="F1119" t="n">
-        <v>398625.0813474495</v>
+        <v>397702.8449051664</v>
       </c>
       <c r="G1119" t="n">
-        <v>0.7741588618278428</v>
+        <v>0.7723678116709367</v>
       </c>
       <c r="H1119" t="n">
         <v>0</v>
@@ -33998,13 +33998,13 @@
         </is>
       </c>
       <c r="F1120" t="n">
-        <v>19988.63591146047</v>
+        <v>20155.51568298995</v>
       </c>
       <c r="G1120" t="n">
-        <v>0.03881938280050071</v>
+        <v>0.03914347543800524</v>
       </c>
       <c r="H1120" t="n">
-        <v>16.59010655805794</v>
+        <v>16.72861291758751</v>
       </c>
       <c r="I1120" t="n">
         <v>20.8289017019285</v>
@@ -34029,13 +34029,13 @@
         </is>
       </c>
       <c r="F1121" t="n">
-        <v>5403.166891960568</v>
+        <v>5227.990309117999</v>
       </c>
       <c r="G1121" t="n">
-        <v>0.01049334255939648</v>
+        <v>0.01015313691168891</v>
       </c>
       <c r="H1121" t="n">
-        <v>5.964209072927533</v>
+        <v>5.770842888679431</v>
       </c>
       <c r="I1121" t="n">
         <v>20.8289017019285</v>
@@ -34089,13 +34089,13 @@
         </is>
       </c>
       <c r="F1123" t="n">
-        <v>15767.16395885217</v>
+        <v>15767.87590322124</v>
       </c>
       <c r="G1123" t="n">
-        <v>0.03062097764490323</v>
+        <v>0.03062236029257953</v>
       </c>
       <c r="H1123" t="n">
-        <v>7.390892650678807</v>
+        <v>7.391226376161637</v>
       </c>
       <c r="I1123" t="n">
         <v>20.8289017019285</v>
@@ -34120,10 +34120,10 @@
         </is>
       </c>
       <c r="F1124" t="n">
-        <v>32183.80899313844</v>
+        <v>32494.11329276132</v>
       </c>
       <c r="G1124" t="n">
-        <v>0.06046237722618826</v>
+        <v>0.06104533294851146</v>
       </c>
       <c r="H1124" t="n">
         <v>0</v>
@@ -34151,10 +34151,10 @@
         </is>
       </c>
       <c r="F1125" t="n">
-        <v>10328.91969958268</v>
+        <v>10572.69248123415</v>
       </c>
       <c r="G1125" t="n">
-        <v>0.01940450986855908</v>
+        <v>0.01986247560794159</v>
       </c>
       <c r="H1125" t="n">
         <v>0</v>
@@ -34211,10 +34211,10 @@
         </is>
       </c>
       <c r="F1127" t="n">
-        <v>12101.42538973642</v>
+        <v>12300.16047778419</v>
       </c>
       <c r="G1127" t="n">
-        <v>0.02273444224842402</v>
+        <v>0.02310779755463362</v>
       </c>
       <c r="H1127" t="n">
         <v>0</v>
@@ -34271,10 +34271,10 @@
         </is>
       </c>
       <c r="F1129" t="n">
-        <v>6717.618260523586</v>
+        <v>6766.299296806545</v>
       </c>
       <c r="G1129" t="n">
-        <v>0.01262010874523588</v>
+        <v>0.01271156377407133</v>
       </c>
       <c r="H1129" t="n">
         <v>0</v>
@@ -34302,10 +34302,10 @@
         </is>
       </c>
       <c r="F1130" t="n">
-        <v>419246.7622424542</v>
+        <v>418497.8996577223</v>
       </c>
       <c r="G1130" t="n">
-        <v>0.7876213749269281</v>
+        <v>0.7862145180785578</v>
       </c>
       <c r="H1130" t="n">
         <v>0</v>
@@ -34333,13 +34333,13 @@
         </is>
       </c>
       <c r="F1131" t="n">
-        <v>22788.16961779154</v>
+        <v>23006.71247750201</v>
       </c>
       <c r="G1131" t="n">
-        <v>0.04281118210771839</v>
+        <v>0.04322174944692678</v>
       </c>
       <c r="H1131" t="n">
-        <v>12.06259925472212</v>
+        <v>12.17828186464135</v>
       </c>
       <c r="I1131" t="n">
         <v>20.8289017019285</v>
@@ -34364,13 +34364,13 @@
         </is>
       </c>
       <c r="F1132" t="n">
-        <v>8597.039331203268</v>
+        <v>8307.01583150441</v>
       </c>
       <c r="G1132" t="n">
-        <v>0.0161508985832724</v>
+        <v>0.01560604355237814</v>
       </c>
       <c r="H1132" t="n">
-        <v>9.489719826305816</v>
+        <v>9.169581503197593</v>
       </c>
       <c r="I1132" t="n">
         <v>20.8289017019285</v>
@@ -34424,13 +34424,13 @@
         </is>
       </c>
       <c r="F1134" t="n">
-        <v>20331.05646556989</v>
+        <v>20349.90648468507</v>
       </c>
       <c r="G1134" t="n">
-        <v>0.03819510629367389</v>
+        <v>0.03823051903697926</v>
       </c>
       <c r="H1134" t="n">
-        <v>9.530227262433781</v>
+        <v>9.539063250193351</v>
       </c>
       <c r="I1134" t="n">
         <v>20.8289017019285</v>
@@ -34455,10 +34455,10 @@
         </is>
       </c>
       <c r="F1135" t="n">
-        <v>22831.54754359508</v>
+        <v>23059.43101427656</v>
       </c>
       <c r="G1135" t="n">
-        <v>0.04447188886091717</v>
+        <v>0.04491576627930224</v>
       </c>
       <c r="H1135" t="n">
         <v>0</v>
@@ -34486,10 +34486,10 @@
         </is>
       </c>
       <c r="F1136" t="n">
-        <v>10168.99298367329</v>
+        <v>10412.12070447083</v>
       </c>
       <c r="G1136" t="n">
-        <v>0.01980743201632998</v>
+        <v>0.02028100258607217</v>
       </c>
       <c r="H1136" t="n">
         <v>0</v>
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="F1138" t="n">
-        <v>5924.597319328088</v>
+        <v>6026.445044462757</v>
       </c>
       <c r="G1138" t="n">
-        <v>0.01154008649776173</v>
+        <v>0.01173846817575696</v>
       </c>
       <c r="H1138" t="n">
         <v>0</v>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="F1140" t="n">
-        <v>471.7121392575557</v>
+        <v>475.2819861245294</v>
       </c>
       <c r="G1140" t="n">
-        <v>0.0009188133126478513</v>
+        <v>0.0009257667542757309</v>
       </c>
       <c r="H1140" t="n">
         <v>0</v>
@@ -34637,10 +34637,10 @@
         </is>
       </c>
       <c r="F1141" t="n">
-        <v>418240.6746720445</v>
+        <v>417695.3446525635</v>
       </c>
       <c r="G1141" t="n">
-        <v>0.8146601874277248</v>
+        <v>0.8135979792715511</v>
       </c>
       <c r="H1141" t="n">
         <v>0</v>
@@ -34668,13 +34668,13 @@
         </is>
       </c>
       <c r="F1142" t="n">
-        <v>24924.79375430765</v>
+        <v>25193.82836945547</v>
       </c>
       <c r="G1142" t="n">
-        <v>0.04854916889038501</v>
+        <v>0.04907320159039136</v>
       </c>
       <c r="H1142" t="n">
-        <v>9.077070869724366</v>
+        <v>9.175047458504913</v>
       </c>
       <c r="I1142" t="n">
         <v>20.8289017019285</v>
@@ -34699,13 +34699,13 @@
         </is>
       </c>
       <c r="F1143" t="n">
-        <v>9587.300760934895</v>
+        <v>9258.382552095722</v>
       </c>
       <c r="G1143" t="n">
-        <v>0.01867439660418864</v>
+        <v>0.01803372106522671</v>
       </c>
       <c r="H1143" t="n">
-        <v>10.58280584823924</v>
+        <v>10.2197341525771</v>
       </c>
       <c r="I1143" t="n">
         <v>20.8289017019285</v>
@@ -34759,13 +34759,13 @@
         </is>
       </c>
       <c r="F1145" t="n">
-        <v>21243.18082685896</v>
+        <v>21271.96567655058</v>
       </c>
       <c r="G1145" t="n">
-        <v>0.04137802639004473</v>
+        <v>0.04143409427742379</v>
       </c>
       <c r="H1145" t="n">
-        <v>9.957787555201056</v>
+        <v>9.971280516559986</v>
       </c>
       <c r="I1145" t="n">
         <v>20.8289017019285</v>
@@ -34790,10 +34790,10 @@
         </is>
       </c>
       <c r="F1146" t="n">
-        <v>21756.53418033362</v>
+        <v>21998.08541833708</v>
       </c>
       <c r="G1146" t="n">
-        <v>0.04251985555864399</v>
+        <v>0.04299193092068409</v>
       </c>
       <c r="H1146" t="n">
         <v>0</v>
@@ -34821,10 +34821,10 @@
         </is>
       </c>
       <c r="F1147" t="n">
-        <v>9690.190426488598</v>
+        <v>9932.886917338752</v>
       </c>
       <c r="G1147" t="n">
-        <v>0.01893801162698478</v>
+        <v>0.01941232521250367</v>
       </c>
       <c r="H1147" t="n">
         <v>0</v>
@@ -34852,13 +34852,13 @@
         </is>
       </c>
       <c r="F1148" t="n">
-        <v>3501.205288347958</v>
+        <v>1880.216566828935</v>
       </c>
       <c r="G1148" t="n">
-        <v>0.006842576207578335</v>
+        <v>0.003674598912578726</v>
       </c>
       <c r="H1148" t="n">
-        <v>2.626269835395846</v>
+        <v>1.410358904091666</v>
       </c>
       <c r="I1148" t="n">
         <v>20.8289017019285</v>
@@ -34883,10 +34883,10 @@
         </is>
       </c>
       <c r="F1149" t="n">
-        <v>1627.180708745666</v>
+        <v>1686.799649575978</v>
       </c>
       <c r="G1149" t="n">
-        <v>0.003180078597546952</v>
+        <v>0.003296594800525442</v>
       </c>
       <c r="H1149" t="n">
         <v>0</v>
@@ -34943,10 +34943,10 @@
         </is>
       </c>
       <c r="F1151" t="n">
-        <v>924.9891770107623</v>
+        <v>933.0227801545391</v>
       </c>
       <c r="G1151" t="n">
-        <v>0.00180775144946379</v>
+        <v>0.001823451911791913</v>
       </c>
       <c r="H1151" t="n">
         <v>0</v>
@@ -34974,10 +34974,10 @@
         </is>
       </c>
       <c r="F1152" t="n">
-        <v>430396.4351993619</v>
+        <v>431413.6030010049</v>
       </c>
       <c r="G1152" t="n">
-        <v>0.8411447386769173</v>
+        <v>0.8431326393069662</v>
       </c>
       <c r="H1152" t="n">
         <v>0</v>
@@ -35005,13 +35005,13 @@
         </is>
       </c>
       <c r="F1153" t="n">
-        <v>22062.50458147862</v>
+        <v>22307.93414382837</v>
       </c>
       <c r="G1153" t="n">
-        <v>0.04311782843217572</v>
+        <v>0.043597483392586</v>
       </c>
       <c r="H1153" t="n">
-        <v>24.54901836843999</v>
+        <v>24.82210861583377</v>
       </c>
       <c r="I1153" t="n">
         <v>20.8289017019285</v>
@@ -35036,13 +35036,13 @@
         </is>
       </c>
       <c r="F1154" t="n">
-        <v>5938.002252451367</v>
+        <v>5715.96248510419</v>
       </c>
       <c r="G1154" t="n">
-        <v>0.01160492732842355</v>
+        <v>0.01117098418483173</v>
       </c>
       <c r="H1154" t="n">
-        <v>22.94102822668754</v>
+        <v>22.08319416843068</v>
       </c>
       <c r="I1154" t="n">
         <v>20.8289017019285</v>
@@ -35096,13 +35096,13 @@
         </is>
       </c>
       <c r="F1156" t="n">
-        <v>15782.35818578157</v>
+        <v>15810.88903782727</v>
       </c>
       <c r="G1156" t="n">
-        <v>0.03084423212226555</v>
+        <v>0.03089999135753222</v>
       </c>
       <c r="H1156" t="n">
-        <v>25.89305242244608</v>
+        <v>25.93986107036677</v>
       </c>
       <c r="I1156" t="n">
         <v>20.8289017019285</v>
@@ -35127,10 +35127,10 @@
         </is>
       </c>
       <c r="F1157" t="n">
-        <v>23138.22971212559</v>
+        <v>23348.60767833877</v>
       </c>
       <c r="G1157" t="n">
-        <v>0.04230705885688622</v>
+        <v>0.04269172411043017</v>
       </c>
       <c r="H1157" t="n">
         <v>0</v>
@@ -35158,10 +35158,10 @@
         </is>
       </c>
       <c r="F1158" t="n">
-        <v>10627.68358213311</v>
+        <v>10872.17114627627</v>
       </c>
       <c r="G1158" t="n">
-        <v>0.01943217093164401</v>
+        <v>0.01987920382459524</v>
       </c>
       <c r="H1158" t="n">
         <v>0</v>
@@ -35218,13 +35218,13 @@
         </is>
       </c>
       <c r="F1160" t="n">
-        <v>7904.704113661538</v>
+        <v>7934.733758740459</v>
       </c>
       <c r="G1160" t="n">
-        <v>0.01445334350742028</v>
+        <v>0.01450825116360711</v>
       </c>
       <c r="H1160" t="n">
-        <v>0.7846614893237224</v>
+        <v>0.7876423859762316</v>
       </c>
       <c r="I1160" t="n">
         <v>20.8289017019285</v>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="F1162" t="n">
-        <v>-2894.416377731809</v>
+        <v>-2913.774040716437</v>
       </c>
       <c r="G1162" t="n">
-        <v>-0.005292290964890149</v>
+        <v>-0.005327685452602113</v>
       </c>
       <c r="H1162" t="n">
         <v>0</v>
@@ -35309,10 +35309,10 @@
         </is>
       </c>
       <c r="F1163" t="n">
-        <v>480476.5800766184</v>
+        <v>480000.5035392467</v>
       </c>
       <c r="G1163" t="n">
-        <v>0.8785266291139053</v>
+        <v>0.8776561477357896</v>
       </c>
       <c r="H1163" t="n">
         <v>0</v>
@@ -35340,13 +35340,13 @@
         </is>
       </c>
       <c r="F1164" t="n">
-        <v>18293.52829030566</v>
+        <v>18411.47131206632</v>
       </c>
       <c r="G1164" t="n">
-        <v>0.0334487723437411</v>
+        <v>0.03366442507195186</v>
       </c>
       <c r="H1164" t="n">
-        <v>434.7024694140881</v>
+        <v>437.5051066088324</v>
       </c>
       <c r="I1164" t="n">
         <v>20.8289017019285</v>
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="F1165" t="n">
-        <v>1131.122480467483</v>
+        <v>1044.985624310408</v>
       </c>
       <c r="G1165" t="n">
-        <v>0.002068199077927159</v>
+        <v>0.001910702281995759</v>
       </c>
       <c r="H1165" t="n">
         <v>0</v>
@@ -35431,10 +35431,10 @@
         </is>
       </c>
       <c r="F1167" t="n">
-        <v>8234.36812242009</v>
+        <v>8213.100981737583</v>
       </c>
       <c r="G1167" t="n">
-        <v>0.01505611713336609</v>
+        <v>0.01501723126423234</v>
       </c>
       <c r="H1167" t="n">
         <v>0</v>
@@ -35462,10 +35462,10 @@
         </is>
       </c>
       <c r="F1168" t="n">
-        <v>20710.7608828349</v>
+        <v>20900.66904346479</v>
       </c>
       <c r="G1168" t="n">
-        <v>0.03924886921137857</v>
+        <v>0.0396087633070568</v>
       </c>
       <c r="H1168" t="n">
         <v>0</v>
@@ -35493,10 +35493,10 @@
         </is>
       </c>
       <c r="F1169" t="n">
-        <v>10319.87944301777</v>
+        <v>10558.02175490182</v>
       </c>
       <c r="G1169" t="n">
-        <v>0.01955715682430091</v>
+        <v>0.02000845924171132</v>
       </c>
       <c r="H1169" t="n">
         <v>0</v>
@@ -35553,13 +35553,13 @@
         </is>
       </c>
       <c r="F1171" t="n">
-        <v>5223.584436427662</v>
+        <v>5244.131042598074</v>
       </c>
       <c r="G1171" t="n">
-        <v>0.009899191223334654</v>
+        <v>0.00993812900369349</v>
       </c>
       <c r="H1171" t="n">
-        <v>2.176030535161507</v>
+        <v>2.184589799966142</v>
       </c>
       <c r="I1171" t="n">
         <v>20.8289017019285</v>
@@ -35613,10 +35613,10 @@
         </is>
       </c>
       <c r="F1173" t="n">
-        <v>-4808.078661463199</v>
+        <v>-4840.600079663247</v>
       </c>
       <c r="G1173" t="n">
-        <v>-0.009111768109794249</v>
+        <v>-0.009173399302232</v>
       </c>
       <c r="H1173" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         </is>
       </c>
       <c r="F1174" t="n">
-        <v>468605.280578206</v>
+        <v>468197.0073651836</v>
       </c>
       <c r="G1174" t="n">
-        <v>0.888051746298653</v>
+        <v>0.8872780295805142</v>
       </c>
       <c r="H1174" t="n">
         <v>0</v>
@@ -35675,13 +35675,13 @@
         </is>
       </c>
       <c r="F1175" t="n">
-        <v>15155.98649845924</v>
+        <v>15239.85396886221</v>
       </c>
       <c r="G1175" t="n">
-        <v>0.0287220414166658</v>
+        <v>0.02888097828023916</v>
       </c>
       <c r="H1175" t="n">
-        <v>26.04641526387866</v>
+        <v>26.19054622899063</v>
       </c>
       <c r="I1175" t="n">
         <v>20.8289017019285</v>
@@ -35706,13 +35706,13 @@
         </is>
       </c>
       <c r="F1176" t="n">
-        <v>1616.296365098136</v>
+        <v>1540.558159457752</v>
       </c>
       <c r="G1176" t="n">
-        <v>0.003063035926079406</v>
+        <v>0.002919504795364277</v>
       </c>
       <c r="H1176" t="n">
-        <v>5.100860319668699</v>
+        <v>4.861838555977181</v>
       </c>
       <c r="I1176" t="n">
         <v>20.8289017019285</v>
@@ -35766,13 +35766,13 @@
         </is>
       </c>
       <c r="F1178" t="n">
-        <v>10854.19045741953</v>
+        <v>10838.25874519498</v>
       </c>
       <c r="G1178" t="n">
-        <v>0.02056972720938195</v>
+        <v>0.02053953509365274</v>
       </c>
       <c r="H1178" t="n">
-        <v>11.77504510893758</v>
+        <v>11.75776177206944</v>
       </c>
       <c r="I1178" t="n">
         <v>20.8289017019285</v>
@@ -35797,10 +35797,10 @@
         </is>
       </c>
       <c r="F1179" t="n">
-        <v>20456.95665415784</v>
+        <v>20641.27613374556</v>
       </c>
       <c r="G1179" t="n">
-        <v>0.03880868938234322</v>
+        <v>0.03915836003723905</v>
       </c>
       <c r="H1179" t="n">
         <v>0</v>
@@ -35828,10 +35828,10 @@
         </is>
       </c>
       <c r="F1180" t="n">
-        <v>10193.41238287936</v>
+        <v>10426.9888210665</v>
       </c>
       <c r="G1180" t="n">
-        <v>0.01933782143654748</v>
+        <v>0.01978093697860425</v>
       </c>
       <c r="H1180" t="n">
         <v>0</v>
@@ -35888,13 +35888,13 @@
         </is>
       </c>
       <c r="F1182" t="n">
-        <v>10353.36153462556</v>
+        <v>10465.25404173032</v>
       </c>
       <c r="G1182" t="n">
-        <v>0.01964125938443137</v>
+        <v>0.01985352954884793</v>
       </c>
       <c r="H1182" t="n">
-        <v>0.969597500524899</v>
+        <v>0.9800762899357982</v>
       </c>
       <c r="I1182" t="n">
         <v>20.8289017019285</v>
@@ -35948,10 +35948,10 @@
         </is>
       </c>
       <c r="F1184" t="n">
-        <v>-2420.208947388068</v>
+        <v>-2436.177458801271</v>
       </c>
       <c r="G1184" t="n">
-        <v>-0.004591354367486585</v>
+        <v>-0.004621648071961314</v>
       </c>
       <c r="H1184" t="n">
         <v>0</v>
@@ -35979,10 +35979,10 @@
         </is>
       </c>
       <c r="F1185" t="n">
-        <v>459336.3836576887</v>
+        <v>458812.9183340355</v>
       </c>
       <c r="G1185" t="n">
-        <v>0.8714024933790395</v>
+        <v>0.8704094325102344</v>
       </c>
       <c r="H1185" t="n">
         <v>0</v>
@@ -36010,13 +36010,13 @@
         </is>
       </c>
       <c r="F1186" t="n">
-        <v>15523.22161436815</v>
+        <v>15621.25007204423</v>
       </c>
       <c r="G1186" t="n">
-        <v>0.02944894961796997</v>
+        <v>0.02963491843185061</v>
       </c>
       <c r="H1186" t="n">
-        <v>16.00448938505402</v>
+        <v>16.10555702740849</v>
       </c>
       <c r="I1186" t="n">
         <v>20.8289017019285</v>
@@ -36041,13 +36041,13 @@
         </is>
       </c>
       <c r="F1187" t="n">
-        <v>1833.533494431673</v>
+        <v>1760.495007495736</v>
       </c>
       <c r="G1187" t="n">
-        <v>0.003478378189898477</v>
+        <v>0.003339817601421254</v>
       </c>
       <c r="H1187" t="n">
-        <v>5.786437715562241</v>
+        <v>5.555935978464325</v>
       </c>
       <c r="I1187" t="n">
         <v>20.8289017019285</v>
@@ -36101,13 +36101,13 @@
         </is>
       </c>
       <c r="F1189" t="n">
-        <v>11846.43960923668</v>
+        <v>11831.09504868343</v>
       </c>
       <c r="G1189" t="n">
-        <v>0.02247376297725651</v>
+        <v>0.02244465296376393</v>
       </c>
       <c r="H1189" t="n">
-        <v>12.85147531971995</v>
+        <v>12.83482894766667</v>
       </c>
       <c r="I1189" t="n">
         <v>20.8289017019285</v>
@@ -36132,10 +36132,10 @@
         </is>
       </c>
       <c r="F1190" t="n">
-        <v>23194.02437883129</v>
+        <v>23396.09653613748</v>
       </c>
       <c r="G1190" t="n">
-        <v>0.03767885314170101</v>
+        <v>0.03800712075989476</v>
       </c>
       <c r="H1190" t="n">
         <v>0</v>
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="F1191" t="n">
-        <v>11557.2545471437</v>
+        <v>11818.5927778021</v>
       </c>
       <c r="G1191" t="n">
-        <v>0.01877484000579575</v>
+        <v>0.01919938577036247</v>
       </c>
       <c r="H1191" t="n">
         <v>0</v>
@@ -36223,13 +36223,13 @@
         </is>
       </c>
       <c r="F1193" t="n">
-        <v>17169.09988119836</v>
+        <v>17433.06500931645</v>
       </c>
       <c r="G1193" t="n">
-        <v>0.02789132159356064</v>
+        <v>0.0283201347712328</v>
       </c>
       <c r="H1193" t="n">
-        <v>0.9741821339560841</v>
+        <v>0.9891596291992494</v>
       </c>
       <c r="I1193" t="n">
         <v>20.8289017019285</v>
@@ -36283,10 +36283,10 @@
         </is>
       </c>
       <c r="F1195" t="n">
-        <v>16534.6801091098</v>
+        <v>16638.0285046668</v>
       </c>
       <c r="G1195" t="n">
-        <v>0.02686070228264308</v>
+        <v>0.02702859246655514</v>
       </c>
       <c r="H1195" t="n">
         <v>0</v>
@@ -36314,10 +36314,10 @@
         </is>
       </c>
       <c r="F1196" t="n">
-        <v>510303.937367464</v>
+        <v>509461.6230274271</v>
       </c>
       <c r="G1196" t="n">
-        <v>0.8289922783408454</v>
+        <v>0.827623932865346</v>
       </c>
       <c r="H1196" t="n">
         <v>0</v>
@@ -36345,13 +36345,13 @@
         </is>
       </c>
       <c r="F1197" t="n">
-        <v>19746.59166725221</v>
+        <v>19881.36732252811</v>
       </c>
       <c r="G1197" t="n">
-        <v>0.03207847484020895</v>
+        <v>0.03229741882505929</v>
       </c>
       <c r="H1197" t="n">
-        <v>19.26708305626368</v>
+        <v>19.3985859397952</v>
       </c>
       <c r="I1197" t="n">
         <v>20.8289017019285</v>
@@ -36376,13 +36376,13 @@
         </is>
       </c>
       <c r="F1198" t="n">
-        <v>2601.580172813492</v>
+        <v>2498.049390042364</v>
       </c>
       <c r="G1198" t="n">
-        <v>0.004226284997668006</v>
+        <v>0.004058098524464204</v>
       </c>
       <c r="H1198" t="n">
-        <v>8.210311771093693</v>
+        <v>7.88357957450831</v>
       </c>
       <c r="I1198" t="n">
         <v>20.8289017019285</v>
@@ -36436,13 +36436,13 @@
         </is>
       </c>
       <c r="F1200" t="n">
-        <v>14464.23187618724</v>
+        <v>14444.57743207962</v>
       </c>
       <c r="G1200" t="n">
-        <v>0.02349724479757708</v>
+        <v>0.02346531601708529</v>
       </c>
       <c r="H1200" t="n">
-        <v>15.6913574970315</v>
+        <v>15.6700355968063</v>
       </c>
       <c r="I1200" t="n">
         <v>20.8289017019285</v>
@@ -36467,10 +36467,10 @@
         </is>
       </c>
       <c r="F1201" t="n">
-        <v>23714.99419154268</v>
+        <v>23919.69059047053</v>
       </c>
       <c r="G1201" t="n">
-        <v>0.03760629221934533</v>
+        <v>0.03793089160706407</v>
       </c>
       <c r="H1201" t="n">
         <v>0</v>
@@ -36498,10 +36498,10 @@
         </is>
       </c>
       <c r="F1202" t="n">
-        <v>11816.84644195882</v>
+        <v>12083.08753655268</v>
       </c>
       <c r="G1202" t="n">
-        <v>0.01873868392368882</v>
+        <v>0.01916087843587072</v>
       </c>
       <c r="H1202" t="n">
         <v>0</v>
@@ -36558,10 +36558,10 @@
         </is>
       </c>
       <c r="F1204" t="n">
-        <v>9670.666153341093</v>
+        <v>9797.893595899481</v>
       </c>
       <c r="G1204" t="n">
-        <v>0.01533535679498388</v>
+        <v>0.01553710900055165</v>
       </c>
       <c r="H1204" t="n">
         <v>0</v>
@@ -36618,10 +36618,10 @@
         </is>
       </c>
       <c r="F1206" t="n">
-        <v>10218.92351998304</v>
+        <v>10282.14827587643</v>
       </c>
       <c r="G1206" t="n">
-        <v>0.01620476146676316</v>
+        <v>0.01630502076374717</v>
       </c>
       <c r="H1206" t="n">
         <v>0</v>
@@ -36649,10 +36649,10 @@
         </is>
       </c>
       <c r="F1207" t="n">
-        <v>534783.8816157955</v>
+        <v>534109.7903757407</v>
       </c>
       <c r="G1207" t="n">
-        <v>0.848038956442651</v>
+        <v>0.8469700094316901</v>
       </c>
       <c r="H1207" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         </is>
       </c>
       <c r="F1208" t="n">
-        <v>21909.69431178805</v>
+        <v>22067.40128740768</v>
       </c>
       <c r="G1208" t="n">
-        <v>0.03474351965135487</v>
+        <v>0.03499360508516433</v>
       </c>
       <c r="H1208" t="n">
-        <v>20.9426534467161</v>
+        <v>21.09339961822953</v>
       </c>
       <c r="I1208" t="n">
         <v>20.8289017019285</v>
@@ -36711,13 +36711,13 @@
         </is>
       </c>
       <c r="F1209" t="n">
-        <v>3064.553414521495</v>
+        <v>2939.755598312264</v>
       </c>
       <c r="G1209" t="n">
-        <v>0.004859646614182492</v>
+        <v>0.004661747213204599</v>
       </c>
       <c r="H1209" t="n">
-        <v>9.671406338087507</v>
+        <v>9.277557634081839</v>
       </c>
       <c r="I1209" t="n">
         <v>20.8289017019285</v>
@@ -36771,13 +36771,13 @@
         </is>
       </c>
       <c r="F1211" t="n">
-        <v>15432.84035106925</v>
+        <v>15412.63273974023</v>
       </c>
       <c r="G1211" t="n">
-        <v>0.02447278288703053</v>
+        <v>0.0244407384627074</v>
       </c>
       <c r="H1211" t="n">
-        <v>16.74214138822797</v>
+        <v>16.72021939083198</v>
       </c>
       <c r="I1211" t="n">
         <v>20.8289017019285</v>
@@ -36802,10 +36802,10 @@
         </is>
       </c>
       <c r="F1212" t="n">
-        <v>23278.80925523034</v>
+        <v>23482.1352870701</v>
       </c>
       <c r="G1212" t="n">
-        <v>0.03871876456744177</v>
+        <v>0.0390569490798419</v>
       </c>
       <c r="H1212" t="n">
         <v>0</v>
@@ -36833,10 +36833,10 @@
         </is>
       </c>
       <c r="F1213" t="n">
-        <v>11405.83215659818</v>
+        <v>11664.01843662333</v>
       </c>
       <c r="G1213" t="n">
-        <v>0.01897089001095954</v>
+        <v>0.01940032150297587</v>
       </c>
       <c r="H1213" t="n">
         <v>0</v>
@@ -36893,10 +36893,10 @@
         </is>
       </c>
       <c r="F1215" t="n">
-        <v>3526.248636950348</v>
+        <v>3584.503917388613</v>
       </c>
       <c r="G1215" t="n">
-        <v>0.005865076228057783</v>
+        <v>0.005961970036644349</v>
       </c>
       <c r="H1215" t="n">
         <v>0</v>
@@ -36953,10 +36953,10 @@
         </is>
       </c>
       <c r="F1217" t="n">
-        <v>2860.409139232152</v>
+        <v>2878.457173950154</v>
       </c>
       <c r="G1217" t="n">
-        <v>0.004757610529567982</v>
+        <v>0.004787629144330004</v>
       </c>
       <c r="H1217" t="n">
         <v>0</v>
@@ -36984,10 +36984,10 @@
         </is>
       </c>
       <c r="F1218" t="n">
-        <v>520655.1098783342</v>
+        <v>520094.6980346394</v>
       </c>
       <c r="G1218" t="n">
-        <v>0.8659859874785197</v>
+        <v>0.8650538756166577</v>
       </c>
       <c r="H1218" t="n">
         <v>0</v>
@@ -37015,13 +37015,13 @@
         </is>
       </c>
       <c r="F1219" t="n">
-        <v>21647.67466449917</v>
+        <v>21808.4015967771</v>
       </c>
       <c r="G1219" t="n">
-        <v>0.03600575998443713</v>
+        <v>0.03627309102281996</v>
       </c>
       <c r="H1219" t="n">
-        <v>20.83481563744251</v>
+        <v>20.98950735624749</v>
       </c>
       <c r="I1219" t="n">
         <v>20.8289017019285</v>
@@ -37046,13 +37046,13 @@
         </is>
       </c>
       <c r="F1220" t="n">
-        <v>2957.96192771458</v>
+        <v>2837.798153340567</v>
       </c>
       <c r="G1220" t="n">
-        <v>0.004919866399648619</v>
+        <v>0.004720002530388329</v>
       </c>
       <c r="H1220" t="n">
-        <v>9.335014883396047</v>
+        <v>8.955790725128013</v>
       </c>
       <c r="I1220" t="n">
         <v>20.8289017019285</v>
@@ -37106,13 +37106,13 @@
         </is>
       </c>
       <c r="F1222" t="n">
-        <v>14896.05434144108</v>
+        <v>14878.08740021072</v>
       </c>
       <c r="G1222" t="n">
-        <v>0.02477604480136753</v>
+        <v>0.0247461610663419</v>
       </c>
       <c r="H1222" t="n">
-        <v>16.15981518877403</v>
+        <v>16.14032395685885</v>
       </c>
       <c r="I1222" t="n">
         <v>20.8289017019285</v>
@@ -37137,10 +37137,10 @@
         </is>
       </c>
       <c r="F1223" t="n">
-        <v>21877.33319204185</v>
+        <v>22085.15481996028</v>
       </c>
       <c r="G1223" t="n">
-        <v>0.03970319368744234</v>
+        <v>0.0400803503670639</v>
       </c>
       <c r="H1223" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         </is>
       </c>
       <c r="F1224" t="n">
-        <v>10485.80069977954</v>
+        <v>10731.31308752023</v>
       </c>
       <c r="G1224" t="n">
-        <v>0.01902973148037563</v>
+        <v>0.01947528971169977</v>
       </c>
       <c r="H1224" t="n">
         <v>0</v>
@@ -37199,13 +37199,13 @@
         </is>
       </c>
       <c r="F1225" t="n">
-        <v>11275.63872674626</v>
+        <v>10614.36213204233</v>
       </c>
       <c r="G1225" t="n">
-        <v>0.02046313709206939</v>
+        <v>0.01926304599824023</v>
       </c>
       <c r="H1225" t="n">
-        <v>2.886027804392539</v>
+        <v>2.716772413637369</v>
       </c>
       <c r="I1225" t="n">
         <v>20.8289017019285</v>
@@ -37288,10 +37288,10 @@
         </is>
       </c>
       <c r="F1228" t="n">
-        <v>8602.657625487947</v>
+        <v>8663.370124081832</v>
       </c>
       <c r="G1228" t="n">
-        <v>0.01561218540364622</v>
+        <v>0.01572236702723636</v>
       </c>
       <c r="H1228" t="n">
         <v>0</v>
@@ -37319,10 +37319,10 @@
         </is>
       </c>
       <c r="F1229" t="n">
-        <v>479729.1021035376</v>
+        <v>479834.9211777134</v>
       </c>
       <c r="G1229" t="n">
-        <v>0.8706169664796281</v>
+        <v>0.8708090079483458</v>
       </c>
       <c r="H1229" t="n">
         <v>0</v>
@@ -37350,13 +37350,13 @@
         </is>
       </c>
       <c r="F1230" t="n">
-        <v>13090.96460450704</v>
+        <v>13151.17179126042</v>
       </c>
       <c r="G1230" t="n">
-        <v>0.02375760787138633</v>
+        <v>0.02386687245021146</v>
       </c>
       <c r="H1230" t="n">
-        <v>688.457342146903</v>
+        <v>691.6236542577848</v>
       </c>
       <c r="I1230" t="n">
         <v>20.8289017019285</v>
@@ -37439,10 +37439,10 @@
         </is>
       </c>
       <c r="F1233" t="n">
-        <v>5960.503047899793</v>
+        <v>5941.706867421427</v>
       </c>
       <c r="G1233" t="n">
-        <v>0.01081717798545211</v>
+        <v>0.01078306649720234</v>
       </c>
       <c r="H1233" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         </is>
       </c>
       <c r="F1234" t="n">
-        <v>19517.64298669201</v>
+        <v>19740.69314645102</v>
       </c>
       <c r="G1234" t="n">
-        <v>0.03997335672499211</v>
+        <v>0.04043017743893244</v>
       </c>
       <c r="H1234" t="n">
         <v>0</v>
@@ -37501,10 +37501,10 @@
         </is>
       </c>
       <c r="F1235" t="n">
-        <v>9354.801734351615</v>
+        <v>9592.124684938406</v>
       </c>
       <c r="G1235" t="n">
-        <v>0.01915922056130357</v>
+        <v>0.01964527284585974</v>
       </c>
       <c r="H1235" t="n">
         <v>0</v>
@@ -37532,10 +37532,10 @@
         </is>
       </c>
       <c r="F1236" t="n">
-        <v>5113.767182946693</v>
+        <v>3038.640450270136</v>
       </c>
       <c r="G1236" t="n">
-        <v>0.01047331585847046</v>
+        <v>0.006223326185465055</v>
       </c>
       <c r="H1236" t="n">
         <v>0</v>
@@ -37563,13 +37563,13 @@
         </is>
       </c>
       <c r="F1237" t="n">
-        <v>799.4389799210734</v>
+        <v>780.8017552369513</v>
       </c>
       <c r="G1237" t="n">
-        <v>0.001637301161110389</v>
+        <v>0.001599130956277243</v>
       </c>
       <c r="H1237" t="n">
-        <v>0.2556489073213073</v>
+        <v>0.2496889951257975</v>
       </c>
       <c r="I1237" t="n">
         <v>20.8289017019285</v>
@@ -37623,10 +37623,10 @@
         </is>
       </c>
       <c r="F1239" t="n">
-        <v>16364.04030242942</v>
+        <v>16510.55091155282</v>
       </c>
       <c r="G1239" t="n">
-        <v>0.03351458067540074</v>
+        <v>0.03381464359009177</v>
       </c>
       <c r="H1239" t="n">
         <v>0</v>
@@ -37654,10 +37654,10 @@
         </is>
       </c>
       <c r="F1240" t="n">
-        <v>429994.0435286987</v>
+        <v>431480.1969443646</v>
       </c>
       <c r="G1240" t="n">
-        <v>0.8806547646820982</v>
+        <v>0.8836985000692545</v>
       </c>
       <c r="H1240" t="n">
         <v>0</v>
@@ -37685,13 +37685,13 @@
         </is>
       </c>
       <c r="F1241" t="n">
-        <v>6045.5247923161</v>
+        <v>6052.81059632596</v>
       </c>
       <c r="G1241" t="n">
-        <v>0.0123816138699642</v>
+        <v>0.01239653565344559</v>
       </c>
       <c r="H1241" t="n">
-        <v>63.45545609814692</v>
+        <v>63.5319298588823</v>
       </c>
       <c r="I1241" t="n">
         <v>20.8289017019285</v>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="F1244" t="n">
-        <v>1077.040492644318</v>
+        <v>1070.481510860066</v>
       </c>
       <c r="G1244" t="n">
-        <v>0.002205846466660341</v>
+        <v>0.002192413260673666</v>
       </c>
       <c r="H1244" t="n">
         <v>0</v>
@@ -37805,10 +37805,10 @@
         </is>
       </c>
       <c r="F1245" t="n">
-        <v>20259.49425295055</v>
+        <v>20459.2181819335</v>
       </c>
       <c r="G1245" t="n">
-        <v>0.04455538564671701</v>
+        <v>0.04499462547016013</v>
       </c>
       <c r="H1245" t="n">
         <v>0</v>
@@ -37836,10 +37836,10 @@
         </is>
       </c>
       <c r="F1246" t="n">
-        <v>9737.293638404735</v>
+        <v>9968.821019852699</v>
       </c>
       <c r="G1246" t="n">
-        <v>0.02141459543844548</v>
+        <v>0.02192377852265234</v>
       </c>
       <c r="H1246" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         </is>
       </c>
       <c r="F1247" t="n">
-        <v>449.7943090952421</v>
+        <v>65.15062958282044</v>
       </c>
       <c r="G1247" t="n">
-        <v>0.0009892033163916938</v>
+        <v>0.0001432815345706972</v>
       </c>
       <c r="H1247" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         </is>
       </c>
       <c r="F1250" t="n">
-        <v>7290.200394241724</v>
+        <v>7344.274467521502</v>
       </c>
       <c r="G1250" t="n">
-        <v>0.01603286271373643</v>
+        <v>0.01615178429975373</v>
       </c>
       <c r="H1250" t="n">
         <v>0</v>
@@ -37987,10 +37987,10 @@
         </is>
       </c>
       <c r="F1251" t="n">
-        <v>416966.8174053077</v>
+        <v>416866.1357011094</v>
       </c>
       <c r="G1251" t="n">
-        <v>0.9170079528847094</v>
+        <v>0.916786530172863</v>
       </c>
       <c r="H1251" t="n">
         <v>0</v>
@@ -38136,10 +38136,10 @@
         </is>
       </c>
       <c r="F1256" t="n">
-        <v>20460.47626587199</v>
+        <v>20650.68999009006</v>
       </c>
       <c r="G1256" t="n">
-        <v>0.04509145189965245</v>
+        <v>0.04551065098792291</v>
       </c>
       <c r="H1256" t="n">
         <v>0</v>
@@ -38167,10 +38167,10 @@
         </is>
       </c>
       <c r="F1257" t="n">
-        <v>9714.700524297936</v>
+        <v>9940.169602949449</v>
       </c>
       <c r="G1257" t="n">
-        <v>0.02140956768154878</v>
+        <v>0.02190646364734953</v>
       </c>
       <c r="H1257" t="n">
         <v>0</v>
@@ -38285,10 +38285,10 @@
         </is>
       </c>
       <c r="F1261" t="n">
-        <v>7642.046495197244</v>
+        <v>7694.447800240642</v>
       </c>
       <c r="G1261" t="n">
-        <v>0.01684178645087899</v>
+        <v>0.01695727012267332</v>
       </c>
       <c r="H1261" t="n">
         <v>0</v>
@@ -38316,10 +38316,10 @@
         </is>
       </c>
       <c r="F1262" t="n">
-        <v>415937.8767146328</v>
+        <v>415469.7926067198</v>
       </c>
       <c r="G1262" t="n">
-        <v>0.9166571939679198</v>
+        <v>0.9156256152420542</v>
       </c>
       <c r="H1262" t="n">
         <v>0</v>
@@ -38463,10 +38463,10 @@
         </is>
       </c>
       <c r="F1267" t="n">
-        <v>23690.91610147929</v>
+        <v>23914.65971450921</v>
       </c>
       <c r="G1267" t="n">
-        <v>0.0460010553260799</v>
+        <v>0.0464355021105672</v>
       </c>
       <c r="H1267" t="n">
         <v>0</v>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="F1268" t="n">
-        <v>11248.5238408663</v>
+        <v>11511.27510379178</v>
       </c>
       <c r="G1268" t="n">
-        <v>0.02184145034003601</v>
+        <v>0.02235163894275018</v>
       </c>
       <c r="H1268" t="n">
         <v>0</v>
@@ -38612,10 +38612,10 @@
         </is>
       </c>
       <c r="F1272" t="n">
-        <v>-7241.024709353823</v>
+        <v>-7292.055176244275</v>
       </c>
       <c r="G1272" t="n">
-        <v>-0.01406002101589048</v>
+        <v>-0.01415910774266322</v>
       </c>
       <c r="H1272" t="n">
         <v>0</v>
@@ -38643,10 +38643,10 @@
         </is>
       </c>
       <c r="F1273" t="n">
-        <v>487309.6847670082</v>
+        <v>486874.2203579433</v>
       </c>
       <c r="G1273" t="n">
-        <v>0.9462175153497746</v>
+        <v>0.9453719666893459</v>
       </c>
       <c r="H1273" t="n">
         <v>0</v>
@@ -38792,10 +38792,10 @@
         </is>
       </c>
       <c r="F1278" t="n">
-        <v>24397.06312673431</v>
+        <v>24619.08460427412</v>
       </c>
       <c r="G1278" t="n">
-        <v>0.04313988505502998</v>
+        <v>0.04353247251406391</v>
       </c>
       <c r="H1278" t="n">
         <v>0</v>
@@ -38823,10 +38823,10 @@
         </is>
       </c>
       <c r="F1279" t="n">
-        <v>11773.85476506206</v>
+        <v>12044.75507724453</v>
       </c>
       <c r="G1279" t="n">
-        <v>0.02081901164008598</v>
+        <v>0.02129802865406901</v>
       </c>
       <c r="H1279" t="n">
         <v>0</v>
@@ -38941,10 +38941,10 @@
         </is>
       </c>
       <c r="F1283" t="n">
-        <v>33822.97204181447</v>
+        <v>34046.07581727949</v>
       </c>
       <c r="G1283" t="n">
-        <v>0.05980716279347843</v>
+        <v>0.06020166401597832</v>
       </c>
       <c r="H1283" t="n">
         <v>0</v>
@@ -38972,10 +38972,10 @@
         </is>
       </c>
       <c r="F1284" t="n">
-        <v>495539.9100663892</v>
+        <v>494823.884501202</v>
       </c>
       <c r="G1284" t="n">
-        <v>0.8762339405114056</v>
+        <v>0.8749678348158887</v>
       </c>
       <c r="H1284" t="n">
         <v>0</v>
@@ -39119,10 +39119,10 @@
         </is>
       </c>
       <c r="F1289" t="n">
-        <v>18580.51174876578</v>
+        <v>18750.78339817155</v>
       </c>
       <c r="G1289" t="n">
-        <v>0.04512264314452393</v>
+        <v>0.04553614665711026</v>
       </c>
       <c r="H1289" t="n">
         <v>0</v>
@@ -39150,10 +39150,10 @@
         </is>
       </c>
       <c r="F1290" t="n">
-        <v>8657.915122930248</v>
+        <v>8857.70729724261</v>
       </c>
       <c r="G1290" t="n">
-        <v>0.02102568646923888</v>
+        <v>0.02151088037059437</v>
       </c>
       <c r="H1290" t="n">
         <v>0</v>
@@ -39268,10 +39268,10 @@
         </is>
       </c>
       <c r="F1294" t="n">
-        <v>17899.77365197537</v>
+        <v>18019.47586252608</v>
       </c>
       <c r="G1294" t="n">
-        <v>0.04346947542601928</v>
+        <v>0.04376017140917212</v>
       </c>
       <c r="H1294" t="n">
         <v>0</v>
@@ -39299,10 +39299,10 @@
         </is>
       </c>
       <c r="F1295" t="n">
-        <v>366639.7994763287</v>
+        <v>366150.0334420598</v>
       </c>
       <c r="G1295" t="n">
-        <v>0.8903821949602179</v>
+        <v>0.8891928015631233</v>
       </c>
       <c r="H1295" t="n">
         <v>0</v>
@@ -39446,10 +39446,10 @@
         </is>
       </c>
       <c r="F1300" t="n">
-        <v>18518.41158899488</v>
+        <v>18696.64214066766</v>
       </c>
       <c r="G1300" t="n">
-        <v>0.04682129365535987</v>
+        <v>0.04727192544729969</v>
       </c>
       <c r="H1300" t="n">
         <v>0</v>
@@ -39477,10 +39477,10 @@
         </is>
       </c>
       <c r="F1301" t="n">
-        <v>8912.309119251959</v>
+        <v>9122.10723963447</v>
       </c>
       <c r="G1301" t="n">
-        <v>0.02253356560385677</v>
+        <v>0.02306401171450535</v>
       </c>
       <c r="H1301" t="n">
         <v>0</v>
@@ -39595,10 +39595,10 @@
         </is>
       </c>
       <c r="F1305" t="n">
-        <v>11772.68492748012</v>
+        <v>11857.05591733898</v>
       </c>
       <c r="G1305" t="n">
-        <v>0.02976563813006241</v>
+        <v>0.02997895874199452</v>
       </c>
       <c r="H1305" t="n">
         <v>0</v>
@@ -39626,10 +39626,10 @@
         </is>
       </c>
       <c r="F1306" t="n">
-        <v>356309.194364273</v>
+        <v>355836.7947023589</v>
       </c>
       <c r="G1306" t="n">
-        <v>0.9008795026107209</v>
+        <v>0.8996851040962004</v>
       </c>
       <c r="H1306" t="n">
         <v>0</v>
@@ -39773,10 +39773,10 @@
         </is>
       </c>
       <c r="F1311" t="n">
-        <v>17218.15596430617</v>
+        <v>17384.40988799873</v>
       </c>
       <c r="G1311" t="n">
-        <v>0.04464691956238785</v>
+        <v>0.04507801831497325</v>
       </c>
       <c r="H1311" t="n">
         <v>0</v>
@@ -39804,10 +39804,10 @@
         </is>
       </c>
       <c r="F1312" t="n">
-        <v>8716.133371396165</v>
+        <v>8921.552224547502</v>
       </c>
       <c r="G1312" t="n">
-        <v>0.02260105590485341</v>
+        <v>0.02313370986804542</v>
       </c>
       <c r="H1312" t="n">
         <v>0</v>
@@ -39922,10 +39922,10 @@
         </is>
       </c>
       <c r="F1316" t="n">
-        <v>10673.06623027</v>
+        <v>10749.87556631058</v>
       </c>
       <c r="G1316" t="n">
-        <v>0.02767541021551578</v>
+        <v>0.0278745778996135</v>
       </c>
       <c r="H1316" t="n">
         <v>0</v>
@@ -39953,10 +39953,10 @@
         </is>
       </c>
       <c r="F1317" t="n">
-        <v>349044.2444340276</v>
+        <v>348595.7623211431</v>
       </c>
       <c r="G1317" t="n">
-        <v>0.905076614317243</v>
+        <v>0.9039136939173679</v>
       </c>
       <c r="H1317" t="n">
         <v>0</v>
@@ -40100,10 +40100,10 @@
         </is>
       </c>
       <c r="F1322" t="n">
-        <v>23145.85995823904</v>
+        <v>23386.24509135033</v>
       </c>
       <c r="G1322" t="n">
-        <v>0.04717544815161261</v>
+        <v>0.04766539652268073</v>
       </c>
       <c r="H1322" t="n">
         <v>0</v>
@@ -40131,10 +40131,10 @@
         </is>
       </c>
       <c r="F1323" t="n">
-        <v>10785.21914117784</v>
+        <v>11047.45915954453</v>
       </c>
       <c r="G1323" t="n">
-        <v>0.02198222694323796</v>
+        <v>0.0225167195225613</v>
       </c>
       <c r="H1323" t="n">
         <v>0</v>
@@ -40220,13 +40220,13 @@
         </is>
       </c>
       <c r="F1326" t="n">
-        <v>1873.218352658429</v>
+        <v>1200.338760513173</v>
       </c>
       <c r="G1326" t="n">
-        <v>0.003817957744146405</v>
+        <v>0.002446507455896157</v>
       </c>
       <c r="H1326" t="n">
-        <v>3.672195852590198</v>
+        <v>2.353104757811159</v>
       </c>
       <c r="I1326" t="n">
         <v>20.8289017019285</v>
@@ -40251,10 +40251,10 @@
         </is>
       </c>
       <c r="F1327" t="n">
-        <v>29593.28131417764</v>
+        <v>29826.63446934819</v>
       </c>
       <c r="G1327" t="n">
-        <v>0.06031645878753032</v>
+        <v>0.06079207471593505</v>
       </c>
       <c r="H1327" t="n">
         <v>0</v>
@@ -40282,10 +40282,10 @@
         </is>
       </c>
       <c r="F1328" t="n">
-        <v>425236.0212337471</v>
+        <v>425172.9225192438</v>
       </c>
       <c r="G1328" t="n">
-        <v>0.8667079083734727</v>
+        <v>0.8665793017829267</v>
       </c>
       <c r="H1328" t="n">
         <v>0</v>
@@ -40429,10 +40429,10 @@
         </is>
       </c>
       <c r="F1333" t="n">
-        <v>24802.15785063356</v>
+        <v>25033.61344480683</v>
       </c>
       <c r="G1333" t="n">
-        <v>0.0585016158500903</v>
+        <v>0.05904755730962878</v>
       </c>
       <c r="H1333" t="n">
         <v>0</v>
@@ -40460,10 +40460,10 @@
         </is>
       </c>
       <c r="F1334" t="n">
-        <v>9249.563520565618</v>
+        <v>9464.791475269818</v>
       </c>
       <c r="G1334" t="n">
-        <v>0.02181723119092704</v>
+        <v>0.02232489601598516</v>
       </c>
       <c r="H1334" t="n">
         <v>0</v>
@@ -40578,10 +40578,10 @@
         </is>
       </c>
       <c r="F1338" t="n">
-        <v>26801.32159470524</v>
+        <v>26984.95441492084</v>
       </c>
       <c r="G1338" t="n">
-        <v>0.06321710512652526</v>
+        <v>0.06365024553190522</v>
       </c>
       <c r="H1338" t="n">
         <v>0</v>
@@ -40609,10 +40609,10 @@
         </is>
       </c>
       <c r="F1339" t="n">
-        <v>363103.7570340956</v>
+        <v>362473.4406650025</v>
       </c>
       <c r="G1339" t="n">
-        <v>0.8564640478324574</v>
+        <v>0.8549773011424808</v>
       </c>
       <c r="H1339" t="n">
         <v>0</v>
@@ -40756,10 +40756,10 @@
         </is>
       </c>
       <c r="F1344" t="n">
-        <v>30727.96678007099</v>
+        <v>31029.71124773093</v>
       </c>
       <c r="G1344" t="n">
-        <v>0.0759964573367056</v>
+        <v>0.0767427322440964</v>
       </c>
       <c r="H1344" t="n">
         <v>0</v>
@@ -40787,10 +40787,10 @@
         </is>
       </c>
       <c r="F1345" t="n">
-        <v>9060.19177695771</v>
+        <v>9275.763253933364</v>
       </c>
       <c r="G1345" t="n">
-        <v>0.02240768101475885</v>
+        <v>0.02294083274166114</v>
       </c>
       <c r="H1345" t="n">
         <v>0</v>
@@ -40905,10 +40905,10 @@
         </is>
       </c>
       <c r="F1349" t="n">
-        <v>34393.04150299235</v>
+        <v>34645.48231474747</v>
       </c>
       <c r="G1349" t="n">
-        <v>0.08506092609280229</v>
+        <v>0.08568526311834979</v>
       </c>
       <c r="H1349" t="n">
         <v>0</v>
@@ -40936,10 +40936,10 @@
         </is>
       </c>
       <c r="F1350" t="n">
-        <v>330152.999939979</v>
+        <v>329383.2431835883</v>
       </c>
       <c r="G1350" t="n">
-        <v>0.8165349355557332</v>
+        <v>0.8146311718958927</v>
       </c>
       <c r="H1350" t="n">
         <v>0</v>
@@ -41083,10 +41083,10 @@
         </is>
       </c>
       <c r="F1355" t="n">
-        <v>29929.244249412</v>
+        <v>30230.60642377205</v>
       </c>
       <c r="G1355" t="n">
-        <v>0.07825510566513288</v>
+        <v>0.07904306838819708</v>
       </c>
       <c r="H1355" t="n">
         <v>0</v>
@@ -41114,10 +41114,10 @@
         </is>
       </c>
       <c r="F1356" t="n">
-        <v>8824.687119062701</v>
+        <v>9036.8855182387</v>
       </c>
       <c r="G1356" t="n">
-        <v>0.02307364720636259</v>
+        <v>0.02362847605573509</v>
       </c>
       <c r="H1356" t="n">
         <v>0</v>
@@ -41232,10 +41232,10 @@
         </is>
       </c>
       <c r="F1360" t="n">
-        <v>17043.26514554441</v>
+        <v>17173.57333829232</v>
       </c>
       <c r="G1360" t="n">
-        <v>0.04456251897739306</v>
+        <v>0.04490323193718392</v>
       </c>
       <c r="H1360" t="n">
         <v>0</v>
@@ -41263,10 +41263,10 @@
         </is>
       </c>
       <c r="F1361" t="n">
-        <v>326660.2034859809</v>
+        <v>326016.334719697</v>
       </c>
       <c r="G1361" t="n">
-        <v>0.8541087281511115</v>
+        <v>0.852425223618884</v>
       </c>
       <c r="H1361" t="n">
         <v>0</v>
@@ -41410,10 +41410,10 @@
         </is>
       </c>
       <c r="F1366" t="n">
-        <v>30721.6060558654</v>
+        <v>31031.8250912264</v>
       </c>
       <c r="G1366" t="n">
-        <v>0.07851218512334586</v>
+        <v>0.07930498138174326</v>
       </c>
       <c r="H1366" t="n">
         <v>0</v>
@@ -41441,10 +41441,10 @@
         </is>
       </c>
       <c r="F1367" t="n">
-        <v>9058.316306915909</v>
+        <v>9276.395148689578</v>
       </c>
       <c r="G1367" t="n">
-        <v>0.02314944750938969</v>
+        <v>0.02370677014303339</v>
       </c>
       <c r="H1367" t="n">
         <v>0</v>
@@ -41559,10 +41559,10 @@
         </is>
       </c>
       <c r="F1371" t="n">
-        <v>15633.49648330091</v>
+        <v>15753.56982626837</v>
       </c>
       <c r="G1371" t="n">
-        <v>0.03995298838837096</v>
+        <v>0.04025984801394839</v>
       </c>
       <c r="H1371" t="n">
         <v>0</v>
@@ -41590,10 +41590,10 @@
         </is>
       </c>
       <c r="F1372" t="n">
-        <v>335883.8811539178</v>
+        <v>335235.5099338156</v>
       </c>
       <c r="G1372" t="n">
-        <v>0.8583853789788934</v>
+        <v>0.856728400461275</v>
       </c>
       <c r="H1372" t="n">
         <v>0</v>
@@ -41737,10 +41737,10 @@
         </is>
       </c>
       <c r="F1377" t="n">
-        <v>30649.77446905906</v>
+        <v>30959.19266367158</v>
       </c>
       <c r="G1377" t="n">
-        <v>0.0774193001270521</v>
+        <v>0.07820086999138046</v>
       </c>
       <c r="H1377" t="n">
         <v>0</v>
@@ -41768,10 +41768,10 @@
         </is>
       </c>
       <c r="F1378" t="n">
-        <v>9158.449801784405</v>
+        <v>9378.899209559553</v>
       </c>
       <c r="G1378" t="n">
-        <v>0.02313363756130291</v>
+        <v>0.02369047816320046</v>
       </c>
       <c r="H1378" t="n">
         <v>0</v>
@@ -41886,10 +41886,10 @@
         </is>
       </c>
       <c r="F1382" t="n">
-        <v>16606.7178737266</v>
+        <v>16734.15020037173</v>
       </c>
       <c r="G1382" t="n">
-        <v>0.04194746935215507</v>
+        <v>0.04226935496838979</v>
       </c>
       <c r="H1382" t="n">
         <v>0</v>
@@ -41917,10 +41917,10 @@
         </is>
       </c>
       <c r="F1383" t="n">
-        <v>339478.25785543</v>
+        <v>338820.9579263972</v>
       </c>
       <c r="G1383" t="n">
-        <v>0.85749959295949</v>
+        <v>0.8558392968770293</v>
       </c>
       <c r="H1383" t="n">
         <v>0</v>
@@ -42066,10 +42066,10 @@
         </is>
       </c>
       <c r="F1388" t="n">
-        <v>30999.42176636967</v>
+        <v>31287.47331806492</v>
       </c>
       <c r="G1388" t="n">
-        <v>0.06483950097411594</v>
+        <v>0.06544199991772533</v>
       </c>
       <c r="H1388" t="n">
         <v>0</v>
@@ -42097,10 +42097,10 @@
         </is>
       </c>
       <c r="F1389" t="n">
-        <v>9584.804129817101</v>
+        <v>9807.666669578608</v>
       </c>
       <c r="G1389" t="n">
-        <v>0.02004791964817243</v>
+        <v>0.02051406691933336</v>
       </c>
       <c r="H1389" t="n">
         <v>0</v>
@@ -42215,10 +42215,10 @@
         </is>
       </c>
       <c r="F1393" t="n">
-        <v>38231.17217156423</v>
+        <v>38491.18404315208</v>
       </c>
       <c r="G1393" t="n">
-        <v>0.07996568916485422</v>
+        <v>0.08050953930916213</v>
       </c>
       <c r="H1393" t="n">
         <v>0</v>
@@ -42246,10 +42246,10 @@
         </is>
       </c>
       <c r="F1394" t="n">
-        <v>392041.0940368615</v>
+        <v>391249.8048773535</v>
       </c>
       <c r="G1394" t="n">
-        <v>0.8200071953043226</v>
+        <v>0.8183521065541062</v>
       </c>
       <c r="H1394" t="n">
         <v>0</v>
@@ -42277,13 +42277,13 @@
         </is>
       </c>
       <c r="F1395" t="n">
-        <v>7238.207895387439</v>
+        <v>7258.571091850954</v>
       </c>
       <c r="G1395" t="n">
-        <v>0.01513969490853473</v>
+        <v>0.01518228729967296</v>
       </c>
       <c r="H1395" t="n">
-        <v>13.04766312400604</v>
+        <v>13.08437001767694</v>
       </c>
       <c r="I1395" t="n">
         <v>20.8289017019285</v>
@@ -42395,10 +42395,10 @@
         </is>
       </c>
       <c r="F1399" t="n">
-        <v>27642.72686420037</v>
+        <v>27901.38863518535</v>
       </c>
       <c r="G1399" t="n">
-        <v>0.06553257236486276</v>
+        <v>0.06614578144905948</v>
       </c>
       <c r="H1399" t="n">
         <v>0</v>
@@ -42426,10 +42426,10 @@
         </is>
       </c>
       <c r="F1400" t="n">
-        <v>8546.93757206874</v>
+        <v>8746.23260786812</v>
       </c>
       <c r="G1400" t="n">
-        <v>0.02026221246880455</v>
+        <v>0.02073468092025805</v>
       </c>
       <c r="H1400" t="n">
         <v>0</v>
@@ -42544,10 +42544,10 @@
         </is>
       </c>
       <c r="F1404" t="n">
-        <v>23384.0815593713</v>
+        <v>23545.53763403354</v>
       </c>
       <c r="G1404" t="n">
-        <v>0.05543660813579005</v>
+        <v>0.05581937181712037</v>
       </c>
       <c r="H1404" t="n">
         <v>0</v>
@@ -42575,10 +42575,10 @@
         </is>
       </c>
       <c r="F1405" t="n">
-        <v>352026.0353605031</v>
+        <v>351352.9016689179</v>
       </c>
       <c r="G1405" t="n">
-        <v>0.8345476099340404</v>
+        <v>0.8329518128706123</v>
       </c>
       <c r="H1405" t="n">
         <v>0</v>
@@ -42606,13 +42606,13 @@
         </is>
       </c>
       <c r="F1406" t="n">
-        <v>10216.81864385644</v>
+        <v>10270.53945399511</v>
       </c>
       <c r="G1406" t="n">
-        <v>0.02422099709650223</v>
+        <v>0.02434835294294988</v>
       </c>
       <c r="H1406" t="n">
-        <v>15.01692265301532</v>
+        <v>15.09588277542043</v>
       </c>
       <c r="I1406" t="n">
         <v>20.8289017019285</v>
@@ -42724,10 +42724,10 @@
         </is>
       </c>
       <c r="F1410" t="n">
-        <v>29507.31450576315</v>
+        <v>29782.74834242025</v>
       </c>
       <c r="G1410" t="n">
-        <v>0.05707289497856554</v>
+        <v>0.05760563767970169</v>
       </c>
       <c r="H1410" t="n">
         <v>0</v>
@@ -42755,10 +42755,10 @@
         </is>
       </c>
       <c r="F1411" t="n">
-        <v>10432.56085339619</v>
+        <v>10675.40490922856</v>
       </c>
       <c r="G1411" t="n">
-        <v>0.02017860520065568</v>
+        <v>0.02064831291641486</v>
       </c>
       <c r="H1411" t="n">
         <v>0</v>
@@ -42873,10 +42873,10 @@
         </is>
       </c>
       <c r="F1415" t="n">
-        <v>32775.92091850911</v>
+        <v>33000.51914802474</v>
       </c>
       <c r="G1415" t="n">
-        <v>0.06339501658283694</v>
+        <v>0.06382943331578002</v>
       </c>
       <c r="H1415" t="n">
         <v>0</v>
@@ -42904,10 +42904,10 @@
         </is>
       </c>
       <c r="F1416" t="n">
-        <v>428582.8994096896</v>
+        <v>427736.7845374395</v>
       </c>
       <c r="G1416" t="n">
-        <v>0.8289628255679078</v>
+        <v>0.8273262745617396</v>
       </c>
       <c r="H1416" t="n">
         <v>0</v>
@@ -42935,13 +42935,13 @@
         </is>
       </c>
       <c r="F1417" t="n">
-        <v>15712.30431264195</v>
+        <v>15815.54306288688</v>
       </c>
       <c r="G1417" t="n">
-        <v>0.03039065767003401</v>
+        <v>0.03059034152636382</v>
       </c>
       <c r="H1417" t="n">
-        <v>18.71814133061896</v>
+        <v>18.84113013477076</v>
       </c>
       <c r="I1417" t="n">
         <v>20.8289017019285</v>
@@ -43053,10 +43053,10 @@
         </is>
       </c>
       <c r="F1421" t="n">
-        <v>33658.1760374377</v>
+        <v>33974.70837253644</v>
       </c>
       <c r="G1421" t="n">
-        <v>0.05579750415716866</v>
+        <v>0.05632224186915594</v>
       </c>
       <c r="H1421" t="n">
         <v>0</v>
@@ -43084,10 +43084,10 @@
         </is>
       </c>
       <c r="F1422" t="n">
-        <v>12192.29000861007</v>
+        <v>12476.92559549805</v>
       </c>
       <c r="G1422" t="n">
-        <v>0.02021200886477435</v>
+        <v>0.02068386911427197</v>
       </c>
       <c r="H1422" t="n">
         <v>0</v>
@@ -43202,10 +43202,10 @@
         </is>
       </c>
       <c r="F1426" t="n">
-        <v>45311.84421615598</v>
+        <v>45624.57792111057</v>
       </c>
       <c r="G1426" t="n">
-        <v>0.07511660207634988</v>
+        <v>0.0756350425344092</v>
       </c>
       <c r="H1426" t="n">
         <v>0</v>
@@ -43233,10 +43233,10 @@
         </is>
       </c>
       <c r="F1427" t="n">
-        <v>501329.2227465991</v>
+        <v>500392.3827586723</v>
       </c>
       <c r="G1427" t="n">
-        <v>0.8310883916941746</v>
+        <v>0.829535326754981</v>
       </c>
       <c r="H1427" t="n">
         <v>0</v>
@@ -43264,10 +43264,10 @@
         </is>
       </c>
       <c r="F1428" t="n">
-        <v>10728.5669911971</v>
+        <v>10751.5053521826</v>
       </c>
       <c r="G1428" t="n">
-        <v>0.01778549320753254</v>
+        <v>0.01782351972718183</v>
       </c>
       <c r="H1428" t="n">
         <v>0</v>
@@ -43382,10 +43382,10 @@
         </is>
       </c>
       <c r="F1432" t="n">
-        <v>26823.03316462955</v>
+        <v>27146.00068534568</v>
       </c>
       <c r="G1432" t="n">
-        <v>0.05821788164403627</v>
+        <v>0.05891886444417364</v>
       </c>
       <c r="H1432" t="n">
         <v>0</v>
@@ -43413,10 +43413,10 @@
         </is>
       </c>
       <c r="F1433" t="n">
-        <v>9716.337536828238</v>
+        <v>9969.140192537545</v>
       </c>
       <c r="G1433" t="n">
-        <v>0.02108876297698101</v>
+        <v>0.02163745689235782</v>
       </c>
       <c r="H1433" t="n">
         <v>0</v>
@@ -43531,10 +43531,10 @@
         </is>
       </c>
       <c r="F1437" t="n">
-        <v>20385.04142525649</v>
+        <v>20580.35776793524</v>
       </c>
       <c r="G1437" t="n">
-        <v>0.04424458344141742</v>
+        <v>0.04466850655449071</v>
       </c>
       <c r="H1437" t="n">
         <v>0</v>
@@ -43562,10 +43562,10 @@
         </is>
       </c>
       <c r="F1438" t="n">
-        <v>401997.9006399857</v>
+        <v>401250.4083566646</v>
       </c>
       <c r="G1438" t="n">
-        <v>0.8725137853339776</v>
+        <v>0.8708913954643038</v>
       </c>
       <c r="H1438" t="n">
         <v>0</v>
@@ -43593,10 +43593,10 @@
         </is>
       </c>
       <c r="F1439" t="n">
-        <v>1812.987233299959</v>
+        <v>1789.392997516861</v>
       </c>
       <c r="G1439" t="n">
-        <v>0.003934986603587699</v>
+        <v>0.003883776644673983</v>
       </c>
       <c r="H1439" t="n">
         <v>0</v>
@@ -43711,10 +43711,10 @@
         </is>
       </c>
       <c r="F1443" t="n">
-        <v>23603.85949291662</v>
+        <v>23825.87660999986</v>
       </c>
       <c r="G1443" t="n">
-        <v>0.06272762482926558</v>
+        <v>0.06331763878144368</v>
       </c>
       <c r="H1443" t="n">
         <v>0</v>
@@ -43742,10 +43742,10 @@
         </is>
       </c>
       <c r="F1444" t="n">
-        <v>8550.228626174488</v>
+        <v>8749.85258006774</v>
       </c>
       <c r="G1444" t="n">
-        <v>0.02272236596002748</v>
+        <v>0.02325286973168856</v>
       </c>
       <c r="H1444" t="n">
         <v>0</v>
@@ -43860,10 +43860,10 @@
         </is>
       </c>
       <c r="F1448" t="n">
-        <v>14545.0184191087</v>
+        <v>14646.32653890303</v>
       </c>
       <c r="G1448" t="n">
-        <v>0.03865361335515517</v>
+        <v>0.03892284126394374</v>
       </c>
       <c r="H1448" t="n">
         <v>0</v>
@@ -43891,10 +43891,10 @@
         </is>
       </c>
       <c r="F1449" t="n">
-        <v>329592.1934618002</v>
+        <v>329069.2442710294</v>
       </c>
       <c r="G1449" t="n">
-        <v>0.8758963958555518</v>
+        <v>0.8745066502229241</v>
       </c>
       <c r="H1449" t="n">
         <v>0</v>
@@ -44038,10 +44038,10 @@
         </is>
       </c>
       <c r="F1454" t="n">
-        <v>32444.12611297025</v>
+        <v>32734.709080567</v>
       </c>
       <c r="G1454" t="n">
-        <v>0.05893269124662982</v>
+        <v>0.05946051672268919</v>
       </c>
       <c r="H1454" t="n">
         <v>0</v>
@@ -44069,10 +44069,10 @@
         </is>
       </c>
       <c r="F1455" t="n">
-        <v>11752.51428375854</v>
+        <v>12021.54629585154</v>
       </c>
       <c r="G1455" t="n">
-        <v>0.02134769459484575</v>
+        <v>0.02183637413113316</v>
       </c>
       <c r="H1455" t="n">
         <v>0</v>
@@ -44187,10 +44187,10 @@
         </is>
       </c>
       <c r="F1459" t="n">
-        <v>69075.11250324248</v>
+        <v>69516.37189233172</v>
       </c>
       <c r="G1459" t="n">
-        <v>0.1254705478521865</v>
+        <v>0.12627206746305</v>
       </c>
       <c r="H1459" t="n">
         <v>0</v>
@@ -44218,10 +44218,10 @@
         </is>
       </c>
       <c r="F1460" t="n">
-        <v>437256.7471000287</v>
+        <v>436255.8727312497</v>
       </c>
       <c r="G1460" t="n">
-        <v>0.7942490663063378</v>
+        <v>0.7924310416831276</v>
       </c>
       <c r="H1460" t="n">
         <v>0</v>
@@ -44365,10 +44365,10 @@
         </is>
       </c>
       <c r="F1465" t="n">
-        <v>24259.67934573898</v>
+        <v>24485.82322739285</v>
       </c>
       <c r="G1465" t="n">
-        <v>0.06202754342046533</v>
+        <v>0.06260575178169914</v>
       </c>
       <c r="H1465" t="n">
         <v>0</v>
@@ -44396,10 +44396,10 @@
         </is>
       </c>
       <c r="F1466" t="n">
-        <v>8787.791880645589</v>
+        <v>8992.212418801979</v>
       </c>
       <c r="G1466" t="n">
-        <v>0.02246876946221866</v>
+        <v>0.02299143522485404</v>
       </c>
       <c r="H1466" t="n">
         <v>0</v>
@@ -44514,10 +44514,10 @@
         </is>
       </c>
       <c r="F1470" t="n">
-        <v>21381.8333233971</v>
+        <v>21528.48816306511</v>
       </c>
       <c r="G1470" t="n">
-        <v>0.05466941982104613</v>
+        <v>0.05504438930459483</v>
       </c>
       <c r="H1470" t="n">
         <v>0</v>
@@ -44545,10 +44545,10 @@
         </is>
       </c>
       <c r="F1471" t="n">
-        <v>336682.0954502184</v>
+        <v>336104.8761907401</v>
       </c>
       <c r="G1471" t="n">
-        <v>0.8608342672962699</v>
+        <v>0.859358423688852</v>
       </c>
       <c r="H1471" t="n">
         <v>0</v>
@@ -44692,10 +44692,10 @@
         </is>
       </c>
       <c r="F1476" t="n">
-        <v>24561.23405568384</v>
+        <v>24792.7659472178</v>
       </c>
       <c r="G1476" t="n">
-        <v>0.06289959223772967</v>
+        <v>0.06349252912088868</v>
       </c>
       <c r="H1476" t="n">
         <v>0</v>
@@ -44723,10 +44723,10 @@
         </is>
       </c>
       <c r="F1477" t="n">
-        <v>8897.026631602235</v>
+        <v>9104.934548315172</v>
       </c>
       <c r="G1477" t="n">
-        <v>0.02278465919046514</v>
+        <v>0.02331709673633891</v>
       </c>
       <c r="H1477" t="n">
         <v>0</v>
@@ -44841,10 +44841,10 @@
         </is>
       </c>
       <c r="F1481" t="n">
-        <v>13557.383073041</v>
+        <v>13652.16600597757</v>
       </c>
       <c r="G1481" t="n">
-        <v>0.03471950412473828</v>
+        <v>0.03496223654686698</v>
       </c>
       <c r="H1481" t="n">
         <v>0</v>
@@ -44872,10 +44872,10 @@
         </is>
       </c>
       <c r="F1482" t="n">
-        <v>343467.5562396729</v>
+        <v>342933.3334984895</v>
       </c>
       <c r="G1482" t="n">
-        <v>0.879596244447067</v>
+        <v>0.8782281375959055</v>
       </c>
       <c r="H1482" t="n">
         <v>0</v>
@@ -45019,10 +45019,10 @@
         </is>
       </c>
       <c r="F1487" t="n">
-        <v>25534.07431308213</v>
+        <v>25766.49265279152</v>
       </c>
       <c r="G1487" t="n">
-        <v>0.0682786219414083</v>
+        <v>0.06890011319872547</v>
       </c>
       <c r="H1487" t="n">
         <v>0</v>
@@ -45050,10 +45050,10 @@
         </is>
       </c>
       <c r="F1488" t="n">
-        <v>9249.426908345024</v>
+        <v>9462.527482522919</v>
       </c>
       <c r="G1488" t="n">
-        <v>0.0247331512905489</v>
+        <v>0.02530298645909209</v>
       </c>
       <c r="H1488" t="n">
         <v>0</v>
@@ -45168,10 +45168,10 @@
         </is>
       </c>
       <c r="F1492" t="n">
-        <v>1577.017628260346</v>
+        <v>1587.597172801253</v>
       </c>
       <c r="G1492" t="n">
-        <v>0.004216976465042929</v>
+        <v>0.004245266377305414</v>
       </c>
       <c r="H1492" t="n">
         <v>0</v>
@@ -45199,10 +45199,10 @@
         </is>
       </c>
       <c r="F1493" t="n">
-        <v>337608.2811503125</v>
+        <v>337152.1826918843</v>
       </c>
       <c r="G1493" t="n">
-        <v>0.902771250303</v>
+        <v>0.901551633964877</v>
       </c>
       <c r="H1493" t="n">
         <v>0</v>
@@ -45346,10 +45346,10 @@
         </is>
       </c>
       <c r="F1498" t="n">
-        <v>28397.00010802443</v>
+        <v>28649.16854473665</v>
       </c>
       <c r="G1498" t="n">
-        <v>0.06221789498574738</v>
+        <v>0.06277039663220289</v>
       </c>
       <c r="H1498" t="n">
         <v>0</v>
@@ -45377,10 +45377,10 @@
         </is>
       </c>
       <c r="F1499" t="n">
-        <v>10911.5908545573</v>
+        <v>11160.45673843237</v>
       </c>
       <c r="G1499" t="n">
-        <v>0.02390732159501753</v>
+        <v>0.02445258734032767</v>
       </c>
       <c r="H1499" t="n">
         <v>0</v>
@@ -45495,10 +45495,10 @@
         </is>
       </c>
       <c r="F1503" t="n">
-        <v>25370.09377949599</v>
+        <v>25532.84391677544</v>
       </c>
       <c r="G1503" t="n">
-        <v>0.05558593599840144</v>
+        <v>0.05594252193746711</v>
       </c>
       <c r="H1503" t="n">
         <v>0</v>
@@ -45526,10 +45526,10 @@
         </is>
       </c>
       <c r="F1504" t="n">
-        <v>391733.4152579222</v>
+        <v>391069.6308000556</v>
       </c>
       <c r="G1504" t="n">
-        <v>0.8582888474208337</v>
+        <v>0.8568344940900023</v>
       </c>
       <c r="H1504" t="n">
         <v>0</v>
@@ -45673,10 +45673,10 @@
         </is>
       </c>
       <c r="F1509" t="n">
-        <v>26479.82936651646</v>
+        <v>26720.52937366287</v>
       </c>
       <c r="G1509" t="n">
-        <v>0.06414072043117099</v>
+        <v>0.06472375560305471</v>
       </c>
       <c r="H1509" t="n">
         <v>0</v>
@@ -45704,10 +45704,10 @@
         </is>
       </c>
       <c r="F1510" t="n">
-        <v>10174.91505605447</v>
+        <v>10409.14369424394</v>
       </c>
       <c r="G1510" t="n">
-        <v>0.02464617022217458</v>
+        <v>0.0252135301319058</v>
       </c>
       <c r="H1510" t="n">
         <v>0</v>
@@ -45822,10 +45822,10 @@
         </is>
       </c>
       <c r="F1514" t="n">
-        <v>5406.638029697039</v>
+        <v>5442.748207435109</v>
       </c>
       <c r="G1514" t="n">
-        <v>0.01309621952374975</v>
+        <v>0.01318368733870275</v>
       </c>
       <c r="H1514" t="n">
         <v>0</v>
@@ -45853,10 +45853,10 @@
         </is>
       </c>
       <c r="F1515" t="n">
-        <v>370778.217547732</v>
+        <v>370267.178724658</v>
       </c>
       <c r="G1515" t="n">
-        <v>0.8981168898229046</v>
+        <v>0.8968790269263367</v>
       </c>
       <c r="H1515" t="n">
         <v>0</v>
@@ -46000,10 +46000,10 @@
         </is>
       </c>
       <c r="F1520" t="n">
-        <v>28535.0366620139</v>
+        <v>28797.30094936805</v>
       </c>
       <c r="G1520" t="n">
-        <v>0.06985885435546542</v>
+        <v>0.07050092406331002</v>
       </c>
       <c r="H1520" t="n">
         <v>0</v>
@@ -46031,10 +46031,10 @@
         </is>
       </c>
       <c r="F1521" t="n">
-        <v>10231.56541175767</v>
+        <v>10468.22571981615</v>
       </c>
       <c r="G1521" t="n">
-        <v>0.02504869527221948</v>
+        <v>0.02562808187642122</v>
       </c>
       <c r="H1521" t="n">
         <v>0</v>
@@ -46149,10 +46149,10 @@
         </is>
       </c>
       <c r="F1525" t="n">
-        <v>-5991.771797159213</v>
+        <v>-6032.641552730654</v>
       </c>
       <c r="G1525" t="n">
-        <v>-0.01466892502248459</v>
+        <v>-0.01476898146663171</v>
       </c>
       <c r="H1525" t="n">
         <v>0</v>
@@ -46180,10 +46180,10 @@
         </is>
       </c>
       <c r="F1526" t="n">
-        <v>375692.1697233876</v>
+        <v>375234.1148835464</v>
       </c>
       <c r="G1526" t="n">
-        <v>0.9197613753947996</v>
+        <v>0.9186399755269004</v>
       </c>
       <c r="H1526" t="n">
         <v>0</v>
@@ -46327,10 +46327,10 @@
         </is>
       </c>
       <c r="F1531" t="n">
-        <v>28584.70094148354</v>
+        <v>28844.63304721528</v>
       </c>
       <c r="G1531" t="n">
-        <v>0.06828671053246881</v>
+        <v>0.06890766887303479</v>
       </c>
       <c r="H1531" t="n">
         <v>0</v>
@@ -46358,10 +46358,10 @@
         </is>
       </c>
       <c r="F1532" t="n">
-        <v>10026.16559477976</v>
+        <v>10257.10931352744</v>
       </c>
       <c r="G1532" t="n">
-        <v>0.02395175898893942</v>
+        <v>0.0245034662432395</v>
       </c>
       <c r="H1532" t="n">
         <v>0</v>
@@ -46476,10 +46476,10 @@
         </is>
       </c>
       <c r="F1536" t="n">
-        <v>7159.5185556837</v>
+        <v>7207.394301304196</v>
       </c>
       <c r="G1536" t="n">
-        <v>0.01710355382638606</v>
+        <v>0.01721792539841704</v>
       </c>
       <c r="H1536" t="n">
         <v>0</v>
@@ -46507,10 +46507,10 @@
         </is>
       </c>
       <c r="F1537" t="n">
-        <v>372827.914908053</v>
+        <v>372289.1633379531</v>
       </c>
       <c r="G1537" t="n">
-        <v>0.8906579766522057</v>
+        <v>0.8893709394853088</v>
       </c>
       <c r="H1537" t="n">
         <v>0</v>
@@ -46654,10 +46654,10 @@
         </is>
       </c>
       <c r="F1542" t="n">
-        <v>27585.14319256977</v>
+        <v>27839.57733788005</v>
       </c>
       <c r="G1542" t="n">
-        <v>0.06910699790229914</v>
+        <v>0.06974441275360095</v>
       </c>
       <c r="H1542" t="n">
         <v>0</v>
@@ -46685,10 +46685,10 @@
         </is>
       </c>
       <c r="F1543" t="n">
-        <v>9733.44305886441</v>
+        <v>9958.922018081521</v>
       </c>
       <c r="G1543" t="n">
-        <v>0.02438446755035418</v>
+        <v>0.02494934313765316</v>
       </c>
       <c r="H1543" t="n">
         <v>0</v>
@@ -46803,10 +46803,10 @@
         </is>
       </c>
       <c r="F1547" t="n">
-        <v>-3300.379922345158</v>
+        <v>-3322.980863848918</v>
       </c>
       <c r="G1547" t="n">
-        <v>-0.008268195193988758</v>
+        <v>-0.008324815643851458</v>
       </c>
       <c r="H1547" t="n">
         <v>0</v>
@@ -46834,10 +46834,10 @@
         </is>
       </c>
       <c r="F1548" t="n">
-        <v>365147.493670911</v>
+        <v>364690.1815078874</v>
       </c>
       <c r="G1548" t="n">
-        <v>0.9147767297413355</v>
+        <v>0.9136310597525974</v>
       </c>
       <c r="H1548" t="n">
         <v>0</v>
@@ -46981,10 +46981,10 @@
         </is>
       </c>
       <c r="F1553" t="n">
-        <v>27694.48788626888</v>
+        <v>27949.59683664701</v>
       </c>
       <c r="G1553" t="n">
-        <v>0.06899279588359591</v>
+        <v>0.06962832595058238</v>
       </c>
       <c r="H1553" t="n">
         <v>0</v>
@@ -47012,10 +47012,10 @@
         </is>
       </c>
       <c r="F1554" t="n">
-        <v>9772.025434256921</v>
+        <v>9998.278779694434</v>
       </c>
       <c r="G1554" t="n">
-        <v>0.02434417126338228</v>
+        <v>0.0249078159476189</v>
       </c>
       <c r="H1554" t="n">
         <v>0</v>
@@ -47130,10 +47130,10 @@
         </is>
       </c>
       <c r="F1558" t="n">
-        <v>-2355.449760146806</v>
+        <v>-2371.544566329776</v>
       </c>
       <c r="G1558" t="n">
-        <v>-0.005867920908421875</v>
+        <v>-0.005908016456760874</v>
       </c>
       <c r="H1558" t="n">
         <v>0</v>
@@ -47161,10 +47161,10 @@
         </is>
       </c>
       <c r="F1559" t="n">
-        <v>366300.236439621</v>
+        <v>365834.9689499884</v>
       </c>
       <c r="G1559" t="n">
-        <v>0.9125309537614438</v>
+        <v>0.9113718745585596</v>
       </c>
       <c r="H1559" t="n">
         <v>0</v>
@@ -47308,10 +47308,10 @@
         </is>
       </c>
       <c r="F1564" t="n">
-        <v>31658.37108553957</v>
+        <v>31940.66366910492</v>
       </c>
       <c r="G1564" t="n">
-        <v>0.07025708867593097</v>
+        <v>0.07088355979229133</v>
       </c>
       <c r="H1564" t="n">
         <v>0</v>
@@ -47339,10 +47339,10 @@
         </is>
       </c>
       <c r="F1565" t="n">
-        <v>10541.23678491326</v>
+        <v>10782.22496683434</v>
       </c>
       <c r="G1565" t="n">
-        <v>0.0233933895572383</v>
+        <v>0.02392819686053681</v>
       </c>
       <c r="H1565" t="n">
         <v>0</v>
@@ -47457,10 +47457,10 @@
         </is>
       </c>
       <c r="F1569" t="n">
-        <v>21097.20276956597</v>
+        <v>21233.87126400513</v>
       </c>
       <c r="G1569" t="n">
-        <v>0.0468194665414268</v>
+        <v>0.047122764854125</v>
       </c>
       <c r="H1569" t="n">
         <v>0</v>
@@ -47488,10 +47488,10 @@
         </is>
       </c>
       <c r="F1570" t="n">
-        <v>387310.6893599812</v>
+        <v>386650.7401000556</v>
       </c>
       <c r="G1570" t="n">
-        <v>0.8595300552254039</v>
+        <v>0.8580654784930468</v>
       </c>
       <c r="H1570" t="n">
         <v>0</v>
@@ -47635,10 +47635,10 @@
         </is>
       </c>
       <c r="F1575" t="n">
-        <v>36709.6473892571</v>
+        <v>37037.55426053473</v>
       </c>
       <c r="G1575" t="n">
-        <v>0.06932420317806104</v>
+        <v>0.06994343774402925</v>
       </c>
       <c r="H1575" t="n">
         <v>0</v>
@@ -47666,10 +47666,10 @@
         </is>
       </c>
       <c r="F1576" t="n">
-        <v>12409.38629940175</v>
+        <v>12693.25605591775</v>
       </c>
       <c r="G1576" t="n">
-        <v>0.02343446146493163</v>
+        <v>0.02397053429799788</v>
       </c>
       <c r="H1576" t="n">
         <v>0</v>
@@ -47784,10 +47784,10 @@
         </is>
       </c>
       <c r="F1580" t="n">
-        <v>24051.35642511913</v>
+        <v>24207.53818315428</v>
       </c>
       <c r="G1580" t="n">
-        <v>0.04541969858339913</v>
+        <v>0.04571463946942639</v>
       </c>
       <c r="H1580" t="n">
         <v>0</v>
@@ -47815,10 +47815,10 @@
         </is>
       </c>
       <c r="F1581" t="n">
-        <v>456365.4098862221</v>
+        <v>455597.4515003933</v>
       </c>
       <c r="G1581" t="n">
-        <v>0.8618216367736082</v>
+        <v>0.8603713884885464</v>
       </c>
       <c r="H1581" t="n">
         <v>0</v>
@@ -47962,10 +47962,10 @@
         </is>
       </c>
       <c r="F1586" t="n">
-        <v>29405.76324039493</v>
+        <v>29686.53659931071</v>
       </c>
       <c r="G1586" t="n">
-        <v>0.07503200544307904</v>
+        <v>0.07574842922783905</v>
       </c>
       <c r="H1586" t="n">
         <v>0</v>
@@ -47993,10 +47993,10 @@
         </is>
       </c>
       <c r="F1587" t="n">
-        <v>9155.722552013456</v>
+        <v>9370.976662387464</v>
       </c>
       <c r="G1587" t="n">
-        <v>0.0233618226040226</v>
+        <v>0.02391106689498666</v>
       </c>
       <c r="H1587" t="n">
         <v>0</v>
@@ -48111,10 +48111,10 @@
         </is>
       </c>
       <c r="F1591" t="n">
-        <v>-1203.837043979411</v>
+        <v>-1212.482010816455</v>
       </c>
       <c r="G1591" t="n">
-        <v>-0.003071721243826154</v>
+        <v>-0.003093779817632575</v>
       </c>
       <c r="H1591" t="n">
         <v>0</v>
@@ -48142,10 +48142,10 @@
         </is>
       </c>
       <c r="F1592" t="n">
-        <v>354551.951251571</v>
+        <v>354064.5687491182</v>
       </c>
       <c r="G1592" t="n">
-        <v>0.9046778931967245</v>
+        <v>0.9034342836948068</v>
       </c>
       <c r="H1592" t="n">
         <v>0</v>
@@ -48289,10 +48289,10 @@
         </is>
       </c>
       <c r="F1597" t="n">
-        <v>31694.24146460838</v>
+        <v>31997.50426897208</v>
       </c>
       <c r="G1597" t="n">
-        <v>0.07576715383504856</v>
+        <v>0.07649212337174911</v>
       </c>
       <c r="H1597" t="n">
         <v>0</v>
@@ -48320,10 +48320,10 @@
         </is>
       </c>
       <c r="F1598" t="n">
-        <v>9799.637514882934</v>
+        <v>10030.23967254316</v>
       </c>
       <c r="G1598" t="n">
-        <v>0.02342667338945329</v>
+        <v>0.02397794290551495</v>
       </c>
       <c r="H1598" t="n">
         <v>0</v>
@@ -48440,10 +48440,10 @@
         </is>
       </c>
       <c r="F1602" t="n">
-        <v>-3208.566694889548</v>
+        <v>-3231.69438416808</v>
       </c>
       <c r="G1602" t="n">
-        <v>-0.007670288201507319</v>
+        <v>-0.007725576452951118</v>
       </c>
       <c r="H1602" t="n">
         <v>0</v>
@@ -48471,10 +48471,10 @@
         </is>
       </c>
       <c r="F1603" t="n">
-        <v>380025.7877153982</v>
+        <v>379515.0504426528</v>
       </c>
       <c r="G1603" t="n">
-        <v>0.9084764609770055</v>
+        <v>0.9072555101756871</v>
       </c>
       <c r="H1603" t="n">
         <v>0</v>
@@ -48618,10 +48618,10 @@
         </is>
       </c>
       <c r="F1608" t="n">
-        <v>35887.85223620116</v>
+        <v>36225.55552672605</v>
       </c>
       <c r="G1608" t="n">
-        <v>0.07423841542737461</v>
+        <v>0.07493699602250672</v>
       </c>
       <c r="H1608" t="n">
         <v>0</v>
@@ -48649,10 +48649,10 @@
         </is>
       </c>
       <c r="F1609" t="n">
-        <v>11096.27259876756</v>
+        <v>11355.60452308236</v>
       </c>
       <c r="G1609" t="n">
-        <v>0.02295399817913144</v>
+        <v>0.0234904580097212</v>
       </c>
       <c r="H1609" t="n">
         <v>0</v>
@@ -48767,10 +48767,10 @@
         </is>
       </c>
       <c r="F1613" t="n">
-        <v>10668.13545109329</v>
+        <v>10742.93092804708</v>
       </c>
       <c r="G1613" t="n">
-        <v>0.02206834408036451</v>
+        <v>0.02222306768025112</v>
       </c>
       <c r="H1613" t="n">
         <v>0</v>
@@ -48798,10 +48798,10 @@
         </is>
       </c>
       <c r="F1614" t="n">
-        <v>425761.239713938</v>
+        <v>425089.4090221444</v>
       </c>
       <c r="G1614" t="n">
-        <v>0.8807392423131294</v>
+        <v>0.879349478287521</v>
       </c>
       <c r="H1614" t="n">
         <v>0</v>
@@ -48947,10 +48947,10 @@
         </is>
       </c>
       <c r="F1619" t="n">
-        <v>31678.03278278496</v>
+        <v>31975.0961011877</v>
       </c>
       <c r="G1619" t="n">
-        <v>0.07392395297132995</v>
+        <v>0.07461718082830235</v>
       </c>
       <c r="H1619" t="n">
         <v>0</v>
@@ -48978,10 +48978,10 @@
         </is>
       </c>
       <c r="F1620" t="n">
-        <v>9794.625903967959</v>
+        <v>10023.21539678683</v>
       </c>
       <c r="G1620" t="n">
-        <v>0.02285676858981526</v>
+        <v>0.02339020572061039</v>
       </c>
       <c r="H1620" t="n">
         <v>0</v>
@@ -49096,10 +49096,10 @@
         </is>
       </c>
       <c r="F1624" t="n">
-        <v>12078.14666080827</v>
+        <v>12162.33814573032</v>
       </c>
       <c r="G1624" t="n">
-        <v>0.02818559952433765</v>
+        <v>0.02838206902781473</v>
       </c>
       <c r="H1624" t="n">
         <v>0</v>
@@ -49127,10 +49127,10 @@
         </is>
       </c>
       <c r="F1625" t="n">
-        <v>374971.0946524389</v>
+        <v>374361.2503562951</v>
       </c>
       <c r="G1625" t="n">
-        <v>0.8750336789145171</v>
+        <v>0.8736105444232725</v>
       </c>
       <c r="H1625" t="n">
         <v>0</v>
@@ -49276,10 +49276,10 @@
         </is>
       </c>
       <c r="F1630" t="n">
-        <v>29148.55453627399</v>
+        <v>29429.19695565556</v>
       </c>
       <c r="G1630" t="n">
-        <v>0.05657111309771411</v>
+        <v>0.05711578003916033</v>
       </c>
       <c r="H1630" t="n">
         <v>0</v>
@@ -49307,10 +49307,10 @@
         </is>
       </c>
       <c r="F1631" t="n">
-        <v>10558.73110422653</v>
+        <v>10807.62479915164</v>
       </c>
       <c r="G1631" t="n">
-        <v>0.02049223987152487</v>
+        <v>0.02097528932591185</v>
       </c>
       <c r="H1631" t="n">
         <v>0</v>
@@ -49425,10 +49425,10 @@
         </is>
       </c>
       <c r="F1635" t="n">
-        <v>20659.09520809279</v>
+        <v>20807.40394449356</v>
       </c>
       <c r="G1635" t="n">
-        <v>0.04009488738314825</v>
+        <v>0.04038272293567507</v>
       </c>
       <c r="H1635" t="n">
         <v>0</v>
@@ -49456,10 +49456,10 @@
         </is>
       </c>
       <c r="F1636" t="n">
-        <v>454888.7191514067</v>
+        <v>454210.8743006992</v>
       </c>
       <c r="G1636" t="n">
-        <v>0.8828417596476128</v>
+        <v>0.8815262076992527</v>
       </c>
       <c r="H1636" t="n">
         <v>0</v>
@@ -49605,10 +49605,10 @@
         </is>
       </c>
       <c r="F1641" t="n">
-        <v>29768.40915512841</v>
+        <v>30056.22545655382</v>
       </c>
       <c r="G1641" t="n">
-        <v>0.05685908518092911</v>
+        <v>0.05740882808166414</v>
       </c>
       <c r="H1641" t="n">
         <v>0</v>
@@ -49636,10 +49636,10 @@
         </is>
       </c>
       <c r="F1642" t="n">
-        <v>10783.26636329251</v>
+        <v>11037.89573676148</v>
       </c>
       <c r="G1642" t="n">
-        <v>0.02059655447101609</v>
+        <v>0.02108290875216667</v>
       </c>
       <c r="H1642" t="n">
         <v>0</v>
@@ -49754,10 +49754,10 @@
         </is>
       </c>
       <c r="F1646" t="n">
-        <v>16934.22986372057</v>
+        <v>17056.68185180647</v>
       </c>
       <c r="G1646" t="n">
-        <v>0.03234518893089194</v>
+        <v>0.03257907808448651</v>
       </c>
       <c r="H1646" t="n">
         <v>0</v>
@@ -49785,10 +49785,10 @@
         </is>
       </c>
       <c r="F1647" t="n">
-        <v>466061.1946178584</v>
+        <v>465396.2969548782</v>
       </c>
       <c r="G1647" t="n">
-        <v>0.8901991714171629</v>
+        <v>0.8889291850816826</v>
       </c>
       <c r="H1647" t="n">
         <v>0</v>
@@ -49934,10 +49934,10 @@
         </is>
       </c>
       <c r="F1652" t="n">
-        <v>25436.70604001508</v>
+        <v>25683.62132130551</v>
       </c>
       <c r="G1652" t="n">
-        <v>0.0511486326425532</v>
+        <v>0.05164513478385599</v>
       </c>
       <c r="H1652" t="n">
         <v>0</v>
@@ -49965,10 +49965,10 @@
         </is>
       </c>
       <c r="F1653" t="n">
-        <v>10266.05782159546</v>
+        <v>10508.75383030776</v>
       </c>
       <c r="G1653" t="n">
-        <v>0.02064319253357559</v>
+        <v>0.0211312104779553</v>
       </c>
       <c r="H1653" t="n">
         <v>0</v>
@@ -50083,10 +50083,10 @@
         </is>
       </c>
       <c r="F1657" t="n">
-        <v>17251.53469936049</v>
+        <v>17376.68581533105</v>
       </c>
       <c r="G1657" t="n">
-        <v>0.03468972788653284</v>
+        <v>0.0349413842309319</v>
       </c>
       <c r="H1657" t="n">
         <v>0</v>
@@ -50114,10 +50114,10 @@
         </is>
       </c>
       <c r="F1658" t="n">
-        <v>444355.301439029</v>
+        <v>443740.5390330557</v>
       </c>
       <c r="G1658" t="n">
-        <v>0.8935184469373384</v>
+        <v>0.8922822705072568</v>
       </c>
       <c r="H1658" t="n">
         <v>0</v>
@@ -50263,10 +50263,10 @@
         </is>
       </c>
       <c r="F1663" t="n">
-        <v>35554.10756503528</v>
+        <v>35887.4917792589</v>
       </c>
       <c r="G1663" t="n">
-        <v>0.04671919667118556</v>
+        <v>0.04715727383689394</v>
       </c>
       <c r="H1663" t="n">
         <v>0</v>
@@ -50294,10 +50294,10 @@
         </is>
       </c>
       <c r="F1664" t="n">
-        <v>15037.17225571654</v>
+        <v>15387.55496709209</v>
       </c>
       <c r="G1664" t="n">
-        <v>0.01975930929241478</v>
+        <v>0.02021972300897324</v>
       </c>
       <c r="H1664" t="n">
         <v>0</v>
@@ -50412,10 +50412,10 @@
         </is>
       </c>
       <c r="F1668" t="n">
-        <v>77976.77062498176</v>
+        <v>78508.00115151264</v>
       </c>
       <c r="G1668" t="n">
-        <v>0.1024638876379805</v>
+        <v>0.1031619409754559</v>
       </c>
       <c r="H1668" t="n">
         <v>0</v>
@@ -50443,10 +50443,10 @@
         </is>
       </c>
       <c r="F1669" t="n">
-        <v>632449.0495542663</v>
+        <v>631234.0521021364</v>
       </c>
       <c r="G1669" t="n">
-        <v>0.8310576063984192</v>
+        <v>0.8294610621786769</v>
       </c>
       <c r="H1669" t="n">
         <v>0</v>
@@ -50592,10 +50592,10 @@
         </is>
       </c>
       <c r="F1674" t="n">
-        <v>29528.91701578728</v>
+        <v>29782.18597521233</v>
       </c>
       <c r="G1674" t="n">
-        <v>0.04772753642980616</v>
+        <v>0.04813689460169697</v>
       </c>
       <c r="H1674" t="n">
         <v>0</v>
@@ -50623,10 +50623,10 @@
         </is>
       </c>
       <c r="F1675" t="n">
-        <v>12488.89206061335</v>
+        <v>12769.77021834131</v>
       </c>
       <c r="G1675" t="n">
-        <v>0.0201857741844092</v>
+        <v>0.02063975705476408</v>
       </c>
       <c r="H1675" t="n">
         <v>0</v>
@@ -50712,13 +50712,13 @@
         </is>
       </c>
       <c r="F1678" t="n">
-        <v>7549.530311584367</v>
+        <v>8873.626359115011</v>
       </c>
       <c r="G1678" t="n">
-        <v>0.01220229251148722</v>
+        <v>0.01434242661499309</v>
       </c>
       <c r="H1678" t="n">
-        <v>3.91124914655683</v>
+        <v>4.597234806872254</v>
       </c>
       <c r="I1678" t="n">
         <v>20.82675467244893</v>
@@ -50743,10 +50743,10 @@
         </is>
       </c>
       <c r="F1679" t="n">
-        <v>32761.53327496713</v>
+        <v>32961.17463302881</v>
       </c>
       <c r="G1679" t="n">
-        <v>0.0529524083812937</v>
+        <v>0.05327508835579769</v>
       </c>
       <c r="H1679" t="n">
         <v>0</v>
@@ -50774,10 +50774,10 @@
         </is>
       </c>
       <c r="F1680" t="n">
-        <v>519826.0793513061</v>
+        <v>517973.7750323635</v>
       </c>
       <c r="G1680" t="n">
-        <v>0.8401939741351974</v>
+        <v>0.8372000979353301</v>
       </c>
       <c r="H1680" t="n">
         <v>0</v>
@@ -50805,13 +50805,13 @@
         </is>
       </c>
       <c r="F1681" t="n">
-        <v>9676.597162788035</v>
+        <v>9698.696972790738</v>
       </c>
       <c r="G1681" t="n">
-        <v>0.0156402669070663</v>
+        <v>0.01567598679094934</v>
       </c>
       <c r="H1681" t="n">
-        <v>14.74415576655852</v>
+        <v>14.77782907501702</v>
       </c>
       <c r="I1681" t="n">
         <v>20.82675467244893</v>
@@ -50836,13 +50836,13 @@
         </is>
       </c>
       <c r="F1682" t="n">
-        <v>6866.150822953685</v>
+        <v>6638.470809148334</v>
       </c>
       <c r="G1682" t="n">
-        <v>0.01109774745073997</v>
+        <v>0.01072974864646876</v>
       </c>
       <c r="H1682" t="n">
-        <v>7.542095480727511</v>
+        <v>7.292001294413873</v>
       </c>
       <c r="I1682" t="n">
         <v>20.82675467244893</v>
@@ -50927,10 +50927,10 @@
         </is>
       </c>
       <c r="F1685" t="n">
-        <v>23525.81929975849</v>
+        <v>23767.92329115505</v>
       </c>
       <c r="G1685" t="n">
-        <v>0.04655830678086692</v>
+        <v>0.04703743789042319</v>
       </c>
       <c r="H1685" t="n">
         <v>0</v>
@@ -50958,10 +50958,10 @@
         </is>
       </c>
       <c r="F1686" t="n">
-        <v>9949.955757439</v>
+        <v>10191.02221871205</v>
       </c>
       <c r="G1686" t="n">
-        <v>0.01969126289326101</v>
+        <v>0.02016834069937354</v>
       </c>
       <c r="H1686" t="n">
         <v>0</v>
@@ -51018,13 +51018,13 @@
         </is>
       </c>
       <c r="F1688" t="n">
-        <v>384.5335592074956</v>
+        <v>371.5547718989304</v>
       </c>
       <c r="G1688" t="n">
-        <v>0.0007610035250634192</v>
+        <v>0.0007353181130717526</v>
       </c>
       <c r="H1688" t="n">
-        <v>0.1408970109243161</v>
+        <v>0.1361414511209843</v>
       </c>
       <c r="I1688" t="n">
         <v>20.82675467244893</v>
@@ -51049,13 +51049,13 @@
         </is>
       </c>
       <c r="F1689" t="n">
-        <v>4856.159327943464</v>
+        <v>4590.608364970424</v>
       </c>
       <c r="G1689" t="n">
-        <v>0.009610485946794691</v>
+        <v>0.009084952572482822</v>
       </c>
       <c r="H1689" t="n">
-        <v>10.1138038973403</v>
+        <v>9.560747421453094</v>
       </c>
       <c r="I1689" t="n">
         <v>20.82675467244893</v>
@@ -51080,10 +51080,10 @@
         </is>
       </c>
       <c r="F1690" t="n">
-        <v>15463.35415669109</v>
+        <v>15584.52820635458</v>
       </c>
       <c r="G1690" t="n">
-        <v>0.03060244480819455</v>
+        <v>0.03084225191145538</v>
       </c>
       <c r="H1690" t="n">
         <v>0</v>
@@ -51111,10 +51111,10 @@
         </is>
       </c>
       <c r="F1691" t="n">
-        <v>407781.5075667292</v>
+        <v>407459.0301031517</v>
       </c>
       <c r="G1691" t="n">
-        <v>0.8070119168623846</v>
+        <v>0.8063737242244217</v>
       </c>
       <c r="H1691" t="n">
         <v>0</v>
@@ -51142,13 +51142,13 @@
         </is>
       </c>
       <c r="F1692" t="n">
-        <v>18104.63213073488</v>
+        <v>18268.11676642689</v>
       </c>
       <c r="G1692" t="n">
-        <v>0.03582961367496978</v>
+        <v>0.03615315470559331</v>
       </c>
       <c r="H1692" t="n">
-        <v>11.48343033551954</v>
+        <v>11.58712558938277</v>
       </c>
       <c r="I1692" t="n">
         <v>20.82675467244893</v>
@@ -51173,13 +51173,13 @@
         </is>
       </c>
       <c r="F1693" t="n">
-        <v>9137.294158581444</v>
+        <v>8836.092165696109</v>
       </c>
       <c r="G1693" t="n">
-        <v>0.01808298104995754</v>
+        <v>0.01748689321092921</v>
       </c>
       <c r="H1693" t="n">
-        <v>8.602991701900944</v>
+        <v>8.319402468544046</v>
       </c>
       <c r="I1693" t="n">
         <v>20.82675467244893</v>
@@ -51204,13 +51204,13 @@
         </is>
       </c>
       <c r="F1694" t="n">
-        <v>10602.44282961498</v>
+        <v>10749.83684299717</v>
       </c>
       <c r="G1694" t="n">
-        <v>0.02098255451162479</v>
+        <v>0.02127425171482407</v>
       </c>
       <c r="H1694" t="n">
-        <v>4.535668304598155</v>
+        <v>4.598722674758751</v>
       </c>
       <c r="I1694" t="n">
         <v>20.82675467244893</v>
@@ -51235,13 +51235,13 @@
         </is>
       </c>
       <c r="F1695" t="n">
-        <v>5492.301213299961</v>
+        <v>5479.287268636961</v>
       </c>
       <c r="G1695" t="n">
-        <v>0.01086942994688275</v>
+        <v>0.01084367495742505</v>
       </c>
       <c r="H1695" t="n">
-        <v>9.032396682692676</v>
+        <v>9.010994522461882</v>
       </c>
       <c r="I1695" t="n">
         <v>20.82675467244893</v>
@@ -51266,10 +51266,10 @@
         </is>
       </c>
       <c r="F1696" t="n">
-        <v>24418.73510715628</v>
+        <v>24652.05270572785</v>
       </c>
       <c r="G1696" t="n">
-        <v>0.04455163825544897</v>
+        <v>0.04497732292767199</v>
       </c>
       <c r="H1696" t="n">
         <v>0</v>
@@ -51297,10 +51297,10 @@
         </is>
       </c>
       <c r="F1697" t="n">
-        <v>10529.68054668469</v>
+        <v>10776.91443613377</v>
       </c>
       <c r="G1697" t="n">
-        <v>0.0192112538427043</v>
+        <v>0.01966232859161686</v>
       </c>
       <c r="H1697" t="n">
         <v>0</v>
@@ -51328,13 +51328,13 @@
         </is>
       </c>
       <c r="F1698" t="n">
-        <v>7431.671382646641</v>
+        <v>5185.439594851074</v>
       </c>
       <c r="G1698" t="n">
-        <v>0.01355897975960326</v>
+        <v>0.009460761501834837</v>
       </c>
       <c r="H1698" t="n">
-        <v>3.364730362883499</v>
+        <v>2.347736485016659</v>
       </c>
       <c r="I1698" t="n">
         <v>20.82675467244893</v>
@@ -51388,13 +51388,13 @@
         </is>
       </c>
       <c r="F1700" t="n">
-        <v>7199.178146625375</v>
+        <v>9618.411166788419</v>
       </c>
       <c r="G1700" t="n">
-        <v>0.01313479912524179</v>
+        <v>0.01754865569467378</v>
       </c>
       <c r="H1700" t="n">
-        <v>3.569893264357674</v>
+        <v>4.769530707367755</v>
       </c>
       <c r="I1700" t="n">
         <v>20.82675467244893</v>
@@ -51419,10 +51419,10 @@
         </is>
       </c>
       <c r="F1701" t="n">
-        <v>22212.09277223387</v>
+        <v>22369.42284799075</v>
       </c>
       <c r="G1701" t="n">
-        <v>0.04052565039681451</v>
+        <v>0.04081269690397649</v>
       </c>
       <c r="H1701" t="n">
         <v>0</v>
@@ -51450,10 +51450,10 @@
         </is>
       </c>
       <c r="F1702" t="n">
-        <v>424730.962029699</v>
+        <v>423891.1022000512</v>
       </c>
       <c r="G1702" t="n">
-        <v>0.7749156577193251</v>
+        <v>0.7733833452898913</v>
       </c>
       <c r="H1702" t="n">
         <v>0</v>
@@ -51481,13 +51481,13 @@
         </is>
       </c>
       <c r="F1703" t="n">
-        <v>22235.55550520005</v>
+        <v>22440.34631891204</v>
       </c>
       <c r="G1703" t="n">
-        <v>0.04056845782262941</v>
+        <v>0.0409420957776872</v>
       </c>
       <c r="H1703" t="n">
-        <v>14.02333635540906</v>
+        <v>14.15249213307828</v>
       </c>
       <c r="I1703" t="n">
         <v>20.82675467244893</v>
@@ -51512,13 +51512,13 @@
         </is>
       </c>
       <c r="F1704" t="n">
-        <v>11070.03590320865</v>
+        <v>10688.07435577863</v>
       </c>
       <c r="G1704" t="n">
-        <v>0.02019712457956301</v>
+        <v>0.01950024111635664</v>
       </c>
       <c r="H1704" t="n">
-        <v>10.42271654629917</v>
+        <v>10.06309016610874</v>
       </c>
       <c r="I1704" t="n">
         <v>20.82675467244893</v>
@@ -51543,13 +51543,13 @@
         </is>
       </c>
       <c r="F1705" t="n">
-        <v>14579.96712730654</v>
+        <v>14802.81785328147</v>
       </c>
       <c r="G1705" t="n">
-        <v>0.02660094465915783</v>
+        <v>0.02700753266975833</v>
       </c>
       <c r="H1705" t="n">
-        <v>5.396939401620635</v>
+        <v>5.479430113238311</v>
       </c>
       <c r="I1705" t="n">
         <v>20.82675467244893</v>
@@ -51574,13 +51574,13 @@
         </is>
       </c>
       <c r="F1706" t="n">
-        <v>3691.721479238838</v>
+        <v>3675.018520484676</v>
       </c>
       <c r="G1706" t="n">
-        <v>0.006735493839511721</v>
+        <v>0.006705019526532543</v>
       </c>
       <c r="H1706" t="n">
-        <v>20.79846836364608</v>
+        <v>20.70436701792394</v>
       </c>
       <c r="I1706" t="n">
         <v>20.82675467244893</v>
@@ -51605,10 +51605,10 @@
         </is>
       </c>
       <c r="F1707" t="n">
-        <v>18546.45794806237</v>
+        <v>18669.6968388078</v>
       </c>
       <c r="G1707" t="n">
-        <v>0.03859659283714865</v>
+        <v>0.0388530623636277</v>
       </c>
       <c r="H1707" t="n">
         <v>0</v>
@@ -51636,10 +51636,10 @@
         </is>
       </c>
       <c r="F1708" t="n">
-        <v>9062.878217099631</v>
+        <v>9248.832716332603</v>
       </c>
       <c r="G1708" t="n">
-        <v>0.01886054045778606</v>
+        <v>0.0192475259465101</v>
       </c>
       <c r="H1708" t="n">
         <v>0</v>
@@ -51667,13 +51667,13 @@
         </is>
       </c>
       <c r="F1709" t="n">
-        <v>11009.29867975415</v>
+        <v>11855.56350474535</v>
       </c>
       <c r="G1709" t="n">
-        <v>0.02291118982152721</v>
+        <v>0.02467233143541681</v>
       </c>
       <c r="H1709" t="n">
-        <v>2.681824657227219</v>
+        <v>2.887971655344283</v>
       </c>
       <c r="I1709" t="n">
         <v>20.82675467244893</v>
@@ -51698,13 +51698,13 @@
         </is>
       </c>
       <c r="F1710" t="n">
-        <v>13961.97909701884</v>
+        <v>14135.73717443552</v>
       </c>
       <c r="G1710" t="n">
-        <v>0.02905594286076152</v>
+        <v>0.02941754666591925</v>
       </c>
       <c r="H1710" t="n">
-        <v>0.5500695447950671</v>
+        <v>0.5569152094307822</v>
       </c>
       <c r="I1710" t="n">
         <v>20.82675467244893</v>
@@ -51729,13 +51729,13 @@
         </is>
       </c>
       <c r="F1711" t="n">
-        <v>5773.091118694499</v>
+        <v>6881.508571905497</v>
       </c>
       <c r="G1711" t="n">
-        <v>0.0120142427165339</v>
+        <v>0.01432094393436098</v>
       </c>
       <c r="H1711" t="n">
-        <v>5.725464401464005</v>
+        <v>6.8247376573062</v>
       </c>
       <c r="I1711" t="n">
         <v>20.82675467244893</v>
@@ -51760,10 +51760,10 @@
         </is>
       </c>
       <c r="F1712" t="n">
-        <v>11145.81212725091</v>
+        <v>11192.5774115544</v>
       </c>
       <c r="G1712" t="n">
-        <v>0.02319528471256156</v>
+        <v>0.0232926068342427</v>
       </c>
       <c r="H1712" t="n">
         <v>0</v>
@@ -51791,10 +51791,10 @@
         </is>
       </c>
       <c r="F1713" t="n">
-        <v>361226.5886660047</v>
+        <v>358790.7525538534</v>
       </c>
       <c r="G1713" t="n">
-        <v>0.7517400683050939</v>
+        <v>0.746670907665256</v>
       </c>
       <c r="H1713" t="n">
         <v>0</v>
@@ -51822,13 +51822,13 @@
         </is>
       </c>
       <c r="F1714" t="n">
-        <v>22167.1894968166</v>
+        <v>22331.2418151835</v>
       </c>
       <c r="G1714" t="n">
-        <v>0.04613161120837817</v>
+        <v>0.04647301658905675</v>
       </c>
       <c r="H1714" t="n">
-        <v>8.385432164563191</v>
+        <v>8.447490080714562</v>
       </c>
       <c r="I1714" t="n">
         <v>20.82675467244893</v>
@@ -51853,13 +51853,13 @@
         </is>
       </c>
       <c r="F1715" t="n">
-        <v>10036.18708516856</v>
+        <v>9656.833514144118</v>
       </c>
       <c r="G1715" t="n">
-        <v>0.0208860704102354</v>
+        <v>0.02009660670977294</v>
       </c>
       <c r="H1715" t="n">
-        <v>9.449321945199904</v>
+        <v>9.092151040228577</v>
       </c>
       <c r="I1715" t="n">
         <v>20.82675467244893</v>
@@ -51884,13 +51884,13 @@
         </is>
       </c>
       <c r="F1716" t="n">
-        <v>14114.45107435789</v>
+        <v>14306.00020267717</v>
       </c>
       <c r="G1716" t="n">
-        <v>0.02937324866896006</v>
+        <v>0.0297718770073066</v>
       </c>
       <c r="H1716" t="n">
-        <v>4.139848322868661</v>
+        <v>4.196030765490194</v>
       </c>
       <c r="I1716" t="n">
         <v>20.82675467244893</v>
@@ -51915,13 +51915,13 @@
         </is>
       </c>
       <c r="F1717" t="n">
-        <v>3476.666489771909</v>
+        <v>3451.855696360644</v>
       </c>
       <c r="G1717" t="n">
-        <v>0.007235208001013711</v>
+        <v>0.007183574848530208</v>
       </c>
       <c r="H1717" t="n">
-        <v>11.81157021423241</v>
+        <v>11.72727842803143</v>
       </c>
       <c r="I1717" t="n">
         <v>20.82675467244893</v>
@@ -51946,10 +51946,10 @@
         </is>
       </c>
       <c r="F1718" t="n">
-        <v>18368.31763493851</v>
+        <v>18334.63181231084</v>
       </c>
       <c r="G1718" t="n">
-        <v>0.03856284027147726</v>
+        <v>0.0384921195324732</v>
       </c>
       <c r="H1718" t="n">
         <v>0</v>
@@ -51977,10 +51977,10 @@
         </is>
       </c>
       <c r="F1719" t="n">
-        <v>9166.978649765848</v>
+        <v>9276.256983920648</v>
       </c>
       <c r="G1719" t="n">
-        <v>0.01924535172293399</v>
+        <v>0.01947477300303691</v>
       </c>
       <c r="H1719" t="n">
         <v>0</v>
@@ -52008,13 +52008,13 @@
         </is>
       </c>
       <c r="F1720" t="n">
-        <v>12573.98783048015</v>
+        <v>16758.45473698976</v>
       </c>
       <c r="G1720" t="n">
-        <v>0.02639809991961347</v>
+        <v>0.03518305955195775</v>
       </c>
       <c r="H1720" t="n">
-        <v>2.270405311113536</v>
+        <v>3.025967986757977</v>
       </c>
       <c r="I1720" t="n">
         <v>20.82675467244893</v>
@@ -52039,10 +52039,10 @@
         </is>
       </c>
       <c r="F1721" t="n">
-        <v>8322.667922407552</v>
+        <v>8342.145312921213</v>
       </c>
       <c r="G1721" t="n">
-        <v>0.01747278766096013</v>
+        <v>0.01751367891263659</v>
       </c>
       <c r="H1721" t="n">
         <v>0</v>
@@ -52070,13 +52070,13 @@
         </is>
       </c>
       <c r="F1722" t="n">
-        <v>6832.525847729999</v>
+        <v>10538.91852337733</v>
       </c>
       <c r="G1722" t="n">
-        <v>0.01434435140731568</v>
+        <v>0.02212563173875413</v>
       </c>
       <c r="H1722" t="n">
-        <v>2.507852975755644</v>
+        <v>3.86827050041517</v>
       </c>
       <c r="I1722" t="n">
         <v>20.82675467244893</v>
@@ -52101,10 +52101,10 @@
         </is>
       </c>
       <c r="F1723" t="n">
-        <v>4808.26643028425</v>
+        <v>4787.865065309724</v>
       </c>
       <c r="G1723" t="n">
-        <v>0.01009457774080889</v>
+        <v>0.01005174667731855</v>
       </c>
       <c r="H1723" t="n">
         <v>0</v>
@@ -52132,10 +52132,10 @@
         </is>
       </c>
       <c r="F1724" t="n">
-        <v>370228.5271948652</v>
+        <v>362629.4863706726</v>
       </c>
       <c r="G1724" t="n">
-        <v>0.7772657159958599</v>
+        <v>0.7613121265956864</v>
       </c>
       <c r="H1724" t="n">
         <v>0</v>
@@ -52163,13 +52163,13 @@
         </is>
       </c>
       <c r="F1725" t="n">
-        <v>21775.16862669041</v>
+        <v>21744.09210738019</v>
       </c>
       <c r="G1725" t="n">
-        <v>0.04571525636285394</v>
+        <v>0.04565001365123653</v>
       </c>
       <c r="H1725" t="n">
-        <v>14.97888434374209</v>
+        <v>14.95750716882629</v>
       </c>
       <c r="I1725" t="n">
         <v>20.82675467244893</v>
@@ -52194,13 +52194,13 @@
         </is>
       </c>
       <c r="F1726" t="n">
-        <v>7527.622508318599</v>
+        <v>7166.968233225614</v>
       </c>
       <c r="G1726" t="n">
-        <v>0.01580365225501714</v>
+        <v>0.01504648692937066</v>
       </c>
       <c r="H1726" t="n">
-        <v>16.5373727331522</v>
+        <v>15.74505428620211</v>
       </c>
       <c r="I1726" t="n">
         <v>20.82675467244893</v>
@@ -52225,13 +52225,13 @@
         </is>
       </c>
       <c r="F1727" t="n">
-        <v>13099.79022959248</v>
+        <v>13180.80463910687</v>
       </c>
       <c r="G1727" t="n">
-        <v>0.0275019807613058</v>
+        <v>0.02767206415140621</v>
       </c>
       <c r="H1727" t="n">
-        <v>8.00146984697381</v>
+        <v>8.050954177908777</v>
       </c>
       <c r="I1727" t="n">
         <v>20.82675467244893</v>
@@ -52256,13 +52256,13 @@
         </is>
       </c>
       <c r="F1728" t="n">
-        <v>3617.847124927059</v>
+        <v>3562.076214785285</v>
       </c>
       <c r="G1728" t="n">
-        <v>0.007595385901853849</v>
+        <v>0.007478299256123087</v>
       </c>
       <c r="H1728" t="n">
-        <v>12.18717136559375</v>
+        <v>11.9993000665469</v>
       </c>
       <c r="I1728" t="n">
         <v>20.82675467244893</v>
